--- a/database/industries/kashi/kehafez/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kehafez/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD51606-DC55-464D-BF52-D459EF7B9796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8ED609-3E3E-4620-904B-1FEB30B59988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1552,38 +1552,38 @@
       <c r="AM11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO11" s="11">
+      <c r="AN11" s="11">
         <v>8548</v>
       </c>
+      <c r="AO11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP11" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
       </c>
       <c r="AV11" s="11">
         <v>0</v>
       </c>
-      <c r="AW11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>58</v>
+      <c r="AW11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>0</v>
       </c>
       <c r="AY11" s="11">
         <v>0</v>
@@ -1669,77 +1669,77 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>180311</v>
       </c>
       <c r="AA12" s="13">
-        <v>180311</v>
+        <v>163756</v>
       </c>
       <c r="AB12" s="13">
-        <v>163756</v>
+        <v>140756</v>
       </c>
       <c r="AC12" s="13">
-        <v>140756</v>
+        <v>114154</v>
       </c>
       <c r="AD12" s="13">
-        <v>114154</v>
+        <v>115458</v>
       </c>
       <c r="AE12" s="13">
-        <v>115458</v>
+        <v>129004</v>
       </c>
       <c r="AF12" s="13">
-        <v>129004</v>
+        <v>112421</v>
       </c>
       <c r="AG12" s="13">
-        <v>112421</v>
+        <v>105827</v>
       </c>
       <c r="AH12" s="13">
-        <v>105827</v>
+        <v>109669</v>
       </c>
       <c r="AI12" s="13">
-        <v>109669</v>
+        <v>144720</v>
       </c>
       <c r="AJ12" s="13">
-        <v>144720</v>
+        <v>170723</v>
       </c>
       <c r="AK12" s="13">
-        <v>170723</v>
+        <v>156453</v>
       </c>
       <c r="AL12" s="13">
-        <v>156453</v>
+        <v>164970</v>
       </c>
       <c r="AM12" s="13">
-        <v>164970</v>
+        <v>146620</v>
       </c>
       <c r="AN12" s="13">
-        <v>146620</v>
+        <v>99498</v>
       </c>
       <c r="AO12" s="13">
-        <v>99498</v>
+        <v>83400</v>
       </c>
       <c r="AP12" s="13">
-        <v>83400</v>
+        <v>64878</v>
       </c>
       <c r="AQ12" s="13">
-        <v>64878</v>
+        <v>79326</v>
       </c>
       <c r="AR12" s="13">
-        <v>79326</v>
-      </c>
-      <c r="AS12" s="13">
         <v>76512</v>
       </c>
-      <c r="AT12" s="13">
-        <v>148777</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>122694</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>56821</v>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>17991</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX12" s="13" t="s">
         <v>58</v>
@@ -1828,92 +1828,92 @@
       <c r="Y13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Z13" s="11">
+        <v>149915</v>
       </c>
       <c r="AA13" s="11">
-        <v>149915</v>
+        <v>140115</v>
       </c>
       <c r="AB13" s="11">
-        <v>140115</v>
+        <v>125268</v>
       </c>
       <c r="AC13" s="11">
-        <v>125268</v>
+        <v>123117</v>
       </c>
       <c r="AD13" s="11">
-        <v>123117</v>
+        <v>125608</v>
       </c>
       <c r="AE13" s="11">
-        <v>125608</v>
+        <v>128398</v>
       </c>
       <c r="AF13" s="11">
-        <v>128398</v>
+        <v>133925</v>
       </c>
       <c r="AG13" s="11">
-        <v>133925</v>
+        <v>134039</v>
       </c>
       <c r="AH13" s="11">
-        <v>134039</v>
+        <v>109353</v>
       </c>
       <c r="AI13" s="11">
-        <v>109353</v>
+        <v>70283</v>
       </c>
       <c r="AJ13" s="11">
-        <v>70283</v>
+        <v>134856</v>
       </c>
       <c r="AK13" s="11">
-        <v>134856</v>
+        <v>94567</v>
       </c>
       <c r="AL13" s="11">
-        <v>94567</v>
+        <v>88076</v>
       </c>
       <c r="AM13" s="11">
-        <v>88076</v>
+        <v>133008</v>
       </c>
       <c r="AN13" s="11">
-        <v>133008</v>
+        <v>15963</v>
       </c>
       <c r="AO13" s="11">
-        <v>15963</v>
+        <v>69600</v>
       </c>
       <c r="AP13" s="11">
-        <v>69600</v>
+        <v>77034</v>
       </c>
       <c r="AQ13" s="11">
-        <v>77034</v>
+        <v>59495</v>
       </c>
       <c r="AR13" s="11">
-        <v>59495</v>
+        <v>13481</v>
       </c>
       <c r="AS13" s="11">
-        <v>13481</v>
+        <v>46806</v>
       </c>
       <c r="AT13" s="11">
-        <v>46806</v>
+        <v>80136</v>
       </c>
       <c r="AU13" s="11">
-        <v>80136</v>
+        <v>64086</v>
       </c>
       <c r="AV13" s="11">
-        <v>64086</v>
+        <v>75510</v>
       </c>
       <c r="AW13" s="11">
-        <v>75510</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="11">
-        <v>0</v>
+        <v>26807</v>
       </c>
       <c r="AY13" s="11">
-        <v>26807</v>
+        <v>80104</v>
       </c>
       <c r="AZ13" s="11">
-        <v>80104</v>
+        <v>119924</v>
       </c>
       <c r="BA13" s="11">
-        <v>119924</v>
+        <v>60720</v>
       </c>
       <c r="BB13" s="11">
-        <v>60720</v>
+        <v>45565</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1987,92 +1987,92 @@
       <c r="Y14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Z14" s="13">
+        <v>108530</v>
       </c>
       <c r="AA14" s="13">
-        <v>108530</v>
+        <v>108612</v>
       </c>
       <c r="AB14" s="13">
-        <v>108612</v>
+        <v>122932</v>
       </c>
       <c r="AC14" s="13">
-        <v>122932</v>
+        <v>121312</v>
       </c>
       <c r="AD14" s="13">
-        <v>121312</v>
+        <v>127250</v>
       </c>
       <c r="AE14" s="13">
-        <v>127250</v>
+        <v>133942</v>
       </c>
       <c r="AF14" s="13">
-        <v>133942</v>
+        <v>130366</v>
       </c>
       <c r="AG14" s="13">
-        <v>130366</v>
+        <v>99533</v>
       </c>
       <c r="AH14" s="13">
-        <v>99533</v>
+        <v>113656</v>
       </c>
       <c r="AI14" s="13">
-        <v>113656</v>
+        <v>106404</v>
       </c>
       <c r="AJ14" s="13">
-        <v>106404</v>
+        <v>109835</v>
       </c>
       <c r="AK14" s="13">
-        <v>109835</v>
+        <v>121797</v>
       </c>
       <c r="AL14" s="13">
-        <v>121797</v>
+        <v>129462</v>
       </c>
       <c r="AM14" s="13">
-        <v>129462</v>
+        <v>137344</v>
       </c>
       <c r="AN14" s="13">
-        <v>137344</v>
+        <v>125051</v>
       </c>
       <c r="AO14" s="13">
-        <v>125051</v>
+        <v>120000</v>
       </c>
       <c r="AP14" s="13">
-        <v>120000</v>
+        <v>101103</v>
       </c>
       <c r="AQ14" s="13">
-        <v>101103</v>
+        <v>112631</v>
       </c>
       <c r="AR14" s="13">
-        <v>112631</v>
+        <v>224792</v>
       </c>
       <c r="AS14" s="13">
-        <v>224792</v>
+        <v>159526</v>
       </c>
       <c r="AT14" s="13">
-        <v>159526</v>
+        <v>196472</v>
       </c>
       <c r="AU14" s="13">
-        <v>196472</v>
+        <v>171881</v>
       </c>
       <c r="AV14" s="13">
-        <v>171881</v>
+        <v>195845</v>
       </c>
       <c r="AW14" s="13">
-        <v>195845</v>
+        <v>263086</v>
       </c>
       <c r="AX14" s="13">
-        <v>263086</v>
+        <v>333481</v>
       </c>
       <c r="AY14" s="13">
-        <v>333481</v>
+        <v>354473</v>
       </c>
       <c r="AZ14" s="13">
-        <v>354473</v>
+        <v>385820</v>
       </c>
       <c r="BA14" s="13">
-        <v>385820</v>
+        <v>384926</v>
       </c>
       <c r="BB14" s="13">
-        <v>384926</v>
+        <v>327586</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2155,14 +2155,14 @@
       <c r="AB15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>58</v>
+      <c r="AC15" s="11">
+        <v>38913</v>
       </c>
       <c r="AD15" s="11">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="AE15" s="11">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="11">
         <v>0</v>
@@ -2173,8 +2173,8 @@
       <c r="AH15" s="11">
         <v>0</v>
       </c>
-      <c r="AI15" s="11">
-        <v>0</v>
+      <c r="AI15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ15" s="11" t="s">
         <v>58</v>
@@ -2200,23 +2200,23 @@
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>0</v>
       </c>
       <c r="AV15" s="11">
         <v>0</v>
       </c>
-      <c r="AW15" s="11" t="s">
-        <v>58</v>
+      <c r="AW15" s="11">
+        <v>0</v>
       </c>
       <c r="AX15" s="11">
         <v>0</v>
@@ -2305,8 +2305,8 @@
       <c r="Y16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Z16" s="13">
+        <v>0</v>
       </c>
       <c r="AA16" s="13">
         <v>0</v>
@@ -2332,8 +2332,8 @@
       <c r="AH16" s="13">
         <v>0</v>
       </c>
-      <c r="AI16" s="13">
-        <v>0</v>
+      <c r="AI16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ16" s="13" t="s">
         <v>58</v>
@@ -2521,35 +2521,35 @@
       <c r="AR17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11">
+      <c r="AS17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="11">
         <v>76511</v>
       </c>
-      <c r="AV17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>58</v>
+      <c r="AU17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>94526</v>
       </c>
       <c r="AX17" s="11">
-        <v>94526</v>
+        <v>102055</v>
       </c>
       <c r="AY17" s="11">
-        <v>102055</v>
+        <v>66174</v>
       </c>
       <c r="AZ17" s="11">
-        <v>66174</v>
+        <v>104170</v>
       </c>
       <c r="BA17" s="11">
-        <v>104170</v>
+        <v>150245</v>
       </c>
       <c r="BB17" s="11">
-        <v>150245</v>
+        <v>58111</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2622,91 +2622,91 @@
         <v>0</v>
       </c>
       <c r="Z18" s="15">
-        <v>0</v>
+        <v>438756</v>
       </c>
       <c r="AA18" s="15">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="AB18" s="15">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="AC18" s="15">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="AD18" s="15">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="AE18" s="15">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AF18" s="15">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AG18" s="15">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AH18" s="15">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AI18" s="15">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AJ18" s="15">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AK18" s="15">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AL18" s="15">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AM18" s="15">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AN18" s="15">
-        <v>416972</v>
+        <v>249060</v>
       </c>
       <c r="AO18" s="15">
-        <v>249060</v>
+        <v>273000</v>
       </c>
       <c r="AP18" s="15">
-        <v>273000</v>
+        <v>243015</v>
       </c>
       <c r="AQ18" s="15">
-        <v>243015</v>
+        <v>251452</v>
       </c>
       <c r="AR18" s="15">
-        <v>251452</v>
+        <v>314785</v>
       </c>
       <c r="AS18" s="15">
-        <v>314785</v>
+        <v>206332</v>
       </c>
       <c r="AT18" s="15">
-        <v>355109</v>
+        <v>353119</v>
       </c>
       <c r="AU18" s="15">
-        <v>353119</v>
+        <v>253958</v>
       </c>
       <c r="AV18" s="15">
-        <v>358661</v>
+        <v>271355</v>
       </c>
       <c r="AW18" s="15">
-        <v>328176</v>
+        <v>357612</v>
       </c>
       <c r="AX18" s="15">
-        <v>357612</v>
+        <v>462343</v>
       </c>
       <c r="AY18" s="15">
-        <v>462343</v>
+        <v>500751</v>
       </c>
       <c r="AZ18" s="15">
-        <v>500751</v>
+        <v>609914</v>
       </c>
       <c r="BA18" s="15">
-        <v>609914</v>
+        <v>595891</v>
       </c>
       <c r="BB18" s="15">
-        <v>595891</v>
+        <v>431262</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2837,8 +2837,8 @@
       <c r="Y20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" s="11" t="s">
-        <v>58</v>
+      <c r="Z20" s="11">
+        <v>0</v>
       </c>
       <c r="AA20" s="11">
         <v>0</v>
@@ -2870,8 +2870,8 @@
       <c r="AJ20" s="11">
         <v>0</v>
       </c>
-      <c r="AK20" s="11">
-        <v>0</v>
+      <c r="AK20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL20" s="11" t="s">
         <v>58</v>
@@ -2879,35 +2879,35 @@
       <c r="AM20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>58</v>
+      <c r="AN20" s="11">
+        <v>53400</v>
       </c>
       <c r="AO20" s="11">
-        <v>53400</v>
+        <v>64579</v>
       </c>
       <c r="AP20" s="11">
-        <v>64579</v>
+        <v>93959</v>
       </c>
       <c r="AQ20" s="11">
-        <v>93959</v>
+        <v>73973</v>
       </c>
       <c r="AR20" s="11">
-        <v>73973</v>
-      </c>
-      <c r="AS20" s="11">
         <v>43967</v>
       </c>
-      <c r="AT20" s="11">
-        <v>13665</v>
-      </c>
-      <c r="AU20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV20" s="11">
-        <v>103771</v>
-      </c>
-      <c r="AW20" s="11">
-        <v>129216</v>
+      <c r="AS20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU20" s="11">
+        <v>115080</v>
+      </c>
+      <c r="AV20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX20" s="11" t="s">
         <v>58</v>
@@ -2996,8 +2996,8 @@
       <c r="Y21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z21" s="13" t="s">
-        <v>58</v>
+      <c r="Z21" s="13">
+        <v>0</v>
       </c>
       <c r="AA21" s="13">
         <v>0</v>
@@ -3029,8 +3029,8 @@
       <c r="AJ21" s="13">
         <v>0</v>
       </c>
-      <c r="AK21" s="13">
-        <v>0</v>
+      <c r="AK21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL21" s="13" t="s">
         <v>58</v>
@@ -3038,50 +3038,50 @@
       <c r="AM21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="13" t="s">
-        <v>58</v>
+      <c r="AN21" s="13">
+        <v>119828</v>
       </c>
       <c r="AO21" s="13">
-        <v>119828</v>
+        <v>18467</v>
       </c>
       <c r="AP21" s="13">
-        <v>18467</v>
+        <v>4025</v>
       </c>
       <c r="AQ21" s="13">
-        <v>4025</v>
+        <v>21975</v>
       </c>
       <c r="AR21" s="13">
-        <v>21975</v>
+        <v>108113</v>
       </c>
       <c r="AS21" s="13">
-        <v>108113</v>
+        <v>79381</v>
       </c>
       <c r="AT21" s="13">
-        <v>79381</v>
+        <v>37919</v>
       </c>
       <c r="AU21" s="13">
-        <v>37919</v>
+        <v>8942</v>
       </c>
       <c r="AV21" s="13">
-        <v>8942</v>
+        <v>10960</v>
       </c>
       <c r="AW21" s="13">
-        <v>10960</v>
+        <v>104245</v>
       </c>
       <c r="AX21" s="13">
-        <v>104245</v>
+        <v>104363</v>
       </c>
       <c r="AY21" s="13">
-        <v>104363</v>
+        <v>45721</v>
       </c>
       <c r="AZ21" s="13">
-        <v>45721</v>
+        <v>15524</v>
       </c>
       <c r="BA21" s="13">
-        <v>15524</v>
+        <v>40283</v>
       </c>
       <c r="BB21" s="13">
-        <v>40283</v>
+        <v>39457</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3155,8 +3155,8 @@
       <c r="Y22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="11" t="s">
-        <v>58</v>
+      <c r="Z22" s="11">
+        <v>0</v>
       </c>
       <c r="AA22" s="11">
         <v>0</v>
@@ -3188,8 +3188,8 @@
       <c r="AJ22" s="11">
         <v>0</v>
       </c>
-      <c r="AK22" s="11">
-        <v>0</v>
+      <c r="AK22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL22" s="11" t="s">
         <v>58</v>
@@ -3197,50 +3197,50 @@
       <c r="AM22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="11" t="s">
-        <v>58</v>
+      <c r="AN22" s="11">
+        <v>1036</v>
       </c>
       <c r="AO22" s="11">
-        <v>1036</v>
+        <v>1924</v>
       </c>
       <c r="AP22" s="11">
-        <v>1924</v>
+        <v>2045</v>
       </c>
       <c r="AQ22" s="11">
-        <v>2045</v>
+        <v>319</v>
       </c>
       <c r="AR22" s="11">
-        <v>319</v>
+        <v>8700</v>
       </c>
       <c r="AS22" s="11">
-        <v>8700</v>
+        <v>10270</v>
       </c>
       <c r="AT22" s="11">
-        <v>10270</v>
+        <v>7763</v>
       </c>
       <c r="AU22" s="11">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="11">
         <v>0</v>
       </c>
-      <c r="AW22" s="11" t="s">
-        <v>58</v>
+      <c r="AW22" s="11">
+        <v>3647</v>
       </c>
       <c r="AX22" s="11">
-        <v>3647</v>
+        <v>6228</v>
       </c>
       <c r="AY22" s="11">
-        <v>6228</v>
+        <v>6868</v>
       </c>
       <c r="AZ22" s="11">
-        <v>6868</v>
+        <v>7669</v>
       </c>
       <c r="BA22" s="11">
-        <v>7669</v>
+        <v>17761</v>
       </c>
       <c r="BB22" s="11">
-        <v>17761</v>
+        <v>61019</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3371,35 +3371,35 @@
       <c r="AR23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU23" s="13">
+      <c r="AS23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="13">
         <v>71064</v>
       </c>
-      <c r="AV23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW23" s="13" t="s">
-        <v>58</v>
+      <c r="AU23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="13">
+        <v>71697</v>
       </c>
       <c r="AX23" s="13">
-        <v>71697</v>
+        <v>31885</v>
       </c>
       <c r="AY23" s="13">
-        <v>31885</v>
+        <v>65865</v>
       </c>
       <c r="AZ23" s="13">
-        <v>65865</v>
+        <v>52666</v>
       </c>
       <c r="BA23" s="13">
-        <v>52666</v>
+        <v>46801</v>
       </c>
       <c r="BB23" s="13">
-        <v>46801</v>
+        <v>128206</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3514,49 +3514,49 @@
         <v>0</v>
       </c>
       <c r="AN24" s="17">
-        <v>0</v>
+        <v>174264</v>
       </c>
       <c r="AO24" s="17">
-        <v>174264</v>
+        <v>84970</v>
       </c>
       <c r="AP24" s="17">
-        <v>84970</v>
+        <v>100029</v>
       </c>
       <c r="AQ24" s="17">
-        <v>100029</v>
+        <v>96267</v>
       </c>
       <c r="AR24" s="17">
-        <v>96267</v>
+        <v>160780</v>
       </c>
       <c r="AS24" s="17">
-        <v>160780</v>
+        <v>89651</v>
       </c>
       <c r="AT24" s="17">
-        <v>103316</v>
+        <v>116746</v>
       </c>
       <c r="AU24" s="17">
-        <v>116746</v>
+        <v>124022</v>
       </c>
       <c r="AV24" s="17">
-        <v>112713</v>
+        <v>10960</v>
       </c>
       <c r="AW24" s="17">
-        <v>140176</v>
+        <v>179589</v>
       </c>
       <c r="AX24" s="17">
-        <v>179589</v>
+        <v>142476</v>
       </c>
       <c r="AY24" s="17">
-        <v>142476</v>
+        <v>118454</v>
       </c>
       <c r="AZ24" s="17">
-        <v>118454</v>
+        <v>75859</v>
       </c>
       <c r="BA24" s="17">
-        <v>75859</v>
+        <v>104845</v>
       </c>
       <c r="BB24" s="17">
-        <v>104845</v>
+        <v>228682</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3685,8 +3685,8 @@
       <c r="Y26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z26" s="17" t="s">
-        <v>58</v>
+      <c r="Z26" s="17">
+        <v>0</v>
       </c>
       <c r="AA26" s="17">
         <v>0</v>
@@ -3843,91 +3843,91 @@
         <v>0</v>
       </c>
       <c r="Z27" s="15">
-        <v>0</v>
+        <v>438756</v>
       </c>
       <c r="AA27" s="15">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="AB27" s="15">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="AC27" s="15">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="AD27" s="15">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="AE27" s="15">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AF27" s="15">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AG27" s="15">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AH27" s="15">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AI27" s="15">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AJ27" s="15">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AK27" s="15">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AL27" s="15">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AM27" s="15">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AN27" s="15">
-        <v>416972</v>
+        <v>423324</v>
       </c>
       <c r="AO27" s="15">
-        <v>423324</v>
+        <v>357970</v>
       </c>
       <c r="AP27" s="15">
-        <v>357970</v>
+        <v>343044</v>
       </c>
       <c r="AQ27" s="15">
-        <v>343044</v>
+        <v>347719</v>
       </c>
       <c r="AR27" s="15">
-        <v>347719</v>
+        <v>475565</v>
       </c>
       <c r="AS27" s="15">
-        <v>475565</v>
+        <v>295983</v>
       </c>
       <c r="AT27" s="15">
-        <v>458425</v>
+        <v>469865</v>
       </c>
       <c r="AU27" s="15">
-        <v>469865</v>
+        <v>377980</v>
       </c>
       <c r="AV27" s="15">
-        <v>471374</v>
+        <v>282315</v>
       </c>
       <c r="AW27" s="15">
-        <v>468352</v>
+        <v>537201</v>
       </c>
       <c r="AX27" s="15">
-        <v>537201</v>
+        <v>604819</v>
       </c>
       <c r="AY27" s="15">
-        <v>604819</v>
+        <v>619205</v>
       </c>
       <c r="AZ27" s="15">
-        <v>619205</v>
+        <v>685773</v>
       </c>
       <c r="BA27" s="15">
-        <v>685773</v>
+        <v>700736</v>
       </c>
       <c r="BB27" s="15">
-        <v>700736</v>
+        <v>659944</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4477,38 +4477,38 @@
       <c r="AM34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO34" s="11">
+      <c r="AN34" s="11">
         <v>8548</v>
       </c>
+      <c r="AO34" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP34" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AQ34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX34" s="11" t="s">
-        <v>58</v>
+      <c r="AR34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>0</v>
       </c>
       <c r="AY34" s="11">
         <v>0</v>
@@ -4594,77 +4594,77 @@
       <c r="Y35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z35" s="13" t="s">
-        <v>58</v>
+      <c r="Z35" s="13">
+        <v>100868</v>
       </c>
       <c r="AA35" s="13">
-        <v>100868</v>
+        <v>114637</v>
       </c>
       <c r="AB35" s="13">
-        <v>114637</v>
+        <v>138288</v>
       </c>
       <c r="AC35" s="13">
-        <v>138288</v>
+        <v>12062</v>
       </c>
       <c r="AD35" s="13">
-        <v>12062</v>
+        <v>8629</v>
       </c>
       <c r="AE35" s="13">
-        <v>8629</v>
+        <v>63900</v>
       </c>
       <c r="AF35" s="13">
-        <v>63900</v>
+        <v>46960</v>
       </c>
       <c r="AG35" s="13">
-        <v>46960</v>
+        <v>85873</v>
       </c>
       <c r="AH35" s="13">
-        <v>85873</v>
+        <v>63039</v>
       </c>
       <c r="AI35" s="13">
-        <v>63039</v>
+        <v>24487</v>
       </c>
       <c r="AJ35" s="13">
-        <v>24487</v>
+        <v>78013</v>
       </c>
       <c r="AK35" s="13">
-        <v>78013</v>
+        <v>127073</v>
       </c>
       <c r="AL35" s="13">
-        <v>127073</v>
+        <v>134350</v>
       </c>
       <c r="AM35" s="13">
-        <v>134350</v>
+        <v>120139</v>
       </c>
       <c r="AN35" s="13">
-        <v>120139</v>
+        <v>94284</v>
       </c>
       <c r="AO35" s="13">
-        <v>94284</v>
+        <v>86477</v>
       </c>
       <c r="AP35" s="13">
-        <v>86477</v>
+        <v>105399</v>
       </c>
       <c r="AQ35" s="13">
-        <v>105399</v>
+        <v>79148</v>
       </c>
       <c r="AR35" s="13">
-        <v>79148</v>
-      </c>
-      <c r="AS35" s="13">
         <v>82595</v>
       </c>
-      <c r="AT35" s="13">
-        <v>160919</v>
-      </c>
-      <c r="AU35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV35" s="13">
+      <c r="AS35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU35" s="13">
         <v>17466</v>
       </c>
-      <c r="AW35" s="13">
-        <v>90668</v>
+      <c r="AV35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX35" s="13" t="s">
         <v>58</v>
@@ -4753,92 +4753,92 @@
       <c r="Y36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="11" t="s">
-        <v>58</v>
+      <c r="Z36" s="11">
+        <v>44591</v>
       </c>
       <c r="AA36" s="11">
-        <v>44591</v>
+        <v>44268</v>
       </c>
       <c r="AB36" s="11">
-        <v>44268</v>
+        <v>23577</v>
       </c>
       <c r="AC36" s="11">
-        <v>23577</v>
+        <v>565</v>
       </c>
       <c r="AD36" s="11">
-        <v>565</v>
+        <v>28037</v>
       </c>
       <c r="AE36" s="11">
-        <v>28037</v>
+        <v>46034</v>
       </c>
       <c r="AF36" s="11">
-        <v>46034</v>
+        <v>24202</v>
       </c>
       <c r="AG36" s="11">
-        <v>24202</v>
+        <v>9485</v>
       </c>
       <c r="AH36" s="11">
-        <v>9485</v>
+        <v>37541</v>
       </c>
       <c r="AI36" s="11">
-        <v>37541</v>
+        <v>19470</v>
       </c>
       <c r="AJ36" s="11">
-        <v>19470</v>
+        <v>13539</v>
       </c>
       <c r="AK36" s="11">
-        <v>13539</v>
+        <v>88254</v>
       </c>
       <c r="AL36" s="11">
-        <v>88254</v>
+        <v>87144</v>
       </c>
       <c r="AM36" s="11">
-        <v>87144</v>
+        <v>5587</v>
       </c>
       <c r="AN36" s="11">
-        <v>5587</v>
+        <v>793</v>
       </c>
       <c r="AO36" s="11">
-        <v>793</v>
+        <v>79050</v>
       </c>
       <c r="AP36" s="11">
-        <v>79050</v>
+        <v>86718</v>
       </c>
       <c r="AQ36" s="11">
-        <v>86718</v>
+        <v>78429</v>
       </c>
       <c r="AR36" s="11">
-        <v>78429</v>
+        <v>17466</v>
       </c>
       <c r="AS36" s="11">
-        <v>17466</v>
+        <v>8574</v>
       </c>
       <c r="AT36" s="11">
-        <v>8574</v>
+        <v>10360</v>
       </c>
       <c r="AU36" s="11">
-        <v>10360</v>
+        <v>9699</v>
       </c>
       <c r="AV36" s="11">
-        <v>9699</v>
+        <v>118081</v>
       </c>
       <c r="AW36" s="11">
-        <v>117711</v>
+        <v>35492</v>
       </c>
       <c r="AX36" s="11">
-        <v>32658</v>
+        <v>169136</v>
       </c>
       <c r="AY36" s="11">
-        <v>169136</v>
+        <v>70949</v>
       </c>
       <c r="AZ36" s="11">
-        <v>70949</v>
+        <v>24646</v>
       </c>
       <c r="BA36" s="11">
-        <v>24646</v>
+        <v>47354</v>
       </c>
       <c r="BB36" s="11">
-        <v>47346</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4912,92 +4912,92 @@
       <c r="Y37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="13" t="s">
-        <v>58</v>
+      <c r="Z37" s="13">
+        <v>106836</v>
       </c>
       <c r="AA37" s="13">
-        <v>106836</v>
+        <v>107249</v>
       </c>
       <c r="AB37" s="13">
-        <v>107249</v>
+        <v>107622</v>
       </c>
       <c r="AC37" s="13">
-        <v>107622</v>
+        <v>123238</v>
       </c>
       <c r="AD37" s="13">
-        <v>123238</v>
+        <v>126997</v>
       </c>
       <c r="AE37" s="13">
-        <v>126997</v>
+        <v>161175</v>
       </c>
       <c r="AF37" s="13">
-        <v>161175</v>
+        <v>125210</v>
       </c>
       <c r="AG37" s="13">
-        <v>125210</v>
+        <v>100766</v>
       </c>
       <c r="AH37" s="13">
-        <v>100766</v>
+        <v>160646</v>
       </c>
       <c r="AI37" s="13">
-        <v>160646</v>
+        <v>95101</v>
       </c>
       <c r="AJ37" s="13">
-        <v>95101</v>
+        <v>99895</v>
       </c>
       <c r="AK37" s="13">
-        <v>99895</v>
+        <v>124900</v>
       </c>
       <c r="AL37" s="13">
-        <v>124900</v>
+        <v>128384</v>
       </c>
       <c r="AM37" s="13">
-        <v>128384</v>
+        <v>137472</v>
       </c>
       <c r="AN37" s="13">
-        <v>137472</v>
+        <v>142473</v>
       </c>
       <c r="AO37" s="13">
-        <v>142473</v>
+        <v>133022</v>
       </c>
       <c r="AP37" s="13">
-        <v>133022</v>
+        <v>106078</v>
       </c>
       <c r="AQ37" s="13">
-        <v>106078</v>
+        <v>114019</v>
       </c>
       <c r="AR37" s="13">
-        <v>114019</v>
+        <v>137856</v>
       </c>
       <c r="AS37" s="13">
-        <v>137856</v>
+        <v>197310</v>
       </c>
       <c r="AT37" s="13">
-        <v>198455</v>
+        <v>241615</v>
       </c>
       <c r="AU37" s="13">
-        <v>241615</v>
+        <v>127998</v>
       </c>
       <c r="AV37" s="13">
-        <v>127998</v>
+        <v>218992</v>
       </c>
       <c r="AW37" s="13">
-        <v>163468</v>
+        <v>343806</v>
       </c>
       <c r="AX37" s="13">
-        <v>343116</v>
+        <v>332345</v>
       </c>
       <c r="AY37" s="13">
-        <v>346212</v>
+        <v>387960</v>
       </c>
       <c r="AZ37" s="13">
-        <v>387960</v>
+        <v>367414</v>
       </c>
       <c r="BA37" s="13">
-        <v>367414</v>
+        <v>329123</v>
       </c>
       <c r="BB37" s="13">
-        <v>328231</v>
+        <v>303077</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5080,17 +5080,17 @@
       <c r="AB38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC38" s="11" t="s">
-        <v>58</v>
+      <c r="AC38" s="11">
+        <v>38913</v>
       </c>
       <c r="AD38" s="11">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="AE38" s="11">
-        <v>21560</v>
+        <v>755</v>
       </c>
       <c r="AF38" s="11">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="11">
         <v>0</v>
@@ -5098,8 +5098,8 @@
       <c r="AH38" s="11">
         <v>0</v>
       </c>
-      <c r="AI38" s="11">
-        <v>0</v>
+      <c r="AI38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ38" s="11" t="s">
         <v>58</v>
@@ -5125,26 +5125,26 @@
       <c r="AQ38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="11" t="s">
-        <v>58</v>
+      <c r="AR38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU38" s="11">
+        <v>0</v>
       </c>
       <c r="AV38" s="11">
         <v>0</v>
       </c>
-      <c r="AW38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX38" s="11" t="s">
-        <v>58</v>
+      <c r="AW38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="11">
+        <v>0</v>
       </c>
       <c r="AY38" s="11">
         <v>0</v>
@@ -5230,8 +5230,8 @@
       <c r="Y39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="13" t="s">
-        <v>58</v>
+      <c r="Z39" s="13">
+        <v>0</v>
       </c>
       <c r="AA39" s="13">
         <v>0</v>
@@ -5257,8 +5257,8 @@
       <c r="AH39" s="13">
         <v>0</v>
       </c>
-      <c r="AI39" s="13">
-        <v>0</v>
+      <c r="AI39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ39" s="13" t="s">
         <v>58</v>
@@ -5446,35 +5446,35 @@
       <c r="AR40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU40" s="11">
+      <c r="AS40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="11">
         <v>91235</v>
       </c>
-      <c r="AV40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW40" s="11" t="s">
-        <v>58</v>
+      <c r="AU40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="11">
+        <v>127682</v>
       </c>
       <c r="AX40" s="11">
-        <v>126359</v>
+        <v>101698</v>
       </c>
       <c r="AY40" s="11">
-        <v>102648</v>
+        <v>62116</v>
       </c>
       <c r="AZ40" s="11">
-        <v>62116</v>
+        <v>21167</v>
       </c>
       <c r="BA40" s="11">
-        <v>21167</v>
+        <v>139622</v>
       </c>
       <c r="BB40" s="11">
-        <v>139617</v>
+        <v>114731</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5547,91 +5547,91 @@
         <v>0</v>
       </c>
       <c r="Z41" s="15">
-        <v>0</v>
+        <v>252295</v>
       </c>
       <c r="AA41" s="15">
-        <v>252295</v>
+        <v>266154</v>
       </c>
       <c r="AB41" s="15">
-        <v>266154</v>
+        <v>269487</v>
       </c>
       <c r="AC41" s="15">
-        <v>269487</v>
+        <v>174778</v>
       </c>
       <c r="AD41" s="15">
-        <v>174778</v>
+        <v>185223</v>
       </c>
       <c r="AE41" s="15">
-        <v>185223</v>
+        <v>271864</v>
       </c>
       <c r="AF41" s="15">
-        <v>271864</v>
+        <v>196372</v>
       </c>
       <c r="AG41" s="15">
-        <v>196372</v>
+        <v>196124</v>
       </c>
       <c r="AH41" s="15">
-        <v>196124</v>
+        <v>261226</v>
       </c>
       <c r="AI41" s="15">
-        <v>261226</v>
+        <v>139058</v>
       </c>
       <c r="AJ41" s="15">
-        <v>139058</v>
+        <v>191447</v>
       </c>
       <c r="AK41" s="15">
-        <v>191447</v>
+        <v>340227</v>
       </c>
       <c r="AL41" s="15">
-        <v>340227</v>
+        <v>349878</v>
       </c>
       <c r="AM41" s="15">
-        <v>349878</v>
+        <v>263198</v>
       </c>
       <c r="AN41" s="15">
-        <v>263198</v>
+        <v>246098</v>
       </c>
       <c r="AO41" s="15">
-        <v>246098</v>
+        <v>298549</v>
       </c>
       <c r="AP41" s="15">
-        <v>298549</v>
+        <v>298195</v>
       </c>
       <c r="AQ41" s="15">
-        <v>298195</v>
+        <v>271596</v>
       </c>
       <c r="AR41" s="15">
-        <v>271596</v>
+        <v>237917</v>
       </c>
       <c r="AS41" s="15">
-        <v>237917</v>
+        <v>205884</v>
       </c>
       <c r="AT41" s="15">
-        <v>367948</v>
+        <v>343210</v>
       </c>
       <c r="AU41" s="15">
-        <v>343210</v>
+        <v>155163</v>
       </c>
       <c r="AV41" s="15">
-        <v>155163</v>
+        <v>337073</v>
       </c>
       <c r="AW41" s="15">
-        <v>371847</v>
+        <v>506980</v>
       </c>
       <c r="AX41" s="15">
-        <v>502133</v>
+        <v>603179</v>
       </c>
       <c r="AY41" s="15">
-        <v>617996</v>
+        <v>521025</v>
       </c>
       <c r="AZ41" s="15">
-        <v>521025</v>
+        <v>413227</v>
       </c>
       <c r="BA41" s="15">
-        <v>413227</v>
+        <v>516099</v>
       </c>
       <c r="BB41" s="15">
-        <v>515194</v>
+        <v>459812</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5762,77 +5762,77 @@
       <c r="Y43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="11" t="s">
-        <v>58</v>
+      <c r="Z43" s="11">
+        <v>82000</v>
       </c>
       <c r="AA43" s="11">
-        <v>82000</v>
+        <v>66745</v>
       </c>
       <c r="AB43" s="11">
-        <v>66745</v>
+        <v>53811</v>
       </c>
       <c r="AC43" s="11">
-        <v>53811</v>
+        <v>89598</v>
       </c>
       <c r="AD43" s="11">
-        <v>89598</v>
+        <v>113383</v>
       </c>
       <c r="AE43" s="11">
-        <v>113383</v>
+        <v>76770</v>
       </c>
       <c r="AF43" s="11">
-        <v>76770</v>
+        <v>64286</v>
       </c>
       <c r="AG43" s="11">
-        <v>64286</v>
+        <v>13590</v>
       </c>
       <c r="AH43" s="11">
-        <v>13590</v>
+        <v>77935</v>
       </c>
       <c r="AI43" s="11">
-        <v>77935</v>
+        <v>73156</v>
       </c>
       <c r="AJ43" s="11">
-        <v>73156</v>
+        <v>96526</v>
       </c>
       <c r="AK43" s="11">
-        <v>96526</v>
+        <v>58845</v>
       </c>
       <c r="AL43" s="11">
-        <v>58845</v>
+        <v>2434</v>
       </c>
       <c r="AM43" s="11">
-        <v>2434</v>
+        <v>30656</v>
       </c>
       <c r="AN43" s="11">
-        <v>30656</v>
+        <v>53400</v>
       </c>
       <c r="AO43" s="11">
-        <v>53400</v>
+        <v>64579</v>
       </c>
       <c r="AP43" s="11">
-        <v>64579</v>
+        <v>93959</v>
       </c>
       <c r="AQ43" s="11">
-        <v>93959</v>
+        <v>73973</v>
       </c>
       <c r="AR43" s="11">
-        <v>73973</v>
-      </c>
-      <c r="AS43" s="11">
         <v>48630</v>
       </c>
-      <c r="AT43" s="11">
-        <v>13665</v>
-      </c>
-      <c r="AU43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV43" s="11">
-        <v>103771</v>
-      </c>
-      <c r="AW43" s="11">
-        <v>129216</v>
+      <c r="AS43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU43" s="11">
+        <v>115080</v>
+      </c>
+      <c r="AV43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX43" s="11" t="s">
         <v>58</v>
@@ -5921,92 +5921,92 @@
       <c r="Y44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="13" t="s">
-        <v>58</v>
+      <c r="Z44" s="13">
+        <v>128072</v>
       </c>
       <c r="AA44" s="13">
-        <v>128072</v>
+        <v>113317</v>
       </c>
       <c r="AB44" s="13">
-        <v>113317</v>
+        <v>124248</v>
       </c>
       <c r="AC44" s="13">
-        <v>124248</v>
+        <v>135662</v>
       </c>
       <c r="AD44" s="13">
-        <v>135662</v>
+        <v>99327</v>
       </c>
       <c r="AE44" s="13">
-        <v>99327</v>
+        <v>118255</v>
       </c>
       <c r="AF44" s="13">
-        <v>118255</v>
+        <v>139203</v>
       </c>
       <c r="AG44" s="13">
-        <v>139203</v>
+        <v>140893</v>
       </c>
       <c r="AH44" s="13">
-        <v>140893</v>
+        <v>99124</v>
       </c>
       <c r="AI44" s="13">
-        <v>99124</v>
+        <v>51233</v>
       </c>
       <c r="AJ44" s="13">
-        <v>51233</v>
+        <v>119771</v>
       </c>
       <c r="AK44" s="13">
-        <v>119771</v>
+        <v>10297</v>
       </c>
       <c r="AL44" s="13">
-        <v>10297</v>
+        <v>2627</v>
       </c>
       <c r="AM44" s="13">
-        <v>2627</v>
+        <v>122778</v>
       </c>
       <c r="AN44" s="13">
-        <v>122778</v>
+        <v>119828</v>
       </c>
       <c r="AO44" s="13">
-        <v>119828</v>
+        <v>18467</v>
       </c>
       <c r="AP44" s="13">
-        <v>18467</v>
+        <v>4025</v>
       </c>
       <c r="AQ44" s="13">
-        <v>4025</v>
+        <v>21975</v>
       </c>
       <c r="AR44" s="13">
-        <v>21975</v>
+        <v>119267</v>
       </c>
       <c r="AS44" s="13">
-        <v>119267</v>
+        <v>79381</v>
       </c>
       <c r="AT44" s="13">
-        <v>79381</v>
+        <v>37919</v>
       </c>
       <c r="AU44" s="13">
-        <v>37919</v>
+        <v>8942</v>
       </c>
       <c r="AV44" s="13">
-        <v>8942</v>
+        <v>17962</v>
       </c>
       <c r="AW44" s="13">
-        <v>10960</v>
+        <v>110274</v>
       </c>
       <c r="AX44" s="13">
-        <v>110274</v>
+        <v>104363</v>
       </c>
       <c r="AY44" s="13">
-        <v>104363</v>
+        <v>45721</v>
       </c>
       <c r="AZ44" s="13">
-        <v>45721</v>
+        <v>15524</v>
       </c>
       <c r="BA44" s="13">
-        <v>15524</v>
+        <v>40283</v>
       </c>
       <c r="BB44" s="13">
-        <v>40283</v>
+        <v>39457</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6080,92 +6080,92 @@
       <c r="Y45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Z45" s="11">
+        <v>2380</v>
       </c>
       <c r="AA45" s="11">
-        <v>2380</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="11">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="AC45" s="11">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE45" s="11">
-        <v>17</v>
+        <v>5022</v>
       </c>
       <c r="AF45" s="11">
-        <v>5022</v>
+        <v>350</v>
       </c>
       <c r="AG45" s="11">
-        <v>350</v>
+        <v>4815</v>
       </c>
       <c r="AH45" s="11">
-        <v>4815</v>
+        <v>67</v>
       </c>
       <c r="AI45" s="11">
-        <v>67</v>
+        <v>9712</v>
       </c>
       <c r="AJ45" s="11">
-        <v>9712</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="11">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="AL45" s="11">
-        <v>881</v>
-      </c>
-      <c r="AM45" s="11">
         <v>3459</v>
       </c>
-      <c r="AN45" s="11" t="s">
-        <v>58</v>
+      <c r="AM45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN45" s="11">
+        <v>1036</v>
       </c>
       <c r="AO45" s="11">
-        <v>1036</v>
+        <v>1924</v>
       </c>
       <c r="AP45" s="11">
-        <v>1924</v>
+        <v>2045</v>
       </c>
       <c r="AQ45" s="11">
-        <v>2045</v>
+        <v>319</v>
       </c>
       <c r="AR45" s="11">
-        <v>319</v>
+        <v>8700</v>
       </c>
       <c r="AS45" s="11">
-        <v>8700</v>
+        <v>10270</v>
       </c>
       <c r="AT45" s="11">
-        <v>10270</v>
+        <v>7763</v>
       </c>
       <c r="AU45" s="11">
-        <v>7763</v>
-      </c>
-      <c r="AV45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW45" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="11">
+        <v>3647</v>
       </c>
       <c r="AX45" s="11">
-        <v>3647</v>
+        <v>6228</v>
       </c>
       <c r="AY45" s="11">
-        <v>6228</v>
+        <v>6868</v>
       </c>
       <c r="AZ45" s="11">
-        <v>6868</v>
+        <v>7669</v>
       </c>
       <c r="BA45" s="11">
-        <v>7669</v>
+        <v>17761</v>
       </c>
       <c r="BB45" s="11">
-        <v>17761</v>
+        <v>61019</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6296,35 +6296,35 @@
       <c r="AR46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU46" s="13">
+      <c r="AS46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="13">
         <v>80251</v>
       </c>
-      <c r="AV46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW46" s="13" t="s">
-        <v>58</v>
+      <c r="AU46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="13">
+        <v>71697</v>
       </c>
       <c r="AX46" s="13">
-        <v>71697</v>
+        <v>31885</v>
       </c>
       <c r="AY46" s="13">
-        <v>31885</v>
+        <v>65865</v>
       </c>
       <c r="AZ46" s="13">
-        <v>65865</v>
+        <v>52666</v>
       </c>
       <c r="BA46" s="13">
-        <v>52666</v>
+        <v>46801</v>
       </c>
       <c r="BB46" s="13">
-        <v>46801</v>
+        <v>128206</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6397,91 +6397,91 @@
         <v>0</v>
       </c>
       <c r="Z47" s="17">
-        <v>0</v>
+        <v>212452</v>
       </c>
       <c r="AA47" s="17">
-        <v>212452</v>
+        <v>180062</v>
       </c>
       <c r="AB47" s="17">
-        <v>180062</v>
+        <v>183959</v>
       </c>
       <c r="AC47" s="17">
-        <v>183959</v>
+        <v>225260</v>
       </c>
       <c r="AD47" s="17">
-        <v>225260</v>
+        <v>212727</v>
       </c>
       <c r="AE47" s="17">
-        <v>212727</v>
+        <v>200047</v>
       </c>
       <c r="AF47" s="17">
-        <v>200047</v>
+        <v>203839</v>
       </c>
       <c r="AG47" s="17">
-        <v>203839</v>
+        <v>159298</v>
       </c>
       <c r="AH47" s="17">
-        <v>159298</v>
+        <v>177126</v>
       </c>
       <c r="AI47" s="17">
-        <v>177126</v>
+        <v>134101</v>
       </c>
       <c r="AJ47" s="17">
-        <v>134101</v>
+        <v>216297</v>
       </c>
       <c r="AK47" s="17">
-        <v>216297</v>
+        <v>70023</v>
       </c>
       <c r="AL47" s="17">
-        <v>70023</v>
+        <v>8520</v>
       </c>
       <c r="AM47" s="17">
-        <v>8520</v>
+        <v>153434</v>
       </c>
       <c r="AN47" s="17">
-        <v>153434</v>
+        <v>174264</v>
       </c>
       <c r="AO47" s="17">
-        <v>174264</v>
+        <v>84970</v>
       </c>
       <c r="AP47" s="17">
-        <v>84970</v>
+        <v>100029</v>
       </c>
       <c r="AQ47" s="17">
-        <v>100029</v>
+        <v>96267</v>
       </c>
       <c r="AR47" s="17">
-        <v>96267</v>
+        <v>176597</v>
       </c>
       <c r="AS47" s="17">
-        <v>176597</v>
+        <v>89651</v>
       </c>
       <c r="AT47" s="17">
-        <v>103316</v>
+        <v>125933</v>
       </c>
       <c r="AU47" s="17">
-        <v>125933</v>
+        <v>124022</v>
       </c>
       <c r="AV47" s="17">
-        <v>112713</v>
+        <v>17962</v>
       </c>
       <c r="AW47" s="17">
-        <v>140176</v>
+        <v>185618</v>
       </c>
       <c r="AX47" s="17">
-        <v>185618</v>
+        <v>142476</v>
       </c>
       <c r="AY47" s="17">
-        <v>142476</v>
+        <v>118454</v>
       </c>
       <c r="AZ47" s="17">
-        <v>118454</v>
+        <v>75859</v>
       </c>
       <c r="BA47" s="17">
-        <v>75859</v>
+        <v>104845</v>
       </c>
       <c r="BB47" s="17">
-        <v>104845</v>
+        <v>228682</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6610,8 +6610,8 @@
       <c r="Y49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="17" t="s">
-        <v>58</v>
+      <c r="Z49" s="17">
+        <v>0</v>
       </c>
       <c r="AA49" s="17">
         <v>0</v>
@@ -6826,77 +6826,77 @@
       <c r="Y51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z51" s="11" t="s">
-        <v>58</v>
+      <c r="Z51" s="11">
+        <v>-464</v>
       </c>
       <c r="AA51" s="11">
-        <v>-464</v>
+        <v>-7607</v>
       </c>
       <c r="AB51" s="11">
-        <v>-7607</v>
+        <v>-176</v>
       </c>
       <c r="AC51" s="11">
-        <v>-176</v>
+        <v>-431</v>
       </c>
       <c r="AD51" s="11">
-        <v>-431</v>
+        <v>-10776</v>
       </c>
       <c r="AE51" s="11">
-        <v>-10776</v>
+        <v>-2346</v>
       </c>
       <c r="AF51" s="11">
-        <v>-2346</v>
+        <v>-123</v>
       </c>
       <c r="AG51" s="11">
-        <v>-123</v>
+        <v>-290</v>
       </c>
       <c r="AH51" s="11">
-        <v>-290</v>
+        <v>-4843</v>
       </c>
       <c r="AI51" s="11">
-        <v>-4843</v>
+        <v>-2116</v>
       </c>
       <c r="AJ51" s="11">
-        <v>-2116</v>
+        <v>-1102</v>
       </c>
       <c r="AK51" s="11">
-        <v>-1102</v>
+        <v>-11641</v>
       </c>
       <c r="AL51" s="11">
-        <v>-11641</v>
+        <v>-429</v>
       </c>
       <c r="AM51" s="11">
-        <v>-429</v>
+        <v>-2438</v>
       </c>
       <c r="AN51" s="11">
-        <v>-2438</v>
+        <v>-651</v>
       </c>
       <c r="AO51" s="11">
-        <v>-651</v>
+        <v>-5960</v>
       </c>
       <c r="AP51" s="11">
-        <v>-5960</v>
+        <v>-11146</v>
       </c>
       <c r="AQ51" s="11">
-        <v>-11146</v>
+        <v>-4086</v>
       </c>
       <c r="AR51" s="11">
-        <v>-4086</v>
-      </c>
-      <c r="AS51" s="11">
         <v>-4663</v>
       </c>
-      <c r="AT51" s="11">
-        <v>-12653</v>
-      </c>
-      <c r="AU51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW51" s="11">
-        <v>-208</v>
+      <c r="AS51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU51" s="11">
+        <v>-12014</v>
+      </c>
+      <c r="AV51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX51" s="11" t="s">
         <v>58</v>
@@ -6985,92 +6985,92 @@
       <c r="Y52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z52" s="13" t="s">
-        <v>58</v>
+      <c r="Z52" s="13">
+        <v>-421</v>
       </c>
       <c r="AA52" s="13">
-        <v>-421</v>
+        <v>-24337</v>
       </c>
       <c r="AB52" s="13">
-        <v>-24337</v>
+        <v>-21841</v>
       </c>
       <c r="AC52" s="13">
-        <v>-21841</v>
+        <v>-14762</v>
       </c>
       <c r="AD52" s="13">
-        <v>-14762</v>
+        <v>-19973</v>
       </c>
       <c r="AE52" s="13">
-        <v>-19973</v>
+        <v>-9722</v>
       </c>
       <c r="AF52" s="13">
-        <v>-9722</v>
+        <v>-6098</v>
       </c>
       <c r="AG52" s="13">
-        <v>-6098</v>
+        <v>-3575</v>
       </c>
       <c r="AH52" s="13">
-        <v>-3575</v>
+        <v>-13970</v>
       </c>
       <c r="AI52" s="13">
-        <v>-13970</v>
+        <v>-1251</v>
       </c>
       <c r="AJ52" s="13">
-        <v>-1251</v>
+        <v>-1953</v>
       </c>
       <c r="AK52" s="13">
-        <v>-1953</v>
+        <v>-5202</v>
       </c>
       <c r="AL52" s="13">
-        <v>-5202</v>
+        <v>-5333</v>
       </c>
       <c r="AM52" s="13">
-        <v>-5333</v>
+        <v>-385</v>
       </c>
       <c r="AN52" s="13">
-        <v>-385</v>
-      </c>
-      <c r="AO52" s="13">
         <v>-2869</v>
       </c>
-      <c r="AP52" s="13" t="s">
-        <v>58</v>
+      <c r="AO52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP52" s="13">
+        <v>-3265</v>
       </c>
       <c r="AQ52" s="13">
-        <v>-3265</v>
+        <v>-12598</v>
       </c>
       <c r="AR52" s="13">
-        <v>-12598</v>
+        <v>-11154</v>
       </c>
       <c r="AS52" s="13">
-        <v>-11154</v>
+        <v>-19180</v>
       </c>
       <c r="AT52" s="13">
-        <v>-19180</v>
+        <v>-7045</v>
       </c>
       <c r="AU52" s="13">
-        <v>-7045</v>
+        <v>-4917</v>
       </c>
       <c r="AV52" s="13">
-        <v>0</v>
+        <v>-2847</v>
       </c>
       <c r="AW52" s="13">
-        <v>-3116</v>
+        <v>-7140</v>
       </c>
       <c r="AX52" s="13">
-        <v>-7140</v>
+        <v>-9978</v>
       </c>
       <c r="AY52" s="13">
-        <v>-11844</v>
+        <v>-12150</v>
       </c>
       <c r="AZ52" s="13">
-        <v>-12150</v>
+        <v>-13879</v>
       </c>
       <c r="BA52" s="13">
-        <v>-10747</v>
+        <v>-5581</v>
       </c>
       <c r="BB52" s="13">
-        <v>-5581</v>
+        <v>-11947</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7144,92 +7144,92 @@
       <c r="Y53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Z53" s="11">
+        <v>0</v>
       </c>
       <c r="AA53" s="11">
         <v>0</v>
       </c>
       <c r="AB53" s="11">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AC53" s="11">
-        <v>-376</v>
+        <v>-5034</v>
       </c>
       <c r="AD53" s="11">
-        <v>-5034</v>
+        <v>-356</v>
       </c>
       <c r="AE53" s="11">
-        <v>-356</v>
+        <v>-5137</v>
       </c>
       <c r="AF53" s="11">
-        <v>-5137</v>
+        <v>-4</v>
       </c>
       <c r="AG53" s="11">
-        <v>-4</v>
+        <v>-18858</v>
       </c>
       <c r="AH53" s="11">
-        <v>-18858</v>
+        <v>-679</v>
       </c>
       <c r="AI53" s="11">
-        <v>-679</v>
+        <v>-980</v>
       </c>
       <c r="AJ53" s="11">
-        <v>-980</v>
+        <v>-1472</v>
       </c>
       <c r="AK53" s="11">
-        <v>-1472</v>
+        <v>-1570</v>
       </c>
       <c r="AL53" s="11">
-        <v>-1570</v>
+        <v>-2199</v>
       </c>
       <c r="AM53" s="11">
-        <v>-2199</v>
+        <v>-5918</v>
       </c>
       <c r="AN53" s="11">
-        <v>-5918</v>
+        <v>-5967</v>
       </c>
       <c r="AO53" s="11">
-        <v>-5967</v>
+        <v>-2748</v>
       </c>
       <c r="AP53" s="11">
-        <v>-2748</v>
+        <v>-11144</v>
       </c>
       <c r="AQ53" s="11">
-        <v>-11144</v>
+        <v>-506</v>
       </c>
       <c r="AR53" s="11">
-        <v>-506</v>
+        <v>-453</v>
       </c>
       <c r="AS53" s="11">
-        <v>-453</v>
+        <v>-7790</v>
       </c>
       <c r="AT53" s="11">
-        <v>-7790</v>
+        <v>-17454</v>
       </c>
       <c r="AU53" s="11">
-        <v>-17454</v>
+        <v>-370</v>
       </c>
       <c r="AV53" s="11">
-        <v>0</v>
+        <v>-7802</v>
       </c>
       <c r="AW53" s="11">
-        <v>-1204</v>
+        <v>-18371</v>
       </c>
       <c r="AX53" s="11">
-        <v>-17703</v>
+        <v>-9789</v>
       </c>
       <c r="AY53" s="11">
-        <v>-11935</v>
+        <v>-33858</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-33858</v>
+        <v>-13076</v>
       </c>
       <c r="BA53" s="11">
-        <v>-13076</v>
+        <v>-28613</v>
       </c>
       <c r="BB53" s="11">
-        <v>-27662</v>
+        <v>-19851</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7318,11 +7318,11 @@
       <c r="AD54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE54" s="13" t="s">
-        <v>58</v>
+      <c r="AE54" s="13">
+        <v>-40000</v>
       </c>
       <c r="AF54" s="13">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="13">
         <v>0</v>
@@ -7330,8 +7330,8 @@
       <c r="AH54" s="13">
         <v>0</v>
       </c>
-      <c r="AI54" s="13">
-        <v>0</v>
+      <c r="AI54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ54" s="13" t="s">
         <v>58</v>
@@ -7357,14 +7357,14 @@
       <c r="AQ54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>58</v>
+      <c r="AR54" s="13">
+        <v>0</v>
       </c>
       <c r="AS54" s="13">
         <v>0</v>
       </c>
-      <c r="AT54" s="13">
-        <v>0</v>
+      <c r="AT54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU54" s="13" t="s">
         <v>58</v>
@@ -7519,35 +7519,35 @@
       <c r="AR55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU55" s="11">
+      <c r="AS55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="11">
         <v>-17028</v>
       </c>
-      <c r="AV55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW55" s="11" t="s">
-        <v>58</v>
+      <c r="AU55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="11">
+        <v>-11594</v>
       </c>
       <c r="AX55" s="11">
-        <v>-11605</v>
+        <v>-19520</v>
       </c>
       <c r="AY55" s="11">
-        <v>-11824</v>
+        <v>-14299</v>
       </c>
       <c r="AZ55" s="11">
-        <v>-14299</v>
+        <v>-352</v>
       </c>
       <c r="BA55" s="11">
-        <v>-352</v>
+        <v>-4591</v>
       </c>
       <c r="BB55" s="11">
-        <v>-4591</v>
+        <v>-11989</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7619,92 +7619,92 @@
       <c r="Y56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z56" s="15" t="s">
-        <v>58</v>
+      <c r="Z56" s="15">
+        <v>-885</v>
       </c>
       <c r="AA56" s="15">
-        <v>-885</v>
+        <v>-31944</v>
       </c>
       <c r="AB56" s="15">
-        <v>-31944</v>
+        <v>-22393</v>
       </c>
       <c r="AC56" s="15">
-        <v>-22393</v>
+        <v>-20227</v>
       </c>
       <c r="AD56" s="15">
-        <v>-20227</v>
+        <v>-31105</v>
       </c>
       <c r="AE56" s="15">
-        <v>-31105</v>
+        <v>-57205</v>
       </c>
       <c r="AF56" s="15">
-        <v>-57205</v>
+        <v>-6225</v>
       </c>
       <c r="AG56" s="15">
-        <v>-6225</v>
+        <v>-22723</v>
       </c>
       <c r="AH56" s="15">
-        <v>-22723</v>
+        <v>-19492</v>
       </c>
       <c r="AI56" s="15">
-        <v>-19492</v>
+        <v>-4347</v>
       </c>
       <c r="AJ56" s="15">
-        <v>-4347</v>
+        <v>-4527</v>
       </c>
       <c r="AK56" s="15">
-        <v>-4527</v>
+        <v>-18413</v>
       </c>
       <c r="AL56" s="15">
-        <v>-18413</v>
+        <v>-7961</v>
       </c>
       <c r="AM56" s="15">
-        <v>-7961</v>
+        <v>-8741</v>
       </c>
       <c r="AN56" s="15">
-        <v>-8741</v>
+        <v>-9487</v>
       </c>
       <c r="AO56" s="15">
-        <v>-9487</v>
+        <v>-8708</v>
       </c>
       <c r="AP56" s="15">
-        <v>-8708</v>
+        <v>-25555</v>
       </c>
       <c r="AQ56" s="15">
-        <v>-25555</v>
+        <v>-17190</v>
       </c>
       <c r="AR56" s="15">
-        <v>-17190</v>
+        <v>-16270</v>
       </c>
       <c r="AS56" s="15">
-        <v>-16270</v>
+        <v>-39623</v>
       </c>
       <c r="AT56" s="15">
-        <v>-39623</v>
+        <v>-41527</v>
       </c>
       <c r="AU56" s="15">
-        <v>-41527</v>
+        <v>-17301</v>
       </c>
       <c r="AV56" s="15">
-        <v>0</v>
+        <v>-25744</v>
       </c>
       <c r="AW56" s="15">
-        <v>-4528</v>
+        <v>-37105</v>
       </c>
       <c r="AX56" s="15">
-        <v>-36448</v>
+        <v>-39287</v>
       </c>
       <c r="AY56" s="15">
-        <v>-35603</v>
+        <v>-60307</v>
       </c>
       <c r="AZ56" s="15">
-        <v>-60307</v>
+        <v>-27307</v>
       </c>
       <c r="BA56" s="15">
-        <v>-24175</v>
+        <v>-38785</v>
       </c>
       <c r="BB56" s="15">
-        <v>-37834</v>
+        <v>-43787</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7777,91 +7777,91 @@
         <v>0</v>
       </c>
       <c r="Z57" s="17">
-        <v>0</v>
+        <v>463862</v>
       </c>
       <c r="AA57" s="17">
-        <v>463862</v>
+        <v>414272</v>
       </c>
       <c r="AB57" s="17">
-        <v>414272</v>
+        <v>431053</v>
       </c>
       <c r="AC57" s="17">
-        <v>431053</v>
+        <v>379811</v>
       </c>
       <c r="AD57" s="17">
-        <v>379811</v>
+        <v>366845</v>
       </c>
       <c r="AE57" s="17">
-        <v>366845</v>
+        <v>414706</v>
       </c>
       <c r="AF57" s="17">
-        <v>414706</v>
+        <v>393986</v>
       </c>
       <c r="AG57" s="17">
-        <v>393986</v>
+        <v>332699</v>
       </c>
       <c r="AH57" s="17">
-        <v>332699</v>
+        <v>418860</v>
       </c>
       <c r="AI57" s="17">
-        <v>418860</v>
+        <v>268812</v>
       </c>
       <c r="AJ57" s="17">
-        <v>268812</v>
+        <v>403217</v>
       </c>
       <c r="AK57" s="17">
-        <v>403217</v>
+        <v>391837</v>
       </c>
       <c r="AL57" s="17">
-        <v>391837</v>
+        <v>350437</v>
       </c>
       <c r="AM57" s="17">
-        <v>350437</v>
+        <v>407891</v>
       </c>
       <c r="AN57" s="17">
-        <v>407891</v>
+        <v>410875</v>
       </c>
       <c r="AO57" s="17">
-        <v>410875</v>
+        <v>374811</v>
       </c>
       <c r="AP57" s="17">
-        <v>374811</v>
+        <v>372669</v>
       </c>
       <c r="AQ57" s="17">
-        <v>372669</v>
+        <v>350673</v>
       </c>
       <c r="AR57" s="17">
-        <v>350673</v>
+        <v>398244</v>
       </c>
       <c r="AS57" s="17">
-        <v>398244</v>
+        <v>268565</v>
       </c>
       <c r="AT57" s="17">
-        <v>431641</v>
+        <v>427616</v>
       </c>
       <c r="AU57" s="17">
-        <v>427616</v>
+        <v>261884</v>
       </c>
       <c r="AV57" s="17">
-        <v>267876</v>
+        <v>344386</v>
       </c>
       <c r="AW57" s="17">
-        <v>507495</v>
+        <v>655493</v>
       </c>
       <c r="AX57" s="17">
-        <v>651303</v>
+        <v>706368</v>
       </c>
       <c r="AY57" s="17">
-        <v>724869</v>
+        <v>579172</v>
       </c>
       <c r="AZ57" s="17">
-        <v>579172</v>
+        <v>461779</v>
       </c>
       <c r="BA57" s="17">
-        <v>464911</v>
+        <v>582159</v>
       </c>
       <c r="BB57" s="17">
-        <v>582205</v>
+        <v>644707</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8411,11 +8411,11 @@
       <c r="AM64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN64" s="11" t="s">
-        <v>58</v>
+      <c r="AN64" s="11">
+        <v>1563</v>
       </c>
       <c r="AO64" s="11">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="11">
         <v>0</v>
@@ -8426,14 +8426,14 @@
       <c r="AR64" s="11">
         <v>0</v>
       </c>
-      <c r="AS64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU64" s="11" t="s">
-        <v>58</v>
+      <c r="AS64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU64" s="11">
+        <v>0</v>
       </c>
       <c r="AV64" s="11">
         <v>0</v>
@@ -8528,77 +8528,77 @@
       <c r="Y65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="13" t="s">
-        <v>58</v>
+      <c r="Z65" s="13">
+        <v>34800</v>
       </c>
       <c r="AA65" s="13">
-        <v>34800</v>
+        <v>40716</v>
       </c>
       <c r="AB65" s="13">
-        <v>40716</v>
+        <v>63709</v>
       </c>
       <c r="AC65" s="13">
-        <v>63709</v>
+        <v>4798</v>
       </c>
       <c r="AD65" s="13">
-        <v>4798</v>
+        <v>2618</v>
       </c>
       <c r="AE65" s="13">
-        <v>2618</v>
+        <v>42291</v>
       </c>
       <c r="AF65" s="13">
-        <v>42291</v>
+        <v>26527</v>
       </c>
       <c r="AG65" s="13">
-        <v>26527</v>
+        <v>70061</v>
       </c>
       <c r="AH65" s="13">
-        <v>70061</v>
+        <v>34504</v>
       </c>
       <c r="AI65" s="13">
-        <v>34504</v>
+        <v>13882</v>
       </c>
       <c r="AJ65" s="13">
-        <v>13882</v>
+        <v>61327</v>
       </c>
       <c r="AK65" s="13">
-        <v>61327</v>
+        <v>100556</v>
       </c>
       <c r="AL65" s="13">
-        <v>100556</v>
+        <v>97028</v>
       </c>
       <c r="AM65" s="13">
-        <v>97028</v>
+        <v>95953</v>
       </c>
       <c r="AN65" s="13">
-        <v>95953</v>
+        <v>80963</v>
       </c>
       <c r="AO65" s="13">
-        <v>80963</v>
+        <v>85275</v>
       </c>
       <c r="AP65" s="13">
-        <v>85275</v>
+        <v>89883</v>
       </c>
       <c r="AQ65" s="13">
-        <v>89883</v>
+        <v>70736</v>
       </c>
       <c r="AR65" s="13">
-        <v>70736</v>
-      </c>
-      <c r="AS65" s="13">
         <v>75717</v>
       </c>
-      <c r="AT65" s="13">
-        <v>136920</v>
-      </c>
-      <c r="AU65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV65" s="13">
+      <c r="AS65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU65" s="13">
         <v>15310</v>
       </c>
-      <c r="AW65" s="13">
-        <v>127850</v>
+      <c r="AV65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX65" s="13" t="s">
         <v>58</v>
@@ -8687,92 +8687,92 @@
       <c r="Y66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z66" s="11" t="s">
-        <v>58</v>
+      <c r="Z66" s="11">
+        <v>15317</v>
       </c>
       <c r="AA66" s="11">
-        <v>15317</v>
+        <v>13458</v>
       </c>
       <c r="AB66" s="11">
-        <v>13458</v>
+        <v>8394</v>
       </c>
       <c r="AC66" s="11">
-        <v>8394</v>
+        <v>148</v>
       </c>
       <c r="AD66" s="11">
-        <v>148</v>
+        <v>12368</v>
       </c>
       <c r="AE66" s="11">
-        <v>12368</v>
+        <v>13820</v>
       </c>
       <c r="AF66" s="11">
-        <v>13820</v>
+        <v>9242</v>
       </c>
       <c r="AG66" s="11">
-        <v>9242</v>
+        <v>2064</v>
       </c>
       <c r="AH66" s="11">
-        <v>2064</v>
+        <v>12550</v>
       </c>
       <c r="AI66" s="11">
-        <v>12550</v>
+        <v>11366</v>
       </c>
       <c r="AJ66" s="11">
-        <v>11366</v>
+        <v>9470</v>
       </c>
       <c r="AK66" s="11">
-        <v>9470</v>
+        <v>74397</v>
       </c>
       <c r="AL66" s="11">
-        <v>74397</v>
+        <v>77919</v>
       </c>
       <c r="AM66" s="11">
-        <v>77919</v>
+        <v>2151</v>
       </c>
       <c r="AN66" s="11">
-        <v>2151</v>
+        <v>810</v>
       </c>
       <c r="AO66" s="11">
-        <v>810</v>
+        <v>51820</v>
       </c>
       <c r="AP66" s="11">
-        <v>51820</v>
+        <v>63724</v>
       </c>
       <c r="AQ66" s="11">
-        <v>63724</v>
+        <v>63559</v>
       </c>
       <c r="AR66" s="11">
-        <v>63559</v>
+        <v>13857</v>
       </c>
       <c r="AS66" s="11">
-        <v>13857</v>
+        <v>4904</v>
       </c>
       <c r="AT66" s="11">
-        <v>4904</v>
+        <v>4807</v>
       </c>
       <c r="AU66" s="11">
-        <v>4807</v>
+        <v>9580</v>
       </c>
       <c r="AV66" s="11">
-        <v>9580</v>
+        <v>78938</v>
       </c>
       <c r="AW66" s="11">
-        <v>78745</v>
+        <v>32520</v>
       </c>
       <c r="AX66" s="11">
-        <v>32012</v>
+        <v>135857</v>
       </c>
       <c r="AY66" s="11">
-        <v>135857</v>
+        <v>54166</v>
       </c>
       <c r="AZ66" s="11">
-        <v>54166</v>
+        <v>15771</v>
       </c>
       <c r="BA66" s="11">
-        <v>15771</v>
+        <v>33930</v>
       </c>
       <c r="BB66" s="11">
-        <v>33930</v>
+        <v>38640</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8846,92 +8846,92 @@
       <c r="Y67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="13" t="s">
-        <v>58</v>
+      <c r="Z67" s="13">
+        <v>82420</v>
       </c>
       <c r="AA67" s="13">
-        <v>82420</v>
+        <v>86199</v>
       </c>
       <c r="AB67" s="13">
-        <v>86199</v>
+        <v>75546</v>
       </c>
       <c r="AC67" s="13">
-        <v>75546</v>
+        <v>105552</v>
       </c>
       <c r="AD67" s="13">
-        <v>105552</v>
+        <v>138720</v>
       </c>
       <c r="AE67" s="13">
-        <v>138720</v>
+        <v>187707</v>
       </c>
       <c r="AF67" s="13">
-        <v>187707</v>
+        <v>171439</v>
       </c>
       <c r="AG67" s="13">
-        <v>171439</v>
+        <v>113047</v>
       </c>
       <c r="AH67" s="13">
-        <v>113047</v>
+        <v>136700</v>
       </c>
       <c r="AI67" s="13">
-        <v>136700</v>
+        <v>99647</v>
       </c>
       <c r="AJ67" s="13">
-        <v>99647</v>
+        <v>141824</v>
       </c>
       <c r="AK67" s="13">
-        <v>141824</v>
+        <v>207304</v>
       </c>
       <c r="AL67" s="13">
-        <v>207304</v>
+        <v>245534</v>
       </c>
       <c r="AM67" s="13">
-        <v>245534</v>
+        <v>273055</v>
       </c>
       <c r="AN67" s="13">
-        <v>273055</v>
+        <v>255842</v>
       </c>
       <c r="AO67" s="13">
-        <v>255842</v>
+        <v>224581</v>
       </c>
       <c r="AP67" s="13">
-        <v>224581</v>
+        <v>179822</v>
       </c>
       <c r="AQ67" s="13">
-        <v>179822</v>
+        <v>231956</v>
       </c>
       <c r="AR67" s="13">
-        <v>231956</v>
+        <v>231367</v>
       </c>
       <c r="AS67" s="13">
-        <v>231367</v>
+        <v>315145</v>
       </c>
       <c r="AT67" s="13">
-        <v>315755</v>
+        <v>438469</v>
       </c>
       <c r="AU67" s="13">
-        <v>438469</v>
+        <v>234226</v>
       </c>
       <c r="AV67" s="13">
-        <v>262524</v>
+        <v>440920</v>
       </c>
       <c r="AW67" s="13">
-        <v>334900</v>
+        <v>716829</v>
       </c>
       <c r="AX67" s="13">
-        <v>717207</v>
+        <v>702870</v>
       </c>
       <c r="AY67" s="13">
-        <v>730490</v>
+        <v>937579</v>
       </c>
       <c r="AZ67" s="13">
-        <v>937396</v>
+        <v>998905</v>
       </c>
       <c r="BA67" s="13">
-        <v>999482</v>
+        <v>895403</v>
       </c>
       <c r="BB67" s="13">
-        <v>907439</v>
+        <v>728275</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9014,17 +9014,17 @@
       <c r="AB68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC68" s="11" t="s">
-        <v>58</v>
+      <c r="AC68" s="11">
+        <v>20055</v>
       </c>
       <c r="AD68" s="11">
-        <v>20055</v>
+        <v>13880</v>
       </c>
       <c r="AE68" s="11">
-        <v>13880</v>
+        <v>336</v>
       </c>
       <c r="AF68" s="11">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="11">
         <v>0</v>
@@ -9032,8 +9032,8 @@
       <c r="AH68" s="11">
         <v>0</v>
       </c>
-      <c r="AI68" s="11">
-        <v>0</v>
+      <c r="AI68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ68" s="11" t="s">
         <v>58</v>
@@ -9047,8 +9047,8 @@
       <c r="AM68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN68" s="11" t="s">
-        <v>58</v>
+      <c r="AN68" s="11">
+        <v>0</v>
       </c>
       <c r="AO68" s="11">
         <v>0</v>
@@ -9062,14 +9062,14 @@
       <c r="AR68" s="11">
         <v>0</v>
       </c>
-      <c r="AS68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU68" s="11" t="s">
-        <v>58</v>
+      <c r="AS68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU68" s="11">
+        <v>0</v>
       </c>
       <c r="AV68" s="11">
         <v>0</v>
@@ -9164,8 +9164,8 @@
       <c r="Y69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="13" t="s">
-        <v>58</v>
+      <c r="Z69" s="13">
+        <v>0</v>
       </c>
       <c r="AA69" s="13">
         <v>0</v>
@@ -9191,8 +9191,8 @@
       <c r="AH69" s="13">
         <v>0</v>
       </c>
-      <c r="AI69" s="13">
-        <v>0</v>
+      <c r="AI69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ69" s="13" t="s">
         <v>58</v>
@@ -9380,35 +9380,35 @@
       <c r="AR70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU70" s="11">
+      <c r="AS70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="11">
         <v>79874</v>
       </c>
-      <c r="AV70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW70" s="11" t="s">
-        <v>58</v>
+      <c r="AU70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="11">
+        <v>123648</v>
       </c>
       <c r="AX70" s="11">
-        <v>123458</v>
+        <v>120547</v>
       </c>
       <c r="AY70" s="11">
-        <v>122035</v>
+        <v>65185</v>
       </c>
       <c r="AZ70" s="11">
-        <v>65185</v>
+        <v>13046</v>
       </c>
       <c r="BA70" s="11">
-        <v>13046</v>
+        <v>114626</v>
       </c>
       <c r="BB70" s="11">
-        <v>114684</v>
+        <v>92523</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9481,91 +9481,91 @@
         <v>0</v>
       </c>
       <c r="Z71" s="15">
-        <v>0</v>
+        <v>132537</v>
       </c>
       <c r="AA71" s="15">
-        <v>132537</v>
+        <v>140373</v>
       </c>
       <c r="AB71" s="15">
-        <v>140373</v>
+        <v>147649</v>
       </c>
       <c r="AC71" s="15">
-        <v>147649</v>
+        <v>130553</v>
       </c>
       <c r="AD71" s="15">
-        <v>130553</v>
+        <v>167586</v>
       </c>
       <c r="AE71" s="15">
-        <v>167586</v>
+        <v>244154</v>
       </c>
       <c r="AF71" s="15">
-        <v>244154</v>
+        <v>207208</v>
       </c>
       <c r="AG71" s="15">
-        <v>207208</v>
+        <v>185172</v>
       </c>
       <c r="AH71" s="15">
-        <v>185172</v>
+        <v>183754</v>
       </c>
       <c r="AI71" s="15">
-        <v>183754</v>
+        <v>124895</v>
       </c>
       <c r="AJ71" s="15">
-        <v>124895</v>
+        <v>212621</v>
       </c>
       <c r="AK71" s="15">
-        <v>212621</v>
+        <v>382257</v>
       </c>
       <c r="AL71" s="15">
-        <v>382257</v>
+        <v>420481</v>
       </c>
       <c r="AM71" s="15">
-        <v>420481</v>
+        <v>371159</v>
       </c>
       <c r="AN71" s="15">
-        <v>371159</v>
+        <v>339178</v>
       </c>
       <c r="AO71" s="15">
-        <v>339178</v>
+        <v>361676</v>
       </c>
       <c r="AP71" s="15">
-        <v>361676</v>
+        <v>333429</v>
       </c>
       <c r="AQ71" s="15">
-        <v>333429</v>
+        <v>366251</v>
       </c>
       <c r="AR71" s="15">
-        <v>366251</v>
+        <v>320941</v>
       </c>
       <c r="AS71" s="15">
-        <v>320941</v>
+        <v>320049</v>
       </c>
       <c r="AT71" s="15">
-        <v>457579</v>
+        <v>523150</v>
       </c>
       <c r="AU71" s="15">
-        <v>523150</v>
+        <v>259116</v>
       </c>
       <c r="AV71" s="15">
-        <v>287414</v>
+        <v>519858</v>
       </c>
       <c r="AW71" s="15">
-        <v>541495</v>
+        <v>872997</v>
       </c>
       <c r="AX71" s="15">
-        <v>872677</v>
+        <v>959274</v>
       </c>
       <c r="AY71" s="15">
-        <v>988382</v>
+        <v>1056930</v>
       </c>
       <c r="AZ71" s="15">
-        <v>1056747</v>
+        <v>1027722</v>
       </c>
       <c r="BA71" s="15">
-        <v>1028299</v>
+        <v>1043959</v>
       </c>
       <c r="BB71" s="15">
-        <v>1056053</v>
+        <v>859438</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9696,77 +9696,77 @@
       <c r="Y73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z73" s="11" t="s">
-        <v>58</v>
+      <c r="Z73" s="11">
+        <v>26085</v>
       </c>
       <c r="AA73" s="11">
-        <v>26085</v>
+        <v>23561</v>
       </c>
       <c r="AB73" s="11">
-        <v>23561</v>
+        <v>18235</v>
       </c>
       <c r="AC73" s="11">
-        <v>18235</v>
+        <v>38734</v>
       </c>
       <c r="AD73" s="11">
-        <v>38734</v>
+        <v>61574</v>
       </c>
       <c r="AE73" s="11">
-        <v>61574</v>
+        <v>41442</v>
       </c>
       <c r="AF73" s="11">
-        <v>41442</v>
+        <v>31596</v>
       </c>
       <c r="AG73" s="11">
-        <v>31596</v>
+        <v>6628</v>
       </c>
       <c r="AH73" s="11">
-        <v>6628</v>
+        <v>45811</v>
       </c>
       <c r="AI73" s="11">
-        <v>45811</v>
+        <v>38642</v>
       </c>
       <c r="AJ73" s="11">
-        <v>38642</v>
+        <v>58362</v>
       </c>
       <c r="AK73" s="11">
-        <v>58362</v>
+        <v>39246</v>
       </c>
       <c r="AL73" s="11">
-        <v>39246</v>
+        <v>1417</v>
       </c>
       <c r="AM73" s="11">
-        <v>1417</v>
+        <v>17855</v>
       </c>
       <c r="AN73" s="11">
-        <v>17855</v>
+        <v>35776</v>
       </c>
       <c r="AO73" s="11">
-        <v>35776</v>
+        <v>46698</v>
       </c>
       <c r="AP73" s="11">
-        <v>46698</v>
+        <v>67500</v>
       </c>
       <c r="AQ73" s="11">
-        <v>67500</v>
+        <v>51123</v>
       </c>
       <c r="AR73" s="11">
-        <v>51123</v>
-      </c>
-      <c r="AS73" s="11">
         <v>32107</v>
       </c>
-      <c r="AT73" s="11">
-        <v>12819</v>
-      </c>
-      <c r="AU73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV73" s="11">
-        <v>70041</v>
-      </c>
-      <c r="AW73" s="11">
-        <v>86161</v>
+      <c r="AS73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU73" s="11">
+        <v>80736</v>
+      </c>
+      <c r="AV73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX73" s="11" t="s">
         <v>58</v>
@@ -9855,92 +9855,92 @@
       <c r="Y74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z74" s="13" t="s">
-        <v>58</v>
+      <c r="Z74" s="13">
+        <v>30880</v>
       </c>
       <c r="AA74" s="13">
-        <v>30880</v>
+        <v>32362</v>
       </c>
       <c r="AB74" s="13">
-        <v>32362</v>
+        <v>39403</v>
       </c>
       <c r="AC74" s="13">
-        <v>39403</v>
+        <v>44292</v>
       </c>
       <c r="AD74" s="13">
-        <v>44292</v>
+        <v>42481</v>
       </c>
       <c r="AE74" s="13">
-        <v>42481</v>
+        <v>48527</v>
       </c>
       <c r="AF74" s="13">
-        <v>48527</v>
+        <v>64014</v>
       </c>
       <c r="AG74" s="13">
-        <v>64014</v>
+        <v>64110</v>
       </c>
       <c r="AH74" s="13">
-        <v>64110</v>
+        <v>45943</v>
       </c>
       <c r="AI74" s="13">
-        <v>45943</v>
+        <v>24733</v>
       </c>
       <c r="AJ74" s="13">
-        <v>24733</v>
+        <v>58231</v>
       </c>
       <c r="AK74" s="13">
-        <v>58231</v>
+        <v>5284</v>
       </c>
       <c r="AL74" s="13">
-        <v>5284</v>
+        <v>2185</v>
       </c>
       <c r="AM74" s="13">
-        <v>2185</v>
+        <v>65311</v>
       </c>
       <c r="AN74" s="13">
-        <v>65311</v>
+        <v>64049</v>
       </c>
       <c r="AO74" s="13">
-        <v>64049</v>
+        <v>15402</v>
       </c>
       <c r="AP74" s="13">
-        <v>15402</v>
+        <v>3113</v>
       </c>
       <c r="AQ74" s="13">
-        <v>3113</v>
+        <v>18617</v>
       </c>
       <c r="AR74" s="13">
-        <v>18617</v>
+        <v>74563</v>
       </c>
       <c r="AS74" s="13">
-        <v>74563</v>
+        <v>51189</v>
       </c>
       <c r="AT74" s="13">
-        <v>51539</v>
+        <v>23285</v>
       </c>
       <c r="AU74" s="13">
-        <v>23285</v>
+        <v>4684</v>
       </c>
       <c r="AV74" s="13">
-        <v>4684</v>
+        <v>12032</v>
       </c>
       <c r="AW74" s="13">
-        <v>6182</v>
+        <v>61227</v>
       </c>
       <c r="AX74" s="13">
-        <v>61227</v>
+        <v>59339</v>
       </c>
       <c r="AY74" s="13">
-        <v>59337</v>
+        <v>26638</v>
       </c>
       <c r="AZ74" s="13">
-        <v>26640</v>
+        <v>10438</v>
       </c>
       <c r="BA74" s="13">
-        <v>10438</v>
+        <v>26499</v>
       </c>
       <c r="BB74" s="13">
-        <v>26836</v>
+        <v>27865</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10014,92 +10014,92 @@
       <c r="Y75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z75" s="11" t="s">
-        <v>58</v>
+      <c r="Z75" s="11">
+        <v>2570</v>
       </c>
       <c r="AA75" s="11">
-        <v>2570</v>
+        <v>0</v>
       </c>
       <c r="AB75" s="11">
-        <v>0</v>
+        <v>4779</v>
       </c>
       <c r="AC75" s="11">
-        <v>4779</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE75" s="11">
-        <v>20</v>
+        <v>7153</v>
       </c>
       <c r="AF75" s="11">
-        <v>7153</v>
+        <v>364</v>
       </c>
       <c r="AG75" s="11">
-        <v>364</v>
+        <v>5634</v>
       </c>
       <c r="AH75" s="11">
-        <v>5634</v>
+        <v>78</v>
       </c>
       <c r="AI75" s="11">
-        <v>78</v>
+        <v>10154</v>
       </c>
       <c r="AJ75" s="11">
-        <v>10154</v>
+        <v>0</v>
       </c>
       <c r="AK75" s="11">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="AL75" s="11">
-        <v>917</v>
+        <v>4785</v>
       </c>
       <c r="AM75" s="11">
-        <v>4785</v>
+        <v>0</v>
       </c>
       <c r="AN75" s="11">
-        <v>0</v>
+        <v>1922</v>
       </c>
       <c r="AO75" s="11">
-        <v>1922</v>
+        <v>4018</v>
       </c>
       <c r="AP75" s="11">
-        <v>4018</v>
+        <v>3719</v>
       </c>
       <c r="AQ75" s="11">
-        <v>3719</v>
+        <v>333</v>
       </c>
       <c r="AR75" s="11">
-        <v>333</v>
+        <v>16850</v>
       </c>
       <c r="AS75" s="11">
-        <v>16850</v>
+        <v>18883</v>
       </c>
       <c r="AT75" s="11">
-        <v>18882</v>
+        <v>13829</v>
       </c>
       <c r="AU75" s="11">
-        <v>13829</v>
+        <v>0</v>
       </c>
       <c r="AV75" s="11">
         <v>0</v>
       </c>
       <c r="AW75" s="11">
-        <v>0</v>
+        <v>7519</v>
       </c>
       <c r="AX75" s="11">
-        <v>7519</v>
+        <v>13580</v>
       </c>
       <c r="AY75" s="11">
-        <v>13580</v>
+        <v>13822</v>
       </c>
       <c r="AZ75" s="11">
-        <v>13822</v>
+        <v>14841</v>
       </c>
       <c r="BA75" s="11">
-        <v>14841</v>
+        <v>34601</v>
       </c>
       <c r="BB75" s="11">
-        <v>34585</v>
+        <v>109797</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10230,35 +10230,35 @@
       <c r="AR76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU76" s="13">
+      <c r="AS76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT76" s="13">
         <v>66818</v>
       </c>
-      <c r="AV76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW76" s="13" t="s">
-        <v>58</v>
+      <c r="AU76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="13">
+        <v>51629</v>
       </c>
       <c r="AX76" s="13">
-        <v>52421</v>
+        <v>28106</v>
       </c>
       <c r="AY76" s="13">
-        <v>28106</v>
+        <v>57720</v>
       </c>
       <c r="AZ76" s="13">
-        <v>57720</v>
+        <v>39314</v>
       </c>
       <c r="BA76" s="13">
-        <v>37621</v>
+        <v>37368</v>
       </c>
       <c r="BB76" s="13">
-        <v>37520</v>
+        <v>92031</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10331,91 +10331,91 @@
         <v>0</v>
       </c>
       <c r="Z77" s="17">
-        <v>0</v>
+        <v>59535</v>
       </c>
       <c r="AA77" s="17">
-        <v>59535</v>
+        <v>55923</v>
       </c>
       <c r="AB77" s="17">
-        <v>55923</v>
+        <v>62417</v>
       </c>
       <c r="AC77" s="17">
-        <v>62417</v>
+        <v>83026</v>
       </c>
       <c r="AD77" s="17">
-        <v>83026</v>
+        <v>104075</v>
       </c>
       <c r="AE77" s="17">
-        <v>104075</v>
+        <v>97122</v>
       </c>
       <c r="AF77" s="17">
-        <v>97122</v>
+        <v>95974</v>
       </c>
       <c r="AG77" s="17">
-        <v>95974</v>
+        <v>76372</v>
       </c>
       <c r="AH77" s="17">
-        <v>76372</v>
+        <v>91832</v>
       </c>
       <c r="AI77" s="17">
-        <v>91832</v>
+        <v>73529</v>
       </c>
       <c r="AJ77" s="17">
-        <v>73529</v>
+        <v>116593</v>
       </c>
       <c r="AK77" s="17">
-        <v>116593</v>
+        <v>45447</v>
       </c>
       <c r="AL77" s="17">
-        <v>45447</v>
+        <v>8387</v>
       </c>
       <c r="AM77" s="17">
-        <v>8387</v>
+        <v>83166</v>
       </c>
       <c r="AN77" s="17">
-        <v>83166</v>
+        <v>101747</v>
       </c>
       <c r="AO77" s="17">
-        <v>101747</v>
+        <v>66118</v>
       </c>
       <c r="AP77" s="17">
-        <v>66118</v>
+        <v>74332</v>
       </c>
       <c r="AQ77" s="17">
-        <v>74332</v>
+        <v>70073</v>
       </c>
       <c r="AR77" s="17">
-        <v>70073</v>
+        <v>123520</v>
       </c>
       <c r="AS77" s="17">
-        <v>123520</v>
+        <v>70072</v>
       </c>
       <c r="AT77" s="17">
-        <v>83240</v>
+        <v>103932</v>
       </c>
       <c r="AU77" s="17">
-        <v>103932</v>
+        <v>85420</v>
       </c>
       <c r="AV77" s="17">
-        <v>74725</v>
+        <v>12032</v>
       </c>
       <c r="AW77" s="17">
-        <v>92343</v>
+        <v>120375</v>
       </c>
       <c r="AX77" s="17">
-        <v>121167</v>
+        <v>101025</v>
       </c>
       <c r="AY77" s="17">
-        <v>101023</v>
+        <v>98180</v>
       </c>
       <c r="AZ77" s="17">
-        <v>98182</v>
+        <v>64593</v>
       </c>
       <c r="BA77" s="17">
-        <v>62900</v>
+        <v>98468</v>
       </c>
       <c r="BB77" s="17">
-        <v>98941</v>
+        <v>229693</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10546,8 +10546,8 @@
       <c r="Y79" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z79" s="17" t="s">
-        <v>58</v>
+      <c r="Z79" s="17">
+        <v>0</v>
       </c>
       <c r="AA79" s="17">
         <v>0</v>
@@ -10762,77 +10762,77 @@
       <c r="Y81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z81" s="11" t="s">
-        <v>58</v>
+      <c r="Z81" s="11">
+        <v>-106</v>
       </c>
       <c r="AA81" s="11">
-        <v>-106</v>
+        <v>-2472</v>
       </c>
       <c r="AB81" s="11">
-        <v>-2472</v>
+        <v>-60</v>
       </c>
       <c r="AC81" s="11">
-        <v>-60</v>
+        <v>-137</v>
       </c>
       <c r="AD81" s="11">
-        <v>-137</v>
+        <v>-3833</v>
       </c>
       <c r="AE81" s="11">
-        <v>-3833</v>
+        <v>-812</v>
       </c>
       <c r="AF81" s="11">
-        <v>-812</v>
+        <v>-53</v>
       </c>
       <c r="AG81" s="11">
-        <v>-53</v>
+        <v>-129</v>
       </c>
       <c r="AH81" s="11">
-        <v>-129</v>
+        <v>-1322</v>
       </c>
       <c r="AI81" s="11">
-        <v>-1322</v>
+        <v>-768</v>
       </c>
       <c r="AJ81" s="11">
-        <v>-768</v>
+        <v>-532</v>
       </c>
       <c r="AK81" s="11">
-        <v>-532</v>
+        <v>-8083</v>
       </c>
       <c r="AL81" s="11">
-        <v>-8083</v>
+        <v>-229</v>
       </c>
       <c r="AM81" s="11">
-        <v>-229</v>
+        <v>-1726</v>
       </c>
       <c r="AN81" s="11">
-        <v>-1726</v>
+        <v>-523</v>
       </c>
       <c r="AO81" s="11">
-        <v>-523</v>
+        <v>-4920</v>
       </c>
       <c r="AP81" s="11">
-        <v>-4920</v>
+        <v>-9761</v>
       </c>
       <c r="AQ81" s="11">
-        <v>-9761</v>
+        <v>-3755</v>
       </c>
       <c r="AR81" s="11">
-        <v>-3755</v>
-      </c>
-      <c r="AS81" s="11">
         <v>-4874</v>
       </c>
-      <c r="AT81" s="11">
-        <v>-11994</v>
-      </c>
-      <c r="AU81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV81" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW81" s="11">
-        <v>-171</v>
+      <c r="AS81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU81" s="11">
+        <v>-13564</v>
+      </c>
+      <c r="AV81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX81" s="11" t="s">
         <v>58</v>
@@ -10921,92 +10921,92 @@
       <c r="Y82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="13" t="s">
-        <v>58</v>
+      <c r="Z82" s="13">
+        <v>-85</v>
       </c>
       <c r="AA82" s="13">
-        <v>-85</v>
+        <v>-5756</v>
       </c>
       <c r="AB82" s="13">
-        <v>-5756</v>
+        <v>-6318</v>
       </c>
       <c r="AC82" s="13">
-        <v>-6318</v>
+        <v>-2640</v>
       </c>
       <c r="AD82" s="13">
-        <v>-2640</v>
+        <v>-6145</v>
       </c>
       <c r="AE82" s="13">
-        <v>-6145</v>
+        <v>-3048</v>
       </c>
       <c r="AF82" s="13">
-        <v>-3048</v>
+        <v>-2505</v>
       </c>
       <c r="AG82" s="13">
-        <v>-2505</v>
+        <v>-1566</v>
       </c>
       <c r="AH82" s="13">
-        <v>-1566</v>
+        <v>-3535</v>
       </c>
       <c r="AI82" s="13">
-        <v>-3535</v>
+        <v>-305</v>
       </c>
       <c r="AJ82" s="13">
-        <v>-305</v>
+        <v>-291</v>
       </c>
       <c r="AK82" s="13">
-        <v>-291</v>
+        <v>-1972</v>
       </c>
       <c r="AL82" s="13">
-        <v>-1972</v>
+        <v>-3272</v>
       </c>
       <c r="AM82" s="13">
-        <v>-3272</v>
+        <v>-341</v>
       </c>
       <c r="AN82" s="13">
-        <v>-341</v>
+        <v>-2253</v>
       </c>
       <c r="AO82" s="13">
-        <v>-2253</v>
+        <v>0</v>
       </c>
       <c r="AP82" s="13">
-        <v>0</v>
+        <v>-3407</v>
       </c>
       <c r="AQ82" s="13">
-        <v>-3407</v>
+        <v>-9764</v>
       </c>
       <c r="AR82" s="13">
-        <v>-9764</v>
+        <v>-8583</v>
       </c>
       <c r="AS82" s="13">
-        <v>-8583</v>
+        <v>-14593</v>
       </c>
       <c r="AT82" s="13">
-        <v>-14577</v>
+        <v>-5521</v>
       </c>
       <c r="AU82" s="13">
-        <v>-5521</v>
+        <v>-3671</v>
       </c>
       <c r="AV82" s="13">
-        <v>0</v>
+        <v>-2060</v>
       </c>
       <c r="AW82" s="13">
-        <v>-2260</v>
+        <v>-5387</v>
       </c>
       <c r="AX82" s="13">
-        <v>-5376</v>
+        <v>-7822</v>
       </c>
       <c r="AY82" s="13">
-        <v>-9343</v>
+        <v>-9344</v>
       </c>
       <c r="AZ82" s="13">
-        <v>-8468</v>
+        <v>-9351</v>
       </c>
       <c r="BA82" s="13">
-        <v>-8103</v>
+        <v>-4197</v>
       </c>
       <c r="BB82" s="13">
-        <v>-4197</v>
+        <v>-9317</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11080,92 +11080,92 @@
       <c r="Y83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z83" s="11" t="s">
-        <v>58</v>
+      <c r="Z83" s="11">
+        <v>0</v>
       </c>
       <c r="AA83" s="11">
         <v>0</v>
       </c>
       <c r="AB83" s="11">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="AC83" s="11">
-        <v>-161</v>
+        <v>-2322</v>
       </c>
       <c r="AD83" s="11">
-        <v>-2322</v>
+        <v>-343</v>
       </c>
       <c r="AE83" s="11">
-        <v>-343</v>
+        <v>-5950</v>
       </c>
       <c r="AF83" s="11">
-        <v>-5950</v>
+        <v>-5</v>
       </c>
       <c r="AG83" s="11">
-        <v>-5</v>
+        <v>-21821</v>
       </c>
       <c r="AH83" s="11">
-        <v>-21821</v>
+        <v>-860</v>
       </c>
       <c r="AI83" s="11">
-        <v>-860</v>
+        <v>-797</v>
       </c>
       <c r="AJ83" s="11">
-        <v>-797</v>
+        <v>-1485</v>
       </c>
       <c r="AK83" s="11">
-        <v>-1485</v>
+        <v>-1533</v>
       </c>
       <c r="AL83" s="11">
-        <v>-1533</v>
+        <v>-2667</v>
       </c>
       <c r="AM83" s="11">
-        <v>-2667</v>
+        <v>-4119</v>
       </c>
       <c r="AN83" s="11">
-        <v>-4119</v>
+        <v>-5120</v>
       </c>
       <c r="AO83" s="11">
-        <v>-5120</v>
+        <v>-3819</v>
       </c>
       <c r="AP83" s="11">
-        <v>-3819</v>
+        <v>-8680</v>
       </c>
       <c r="AQ83" s="11">
-        <v>-8680</v>
+        <v>-850</v>
       </c>
       <c r="AR83" s="11">
-        <v>-850</v>
+        <v>-790</v>
       </c>
       <c r="AS83" s="11">
-        <v>-790</v>
+        <v>-12083</v>
       </c>
       <c r="AT83" s="11">
-        <v>-12081</v>
+        <v>-19728</v>
       </c>
       <c r="AU83" s="11">
-        <v>-19728</v>
+        <v>-94</v>
       </c>
       <c r="AV83" s="11">
-        <v>0</v>
+        <v>-11808</v>
       </c>
       <c r="AW83" s="11">
-        <v>-3561</v>
+        <v>-32717</v>
       </c>
       <c r="AX83" s="11">
-        <v>-31350</v>
+        <v>-18544</v>
       </c>
       <c r="AY83" s="11">
-        <v>-23236</v>
+        <v>-70834</v>
       </c>
       <c r="AZ83" s="11">
-        <v>-65685</v>
+        <v>-31331</v>
       </c>
       <c r="BA83" s="11">
-        <v>-31331</v>
+        <v>-75393</v>
       </c>
       <c r="BB83" s="11">
-        <v>-73776</v>
+        <v>-49444</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11254,11 +11254,11 @@
       <c r="AD84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE84" s="13" t="s">
-        <v>58</v>
+      <c r="AE84" s="13">
+        <v>-26000</v>
       </c>
       <c r="AF84" s="13">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="AG84" s="13">
         <v>0</v>
@@ -11266,8 +11266,8 @@
       <c r="AH84" s="13">
         <v>0</v>
       </c>
-      <c r="AI84" s="13">
-        <v>0</v>
+      <c r="AI84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ84" s="13" t="s">
         <v>58</v>
@@ -11290,8 +11290,8 @@
       <c r="AP84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ84" s="13" t="s">
-        <v>58</v>
+      <c r="AQ84" s="13">
+        <v>0</v>
       </c>
       <c r="AR84" s="13">
         <v>0</v>
@@ -11302,8 +11302,8 @@
       <c r="AT84" s="13">
         <v>0</v>
       </c>
-      <c r="AU84" s="13">
-        <v>0</v>
+      <c r="AU84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV84" s="13" t="s">
         <v>58</v>
@@ -11455,35 +11455,35 @@
       <c r="AR85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU85" s="11">
+      <c r="AS85" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="11">
         <v>-17776</v>
       </c>
-      <c r="AV85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW85" s="11" t="s">
-        <v>58</v>
+      <c r="AU85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV85" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="11">
+        <v>-9915</v>
       </c>
       <c r="AX85" s="11">
-        <v>-9926</v>
+        <v>-25387</v>
       </c>
       <c r="AY85" s="11">
-        <v>-15485</v>
+        <v>-20478</v>
       </c>
       <c r="AZ85" s="11">
-        <v>-18435</v>
+        <v>-393</v>
       </c>
       <c r="BA85" s="11">
-        <v>-393</v>
+        <v>-5781</v>
       </c>
       <c r="BB85" s="11">
-        <v>-5781</v>
+        <v>-12182</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11557,92 +11557,92 @@
       <c r="Y86" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="15" t="s">
-        <v>58</v>
+      <c r="Z86" s="15">
+        <v>-191</v>
       </c>
       <c r="AA86" s="15">
-        <v>-191</v>
+        <v>-8228</v>
       </c>
       <c r="AB86" s="15">
-        <v>-8228</v>
+        <v>-6539</v>
       </c>
       <c r="AC86" s="15">
-        <v>-6539</v>
+        <v>-5099</v>
       </c>
       <c r="AD86" s="15">
-        <v>-5099</v>
+        <v>-10321</v>
       </c>
       <c r="AE86" s="15">
-        <v>-10321</v>
+        <v>-35810</v>
       </c>
       <c r="AF86" s="15">
-        <v>-35810</v>
+        <v>-2563</v>
       </c>
       <c r="AG86" s="15">
-        <v>-2563</v>
+        <v>-23516</v>
       </c>
       <c r="AH86" s="15">
-        <v>-23516</v>
+        <v>-5717</v>
       </c>
       <c r="AI86" s="15">
-        <v>-5717</v>
+        <v>-1870</v>
       </c>
       <c r="AJ86" s="15">
-        <v>-1870</v>
+        <v>-2308</v>
       </c>
       <c r="AK86" s="15">
-        <v>-2308</v>
+        <v>-11588</v>
       </c>
       <c r="AL86" s="15">
-        <v>-11588</v>
+        <v>-6168</v>
       </c>
       <c r="AM86" s="15">
-        <v>-6168</v>
+        <v>-6186</v>
       </c>
       <c r="AN86" s="15">
-        <v>-6186</v>
+        <v>-7896</v>
       </c>
       <c r="AO86" s="15">
-        <v>-7896</v>
+        <v>-8739</v>
       </c>
       <c r="AP86" s="15">
-        <v>-8739</v>
+        <v>-21848</v>
       </c>
       <c r="AQ86" s="15">
-        <v>-21848</v>
+        <v>-14369</v>
       </c>
       <c r="AR86" s="15">
-        <v>-14369</v>
+        <v>-14247</v>
       </c>
       <c r="AS86" s="15">
-        <v>-14247</v>
+        <v>-38670</v>
       </c>
       <c r="AT86" s="15">
-        <v>-38652</v>
+        <v>-43025</v>
       </c>
       <c r="AU86" s="15">
-        <v>-43025</v>
+        <v>-17329</v>
       </c>
       <c r="AV86" s="15">
-        <v>0</v>
+        <v>-30095</v>
       </c>
       <c r="AW86" s="15">
-        <v>-5992</v>
+        <v>-48019</v>
       </c>
       <c r="AX86" s="15">
-        <v>-46652</v>
+        <v>-51753</v>
       </c>
       <c r="AY86" s="15">
-        <v>-48064</v>
+        <v>-100656</v>
       </c>
       <c r="AZ86" s="15">
-        <v>-92588</v>
+        <v>-41075</v>
       </c>
       <c r="BA86" s="15">
-        <v>-39827</v>
+        <v>-85371</v>
       </c>
       <c r="BB86" s="15">
-        <v>-83754</v>
+        <v>-70943</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11773,86 +11773,86 @@
       <c r="Y88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z88" s="11" t="s">
-        <v>58</v>
+      <c r="Z88" s="11">
+        <v>-9160</v>
       </c>
       <c r="AA88" s="11">
-        <v>-9160</v>
+        <v>-5836</v>
       </c>
       <c r="AB88" s="11">
-        <v>-5836</v>
+        <v>-3438</v>
       </c>
       <c r="AC88" s="11">
-        <v>-3438</v>
+        <v>-4747</v>
       </c>
       <c r="AD88" s="11">
-        <v>-4747</v>
+        <v>-7266</v>
       </c>
       <c r="AE88" s="11">
-        <v>-7266</v>
+        <v>-12062</v>
       </c>
       <c r="AF88" s="11">
-        <v>-12062</v>
+        <v>-18287</v>
       </c>
       <c r="AG88" s="11">
-        <v>-18287</v>
+        <v>-21548</v>
       </c>
       <c r="AH88" s="11">
-        <v>-21548</v>
+        <v>-10130</v>
       </c>
       <c r="AI88" s="11">
-        <v>-10130</v>
+        <v>-10758</v>
       </c>
       <c r="AJ88" s="11">
-        <v>-10758</v>
+        <v>-40983</v>
       </c>
       <c r="AK88" s="11">
-        <v>-40983</v>
+        <v>-75350</v>
       </c>
       <c r="AL88" s="11">
-        <v>-75350</v>
+        <v>-77417</v>
       </c>
       <c r="AM88" s="11">
-        <v>-77417</v>
+        <v>-67116</v>
       </c>
       <c r="AN88" s="11">
-        <v>-67116</v>
+        <v>-48926</v>
       </c>
       <c r="AO88" s="11">
-        <v>-48926</v>
+        <v>-37210</v>
       </c>
       <c r="AP88" s="11">
-        <v>-37210</v>
+        <v>-37940</v>
       </c>
       <c r="AQ88" s="11">
-        <v>-37940</v>
+        <v>-43879</v>
       </c>
       <c r="AR88" s="11">
-        <v>-43879</v>
+        <v>-29439</v>
       </c>
       <c r="AS88" s="11">
-        <v>-29439</v>
+        <v>-420</v>
       </c>
       <c r="AT88" s="11">
-        <v>-453</v>
+        <v>1151</v>
       </c>
       <c r="AU88" s="11">
-        <v>1151</v>
+        <v>-493</v>
       </c>
       <c r="AV88" s="11">
-        <v>-493</v>
+        <v>-2327</v>
       </c>
       <c r="AW88" s="11">
-        <v>-1804</v>
+        <v>1</v>
       </c>
       <c r="AX88" s="11">
         <v>0</v>
       </c>
       <c r="AY88" s="11">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AZ88" s="11">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="BA88" s="11">
         <v>0</v>
@@ -11931,91 +11931,91 @@
         <v>0</v>
       </c>
       <c r="Z89" s="15">
-        <v>0</v>
+        <v>182721</v>
       </c>
       <c r="AA89" s="15">
-        <v>182721</v>
+        <v>182232</v>
       </c>
       <c r="AB89" s="15">
-        <v>182232</v>
+        <v>200089</v>
       </c>
       <c r="AC89" s="15">
-        <v>200089</v>
+        <v>203733</v>
       </c>
       <c r="AD89" s="15">
-        <v>203733</v>
+        <v>254074</v>
       </c>
       <c r="AE89" s="15">
-        <v>254074</v>
+        <v>293404</v>
       </c>
       <c r="AF89" s="15">
-        <v>293404</v>
+        <v>282332</v>
       </c>
       <c r="AG89" s="15">
-        <v>282332</v>
+        <v>216480</v>
       </c>
       <c r="AH89" s="15">
-        <v>216480</v>
+        <v>259739</v>
       </c>
       <c r="AI89" s="15">
-        <v>259739</v>
+        <v>185796</v>
       </c>
       <c r="AJ89" s="15">
-        <v>185796</v>
+        <v>285923</v>
       </c>
       <c r="AK89" s="15">
-        <v>285923</v>
+        <v>340766</v>
       </c>
       <c r="AL89" s="15">
-        <v>340766</v>
+        <v>345283</v>
       </c>
       <c r="AM89" s="15">
-        <v>345283</v>
+        <v>381023</v>
       </c>
       <c r="AN89" s="15">
-        <v>381023</v>
+        <v>384103</v>
       </c>
       <c r="AO89" s="15">
-        <v>384103</v>
+        <v>381845</v>
       </c>
       <c r="AP89" s="15">
-        <v>381845</v>
+        <v>347973</v>
       </c>
       <c r="AQ89" s="15">
-        <v>347973</v>
+        <v>378076</v>
       </c>
       <c r="AR89" s="15">
-        <v>378076</v>
+        <v>400775</v>
       </c>
       <c r="AS89" s="15">
-        <v>400775</v>
+        <v>363025</v>
       </c>
       <c r="AT89" s="15">
-        <v>501714</v>
+        <v>585208</v>
       </c>
       <c r="AU89" s="15">
-        <v>585208</v>
+        <v>326714</v>
       </c>
       <c r="AV89" s="15">
-        <v>361646</v>
+        <v>515695</v>
       </c>
       <c r="AW89" s="15">
-        <v>626042</v>
+        <v>945354</v>
       </c>
       <c r="AX89" s="15">
-        <v>947192</v>
+        <v>1008546</v>
       </c>
       <c r="AY89" s="15">
-        <v>1041341</v>
+        <v>1054419</v>
       </c>
       <c r="AZ89" s="15">
-        <v>1062307</v>
+        <v>1051240</v>
       </c>
       <c r="BA89" s="15">
-        <v>1051372</v>
+        <v>1057056</v>
       </c>
       <c r="BB89" s="15">
-        <v>1071240</v>
+        <v>1018188</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -12565,11 +12565,11 @@
       <c r="AM96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO96" s="11">
+      <c r="AN96" s="11">
         <v>182850</v>
+      </c>
+      <c r="AO96" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP96" s="11" t="s">
         <v>58</v>
@@ -12682,77 +12682,77 @@
       <c r="Y97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z97" s="13" t="s">
-        <v>58</v>
+      <c r="Z97" s="13">
+        <v>345005</v>
       </c>
       <c r="AA97" s="13">
-        <v>345005</v>
+        <v>355173</v>
       </c>
       <c r="AB97" s="13">
-        <v>355173</v>
+        <v>460698</v>
       </c>
       <c r="AC97" s="13">
-        <v>460698</v>
+        <v>397778</v>
       </c>
       <c r="AD97" s="13">
-        <v>397778</v>
+        <v>303396</v>
       </c>
       <c r="AE97" s="13">
-        <v>303396</v>
+        <v>661831</v>
       </c>
       <c r="AF97" s="13">
-        <v>661831</v>
+        <v>564885</v>
       </c>
       <c r="AG97" s="13">
-        <v>564885</v>
+        <v>815868</v>
       </c>
       <c r="AH97" s="13">
-        <v>815868</v>
+        <v>547344</v>
       </c>
       <c r="AI97" s="13">
-        <v>547344</v>
+        <v>566913</v>
       </c>
       <c r="AJ97" s="13">
-        <v>566913</v>
+        <v>786113</v>
       </c>
       <c r="AK97" s="13">
-        <v>786113</v>
+        <v>791325</v>
       </c>
       <c r="AL97" s="13">
-        <v>791325</v>
+        <v>722203</v>
       </c>
       <c r="AM97" s="13">
-        <v>722203</v>
+        <v>798683</v>
       </c>
       <c r="AN97" s="13">
-        <v>798683</v>
+        <v>858714</v>
       </c>
       <c r="AO97" s="13">
-        <v>858714</v>
+        <v>986100</v>
       </c>
       <c r="AP97" s="13">
-        <v>986100</v>
+        <v>852788</v>
       </c>
       <c r="AQ97" s="13">
-        <v>852788</v>
+        <v>893718</v>
       </c>
       <c r="AR97" s="13">
-        <v>893718</v>
-      </c>
-      <c r="AS97" s="13">
         <v>916726</v>
       </c>
-      <c r="AT97" s="13">
-        <v>850863</v>
-      </c>
-      <c r="AU97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV97" s="13">
+      <c r="AS97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU97" s="13">
         <v>876560</v>
       </c>
-      <c r="AW97" s="13">
-        <v>1410090</v>
+      <c r="AV97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX97" s="13" t="s">
         <v>58</v>
@@ -12841,92 +12841,92 @@
       <c r="Y98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z98" s="11" t="s">
-        <v>58</v>
+      <c r="Z98" s="11">
+        <v>343500</v>
       </c>
       <c r="AA98" s="11">
-        <v>343500</v>
+        <v>304012</v>
       </c>
       <c r="AB98" s="11">
-        <v>304012</v>
+        <v>356025</v>
       </c>
       <c r="AC98" s="11">
-        <v>356025</v>
+        <v>261947</v>
       </c>
       <c r="AD98" s="11">
-        <v>261947</v>
+        <v>441131</v>
       </c>
       <c r="AE98" s="11">
-        <v>441131</v>
+        <v>300213</v>
       </c>
       <c r="AF98" s="11">
-        <v>300213</v>
+        <v>381869</v>
       </c>
       <c r="AG98" s="11">
-        <v>381869</v>
+        <v>217607</v>
       </c>
       <c r="AH98" s="11">
-        <v>217607</v>
+        <v>334301</v>
       </c>
       <c r="AI98" s="11">
-        <v>334301</v>
+        <v>583770</v>
       </c>
       <c r="AJ98" s="11">
-        <v>583770</v>
+        <v>699461</v>
       </c>
       <c r="AK98" s="11">
-        <v>699461</v>
+        <v>842987</v>
       </c>
       <c r="AL98" s="11">
-        <v>842987</v>
+        <v>894141</v>
       </c>
       <c r="AM98" s="11">
-        <v>894141</v>
+        <v>385001</v>
       </c>
       <c r="AN98" s="11">
-        <v>385001</v>
+        <v>1021438</v>
       </c>
       <c r="AO98" s="11">
-        <v>1021438</v>
+        <v>655534</v>
       </c>
       <c r="AP98" s="11">
-        <v>655534</v>
+        <v>734842</v>
       </c>
       <c r="AQ98" s="11">
-        <v>734842</v>
+        <v>810402</v>
       </c>
       <c r="AR98" s="11">
-        <v>810402</v>
+        <v>793370</v>
       </c>
       <c r="AS98" s="11">
-        <v>793370</v>
+        <v>571962</v>
       </c>
       <c r="AT98" s="11">
-        <v>571962</v>
+        <v>463996</v>
       </c>
       <c r="AU98" s="11">
-        <v>463996</v>
+        <v>987731</v>
       </c>
       <c r="AV98" s="11">
-        <v>987731</v>
+        <v>668472</v>
       </c>
       <c r="AW98" s="11">
-        <v>668969</v>
+        <v>970291</v>
       </c>
       <c r="AX98" s="11">
-        <v>980219</v>
+        <v>803241</v>
       </c>
       <c r="AY98" s="11">
-        <v>803241</v>
+        <v>763450</v>
       </c>
       <c r="AZ98" s="11">
-        <v>763450</v>
+        <v>639901</v>
       </c>
       <c r="BA98" s="11">
-        <v>639901</v>
+        <v>716518</v>
       </c>
       <c r="BB98" s="11">
-        <v>716639</v>
+        <v>919912</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13000,92 +13000,92 @@
       <c r="Y99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z99" s="13" t="s">
-        <v>58</v>
+      <c r="Z99" s="13">
+        <v>771463</v>
       </c>
       <c r="AA99" s="13">
-        <v>771463</v>
+        <v>803728</v>
       </c>
       <c r="AB99" s="13">
-        <v>803728</v>
+        <v>701957</v>
       </c>
       <c r="AC99" s="13">
-        <v>701957</v>
+        <v>856489</v>
       </c>
       <c r="AD99" s="13">
-        <v>856489</v>
+        <v>1092309</v>
       </c>
       <c r="AE99" s="13">
-        <v>1092309</v>
+        <v>1164616</v>
       </c>
       <c r="AF99" s="13">
-        <v>1164616</v>
+        <v>1369212</v>
       </c>
       <c r="AG99" s="13">
-        <v>1369212</v>
+        <v>1121876</v>
       </c>
       <c r="AH99" s="13">
-        <v>1121876</v>
+        <v>850939</v>
       </c>
       <c r="AI99" s="13">
-        <v>850939</v>
+        <v>1047802</v>
       </c>
       <c r="AJ99" s="13">
-        <v>1047802</v>
+        <v>1419731</v>
       </c>
       <c r="AK99" s="13">
-        <v>1419731</v>
+        <v>1659760</v>
       </c>
       <c r="AL99" s="13">
-        <v>1659760</v>
+        <v>1912497</v>
       </c>
       <c r="AM99" s="13">
-        <v>1912497</v>
+        <v>1986259</v>
       </c>
       <c r="AN99" s="13">
-        <v>1986259</v>
+        <v>1795723</v>
       </c>
       <c r="AO99" s="13">
-        <v>1795723</v>
+        <v>1688300</v>
       </c>
       <c r="AP99" s="13">
-        <v>1688300</v>
+        <v>1695187</v>
       </c>
       <c r="AQ99" s="13">
-        <v>1695187</v>
+        <v>2034363</v>
       </c>
       <c r="AR99" s="13">
-        <v>2034363</v>
+        <v>1678324</v>
       </c>
       <c r="AS99" s="13">
-        <v>1678324</v>
+        <v>1592005</v>
       </c>
       <c r="AT99" s="13">
-        <v>1591066</v>
+        <v>1814742</v>
       </c>
       <c r="AU99" s="13">
-        <v>1814742</v>
+        <v>1829919</v>
       </c>
       <c r="AV99" s="13">
-        <v>2051001</v>
+        <v>2041808</v>
       </c>
       <c r="AW99" s="13">
-        <v>2048719</v>
+        <v>2087713</v>
       </c>
       <c r="AX99" s="13">
-        <v>2090276</v>
+        <v>2110695</v>
       </c>
       <c r="AY99" s="13">
-        <v>2109950</v>
+        <v>2416690</v>
       </c>
       <c r="AZ99" s="13">
-        <v>2416218</v>
+        <v>2718745</v>
       </c>
       <c r="BA99" s="13">
-        <v>2720316</v>
+        <v>2720573</v>
       </c>
       <c r="BB99" s="13">
-        <v>2764635</v>
+        <v>2402937</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13168,17 +13168,17 @@
       <c r="AB100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC100" s="11" t="s">
-        <v>58</v>
+      <c r="AC100" s="11">
+        <v>515380</v>
       </c>
       <c r="AD100" s="11">
-        <v>515380</v>
+        <v>643785</v>
       </c>
       <c r="AE100" s="11">
-        <v>643785</v>
-      </c>
-      <c r="AF100" s="11">
         <v>445033</v>
+      </c>
+      <c r="AF100" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG100" s="11" t="s">
         <v>58</v>
@@ -13375,35 +13375,35 @@
       <c r="AR101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU101" s="13">
+      <c r="AS101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT101" s="13">
         <v>875475</v>
       </c>
-      <c r="AV101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW101" s="13" t="s">
-        <v>58</v>
+      <c r="AU101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW101" s="13">
+        <v>971971</v>
       </c>
       <c r="AX101" s="13">
-        <v>977042</v>
+        <v>1187019</v>
       </c>
       <c r="AY101" s="13">
-        <v>1188869</v>
+        <v>1049408</v>
       </c>
       <c r="AZ101" s="13">
-        <v>1049408</v>
+        <v>616337</v>
       </c>
       <c r="BA101" s="13">
-        <v>616337</v>
+        <v>820974</v>
       </c>
       <c r="BB101" s="13">
-        <v>821419</v>
+        <v>806434</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -13534,77 +13534,77 @@
       <c r="Y103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z103" s="11" t="s">
-        <v>58</v>
+      <c r="Z103" s="11">
+        <v>318110</v>
       </c>
       <c r="AA103" s="11">
-        <v>318110</v>
+        <v>353000</v>
       </c>
       <c r="AB103" s="11">
-        <v>353000</v>
+        <v>338871</v>
       </c>
       <c r="AC103" s="11">
-        <v>338871</v>
+        <v>432309</v>
       </c>
       <c r="AD103" s="11">
-        <v>432309</v>
+        <v>543062</v>
       </c>
       <c r="AE103" s="11">
-        <v>543062</v>
+        <v>539820</v>
       </c>
       <c r="AF103" s="11">
-        <v>539820</v>
+        <v>491491</v>
       </c>
       <c r="AG103" s="11">
-        <v>491491</v>
+        <v>487712</v>
       </c>
       <c r="AH103" s="11">
-        <v>487712</v>
+        <v>587810</v>
       </c>
       <c r="AI103" s="11">
-        <v>587810</v>
+        <v>528214</v>
       </c>
       <c r="AJ103" s="11">
-        <v>528214</v>
+        <v>604625</v>
       </c>
       <c r="AK103" s="11">
-        <v>604625</v>
+        <v>666939</v>
       </c>
       <c r="AL103" s="11">
-        <v>666939</v>
+        <v>582169</v>
       </c>
       <c r="AM103" s="11">
-        <v>582169</v>
+        <v>582431</v>
       </c>
       <c r="AN103" s="11">
-        <v>582431</v>
+        <v>669963</v>
       </c>
       <c r="AO103" s="11">
-        <v>669963</v>
+        <v>723114</v>
       </c>
       <c r="AP103" s="11">
-        <v>723114</v>
+        <v>718398</v>
       </c>
       <c r="AQ103" s="11">
-        <v>718398</v>
+        <v>691104</v>
       </c>
       <c r="AR103" s="11">
-        <v>691104</v>
-      </c>
-      <c r="AS103" s="11">
         <v>660230</v>
       </c>
-      <c r="AT103" s="11">
-        <v>938090</v>
-      </c>
-      <c r="AU103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV103" s="11">
-        <v>674957</v>
-      </c>
-      <c r="AW103" s="11">
-        <v>666798</v>
+      <c r="AS103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU103" s="11">
+        <v>701564</v>
+      </c>
+      <c r="AV103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX103" s="11" t="s">
         <v>58</v>
@@ -13693,92 +13693,92 @@
       <c r="Y104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z104" s="13" t="s">
-        <v>58</v>
+      <c r="Z104" s="13">
+        <v>241114</v>
       </c>
       <c r="AA104" s="13">
-        <v>241114</v>
+        <v>285588</v>
       </c>
       <c r="AB104" s="13">
-        <v>285588</v>
+        <v>317132</v>
       </c>
       <c r="AC104" s="13">
-        <v>317132</v>
+        <v>326488</v>
       </c>
       <c r="AD104" s="13">
-        <v>326488</v>
+        <v>427688</v>
       </c>
       <c r="AE104" s="13">
-        <v>427688</v>
+        <v>410359</v>
       </c>
       <c r="AF104" s="13">
-        <v>410359</v>
+        <v>459861</v>
       </c>
       <c r="AG104" s="13">
-        <v>459861</v>
+        <v>455026</v>
       </c>
       <c r="AH104" s="13">
-        <v>455026</v>
+        <v>463490</v>
       </c>
       <c r="AI104" s="13">
-        <v>463490</v>
+        <v>482755</v>
       </c>
       <c r="AJ104" s="13">
-        <v>482755</v>
+        <v>486186</v>
       </c>
       <c r="AK104" s="13">
-        <v>486186</v>
+        <v>513159</v>
       </c>
       <c r="AL104" s="13">
-        <v>513159</v>
+        <v>831747</v>
       </c>
       <c r="AM104" s="13">
-        <v>831747</v>
+        <v>531944</v>
       </c>
       <c r="AN104" s="13">
-        <v>531944</v>
+        <v>534508</v>
       </c>
       <c r="AO104" s="13">
-        <v>534508</v>
+        <v>834028</v>
       </c>
       <c r="AP104" s="13">
-        <v>834028</v>
+        <v>773416</v>
       </c>
       <c r="AQ104" s="13">
-        <v>773416</v>
+        <v>847190</v>
       </c>
       <c r="AR104" s="13">
-        <v>847190</v>
+        <v>625177</v>
       </c>
       <c r="AS104" s="13">
-        <v>625177</v>
+        <v>648729</v>
       </c>
       <c r="AT104" s="13">
-        <v>649261</v>
+        <v>614072</v>
       </c>
       <c r="AU104" s="13">
-        <v>614072</v>
+        <v>523820</v>
       </c>
       <c r="AV104" s="13">
-        <v>523820</v>
+        <v>639396</v>
       </c>
       <c r="AW104" s="13">
-        <v>564051</v>
+        <v>555226</v>
       </c>
       <c r="AX104" s="13">
-        <v>555226</v>
+        <v>568572</v>
       </c>
       <c r="AY104" s="13">
-        <v>568564</v>
+        <v>582621</v>
       </c>
       <c r="AZ104" s="13">
-        <v>582664</v>
+        <v>672378</v>
       </c>
       <c r="BA104" s="13">
-        <v>672378</v>
+        <v>657821</v>
       </c>
       <c r="BB104" s="13">
-        <v>666187</v>
+        <v>706212</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
@@ -13852,92 +13852,92 @@
       <c r="Y105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA105" s="11">
+      <c r="Z105" s="11">
         <v>1079832</v>
       </c>
-      <c r="AB105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC105" s="11">
+      <c r="AA105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB105" s="11">
         <v>810000</v>
       </c>
-      <c r="AD105" s="11" t="s">
-        <v>58</v>
+      <c r="AC105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD105" s="11">
+        <v>1176471</v>
       </c>
       <c r="AE105" s="11">
-        <v>1176471</v>
+        <v>1424333</v>
       </c>
       <c r="AF105" s="11">
-        <v>1424333</v>
+        <v>1040000</v>
       </c>
       <c r="AG105" s="11">
-        <v>1040000</v>
+        <v>1170093</v>
       </c>
       <c r="AH105" s="11">
-        <v>1170093</v>
+        <v>1164179</v>
       </c>
       <c r="AI105" s="11">
-        <v>1164179</v>
-      </c>
-      <c r="AJ105" s="11">
         <v>1045511</v>
       </c>
-      <c r="AK105" s="11" t="s">
-        <v>58</v>
+      <c r="AJ105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK105" s="11">
+        <v>1040863</v>
       </c>
       <c r="AL105" s="11">
-        <v>1040863</v>
-      </c>
-      <c r="AM105" s="11">
         <v>1383348</v>
       </c>
-      <c r="AN105" s="11" t="s">
-        <v>58</v>
+      <c r="AM105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN105" s="11">
+        <v>1855212</v>
       </c>
       <c r="AO105" s="11">
-        <v>1855212</v>
+        <v>2088358</v>
       </c>
       <c r="AP105" s="11">
-        <v>2088358</v>
+        <v>1818582</v>
       </c>
       <c r="AQ105" s="11">
-        <v>1818582</v>
+        <v>1043887</v>
       </c>
       <c r="AR105" s="11">
-        <v>1043887</v>
+        <v>1936782</v>
       </c>
       <c r="AS105" s="11">
-        <v>1936782</v>
+        <v>1838585</v>
       </c>
       <c r="AT105" s="11">
-        <v>1838559</v>
-      </c>
-      <c r="AU105" s="11">
         <v>1781399</v>
       </c>
+      <c r="AU105" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW105" s="11" t="s">
-        <v>58</v>
+      <c r="AW105" s="11">
+        <v>2061695</v>
       </c>
       <c r="AX105" s="11">
-        <v>2061695</v>
+        <v>2180475</v>
       </c>
       <c r="AY105" s="11">
-        <v>2180475</v>
+        <v>2012522</v>
       </c>
       <c r="AZ105" s="11">
-        <v>2012522</v>
+        <v>1935194</v>
       </c>
       <c r="BA105" s="11">
-        <v>1935194</v>
+        <v>1948145</v>
       </c>
       <c r="BB105" s="11">
-        <v>1947244</v>
+        <v>1799390</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14068,35 +14068,35 @@
       <c r="AR106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU106" s="13">
+      <c r="AS106" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT106" s="13">
         <v>832613</v>
       </c>
-      <c r="AV106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW106" s="13" t="s">
-        <v>58</v>
+      <c r="AU106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV106" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW106" s="13">
+        <v>728724</v>
       </c>
       <c r="AX106" s="13">
-        <v>731146</v>
+        <v>881480</v>
       </c>
       <c r="AY106" s="13">
-        <v>881480</v>
+        <v>876338</v>
       </c>
       <c r="AZ106" s="13">
-        <v>876338</v>
+        <v>746478</v>
       </c>
       <c r="BA106" s="13">
-        <v>714332</v>
+        <v>798444</v>
       </c>
       <c r="BB106" s="13">
-        <v>801692</v>
+        <v>717837</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/kashi/kehafez/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kehafez/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8ED609-3E3E-4620-904B-1FEB30B59988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C0129-FBEE-4D7A-BCDA-62B1573D72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کحافظ-کاشی‌ وسرامیک‌ حافظ‌</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1549,29 +1549,29 @@
       <c r="AL11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN11" s="11">
+      <c r="AM11" s="11">
         <v>8548</v>
       </c>
+      <c r="AN11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO11" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AP11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>0</v>
+      <c r="AQ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>58</v>
+      <c r="AT11" s="11">
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
         <v>0</v>
@@ -1666,74 +1666,74 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>180311</v>
       </c>
       <c r="Z12" s="13">
-        <v>180311</v>
+        <v>163756</v>
       </c>
       <c r="AA12" s="13">
-        <v>163756</v>
+        <v>140756</v>
       </c>
       <c r="AB12" s="13">
-        <v>140756</v>
+        <v>114154</v>
       </c>
       <c r="AC12" s="13">
-        <v>114154</v>
+        <v>115458</v>
       </c>
       <c r="AD12" s="13">
-        <v>115458</v>
+        <v>129004</v>
       </c>
       <c r="AE12" s="13">
-        <v>129004</v>
+        <v>112421</v>
       </c>
       <c r="AF12" s="13">
-        <v>112421</v>
+        <v>105827</v>
       </c>
       <c r="AG12" s="13">
-        <v>105827</v>
+        <v>109669</v>
       </c>
       <c r="AH12" s="13">
-        <v>109669</v>
+        <v>144720</v>
       </c>
       <c r="AI12" s="13">
-        <v>144720</v>
+        <v>170723</v>
       </c>
       <c r="AJ12" s="13">
-        <v>170723</v>
+        <v>156453</v>
       </c>
       <c r="AK12" s="13">
-        <v>156453</v>
+        <v>164970</v>
       </c>
       <c r="AL12" s="13">
-        <v>164970</v>
+        <v>146620</v>
       </c>
       <c r="AM12" s="13">
-        <v>146620</v>
+        <v>99498</v>
       </c>
       <c r="AN12" s="13">
-        <v>99498</v>
+        <v>83400</v>
       </c>
       <c r="AO12" s="13">
-        <v>83400</v>
+        <v>64878</v>
       </c>
       <c r="AP12" s="13">
-        <v>64878</v>
+        <v>79326</v>
       </c>
       <c r="AQ12" s="13">
-        <v>79326</v>
-      </c>
-      <c r="AR12" s="13">
         <v>76512</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU12" s="13">
+      <c r="AT12" s="13">
         <v>17991</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV12" s="13" t="s">
         <v>58</v>
@@ -1825,95 +1825,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>149915</v>
       </c>
       <c r="Z13" s="11">
-        <v>149915</v>
+        <v>140115</v>
       </c>
       <c r="AA13" s="11">
-        <v>140115</v>
+        <v>125268</v>
       </c>
       <c r="AB13" s="11">
-        <v>125268</v>
+        <v>123117</v>
       </c>
       <c r="AC13" s="11">
-        <v>123117</v>
+        <v>125608</v>
       </c>
       <c r="AD13" s="11">
-        <v>125608</v>
+        <v>128398</v>
       </c>
       <c r="AE13" s="11">
-        <v>128398</v>
+        <v>133925</v>
       </c>
       <c r="AF13" s="11">
-        <v>133925</v>
+        <v>134039</v>
       </c>
       <c r="AG13" s="11">
-        <v>134039</v>
+        <v>109353</v>
       </c>
       <c r="AH13" s="11">
-        <v>109353</v>
+        <v>70283</v>
       </c>
       <c r="AI13" s="11">
-        <v>70283</v>
+        <v>134856</v>
       </c>
       <c r="AJ13" s="11">
-        <v>134856</v>
+        <v>94567</v>
       </c>
       <c r="AK13" s="11">
-        <v>94567</v>
+        <v>88076</v>
       </c>
       <c r="AL13" s="11">
-        <v>88076</v>
+        <v>133008</v>
       </c>
       <c r="AM13" s="11">
-        <v>133008</v>
+        <v>15963</v>
       </c>
       <c r="AN13" s="11">
-        <v>15963</v>
+        <v>69600</v>
       </c>
       <c r="AO13" s="11">
-        <v>69600</v>
+        <v>77034</v>
       </c>
       <c r="AP13" s="11">
-        <v>77034</v>
+        <v>59495</v>
       </c>
       <c r="AQ13" s="11">
-        <v>59495</v>
+        <v>13481</v>
       </c>
       <c r="AR13" s="11">
-        <v>13481</v>
+        <v>46806</v>
       </c>
       <c r="AS13" s="11">
-        <v>46806</v>
+        <v>80136</v>
       </c>
       <c r="AT13" s="11">
-        <v>80136</v>
+        <v>64086</v>
       </c>
       <c r="AU13" s="11">
-        <v>64086</v>
+        <v>75510</v>
       </c>
       <c r="AV13" s="11">
-        <v>75510</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="11">
-        <v>0</v>
+        <v>26807</v>
       </c>
       <c r="AX13" s="11">
-        <v>26807</v>
+        <v>80104</v>
       </c>
       <c r="AY13" s="11">
-        <v>80104</v>
+        <v>119924</v>
       </c>
       <c r="AZ13" s="11">
-        <v>119924</v>
+        <v>60720</v>
       </c>
       <c r="BA13" s="11">
-        <v>60720</v>
+        <v>45565</v>
       </c>
       <c r="BB13" s="11">
-        <v>45565</v>
+        <v>61234</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1984,95 +1984,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>108530</v>
       </c>
       <c r="Z14" s="13">
-        <v>108530</v>
+        <v>108612</v>
       </c>
       <c r="AA14" s="13">
-        <v>108612</v>
+        <v>122932</v>
       </c>
       <c r="AB14" s="13">
-        <v>122932</v>
+        <v>121312</v>
       </c>
       <c r="AC14" s="13">
-        <v>121312</v>
+        <v>127250</v>
       </c>
       <c r="AD14" s="13">
-        <v>127250</v>
+        <v>133942</v>
       </c>
       <c r="AE14" s="13">
-        <v>133942</v>
+        <v>130366</v>
       </c>
       <c r="AF14" s="13">
-        <v>130366</v>
+        <v>99533</v>
       </c>
       <c r="AG14" s="13">
-        <v>99533</v>
+        <v>113656</v>
       </c>
       <c r="AH14" s="13">
-        <v>113656</v>
+        <v>106404</v>
       </c>
       <c r="AI14" s="13">
-        <v>106404</v>
+        <v>109835</v>
       </c>
       <c r="AJ14" s="13">
-        <v>109835</v>
+        <v>121797</v>
       </c>
       <c r="AK14" s="13">
-        <v>121797</v>
+        <v>129462</v>
       </c>
       <c r="AL14" s="13">
-        <v>129462</v>
+        <v>137344</v>
       </c>
       <c r="AM14" s="13">
-        <v>137344</v>
+        <v>125051</v>
       </c>
       <c r="AN14" s="13">
-        <v>125051</v>
+        <v>120000</v>
       </c>
       <c r="AO14" s="13">
-        <v>120000</v>
+        <v>101103</v>
       </c>
       <c r="AP14" s="13">
-        <v>101103</v>
+        <v>112631</v>
       </c>
       <c r="AQ14" s="13">
-        <v>112631</v>
+        <v>224792</v>
       </c>
       <c r="AR14" s="13">
-        <v>224792</v>
+        <v>159526</v>
       </c>
       <c r="AS14" s="13">
-        <v>159526</v>
+        <v>196472</v>
       </c>
       <c r="AT14" s="13">
-        <v>196472</v>
+        <v>171881</v>
       </c>
       <c r="AU14" s="13">
-        <v>171881</v>
+        <v>195845</v>
       </c>
       <c r="AV14" s="13">
-        <v>195845</v>
+        <v>263086</v>
       </c>
       <c r="AW14" s="13">
-        <v>263086</v>
+        <v>333481</v>
       </c>
       <c r="AX14" s="13">
-        <v>333481</v>
+        <v>354473</v>
       </c>
       <c r="AY14" s="13">
-        <v>354473</v>
+        <v>385820</v>
       </c>
       <c r="AZ14" s="13">
-        <v>385820</v>
+        <v>384926</v>
       </c>
       <c r="BA14" s="13">
-        <v>384926</v>
+        <v>327586</v>
       </c>
       <c r="BB14" s="13">
-        <v>327586</v>
+        <v>439332</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2152,14 +2152,14 @@
       <c r="AA15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB15" s="11" t="s">
-        <v>58</v>
+      <c r="AB15" s="11">
+        <v>38913</v>
       </c>
       <c r="AC15" s="11">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="AD15" s="11">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="11">
         <v>0</v>
@@ -2170,8 +2170,8 @@
       <c r="AG15" s="11">
         <v>0</v>
       </c>
-      <c r="AH15" s="11">
-        <v>0</v>
+      <c r="AH15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>58</v>
@@ -2197,17 +2197,17 @@
       <c r="AP15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>0</v>
+      <c r="AQ15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>58</v>
+      <c r="AT15" s="11">
+        <v>0</v>
       </c>
       <c r="AU15" s="11">
         <v>0</v>
@@ -2302,8 +2302,8 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>0</v>
       </c>
       <c r="Z16" s="13">
         <v>0</v>
@@ -2329,8 +2329,8 @@
       <c r="AG16" s="13">
         <v>0</v>
       </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2518,38 +2518,38 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
       </c>
       <c r="AS17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="11">
         <v>76511</v>
       </c>
-      <c r="AU17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>0</v>
       </c>
       <c r="AV17" s="11">
-        <v>0</v>
+        <v>94526</v>
       </c>
       <c r="AW17" s="11">
-        <v>94526</v>
+        <v>102055</v>
       </c>
       <c r="AX17" s="11">
-        <v>102055</v>
+        <v>66174</v>
       </c>
       <c r="AY17" s="11">
-        <v>66174</v>
+        <v>104170</v>
       </c>
       <c r="AZ17" s="11">
-        <v>104170</v>
+        <v>150245</v>
       </c>
       <c r="BA17" s="11">
-        <v>150245</v>
+        <v>58111</v>
       </c>
       <c r="BB17" s="11">
-        <v>58111</v>
+        <v>22559</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2619,94 +2619,94 @@
         <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <v>0</v>
+        <v>438756</v>
       </c>
       <c r="Z18" s="15">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="AA18" s="15">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="AB18" s="15">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="AC18" s="15">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="AD18" s="15">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AE18" s="15">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AF18" s="15">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AG18" s="15">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AH18" s="15">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AI18" s="15">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AJ18" s="15">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AK18" s="15">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AL18" s="15">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AM18" s="15">
-        <v>416972</v>
+        <v>249060</v>
       </c>
       <c r="AN18" s="15">
-        <v>249060</v>
+        <v>273000</v>
       </c>
       <c r="AO18" s="15">
-        <v>273000</v>
+        <v>243015</v>
       </c>
       <c r="AP18" s="15">
-        <v>243015</v>
+        <v>251452</v>
       </c>
       <c r="AQ18" s="15">
-        <v>251452</v>
+        <v>314785</v>
       </c>
       <c r="AR18" s="15">
-        <v>314785</v>
+        <v>206332</v>
       </c>
       <c r="AS18" s="15">
-        <v>206332</v>
+        <v>353119</v>
       </c>
       <c r="AT18" s="15">
-        <v>353119</v>
+        <v>253958</v>
       </c>
       <c r="AU18" s="15">
-        <v>253958</v>
+        <v>271355</v>
       </c>
       <c r="AV18" s="15">
-        <v>271355</v>
+        <v>357612</v>
       </c>
       <c r="AW18" s="15">
-        <v>357612</v>
+        <v>462343</v>
       </c>
       <c r="AX18" s="15">
-        <v>462343</v>
+        <v>500751</v>
       </c>
       <c r="AY18" s="15">
-        <v>500751</v>
+        <v>609914</v>
       </c>
       <c r="AZ18" s="15">
-        <v>609914</v>
+        <v>595891</v>
       </c>
       <c r="BA18" s="15">
-        <v>595891</v>
+        <v>431262</v>
       </c>
       <c r="BB18" s="15">
-        <v>431262</v>
+        <v>523125</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2834,8 +2834,8 @@
       <c r="X20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="11" t="s">
-        <v>58</v>
+      <c r="Y20" s="11">
+        <v>0</v>
       </c>
       <c r="Z20" s="11">
         <v>0</v>
@@ -2867,8 +2867,8 @@
       <c r="AI20" s="11">
         <v>0</v>
       </c>
-      <c r="AJ20" s="11">
-        <v>0</v>
+      <c r="AJ20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK20" s="11" t="s">
         <v>58</v>
@@ -2876,32 +2876,32 @@
       <c r="AL20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM20" s="11" t="s">
-        <v>58</v>
+      <c r="AM20" s="11">
+        <v>53400</v>
       </c>
       <c r="AN20" s="11">
-        <v>53400</v>
+        <v>64579</v>
       </c>
       <c r="AO20" s="11">
-        <v>64579</v>
+        <v>93959</v>
       </c>
       <c r="AP20" s="11">
-        <v>93959</v>
+        <v>73973</v>
       </c>
       <c r="AQ20" s="11">
-        <v>73973</v>
-      </c>
-      <c r="AR20" s="11">
         <v>43967</v>
       </c>
+      <c r="AR20" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU20" s="11">
+      <c r="AT20" s="11">
         <v>115080</v>
+      </c>
+      <c r="AU20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV20" s="11" t="s">
         <v>58</v>
@@ -2993,8 +2993,8 @@
       <c r="X21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="13" t="s">
-        <v>58</v>
+      <c r="Y21" s="13">
+        <v>0</v>
       </c>
       <c r="Z21" s="13">
         <v>0</v>
@@ -3026,8 +3026,8 @@
       <c r="AI21" s="13">
         <v>0</v>
       </c>
-      <c r="AJ21" s="13">
-        <v>0</v>
+      <c r="AJ21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK21" s="13" t="s">
         <v>58</v>
@@ -3035,53 +3035,53 @@
       <c r="AL21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM21" s="13" t="s">
-        <v>58</v>
+      <c r="AM21" s="13">
+        <v>119828</v>
       </c>
       <c r="AN21" s="13">
-        <v>119828</v>
+        <v>18467</v>
       </c>
       <c r="AO21" s="13">
-        <v>18467</v>
+        <v>4025</v>
       </c>
       <c r="AP21" s="13">
-        <v>4025</v>
+        <v>21975</v>
       </c>
       <c r="AQ21" s="13">
-        <v>21975</v>
+        <v>108113</v>
       </c>
       <c r="AR21" s="13">
-        <v>108113</v>
+        <v>79381</v>
       </c>
       <c r="AS21" s="13">
-        <v>79381</v>
+        <v>37919</v>
       </c>
       <c r="AT21" s="13">
-        <v>37919</v>
+        <v>8942</v>
       </c>
       <c r="AU21" s="13">
-        <v>8942</v>
+        <v>10960</v>
       </c>
       <c r="AV21" s="13">
-        <v>10960</v>
+        <v>104245</v>
       </c>
       <c r="AW21" s="13">
-        <v>104245</v>
+        <v>104363</v>
       </c>
       <c r="AX21" s="13">
-        <v>104363</v>
+        <v>45721</v>
       </c>
       <c r="AY21" s="13">
-        <v>45721</v>
+        <v>15524</v>
       </c>
       <c r="AZ21" s="13">
-        <v>15524</v>
+        <v>40283</v>
       </c>
       <c r="BA21" s="13">
-        <v>40283</v>
+        <v>39457</v>
       </c>
       <c r="BB21" s="13">
-        <v>39457</v>
+        <v>27691</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3152,8 +3152,8 @@
       <c r="X22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="11" t="s">
-        <v>58</v>
+      <c r="Y22" s="11">
+        <v>0</v>
       </c>
       <c r="Z22" s="11">
         <v>0</v>
@@ -3185,8 +3185,8 @@
       <c r="AI22" s="11">
         <v>0</v>
       </c>
-      <c r="AJ22" s="11">
-        <v>0</v>
+      <c r="AJ22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK22" s="11" t="s">
         <v>58</v>
@@ -3194,53 +3194,53 @@
       <c r="AL22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM22" s="11" t="s">
-        <v>58</v>
+      <c r="AM22" s="11">
+        <v>1036</v>
       </c>
       <c r="AN22" s="11">
-        <v>1036</v>
+        <v>1924</v>
       </c>
       <c r="AO22" s="11">
-        <v>1924</v>
+        <v>2045</v>
       </c>
       <c r="AP22" s="11">
-        <v>2045</v>
+        <v>319</v>
       </c>
       <c r="AQ22" s="11">
-        <v>319</v>
+        <v>8700</v>
       </c>
       <c r="AR22" s="11">
-        <v>8700</v>
+        <v>10270</v>
       </c>
       <c r="AS22" s="11">
-        <v>10270</v>
+        <v>7763</v>
       </c>
       <c r="AT22" s="11">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="11">
         <v>0</v>
       </c>
       <c r="AV22" s="11">
-        <v>0</v>
+        <v>3647</v>
       </c>
       <c r="AW22" s="11">
-        <v>3647</v>
+        <v>6228</v>
       </c>
       <c r="AX22" s="11">
-        <v>6228</v>
+        <v>6868</v>
       </c>
       <c r="AY22" s="11">
-        <v>6868</v>
+        <v>7669</v>
       </c>
       <c r="AZ22" s="11">
-        <v>7669</v>
+        <v>17761</v>
       </c>
       <c r="BA22" s="11">
-        <v>17761</v>
+        <v>61019</v>
       </c>
       <c r="BB22" s="11">
-        <v>61019</v>
+        <v>50345</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3368,38 +3368,38 @@
       <c r="AQ23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="13" t="s">
-        <v>58</v>
+      <c r="AR23" s="13">
+        <v>0</v>
       </c>
       <c r="AS23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="13">
         <v>71064</v>
       </c>
-      <c r="AU23" s="13" t="s">
-        <v>58</v>
+      <c r="AT23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU23" s="13">
+        <v>0</v>
       </c>
       <c r="AV23" s="13">
-        <v>0</v>
+        <v>71697</v>
       </c>
       <c r="AW23" s="13">
-        <v>71697</v>
+        <v>31885</v>
       </c>
       <c r="AX23" s="13">
-        <v>31885</v>
+        <v>65865</v>
       </c>
       <c r="AY23" s="13">
-        <v>65865</v>
+        <v>52666</v>
       </c>
       <c r="AZ23" s="13">
-        <v>52666</v>
+        <v>46801</v>
       </c>
       <c r="BA23" s="13">
-        <v>46801</v>
+        <v>128206</v>
       </c>
       <c r="BB23" s="13">
-        <v>128206</v>
+        <v>126615</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3511,52 +3511,52 @@
         <v>0</v>
       </c>
       <c r="AM24" s="17">
-        <v>0</v>
+        <v>174264</v>
       </c>
       <c r="AN24" s="17">
-        <v>174264</v>
+        <v>84970</v>
       </c>
       <c r="AO24" s="17">
-        <v>84970</v>
+        <v>100029</v>
       </c>
       <c r="AP24" s="17">
-        <v>100029</v>
+        <v>96267</v>
       </c>
       <c r="AQ24" s="17">
-        <v>96267</v>
+        <v>160780</v>
       </c>
       <c r="AR24" s="17">
-        <v>160780</v>
+        <v>89651</v>
       </c>
       <c r="AS24" s="17">
-        <v>89651</v>
+        <v>116746</v>
       </c>
       <c r="AT24" s="17">
-        <v>116746</v>
+        <v>124022</v>
       </c>
       <c r="AU24" s="17">
-        <v>124022</v>
+        <v>10960</v>
       </c>
       <c r="AV24" s="17">
-        <v>10960</v>
+        <v>179589</v>
       </c>
       <c r="AW24" s="17">
-        <v>179589</v>
+        <v>142476</v>
       </c>
       <c r="AX24" s="17">
-        <v>142476</v>
+        <v>118454</v>
       </c>
       <c r="AY24" s="17">
-        <v>118454</v>
+        <v>75859</v>
       </c>
       <c r="AZ24" s="17">
-        <v>75859</v>
+        <v>104845</v>
       </c>
       <c r="BA24" s="17">
-        <v>104845</v>
+        <v>228682</v>
       </c>
       <c r="BB24" s="17">
-        <v>228682</v>
+        <v>204651</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3682,8 +3682,8 @@
       <c r="X26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="17" t="s">
-        <v>58</v>
+      <c r="Y26" s="17">
+        <v>0</v>
       </c>
       <c r="Z26" s="17">
         <v>0</v>
@@ -3840,94 +3840,94 @@
         <v>0</v>
       </c>
       <c r="Y27" s="15">
-        <v>0</v>
+        <v>438756</v>
       </c>
       <c r="Z27" s="15">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="AA27" s="15">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="AB27" s="15">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="AC27" s="15">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="AD27" s="15">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AE27" s="15">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AF27" s="15">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AG27" s="15">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AH27" s="15">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AI27" s="15">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AJ27" s="15">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AK27" s="15">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AL27" s="15">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AM27" s="15">
-        <v>416972</v>
+        <v>423324</v>
       </c>
       <c r="AN27" s="15">
-        <v>423324</v>
+        <v>357970</v>
       </c>
       <c r="AO27" s="15">
-        <v>357970</v>
+        <v>343044</v>
       </c>
       <c r="AP27" s="15">
-        <v>343044</v>
+        <v>347719</v>
       </c>
       <c r="AQ27" s="15">
-        <v>347719</v>
+        <v>475565</v>
       </c>
       <c r="AR27" s="15">
-        <v>475565</v>
+        <v>295983</v>
       </c>
       <c r="AS27" s="15">
-        <v>295983</v>
+        <v>469865</v>
       </c>
       <c r="AT27" s="15">
-        <v>469865</v>
+        <v>377980</v>
       </c>
       <c r="AU27" s="15">
-        <v>377980</v>
+        <v>282315</v>
       </c>
       <c r="AV27" s="15">
-        <v>282315</v>
+        <v>537201</v>
       </c>
       <c r="AW27" s="15">
-        <v>537201</v>
+        <v>604819</v>
       </c>
       <c r="AX27" s="15">
-        <v>604819</v>
+        <v>619205</v>
       </c>
       <c r="AY27" s="15">
-        <v>619205</v>
+        <v>685773</v>
       </c>
       <c r="AZ27" s="15">
-        <v>685773</v>
+        <v>700736</v>
       </c>
       <c r="BA27" s="15">
-        <v>700736</v>
+        <v>659944</v>
       </c>
       <c r="BB27" s="15">
-        <v>659944</v>
+        <v>727776</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4474,29 +4474,29 @@
       <c r="AL34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN34" s="11">
+      <c r="AM34" s="11">
         <v>8548</v>
       </c>
+      <c r="AN34" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO34" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AP34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>0</v>
+      <c r="AQ34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="11" t="s">
-        <v>58</v>
+      <c r="AT34" s="11">
+        <v>0</v>
       </c>
       <c r="AU34" s="11">
         <v>0</v>
@@ -4591,74 +4591,74 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>100868</v>
       </c>
       <c r="Z35" s="13">
-        <v>100868</v>
+        <v>114637</v>
       </c>
       <c r="AA35" s="13">
-        <v>114637</v>
+        <v>138288</v>
       </c>
       <c r="AB35" s="13">
-        <v>138288</v>
+        <v>12062</v>
       </c>
       <c r="AC35" s="13">
-        <v>12062</v>
+        <v>8629</v>
       </c>
       <c r="AD35" s="13">
-        <v>8629</v>
+        <v>63900</v>
       </c>
       <c r="AE35" s="13">
-        <v>63900</v>
+        <v>46960</v>
       </c>
       <c r="AF35" s="13">
-        <v>46960</v>
+        <v>85873</v>
       </c>
       <c r="AG35" s="13">
-        <v>85873</v>
+        <v>63039</v>
       </c>
       <c r="AH35" s="13">
-        <v>63039</v>
+        <v>24487</v>
       </c>
       <c r="AI35" s="13">
-        <v>24487</v>
+        <v>78013</v>
       </c>
       <c r="AJ35" s="13">
-        <v>78013</v>
+        <v>127073</v>
       </c>
       <c r="AK35" s="13">
-        <v>127073</v>
+        <v>134350</v>
       </c>
       <c r="AL35" s="13">
-        <v>134350</v>
+        <v>120139</v>
       </c>
       <c r="AM35" s="13">
-        <v>120139</v>
+        <v>94284</v>
       </c>
       <c r="AN35" s="13">
-        <v>94284</v>
+        <v>86477</v>
       </c>
       <c r="AO35" s="13">
-        <v>86477</v>
+        <v>105399</v>
       </c>
       <c r="AP35" s="13">
-        <v>105399</v>
+        <v>79148</v>
       </c>
       <c r="AQ35" s="13">
-        <v>79148</v>
-      </c>
-      <c r="AR35" s="13">
         <v>82595</v>
       </c>
+      <c r="AR35" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU35" s="13">
+      <c r="AT35" s="13">
         <v>17466</v>
+      </c>
+      <c r="AU35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV35" s="13" t="s">
         <v>58</v>
@@ -4750,95 +4750,95 @@
       <c r="X36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>58</v>
+      <c r="Y36" s="11">
+        <v>44591</v>
       </c>
       <c r="Z36" s="11">
-        <v>44591</v>
+        <v>44268</v>
       </c>
       <c r="AA36" s="11">
-        <v>44268</v>
+        <v>23577</v>
       </c>
       <c r="AB36" s="11">
-        <v>23577</v>
+        <v>565</v>
       </c>
       <c r="AC36" s="11">
-        <v>565</v>
+        <v>28037</v>
       </c>
       <c r="AD36" s="11">
-        <v>28037</v>
+        <v>46034</v>
       </c>
       <c r="AE36" s="11">
-        <v>46034</v>
+        <v>24202</v>
       </c>
       <c r="AF36" s="11">
-        <v>24202</v>
+        <v>9485</v>
       </c>
       <c r="AG36" s="11">
-        <v>9485</v>
+        <v>37541</v>
       </c>
       <c r="AH36" s="11">
-        <v>37541</v>
+        <v>19470</v>
       </c>
       <c r="AI36" s="11">
-        <v>19470</v>
+        <v>13539</v>
       </c>
       <c r="AJ36" s="11">
-        <v>13539</v>
+        <v>88254</v>
       </c>
       <c r="AK36" s="11">
-        <v>88254</v>
+        <v>87144</v>
       </c>
       <c r="AL36" s="11">
-        <v>87144</v>
+        <v>5587</v>
       </c>
       <c r="AM36" s="11">
-        <v>5587</v>
+        <v>793</v>
       </c>
       <c r="AN36" s="11">
-        <v>793</v>
+        <v>79050</v>
       </c>
       <c r="AO36" s="11">
-        <v>79050</v>
+        <v>86718</v>
       </c>
       <c r="AP36" s="11">
-        <v>86718</v>
+        <v>78429</v>
       </c>
       <c r="AQ36" s="11">
-        <v>78429</v>
+        <v>17466</v>
       </c>
       <c r="AR36" s="11">
-        <v>17466</v>
+        <v>8574</v>
       </c>
       <c r="AS36" s="11">
-        <v>8574</v>
+        <v>10360</v>
       </c>
       <c r="AT36" s="11">
-        <v>10360</v>
+        <v>9699</v>
       </c>
       <c r="AU36" s="11">
-        <v>9699</v>
+        <v>118081</v>
       </c>
       <c r="AV36" s="11">
-        <v>118081</v>
+        <v>35492</v>
       </c>
       <c r="AW36" s="11">
-        <v>35492</v>
+        <v>169136</v>
       </c>
       <c r="AX36" s="11">
-        <v>169136</v>
+        <v>70949</v>
       </c>
       <c r="AY36" s="11">
-        <v>70949</v>
+        <v>24646</v>
       </c>
       <c r="AZ36" s="11">
-        <v>24646</v>
+        <v>47354</v>
       </c>
       <c r="BA36" s="11">
-        <v>47354</v>
+        <v>42004</v>
       </c>
       <c r="BB36" s="11">
-        <v>42004</v>
+        <v>25389</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4909,95 +4909,95 @@
       <c r="X37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="13" t="s">
-        <v>58</v>
+      <c r="Y37" s="13">
+        <v>106836</v>
       </c>
       <c r="Z37" s="13">
-        <v>106836</v>
+        <v>107249</v>
       </c>
       <c r="AA37" s="13">
-        <v>107249</v>
+        <v>107622</v>
       </c>
       <c r="AB37" s="13">
-        <v>107622</v>
+        <v>123238</v>
       </c>
       <c r="AC37" s="13">
-        <v>123238</v>
+        <v>126997</v>
       </c>
       <c r="AD37" s="13">
-        <v>126997</v>
+        <v>161175</v>
       </c>
       <c r="AE37" s="13">
-        <v>161175</v>
+        <v>125210</v>
       </c>
       <c r="AF37" s="13">
-        <v>125210</v>
+        <v>100766</v>
       </c>
       <c r="AG37" s="13">
-        <v>100766</v>
+        <v>160646</v>
       </c>
       <c r="AH37" s="13">
-        <v>160646</v>
+        <v>95101</v>
       </c>
       <c r="AI37" s="13">
-        <v>95101</v>
+        <v>99895</v>
       </c>
       <c r="AJ37" s="13">
-        <v>99895</v>
+        <v>124900</v>
       </c>
       <c r="AK37" s="13">
-        <v>124900</v>
+        <v>128384</v>
       </c>
       <c r="AL37" s="13">
-        <v>128384</v>
+        <v>137472</v>
       </c>
       <c r="AM37" s="13">
-        <v>137472</v>
+        <v>142473</v>
       </c>
       <c r="AN37" s="13">
-        <v>142473</v>
+        <v>133022</v>
       </c>
       <c r="AO37" s="13">
-        <v>133022</v>
+        <v>106078</v>
       </c>
       <c r="AP37" s="13">
-        <v>106078</v>
+        <v>114019</v>
       </c>
       <c r="AQ37" s="13">
-        <v>114019</v>
+        <v>137856</v>
       </c>
       <c r="AR37" s="13">
-        <v>137856</v>
+        <v>197310</v>
       </c>
       <c r="AS37" s="13">
-        <v>197310</v>
+        <v>241615</v>
       </c>
       <c r="AT37" s="13">
-        <v>241615</v>
+        <v>127998</v>
       </c>
       <c r="AU37" s="13">
-        <v>127998</v>
+        <v>218992</v>
       </c>
       <c r="AV37" s="13">
-        <v>218992</v>
+        <v>343806</v>
       </c>
       <c r="AW37" s="13">
-        <v>343806</v>
+        <v>332345</v>
       </c>
       <c r="AX37" s="13">
-        <v>332345</v>
+        <v>387960</v>
       </c>
       <c r="AY37" s="13">
-        <v>387960</v>
+        <v>367414</v>
       </c>
       <c r="AZ37" s="13">
-        <v>367414</v>
+        <v>329123</v>
       </c>
       <c r="BA37" s="13">
-        <v>329123</v>
+        <v>303077</v>
       </c>
       <c r="BB37" s="13">
-        <v>303077</v>
+        <v>386723</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5077,17 +5077,17 @@
       <c r="AA38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB38" s="11" t="s">
-        <v>58</v>
+      <c r="AB38" s="11">
+        <v>38913</v>
       </c>
       <c r="AC38" s="11">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="AD38" s="11">
-        <v>21560</v>
+        <v>755</v>
       </c>
       <c r="AE38" s="11">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="11">
         <v>0</v>
@@ -5095,8 +5095,8 @@
       <c r="AG38" s="11">
         <v>0</v>
       </c>
-      <c r="AH38" s="11">
-        <v>0</v>
+      <c r="AH38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="11" t="s">
         <v>58</v>
@@ -5122,17 +5122,17 @@
       <c r="AP38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR38" s="11">
-        <v>0</v>
+      <c r="AQ38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT38" s="11" t="s">
-        <v>58</v>
+      <c r="AT38" s="11">
+        <v>0</v>
       </c>
       <c r="AU38" s="11">
         <v>0</v>
@@ -5227,8 +5227,8 @@
       <c r="X39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="13" t="s">
-        <v>58</v>
+      <c r="Y39" s="13">
+        <v>0</v>
       </c>
       <c r="Z39" s="13">
         <v>0</v>
@@ -5254,8 +5254,8 @@
       <c r="AG39" s="13">
         <v>0</v>
       </c>
-      <c r="AH39" s="13">
-        <v>0</v>
+      <c r="AH39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI39" s="13" t="s">
         <v>58</v>
@@ -5443,38 +5443,38 @@
       <c r="AQ40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="11" t="s">
-        <v>58</v>
+      <c r="AR40" s="11">
+        <v>0</v>
       </c>
       <c r="AS40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="11">
         <v>91235</v>
       </c>
-      <c r="AU40" s="11" t="s">
-        <v>58</v>
+      <c r="AT40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU40" s="11">
+        <v>0</v>
       </c>
       <c r="AV40" s="11">
-        <v>0</v>
+        <v>127682</v>
       </c>
       <c r="AW40" s="11">
-        <v>127682</v>
+        <v>101698</v>
       </c>
       <c r="AX40" s="11">
-        <v>101698</v>
+        <v>62116</v>
       </c>
       <c r="AY40" s="11">
-        <v>62116</v>
+        <v>21167</v>
       </c>
       <c r="AZ40" s="11">
-        <v>21167</v>
+        <v>139622</v>
       </c>
       <c r="BA40" s="11">
-        <v>139622</v>
+        <v>114731</v>
       </c>
       <c r="BB40" s="11">
-        <v>114731</v>
+        <v>42794</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5544,94 +5544,94 @@
         <v>0</v>
       </c>
       <c r="Y41" s="15">
-        <v>0</v>
+        <v>252295</v>
       </c>
       <c r="Z41" s="15">
-        <v>252295</v>
+        <v>266154</v>
       </c>
       <c r="AA41" s="15">
-        <v>266154</v>
+        <v>269487</v>
       </c>
       <c r="AB41" s="15">
-        <v>269487</v>
+        <v>174778</v>
       </c>
       <c r="AC41" s="15">
-        <v>174778</v>
+        <v>185223</v>
       </c>
       <c r="AD41" s="15">
-        <v>185223</v>
+        <v>271864</v>
       </c>
       <c r="AE41" s="15">
-        <v>271864</v>
+        <v>196372</v>
       </c>
       <c r="AF41" s="15">
-        <v>196372</v>
+        <v>196124</v>
       </c>
       <c r="AG41" s="15">
-        <v>196124</v>
+        <v>261226</v>
       </c>
       <c r="AH41" s="15">
-        <v>261226</v>
+        <v>139058</v>
       </c>
       <c r="AI41" s="15">
-        <v>139058</v>
+        <v>191447</v>
       </c>
       <c r="AJ41" s="15">
-        <v>191447</v>
+        <v>340227</v>
       </c>
       <c r="AK41" s="15">
-        <v>340227</v>
+        <v>349878</v>
       </c>
       <c r="AL41" s="15">
-        <v>349878</v>
+        <v>263198</v>
       </c>
       <c r="AM41" s="15">
-        <v>263198</v>
+        <v>246098</v>
       </c>
       <c r="AN41" s="15">
-        <v>246098</v>
+        <v>298549</v>
       </c>
       <c r="AO41" s="15">
-        <v>298549</v>
+        <v>298195</v>
       </c>
       <c r="AP41" s="15">
-        <v>298195</v>
+        <v>271596</v>
       </c>
       <c r="AQ41" s="15">
-        <v>271596</v>
+        <v>237917</v>
       </c>
       <c r="AR41" s="15">
-        <v>237917</v>
+        <v>205884</v>
       </c>
       <c r="AS41" s="15">
-        <v>205884</v>
+        <v>343210</v>
       </c>
       <c r="AT41" s="15">
-        <v>343210</v>
+        <v>155163</v>
       </c>
       <c r="AU41" s="15">
-        <v>155163</v>
+        <v>337073</v>
       </c>
       <c r="AV41" s="15">
-        <v>337073</v>
+        <v>506980</v>
       </c>
       <c r="AW41" s="15">
-        <v>506980</v>
+        <v>603179</v>
       </c>
       <c r="AX41" s="15">
-        <v>603179</v>
+        <v>521025</v>
       </c>
       <c r="AY41" s="15">
-        <v>521025</v>
+        <v>413227</v>
       </c>
       <c r="AZ41" s="15">
-        <v>413227</v>
+        <v>516099</v>
       </c>
       <c r="BA41" s="15">
-        <v>516099</v>
+        <v>459812</v>
       </c>
       <c r="BB41" s="15">
-        <v>459812</v>
+        <v>454906</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5759,74 +5759,74 @@
       <c r="X43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
+      <c r="Y43" s="11">
+        <v>82000</v>
       </c>
       <c r="Z43" s="11">
-        <v>82000</v>
+        <v>66745</v>
       </c>
       <c r="AA43" s="11">
-        <v>66745</v>
+        <v>53811</v>
       </c>
       <c r="AB43" s="11">
-        <v>53811</v>
+        <v>89598</v>
       </c>
       <c r="AC43" s="11">
-        <v>89598</v>
+        <v>113383</v>
       </c>
       <c r="AD43" s="11">
-        <v>113383</v>
+        <v>76770</v>
       </c>
       <c r="AE43" s="11">
-        <v>76770</v>
+        <v>64286</v>
       </c>
       <c r="AF43" s="11">
-        <v>64286</v>
+        <v>13590</v>
       </c>
       <c r="AG43" s="11">
-        <v>13590</v>
+        <v>77935</v>
       </c>
       <c r="AH43" s="11">
-        <v>77935</v>
+        <v>73156</v>
       </c>
       <c r="AI43" s="11">
-        <v>73156</v>
+        <v>96526</v>
       </c>
       <c r="AJ43" s="11">
-        <v>96526</v>
+        <v>58845</v>
       </c>
       <c r="AK43" s="11">
-        <v>58845</v>
+        <v>2434</v>
       </c>
       <c r="AL43" s="11">
-        <v>2434</v>
+        <v>30656</v>
       </c>
       <c r="AM43" s="11">
-        <v>30656</v>
+        <v>53400</v>
       </c>
       <c r="AN43" s="11">
-        <v>53400</v>
+        <v>64579</v>
       </c>
       <c r="AO43" s="11">
-        <v>64579</v>
+        <v>93959</v>
       </c>
       <c r="AP43" s="11">
-        <v>93959</v>
+        <v>73973</v>
       </c>
       <c r="AQ43" s="11">
-        <v>73973</v>
-      </c>
-      <c r="AR43" s="11">
         <v>48630</v>
       </c>
+      <c r="AR43" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU43" s="11">
+      <c r="AT43" s="11">
         <v>115080</v>
+      </c>
+      <c r="AU43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV43" s="11" t="s">
         <v>58</v>
@@ -5918,95 +5918,95 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>128072</v>
       </c>
       <c r="Z44" s="13">
-        <v>128072</v>
+        <v>113317</v>
       </c>
       <c r="AA44" s="13">
-        <v>113317</v>
+        <v>124248</v>
       </c>
       <c r="AB44" s="13">
-        <v>124248</v>
+        <v>135662</v>
       </c>
       <c r="AC44" s="13">
-        <v>135662</v>
+        <v>99327</v>
       </c>
       <c r="AD44" s="13">
-        <v>99327</v>
+        <v>118255</v>
       </c>
       <c r="AE44" s="13">
-        <v>118255</v>
+        <v>139203</v>
       </c>
       <c r="AF44" s="13">
-        <v>139203</v>
+        <v>140893</v>
       </c>
       <c r="AG44" s="13">
-        <v>140893</v>
+        <v>99124</v>
       </c>
       <c r="AH44" s="13">
-        <v>99124</v>
+        <v>51233</v>
       </c>
       <c r="AI44" s="13">
-        <v>51233</v>
+        <v>119771</v>
       </c>
       <c r="AJ44" s="13">
-        <v>119771</v>
+        <v>10297</v>
       </c>
       <c r="AK44" s="13">
-        <v>10297</v>
+        <v>2627</v>
       </c>
       <c r="AL44" s="13">
-        <v>2627</v>
+        <v>122778</v>
       </c>
       <c r="AM44" s="13">
-        <v>122778</v>
+        <v>119828</v>
       </c>
       <c r="AN44" s="13">
-        <v>119828</v>
+        <v>18467</v>
       </c>
       <c r="AO44" s="13">
-        <v>18467</v>
+        <v>4025</v>
       </c>
       <c r="AP44" s="13">
-        <v>4025</v>
+        <v>21975</v>
       </c>
       <c r="AQ44" s="13">
-        <v>21975</v>
+        <v>119267</v>
       </c>
       <c r="AR44" s="13">
-        <v>119267</v>
+        <v>79381</v>
       </c>
       <c r="AS44" s="13">
-        <v>79381</v>
+        <v>37919</v>
       </c>
       <c r="AT44" s="13">
-        <v>37919</v>
+        <v>8942</v>
       </c>
       <c r="AU44" s="13">
-        <v>8942</v>
+        <v>17962</v>
       </c>
       <c r="AV44" s="13">
-        <v>17962</v>
+        <v>110274</v>
       </c>
       <c r="AW44" s="13">
-        <v>110274</v>
+        <v>104363</v>
       </c>
       <c r="AX44" s="13">
-        <v>104363</v>
+        <v>45721</v>
       </c>
       <c r="AY44" s="13">
-        <v>45721</v>
+        <v>15524</v>
       </c>
       <c r="AZ44" s="13">
-        <v>15524</v>
+        <v>40283</v>
       </c>
       <c r="BA44" s="13">
-        <v>40283</v>
+        <v>39457</v>
       </c>
       <c r="BB44" s="13">
-        <v>39457</v>
+        <v>27691</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6077,95 +6077,95 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>2380</v>
       </c>
       <c r="Z45" s="11">
-        <v>2380</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="11">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="AB45" s="11">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD45" s="11">
-        <v>17</v>
+        <v>5022</v>
       </c>
       <c r="AE45" s="11">
-        <v>5022</v>
+        <v>350</v>
       </c>
       <c r="AF45" s="11">
-        <v>350</v>
+        <v>4815</v>
       </c>
       <c r="AG45" s="11">
-        <v>4815</v>
+        <v>67</v>
       </c>
       <c r="AH45" s="11">
-        <v>67</v>
+        <v>9712</v>
       </c>
       <c r="AI45" s="11">
-        <v>9712</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="11">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="AK45" s="11">
-        <v>881</v>
-      </c>
-      <c r="AL45" s="11">
         <v>3459</v>
       </c>
-      <c r="AM45" s="11" t="s">
-        <v>58</v>
+      <c r="AL45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>1036</v>
       </c>
       <c r="AN45" s="11">
-        <v>1036</v>
+        <v>1924</v>
       </c>
       <c r="AO45" s="11">
-        <v>1924</v>
+        <v>2045</v>
       </c>
       <c r="AP45" s="11">
-        <v>2045</v>
+        <v>319</v>
       </c>
       <c r="AQ45" s="11">
-        <v>319</v>
+        <v>8700</v>
       </c>
       <c r="AR45" s="11">
-        <v>8700</v>
+        <v>10270</v>
       </c>
       <c r="AS45" s="11">
-        <v>10270</v>
+        <v>7763</v>
       </c>
       <c r="AT45" s="11">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="11">
         <v>0</v>
       </c>
       <c r="AV45" s="11">
-        <v>0</v>
+        <v>3647</v>
       </c>
       <c r="AW45" s="11">
-        <v>3647</v>
+        <v>6228</v>
       </c>
       <c r="AX45" s="11">
-        <v>6228</v>
+        <v>6868</v>
       </c>
       <c r="AY45" s="11">
-        <v>6868</v>
+        <v>7669</v>
       </c>
       <c r="AZ45" s="11">
-        <v>7669</v>
+        <v>17761</v>
       </c>
       <c r="BA45" s="11">
-        <v>17761</v>
+        <v>61019</v>
       </c>
       <c r="BB45" s="11">
-        <v>61019</v>
+        <v>50345</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6293,38 +6293,38 @@
       <c r="AQ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="13" t="s">
-        <v>58</v>
+      <c r="AR46" s="13">
+        <v>0</v>
       </c>
       <c r="AS46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT46" s="13">
         <v>80251</v>
       </c>
-      <c r="AU46" s="13" t="s">
-        <v>58</v>
+      <c r="AT46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU46" s="13">
+        <v>0</v>
       </c>
       <c r="AV46" s="13">
-        <v>0</v>
+        <v>71697</v>
       </c>
       <c r="AW46" s="13">
-        <v>71697</v>
+        <v>31885</v>
       </c>
       <c r="AX46" s="13">
-        <v>31885</v>
+        <v>65865</v>
       </c>
       <c r="AY46" s="13">
-        <v>65865</v>
+        <v>52666</v>
       </c>
       <c r="AZ46" s="13">
-        <v>52666</v>
+        <v>46801</v>
       </c>
       <c r="BA46" s="13">
-        <v>46801</v>
+        <v>128206</v>
       </c>
       <c r="BB46" s="13">
-        <v>128206</v>
+        <v>126615</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6394,94 +6394,94 @@
         <v>0</v>
       </c>
       <c r="Y47" s="17">
-        <v>0</v>
+        <v>212452</v>
       </c>
       <c r="Z47" s="17">
-        <v>212452</v>
+        <v>180062</v>
       </c>
       <c r="AA47" s="17">
-        <v>180062</v>
+        <v>183959</v>
       </c>
       <c r="AB47" s="17">
-        <v>183959</v>
+        <v>225260</v>
       </c>
       <c r="AC47" s="17">
-        <v>225260</v>
+        <v>212727</v>
       </c>
       <c r="AD47" s="17">
-        <v>212727</v>
+        <v>200047</v>
       </c>
       <c r="AE47" s="17">
-        <v>200047</v>
+        <v>203839</v>
       </c>
       <c r="AF47" s="17">
-        <v>203839</v>
+        <v>159298</v>
       </c>
       <c r="AG47" s="17">
-        <v>159298</v>
+        <v>177126</v>
       </c>
       <c r="AH47" s="17">
-        <v>177126</v>
+        <v>134101</v>
       </c>
       <c r="AI47" s="17">
-        <v>134101</v>
+        <v>216297</v>
       </c>
       <c r="AJ47" s="17">
-        <v>216297</v>
+        <v>70023</v>
       </c>
       <c r="AK47" s="17">
-        <v>70023</v>
+        <v>8520</v>
       </c>
       <c r="AL47" s="17">
-        <v>8520</v>
+        <v>153434</v>
       </c>
       <c r="AM47" s="17">
-        <v>153434</v>
+        <v>174264</v>
       </c>
       <c r="AN47" s="17">
-        <v>174264</v>
+        <v>84970</v>
       </c>
       <c r="AO47" s="17">
-        <v>84970</v>
+        <v>100029</v>
       </c>
       <c r="AP47" s="17">
-        <v>100029</v>
+        <v>96267</v>
       </c>
       <c r="AQ47" s="17">
-        <v>96267</v>
+        <v>176597</v>
       </c>
       <c r="AR47" s="17">
-        <v>176597</v>
+        <v>89651</v>
       </c>
       <c r="AS47" s="17">
-        <v>89651</v>
+        <v>125933</v>
       </c>
       <c r="AT47" s="17">
-        <v>125933</v>
+        <v>124022</v>
       </c>
       <c r="AU47" s="17">
-        <v>124022</v>
+        <v>17962</v>
       </c>
       <c r="AV47" s="17">
-        <v>17962</v>
+        <v>185618</v>
       </c>
       <c r="AW47" s="17">
-        <v>185618</v>
+        <v>142476</v>
       </c>
       <c r="AX47" s="17">
-        <v>142476</v>
+        <v>118454</v>
       </c>
       <c r="AY47" s="17">
-        <v>118454</v>
+        <v>75859</v>
       </c>
       <c r="AZ47" s="17">
-        <v>75859</v>
+        <v>104845</v>
       </c>
       <c r="BA47" s="17">
-        <v>104845</v>
+        <v>228682</v>
       </c>
       <c r="BB47" s="17">
-        <v>228682</v>
+        <v>204651</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6607,8 +6607,8 @@
       <c r="X49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="17" t="s">
-        <v>58</v>
+      <c r="Y49" s="17">
+        <v>0</v>
       </c>
       <c r="Z49" s="17">
         <v>0</v>
@@ -6823,74 +6823,74 @@
       <c r="X51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>58</v>
+      <c r="Y51" s="11">
+        <v>-464</v>
       </c>
       <c r="Z51" s="11">
-        <v>-464</v>
+        <v>-7607</v>
       </c>
       <c r="AA51" s="11">
-        <v>-7607</v>
+        <v>-176</v>
       </c>
       <c r="AB51" s="11">
-        <v>-176</v>
+        <v>-431</v>
       </c>
       <c r="AC51" s="11">
-        <v>-431</v>
+        <v>-10776</v>
       </c>
       <c r="AD51" s="11">
-        <v>-10776</v>
+        <v>-2346</v>
       </c>
       <c r="AE51" s="11">
-        <v>-2346</v>
+        <v>-123</v>
       </c>
       <c r="AF51" s="11">
-        <v>-123</v>
+        <v>-290</v>
       </c>
       <c r="AG51" s="11">
-        <v>-290</v>
+        <v>-4843</v>
       </c>
       <c r="AH51" s="11">
-        <v>-4843</v>
+        <v>-2116</v>
       </c>
       <c r="AI51" s="11">
-        <v>-2116</v>
+        <v>-1102</v>
       </c>
       <c r="AJ51" s="11">
-        <v>-1102</v>
+        <v>-11641</v>
       </c>
       <c r="AK51" s="11">
-        <v>-11641</v>
+        <v>-429</v>
       </c>
       <c r="AL51" s="11">
-        <v>-429</v>
+        <v>-2438</v>
       </c>
       <c r="AM51" s="11">
-        <v>-2438</v>
+        <v>-651</v>
       </c>
       <c r="AN51" s="11">
-        <v>-651</v>
+        <v>-5960</v>
       </c>
       <c r="AO51" s="11">
-        <v>-5960</v>
+        <v>-11146</v>
       </c>
       <c r="AP51" s="11">
-        <v>-11146</v>
+        <v>-4086</v>
       </c>
       <c r="AQ51" s="11">
-        <v>-4086</v>
-      </c>
-      <c r="AR51" s="11">
         <v>-4663</v>
       </c>
+      <c r="AR51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU51" s="11">
+      <c r="AT51" s="11">
         <v>-12014</v>
+      </c>
+      <c r="AU51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV51" s="11" t="s">
         <v>58</v>
@@ -6982,95 +6982,95 @@
       <c r="X52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="13" t="s">
-        <v>58</v>
+      <c r="Y52" s="13">
+        <v>-421</v>
       </c>
       <c r="Z52" s="13">
-        <v>-421</v>
+        <v>-24337</v>
       </c>
       <c r="AA52" s="13">
-        <v>-24337</v>
+        <v>-21841</v>
       </c>
       <c r="AB52" s="13">
-        <v>-21841</v>
+        <v>-14762</v>
       </c>
       <c r="AC52" s="13">
-        <v>-14762</v>
+        <v>-19973</v>
       </c>
       <c r="AD52" s="13">
-        <v>-19973</v>
+        <v>-9722</v>
       </c>
       <c r="AE52" s="13">
-        <v>-9722</v>
+        <v>-6098</v>
       </c>
       <c r="AF52" s="13">
-        <v>-6098</v>
+        <v>-3575</v>
       </c>
       <c r="AG52" s="13">
-        <v>-3575</v>
+        <v>-13970</v>
       </c>
       <c r="AH52" s="13">
-        <v>-13970</v>
+        <v>-1251</v>
       </c>
       <c r="AI52" s="13">
-        <v>-1251</v>
+        <v>-1953</v>
       </c>
       <c r="AJ52" s="13">
-        <v>-1953</v>
+        <v>-5202</v>
       </c>
       <c r="AK52" s="13">
-        <v>-5202</v>
+        <v>-5333</v>
       </c>
       <c r="AL52" s="13">
-        <v>-5333</v>
+        <v>-385</v>
       </c>
       <c r="AM52" s="13">
-        <v>-385</v>
-      </c>
-      <c r="AN52" s="13">
         <v>-2869</v>
       </c>
-      <c r="AO52" s="13" t="s">
-        <v>58</v>
+      <c r="AN52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO52" s="13">
+        <v>-3265</v>
       </c>
       <c r="AP52" s="13">
-        <v>-3265</v>
+        <v>-12598</v>
       </c>
       <c r="AQ52" s="13">
-        <v>-12598</v>
+        <v>-11154</v>
       </c>
       <c r="AR52" s="13">
-        <v>-11154</v>
+        <v>-19180</v>
       </c>
       <c r="AS52" s="13">
-        <v>-19180</v>
+        <v>-7045</v>
       </c>
       <c r="AT52" s="13">
-        <v>-7045</v>
+        <v>-4917</v>
       </c>
       <c r="AU52" s="13">
-        <v>-4917</v>
+        <v>-2847</v>
       </c>
       <c r="AV52" s="13">
-        <v>-2847</v>
+        <v>-7140</v>
       </c>
       <c r="AW52" s="13">
-        <v>-7140</v>
+        <v>-9978</v>
       </c>
       <c r="AX52" s="13">
-        <v>-9978</v>
+        <v>-12150</v>
       </c>
       <c r="AY52" s="13">
-        <v>-12150</v>
+        <v>-13879</v>
       </c>
       <c r="AZ52" s="13">
-        <v>-13879</v>
+        <v>-5581</v>
       </c>
       <c r="BA52" s="13">
-        <v>-5581</v>
+        <v>-11947</v>
       </c>
       <c r="BB52" s="13">
-        <v>-11947</v>
+        <v>-10506</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7141,95 +7141,95 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>0</v>
       </c>
       <c r="Z53" s="11">
         <v>0</v>
       </c>
       <c r="AA53" s="11">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AB53" s="11">
-        <v>-376</v>
+        <v>-5034</v>
       </c>
       <c r="AC53" s="11">
-        <v>-5034</v>
+        <v>-356</v>
       </c>
       <c r="AD53" s="11">
-        <v>-356</v>
+        <v>-5137</v>
       </c>
       <c r="AE53" s="11">
-        <v>-5137</v>
+        <v>-4</v>
       </c>
       <c r="AF53" s="11">
-        <v>-4</v>
+        <v>-18858</v>
       </c>
       <c r="AG53" s="11">
-        <v>-18858</v>
+        <v>-679</v>
       </c>
       <c r="AH53" s="11">
-        <v>-679</v>
+        <v>-980</v>
       </c>
       <c r="AI53" s="11">
-        <v>-980</v>
+        <v>-1472</v>
       </c>
       <c r="AJ53" s="11">
-        <v>-1472</v>
+        <v>-1570</v>
       </c>
       <c r="AK53" s="11">
-        <v>-1570</v>
+        <v>-2199</v>
       </c>
       <c r="AL53" s="11">
-        <v>-2199</v>
+        <v>-5918</v>
       </c>
       <c r="AM53" s="11">
-        <v>-5918</v>
+        <v>-5967</v>
       </c>
       <c r="AN53" s="11">
-        <v>-5967</v>
+        <v>-2748</v>
       </c>
       <c r="AO53" s="11">
-        <v>-2748</v>
+        <v>-11144</v>
       </c>
       <c r="AP53" s="11">
-        <v>-11144</v>
+        <v>-506</v>
       </c>
       <c r="AQ53" s="11">
-        <v>-506</v>
+        <v>-453</v>
       </c>
       <c r="AR53" s="11">
-        <v>-453</v>
+        <v>-7790</v>
       </c>
       <c r="AS53" s="11">
-        <v>-7790</v>
+        <v>-17454</v>
       </c>
       <c r="AT53" s="11">
-        <v>-17454</v>
+        <v>-370</v>
       </c>
       <c r="AU53" s="11">
-        <v>-370</v>
+        <v>-7802</v>
       </c>
       <c r="AV53" s="11">
-        <v>-7802</v>
+        <v>-18371</v>
       </c>
       <c r="AW53" s="11">
-        <v>-18371</v>
+        <v>-9789</v>
       </c>
       <c r="AX53" s="11">
-        <v>-9789</v>
+        <v>-33858</v>
       </c>
       <c r="AY53" s="11">
-        <v>-33858</v>
+        <v>-13076</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-13076</v>
+        <v>-28613</v>
       </c>
       <c r="BA53" s="11">
-        <v>-28613</v>
+        <v>-19851</v>
       </c>
       <c r="BB53" s="11">
-        <v>-19851</v>
+        <v>-13109</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7315,11 +7315,11 @@
       <c r="AC54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD54" s="13" t="s">
-        <v>58</v>
+      <c r="AD54" s="13">
+        <v>-40000</v>
       </c>
       <c r="AE54" s="13">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="13">
         <v>0</v>
@@ -7327,8 +7327,8 @@
       <c r="AG54" s="13">
         <v>0</v>
       </c>
-      <c r="AH54" s="13">
-        <v>0</v>
+      <c r="AH54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI54" s="13" t="s">
         <v>58</v>
@@ -7354,14 +7354,14 @@
       <c r="AP54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>58</v>
+      <c r="AQ54" s="13">
+        <v>0</v>
       </c>
       <c r="AR54" s="13">
         <v>0</v>
       </c>
-      <c r="AS54" s="13">
-        <v>0</v>
+      <c r="AS54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT54" s="13" t="s">
         <v>58</v>
@@ -7516,38 +7516,38 @@
       <c r="AQ55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="11" t="s">
-        <v>58</v>
+      <c r="AR55" s="11">
+        <v>0</v>
       </c>
       <c r="AS55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT55" s="11">
         <v>-17028</v>
       </c>
-      <c r="AU55" s="11" t="s">
-        <v>58</v>
+      <c r="AT55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU55" s="11">
+        <v>0</v>
       </c>
       <c r="AV55" s="11">
-        <v>0</v>
+        <v>-11594</v>
       </c>
       <c r="AW55" s="11">
-        <v>-11594</v>
+        <v>-19520</v>
       </c>
       <c r="AX55" s="11">
-        <v>-19520</v>
+        <v>-14299</v>
       </c>
       <c r="AY55" s="11">
-        <v>-14299</v>
+        <v>-352</v>
       </c>
       <c r="AZ55" s="11">
-        <v>-352</v>
+        <v>-4591</v>
       </c>
       <c r="BA55" s="11">
-        <v>-4591</v>
+        <v>-11989</v>
       </c>
       <c r="BB55" s="11">
-        <v>-11989</v>
+        <v>-34019</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7616,95 +7616,95 @@
       <c r="X56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="15" t="s">
-        <v>58</v>
+      <c r="Y56" s="15">
+        <v>-885</v>
       </c>
       <c r="Z56" s="15">
-        <v>-885</v>
+        <v>-31944</v>
       </c>
       <c r="AA56" s="15">
-        <v>-31944</v>
+        <v>-22393</v>
       </c>
       <c r="AB56" s="15">
-        <v>-22393</v>
+        <v>-20227</v>
       </c>
       <c r="AC56" s="15">
-        <v>-20227</v>
+        <v>-31105</v>
       </c>
       <c r="AD56" s="15">
-        <v>-31105</v>
+        <v>-57205</v>
       </c>
       <c r="AE56" s="15">
-        <v>-57205</v>
+        <v>-6225</v>
       </c>
       <c r="AF56" s="15">
-        <v>-6225</v>
+        <v>-22723</v>
       </c>
       <c r="AG56" s="15">
-        <v>-22723</v>
+        <v>-19492</v>
       </c>
       <c r="AH56" s="15">
-        <v>-19492</v>
+        <v>-4347</v>
       </c>
       <c r="AI56" s="15">
-        <v>-4347</v>
+        <v>-4527</v>
       </c>
       <c r="AJ56" s="15">
-        <v>-4527</v>
+        <v>-18413</v>
       </c>
       <c r="AK56" s="15">
-        <v>-18413</v>
+        <v>-7961</v>
       </c>
       <c r="AL56" s="15">
-        <v>-7961</v>
+        <v>-8741</v>
       </c>
       <c r="AM56" s="15">
-        <v>-8741</v>
+        <v>-9487</v>
       </c>
       <c r="AN56" s="15">
-        <v>-9487</v>
+        <v>-8708</v>
       </c>
       <c r="AO56" s="15">
-        <v>-8708</v>
+        <v>-25555</v>
       </c>
       <c r="AP56" s="15">
-        <v>-25555</v>
+        <v>-17190</v>
       </c>
       <c r="AQ56" s="15">
-        <v>-17190</v>
+        <v>-16270</v>
       </c>
       <c r="AR56" s="15">
-        <v>-16270</v>
+        <v>-39623</v>
       </c>
       <c r="AS56" s="15">
-        <v>-39623</v>
+        <v>-41527</v>
       </c>
       <c r="AT56" s="15">
-        <v>-41527</v>
+        <v>-17301</v>
       </c>
       <c r="AU56" s="15">
-        <v>-17301</v>
+        <v>-25744</v>
       </c>
       <c r="AV56" s="15">
-        <v>-25744</v>
+        <v>-37105</v>
       </c>
       <c r="AW56" s="15">
-        <v>-37105</v>
+        <v>-39287</v>
       </c>
       <c r="AX56" s="15">
-        <v>-39287</v>
+        <v>-60307</v>
       </c>
       <c r="AY56" s="15">
-        <v>-60307</v>
+        <v>-27307</v>
       </c>
       <c r="AZ56" s="15">
-        <v>-27307</v>
+        <v>-38785</v>
       </c>
       <c r="BA56" s="15">
-        <v>-38785</v>
+        <v>-43787</v>
       </c>
       <c r="BB56" s="15">
-        <v>-43787</v>
+        <v>-57634</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7774,94 +7774,94 @@
         <v>0</v>
       </c>
       <c r="Y57" s="17">
-        <v>0</v>
+        <v>463862</v>
       </c>
       <c r="Z57" s="17">
-        <v>463862</v>
+        <v>414272</v>
       </c>
       <c r="AA57" s="17">
-        <v>414272</v>
+        <v>431053</v>
       </c>
       <c r="AB57" s="17">
-        <v>431053</v>
+        <v>379811</v>
       </c>
       <c r="AC57" s="17">
-        <v>379811</v>
+        <v>366845</v>
       </c>
       <c r="AD57" s="17">
-        <v>366845</v>
+        <v>414706</v>
       </c>
       <c r="AE57" s="17">
-        <v>414706</v>
+        <v>393986</v>
       </c>
       <c r="AF57" s="17">
-        <v>393986</v>
+        <v>332699</v>
       </c>
       <c r="AG57" s="17">
-        <v>332699</v>
+        <v>418860</v>
       </c>
       <c r="AH57" s="17">
-        <v>418860</v>
+        <v>268812</v>
       </c>
       <c r="AI57" s="17">
-        <v>268812</v>
+        <v>403217</v>
       </c>
       <c r="AJ57" s="17">
-        <v>403217</v>
+        <v>391837</v>
       </c>
       <c r="AK57" s="17">
-        <v>391837</v>
+        <v>350437</v>
       </c>
       <c r="AL57" s="17">
-        <v>350437</v>
+        <v>407891</v>
       </c>
       <c r="AM57" s="17">
-        <v>407891</v>
+        <v>410875</v>
       </c>
       <c r="AN57" s="17">
-        <v>410875</v>
+        <v>374811</v>
       </c>
       <c r="AO57" s="17">
-        <v>374811</v>
+        <v>372669</v>
       </c>
       <c r="AP57" s="17">
-        <v>372669</v>
+        <v>350673</v>
       </c>
       <c r="AQ57" s="17">
-        <v>350673</v>
+        <v>398244</v>
       </c>
       <c r="AR57" s="17">
-        <v>398244</v>
+        <v>268565</v>
       </c>
       <c r="AS57" s="17">
-        <v>268565</v>
+        <v>427616</v>
       </c>
       <c r="AT57" s="17">
-        <v>427616</v>
+        <v>261884</v>
       </c>
       <c r="AU57" s="17">
-        <v>261884</v>
+        <v>344386</v>
       </c>
       <c r="AV57" s="17">
-        <v>344386</v>
+        <v>655493</v>
       </c>
       <c r="AW57" s="17">
-        <v>655493</v>
+        <v>706368</v>
       </c>
       <c r="AX57" s="17">
-        <v>706368</v>
+        <v>579172</v>
       </c>
       <c r="AY57" s="17">
-        <v>579172</v>
+        <v>461779</v>
       </c>
       <c r="AZ57" s="17">
-        <v>461779</v>
+        <v>582159</v>
       </c>
       <c r="BA57" s="17">
-        <v>582159</v>
+        <v>644707</v>
       </c>
       <c r="BB57" s="17">
-        <v>644707</v>
+        <v>601923</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8408,11 +8408,11 @@
       <c r="AL64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM64" s="11" t="s">
-        <v>58</v>
+      <c r="AM64" s="11">
+        <v>1563</v>
       </c>
       <c r="AN64" s="11">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="11">
         <v>0</v>
@@ -8423,14 +8423,14 @@
       <c r="AQ64" s="11">
         <v>0</v>
       </c>
-      <c r="AR64" s="11">
-        <v>0</v>
+      <c r="AR64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT64" s="11" t="s">
-        <v>58</v>
+      <c r="AT64" s="11">
+        <v>0</v>
       </c>
       <c r="AU64" s="11">
         <v>0</v>
@@ -8525,74 +8525,74 @@
       <c r="X65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="13" t="s">
-        <v>58</v>
+      <c r="Y65" s="13">
+        <v>34800</v>
       </c>
       <c r="Z65" s="13">
-        <v>34800</v>
+        <v>40716</v>
       </c>
       <c r="AA65" s="13">
-        <v>40716</v>
+        <v>63709</v>
       </c>
       <c r="AB65" s="13">
-        <v>63709</v>
+        <v>4798</v>
       </c>
       <c r="AC65" s="13">
-        <v>4798</v>
+        <v>2618</v>
       </c>
       <c r="AD65" s="13">
-        <v>2618</v>
+        <v>42291</v>
       </c>
       <c r="AE65" s="13">
-        <v>42291</v>
+        <v>26527</v>
       </c>
       <c r="AF65" s="13">
-        <v>26527</v>
+        <v>70061</v>
       </c>
       <c r="AG65" s="13">
-        <v>70061</v>
+        <v>34504</v>
       </c>
       <c r="AH65" s="13">
-        <v>34504</v>
+        <v>13882</v>
       </c>
       <c r="AI65" s="13">
-        <v>13882</v>
+        <v>61327</v>
       </c>
       <c r="AJ65" s="13">
-        <v>61327</v>
+        <v>100556</v>
       </c>
       <c r="AK65" s="13">
-        <v>100556</v>
+        <v>97028</v>
       </c>
       <c r="AL65" s="13">
-        <v>97028</v>
+        <v>95953</v>
       </c>
       <c r="AM65" s="13">
-        <v>95953</v>
+        <v>80963</v>
       </c>
       <c r="AN65" s="13">
-        <v>80963</v>
+        <v>85275</v>
       </c>
       <c r="AO65" s="13">
-        <v>85275</v>
+        <v>89883</v>
       </c>
       <c r="AP65" s="13">
-        <v>89883</v>
+        <v>70736</v>
       </c>
       <c r="AQ65" s="13">
-        <v>70736</v>
-      </c>
-      <c r="AR65" s="13">
         <v>75717</v>
       </c>
+      <c r="AR65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU65" s="13">
+      <c r="AT65" s="13">
         <v>15310</v>
+      </c>
+      <c r="AU65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV65" s="13" t="s">
         <v>58</v>
@@ -8684,95 +8684,95 @@
       <c r="X66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>58</v>
+      <c r="Y66" s="11">
+        <v>15317</v>
       </c>
       <c r="Z66" s="11">
-        <v>15317</v>
+        <v>13458</v>
       </c>
       <c r="AA66" s="11">
-        <v>13458</v>
+        <v>8394</v>
       </c>
       <c r="AB66" s="11">
-        <v>8394</v>
+        <v>148</v>
       </c>
       <c r="AC66" s="11">
-        <v>148</v>
+        <v>12368</v>
       </c>
       <c r="AD66" s="11">
-        <v>12368</v>
+        <v>13820</v>
       </c>
       <c r="AE66" s="11">
-        <v>13820</v>
+        <v>9242</v>
       </c>
       <c r="AF66" s="11">
-        <v>9242</v>
+        <v>2064</v>
       </c>
       <c r="AG66" s="11">
-        <v>2064</v>
+        <v>12550</v>
       </c>
       <c r="AH66" s="11">
-        <v>12550</v>
+        <v>11366</v>
       </c>
       <c r="AI66" s="11">
-        <v>11366</v>
+        <v>9470</v>
       </c>
       <c r="AJ66" s="11">
-        <v>9470</v>
+        <v>74397</v>
       </c>
       <c r="AK66" s="11">
-        <v>74397</v>
+        <v>77919</v>
       </c>
       <c r="AL66" s="11">
-        <v>77919</v>
+        <v>2151</v>
       </c>
       <c r="AM66" s="11">
-        <v>2151</v>
+        <v>810</v>
       </c>
       <c r="AN66" s="11">
-        <v>810</v>
+        <v>51820</v>
       </c>
       <c r="AO66" s="11">
-        <v>51820</v>
+        <v>63724</v>
       </c>
       <c r="AP66" s="11">
-        <v>63724</v>
+        <v>63559</v>
       </c>
       <c r="AQ66" s="11">
-        <v>63559</v>
+        <v>13857</v>
       </c>
       <c r="AR66" s="11">
-        <v>13857</v>
+        <v>4904</v>
       </c>
       <c r="AS66" s="11">
-        <v>4904</v>
+        <v>4807</v>
       </c>
       <c r="AT66" s="11">
-        <v>4807</v>
+        <v>9580</v>
       </c>
       <c r="AU66" s="11">
-        <v>9580</v>
+        <v>78938</v>
       </c>
       <c r="AV66" s="11">
-        <v>78938</v>
+        <v>32520</v>
       </c>
       <c r="AW66" s="11">
-        <v>32520</v>
+        <v>135857</v>
       </c>
       <c r="AX66" s="11">
-        <v>135857</v>
+        <v>54166</v>
       </c>
       <c r="AY66" s="11">
-        <v>54166</v>
+        <v>15771</v>
       </c>
       <c r="AZ66" s="11">
-        <v>15771</v>
+        <v>33930</v>
       </c>
       <c r="BA66" s="11">
-        <v>33930</v>
+        <v>38640</v>
       </c>
       <c r="BB66" s="11">
-        <v>38640</v>
+        <v>18245</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8843,95 +8843,95 @@
       <c r="X67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="13" t="s">
-        <v>58</v>
+      <c r="Y67" s="13">
+        <v>82420</v>
       </c>
       <c r="Z67" s="13">
-        <v>82420</v>
+        <v>86199</v>
       </c>
       <c r="AA67" s="13">
-        <v>86199</v>
+        <v>75546</v>
       </c>
       <c r="AB67" s="13">
-        <v>75546</v>
+        <v>105552</v>
       </c>
       <c r="AC67" s="13">
-        <v>105552</v>
+        <v>138720</v>
       </c>
       <c r="AD67" s="13">
-        <v>138720</v>
+        <v>187707</v>
       </c>
       <c r="AE67" s="13">
-        <v>187707</v>
+        <v>171439</v>
       </c>
       <c r="AF67" s="13">
-        <v>171439</v>
+        <v>113047</v>
       </c>
       <c r="AG67" s="13">
-        <v>113047</v>
+        <v>136700</v>
       </c>
       <c r="AH67" s="13">
-        <v>136700</v>
+        <v>99647</v>
       </c>
       <c r="AI67" s="13">
-        <v>99647</v>
+        <v>141824</v>
       </c>
       <c r="AJ67" s="13">
-        <v>141824</v>
+        <v>207304</v>
       </c>
       <c r="AK67" s="13">
-        <v>207304</v>
+        <v>245534</v>
       </c>
       <c r="AL67" s="13">
-        <v>245534</v>
+        <v>273055</v>
       </c>
       <c r="AM67" s="13">
-        <v>273055</v>
+        <v>255842</v>
       </c>
       <c r="AN67" s="13">
-        <v>255842</v>
+        <v>224581</v>
       </c>
       <c r="AO67" s="13">
-        <v>224581</v>
+        <v>179822</v>
       </c>
       <c r="AP67" s="13">
-        <v>179822</v>
+        <v>231956</v>
       </c>
       <c r="AQ67" s="13">
-        <v>231956</v>
+        <v>231367</v>
       </c>
       <c r="AR67" s="13">
-        <v>231367</v>
+        <v>315145</v>
       </c>
       <c r="AS67" s="13">
-        <v>315145</v>
+        <v>438469</v>
       </c>
       <c r="AT67" s="13">
-        <v>438469</v>
+        <v>234226</v>
       </c>
       <c r="AU67" s="13">
-        <v>234226</v>
+        <v>440920</v>
       </c>
       <c r="AV67" s="13">
-        <v>440920</v>
+        <v>716829</v>
       </c>
       <c r="AW67" s="13">
-        <v>716829</v>
+        <v>702870</v>
       </c>
       <c r="AX67" s="13">
-        <v>702870</v>
+        <v>937579</v>
       </c>
       <c r="AY67" s="13">
-        <v>937579</v>
+        <v>998905</v>
       </c>
       <c r="AZ67" s="13">
-        <v>998905</v>
+        <v>895403</v>
       </c>
       <c r="BA67" s="13">
-        <v>895403</v>
+        <v>728275</v>
       </c>
       <c r="BB67" s="13">
-        <v>728275</v>
+        <v>886679</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9011,17 +9011,17 @@
       <c r="AA68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB68" s="11" t="s">
-        <v>58</v>
+      <c r="AB68" s="11">
+        <v>20055</v>
       </c>
       <c r="AC68" s="11">
-        <v>20055</v>
+        <v>13880</v>
       </c>
       <c r="AD68" s="11">
-        <v>13880</v>
+        <v>336</v>
       </c>
       <c r="AE68" s="11">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="11">
         <v>0</v>
@@ -9029,8 +9029,8 @@
       <c r="AG68" s="11">
         <v>0</v>
       </c>
-      <c r="AH68" s="11">
-        <v>0</v>
+      <c r="AH68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI68" s="11" t="s">
         <v>58</v>
@@ -9044,8 +9044,8 @@
       <c r="AL68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM68" s="11" t="s">
-        <v>58</v>
+      <c r="AM68" s="11">
+        <v>0</v>
       </c>
       <c r="AN68" s="11">
         <v>0</v>
@@ -9059,14 +9059,14 @@
       <c r="AQ68" s="11">
         <v>0</v>
       </c>
-      <c r="AR68" s="11">
-        <v>0</v>
+      <c r="AR68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT68" s="11" t="s">
-        <v>58</v>
+      <c r="AT68" s="11">
+        <v>0</v>
       </c>
       <c r="AU68" s="11">
         <v>0</v>
@@ -9161,8 +9161,8 @@
       <c r="X69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="13" t="s">
-        <v>58</v>
+      <c r="Y69" s="13">
+        <v>0</v>
       </c>
       <c r="Z69" s="13">
         <v>0</v>
@@ -9188,8 +9188,8 @@
       <c r="AG69" s="13">
         <v>0</v>
       </c>
-      <c r="AH69" s="13">
-        <v>0</v>
+      <c r="AH69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI69" s="13" t="s">
         <v>58</v>
@@ -9377,38 +9377,38 @@
       <c r="AQ70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR70" s="11" t="s">
-        <v>58</v>
+      <c r="AR70" s="11">
+        <v>0</v>
       </c>
       <c r="AS70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT70" s="11">
         <v>79874</v>
       </c>
-      <c r="AU70" s="11" t="s">
-        <v>58</v>
+      <c r="AT70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU70" s="11">
+        <v>0</v>
       </c>
       <c r="AV70" s="11">
-        <v>0</v>
+        <v>123648</v>
       </c>
       <c r="AW70" s="11">
-        <v>123648</v>
+        <v>120547</v>
       </c>
       <c r="AX70" s="11">
-        <v>120547</v>
+        <v>65185</v>
       </c>
       <c r="AY70" s="11">
-        <v>65185</v>
+        <v>13046</v>
       </c>
       <c r="AZ70" s="11">
-        <v>13046</v>
+        <v>114626</v>
       </c>
       <c r="BA70" s="11">
-        <v>114626</v>
+        <v>92523</v>
       </c>
       <c r="BB70" s="11">
-        <v>92523</v>
+        <v>34346</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9478,94 +9478,94 @@
         <v>0</v>
       </c>
       <c r="Y71" s="15">
-        <v>0</v>
+        <v>132537</v>
       </c>
       <c r="Z71" s="15">
-        <v>132537</v>
+        <v>140373</v>
       </c>
       <c r="AA71" s="15">
-        <v>140373</v>
+        <v>147649</v>
       </c>
       <c r="AB71" s="15">
-        <v>147649</v>
+        <v>130553</v>
       </c>
       <c r="AC71" s="15">
-        <v>130553</v>
+        <v>167586</v>
       </c>
       <c r="AD71" s="15">
-        <v>167586</v>
+        <v>244154</v>
       </c>
       <c r="AE71" s="15">
-        <v>244154</v>
+        <v>207208</v>
       </c>
       <c r="AF71" s="15">
-        <v>207208</v>
+        <v>185172</v>
       </c>
       <c r="AG71" s="15">
-        <v>185172</v>
+        <v>183754</v>
       </c>
       <c r="AH71" s="15">
-        <v>183754</v>
+        <v>124895</v>
       </c>
       <c r="AI71" s="15">
-        <v>124895</v>
+        <v>212621</v>
       </c>
       <c r="AJ71" s="15">
-        <v>212621</v>
+        <v>382257</v>
       </c>
       <c r="AK71" s="15">
-        <v>382257</v>
+        <v>420481</v>
       </c>
       <c r="AL71" s="15">
-        <v>420481</v>
+        <v>371159</v>
       </c>
       <c r="AM71" s="15">
-        <v>371159</v>
+        <v>339178</v>
       </c>
       <c r="AN71" s="15">
-        <v>339178</v>
+        <v>361676</v>
       </c>
       <c r="AO71" s="15">
-        <v>361676</v>
+        <v>333429</v>
       </c>
       <c r="AP71" s="15">
-        <v>333429</v>
+        <v>366251</v>
       </c>
       <c r="AQ71" s="15">
-        <v>366251</v>
+        <v>320941</v>
       </c>
       <c r="AR71" s="15">
-        <v>320941</v>
+        <v>320049</v>
       </c>
       <c r="AS71" s="15">
-        <v>320049</v>
+        <v>523150</v>
       </c>
       <c r="AT71" s="15">
-        <v>523150</v>
+        <v>259116</v>
       </c>
       <c r="AU71" s="15">
-        <v>259116</v>
+        <v>519858</v>
       </c>
       <c r="AV71" s="15">
-        <v>519858</v>
+        <v>872997</v>
       </c>
       <c r="AW71" s="15">
-        <v>872997</v>
+        <v>959274</v>
       </c>
       <c r="AX71" s="15">
-        <v>959274</v>
+        <v>1056930</v>
       </c>
       <c r="AY71" s="15">
-        <v>1056930</v>
+        <v>1027722</v>
       </c>
       <c r="AZ71" s="15">
-        <v>1027722</v>
+        <v>1043959</v>
       </c>
       <c r="BA71" s="15">
-        <v>1043959</v>
+        <v>859438</v>
       </c>
       <c r="BB71" s="15">
-        <v>859438</v>
+        <v>939270</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9693,74 +9693,74 @@
       <c r="X73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
+      <c r="Y73" s="11">
+        <v>26085</v>
       </c>
       <c r="Z73" s="11">
-        <v>26085</v>
+        <v>23561</v>
       </c>
       <c r="AA73" s="11">
-        <v>23561</v>
+        <v>18235</v>
       </c>
       <c r="AB73" s="11">
-        <v>18235</v>
+        <v>38734</v>
       </c>
       <c r="AC73" s="11">
-        <v>38734</v>
+        <v>61574</v>
       </c>
       <c r="AD73" s="11">
-        <v>61574</v>
+        <v>41442</v>
       </c>
       <c r="AE73" s="11">
-        <v>41442</v>
+        <v>31596</v>
       </c>
       <c r="AF73" s="11">
-        <v>31596</v>
+        <v>6628</v>
       </c>
       <c r="AG73" s="11">
-        <v>6628</v>
+        <v>45811</v>
       </c>
       <c r="AH73" s="11">
-        <v>45811</v>
+        <v>38642</v>
       </c>
       <c r="AI73" s="11">
-        <v>38642</v>
+        <v>58362</v>
       </c>
       <c r="AJ73" s="11">
-        <v>58362</v>
+        <v>39246</v>
       </c>
       <c r="AK73" s="11">
-        <v>39246</v>
+        <v>1417</v>
       </c>
       <c r="AL73" s="11">
-        <v>1417</v>
+        <v>17855</v>
       </c>
       <c r="AM73" s="11">
-        <v>17855</v>
+        <v>35776</v>
       </c>
       <c r="AN73" s="11">
-        <v>35776</v>
+        <v>46698</v>
       </c>
       <c r="AO73" s="11">
-        <v>46698</v>
+        <v>67500</v>
       </c>
       <c r="AP73" s="11">
-        <v>67500</v>
+        <v>51123</v>
       </c>
       <c r="AQ73" s="11">
-        <v>51123</v>
-      </c>
-      <c r="AR73" s="11">
         <v>32107</v>
       </c>
+      <c r="AR73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU73" s="11">
+      <c r="AT73" s="11">
         <v>80736</v>
+      </c>
+      <c r="AU73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV73" s="11" t="s">
         <v>58</v>
@@ -9852,95 +9852,95 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>30880</v>
       </c>
       <c r="Z74" s="13">
-        <v>30880</v>
+        <v>32362</v>
       </c>
       <c r="AA74" s="13">
-        <v>32362</v>
+        <v>39403</v>
       </c>
       <c r="AB74" s="13">
-        <v>39403</v>
+        <v>44292</v>
       </c>
       <c r="AC74" s="13">
-        <v>44292</v>
+        <v>42481</v>
       </c>
       <c r="AD74" s="13">
-        <v>42481</v>
+        <v>48527</v>
       </c>
       <c r="AE74" s="13">
-        <v>48527</v>
+        <v>64014</v>
       </c>
       <c r="AF74" s="13">
-        <v>64014</v>
+        <v>64110</v>
       </c>
       <c r="AG74" s="13">
-        <v>64110</v>
+        <v>45943</v>
       </c>
       <c r="AH74" s="13">
-        <v>45943</v>
+        <v>24733</v>
       </c>
       <c r="AI74" s="13">
-        <v>24733</v>
+        <v>58231</v>
       </c>
       <c r="AJ74" s="13">
-        <v>58231</v>
+        <v>5284</v>
       </c>
       <c r="AK74" s="13">
-        <v>5284</v>
+        <v>2185</v>
       </c>
       <c r="AL74" s="13">
-        <v>2185</v>
+        <v>65311</v>
       </c>
       <c r="AM74" s="13">
-        <v>65311</v>
+        <v>64049</v>
       </c>
       <c r="AN74" s="13">
-        <v>64049</v>
+        <v>15402</v>
       </c>
       <c r="AO74" s="13">
-        <v>15402</v>
+        <v>3113</v>
       </c>
       <c r="AP74" s="13">
-        <v>3113</v>
+        <v>18617</v>
       </c>
       <c r="AQ74" s="13">
-        <v>18617</v>
+        <v>74563</v>
       </c>
       <c r="AR74" s="13">
-        <v>74563</v>
+        <v>51189</v>
       </c>
       <c r="AS74" s="13">
-        <v>51189</v>
+        <v>23285</v>
       </c>
       <c r="AT74" s="13">
-        <v>23285</v>
+        <v>4684</v>
       </c>
       <c r="AU74" s="13">
-        <v>4684</v>
+        <v>12032</v>
       </c>
       <c r="AV74" s="13">
-        <v>12032</v>
+        <v>61227</v>
       </c>
       <c r="AW74" s="13">
-        <v>61227</v>
+        <v>59339</v>
       </c>
       <c r="AX74" s="13">
-        <v>59339</v>
+        <v>26638</v>
       </c>
       <c r="AY74" s="13">
-        <v>26638</v>
+        <v>10438</v>
       </c>
       <c r="AZ74" s="13">
-        <v>10438</v>
+        <v>26499</v>
       </c>
       <c r="BA74" s="13">
-        <v>26499</v>
+        <v>27865</v>
       </c>
       <c r="BB74" s="13">
-        <v>27865</v>
+        <v>26779</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -10011,95 +10011,95 @@
       <c r="X75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>58</v>
+      <c r="Y75" s="11">
+        <v>2570</v>
       </c>
       <c r="Z75" s="11">
-        <v>2570</v>
+        <v>0</v>
       </c>
       <c r="AA75" s="11">
-        <v>0</v>
+        <v>4779</v>
       </c>
       <c r="AB75" s="11">
-        <v>4779</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD75" s="11">
-        <v>20</v>
+        <v>7153</v>
       </c>
       <c r="AE75" s="11">
-        <v>7153</v>
+        <v>364</v>
       </c>
       <c r="AF75" s="11">
-        <v>364</v>
+        <v>5634</v>
       </c>
       <c r="AG75" s="11">
-        <v>5634</v>
+        <v>78</v>
       </c>
       <c r="AH75" s="11">
-        <v>78</v>
+        <v>10154</v>
       </c>
       <c r="AI75" s="11">
-        <v>10154</v>
+        <v>0</v>
       </c>
       <c r="AJ75" s="11">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="AK75" s="11">
-        <v>917</v>
+        <v>4785</v>
       </c>
       <c r="AL75" s="11">
-        <v>4785</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="11">
-        <v>0</v>
+        <v>1922</v>
       </c>
       <c r="AN75" s="11">
-        <v>1922</v>
+        <v>4018</v>
       </c>
       <c r="AO75" s="11">
-        <v>4018</v>
+        <v>3719</v>
       </c>
       <c r="AP75" s="11">
-        <v>3719</v>
+        <v>333</v>
       </c>
       <c r="AQ75" s="11">
-        <v>333</v>
+        <v>16850</v>
       </c>
       <c r="AR75" s="11">
-        <v>16850</v>
+        <v>18883</v>
       </c>
       <c r="AS75" s="11">
-        <v>18883</v>
+        <v>13829</v>
       </c>
       <c r="AT75" s="11">
-        <v>13829</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="11">
         <v>0</v>
       </c>
       <c r="AV75" s="11">
-        <v>0</v>
+        <v>7519</v>
       </c>
       <c r="AW75" s="11">
-        <v>7519</v>
+        <v>13580</v>
       </c>
       <c r="AX75" s="11">
-        <v>13580</v>
+        <v>13822</v>
       </c>
       <c r="AY75" s="11">
-        <v>13822</v>
+        <v>14841</v>
       </c>
       <c r="AZ75" s="11">
-        <v>14841</v>
+        <v>34601</v>
       </c>
       <c r="BA75" s="11">
-        <v>34601</v>
+        <v>109797</v>
       </c>
       <c r="BB75" s="11">
-        <v>109797</v>
+        <v>111564</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10227,38 +10227,38 @@
       <c r="AQ76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR76" s="13" t="s">
-        <v>58</v>
+      <c r="AR76" s="13">
+        <v>0</v>
       </c>
       <c r="AS76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT76" s="13">
         <v>66818</v>
       </c>
-      <c r="AU76" s="13" t="s">
-        <v>58</v>
+      <c r="AT76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU76" s="13">
+        <v>0</v>
       </c>
       <c r="AV76" s="13">
-        <v>0</v>
+        <v>51629</v>
       </c>
       <c r="AW76" s="13">
-        <v>51629</v>
+        <v>28106</v>
       </c>
       <c r="AX76" s="13">
-        <v>28106</v>
+        <v>57720</v>
       </c>
       <c r="AY76" s="13">
-        <v>57720</v>
+        <v>39314</v>
       </c>
       <c r="AZ76" s="13">
-        <v>39314</v>
+        <v>37368</v>
       </c>
       <c r="BA76" s="13">
-        <v>37368</v>
+        <v>92031</v>
       </c>
       <c r="BB76" s="13">
-        <v>92031</v>
+        <v>108920</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10328,94 +10328,94 @@
         <v>0</v>
       </c>
       <c r="Y77" s="17">
-        <v>0</v>
+        <v>59535</v>
       </c>
       <c r="Z77" s="17">
-        <v>59535</v>
+        <v>55923</v>
       </c>
       <c r="AA77" s="17">
-        <v>55923</v>
+        <v>62417</v>
       </c>
       <c r="AB77" s="17">
-        <v>62417</v>
+        <v>83026</v>
       </c>
       <c r="AC77" s="17">
-        <v>83026</v>
+        <v>104075</v>
       </c>
       <c r="AD77" s="17">
-        <v>104075</v>
+        <v>97122</v>
       </c>
       <c r="AE77" s="17">
-        <v>97122</v>
+        <v>95974</v>
       </c>
       <c r="AF77" s="17">
-        <v>95974</v>
+        <v>76372</v>
       </c>
       <c r="AG77" s="17">
-        <v>76372</v>
+        <v>91832</v>
       </c>
       <c r="AH77" s="17">
-        <v>91832</v>
+        <v>73529</v>
       </c>
       <c r="AI77" s="17">
-        <v>73529</v>
+        <v>116593</v>
       </c>
       <c r="AJ77" s="17">
-        <v>116593</v>
+        <v>45447</v>
       </c>
       <c r="AK77" s="17">
-        <v>45447</v>
+        <v>8387</v>
       </c>
       <c r="AL77" s="17">
-        <v>8387</v>
+        <v>83166</v>
       </c>
       <c r="AM77" s="17">
-        <v>83166</v>
+        <v>101747</v>
       </c>
       <c r="AN77" s="17">
-        <v>101747</v>
+        <v>66118</v>
       </c>
       <c r="AO77" s="17">
-        <v>66118</v>
+        <v>74332</v>
       </c>
       <c r="AP77" s="17">
-        <v>74332</v>
+        <v>70073</v>
       </c>
       <c r="AQ77" s="17">
-        <v>70073</v>
+        <v>123520</v>
       </c>
       <c r="AR77" s="17">
-        <v>123520</v>
+        <v>70072</v>
       </c>
       <c r="AS77" s="17">
-        <v>70072</v>
+        <v>103932</v>
       </c>
       <c r="AT77" s="17">
-        <v>103932</v>
+        <v>85420</v>
       </c>
       <c r="AU77" s="17">
-        <v>85420</v>
+        <v>12032</v>
       </c>
       <c r="AV77" s="17">
-        <v>12032</v>
+        <v>120375</v>
       </c>
       <c r="AW77" s="17">
-        <v>120375</v>
+        <v>101025</v>
       </c>
       <c r="AX77" s="17">
-        <v>101025</v>
+        <v>98180</v>
       </c>
       <c r="AY77" s="17">
-        <v>98180</v>
+        <v>64593</v>
       </c>
       <c r="AZ77" s="17">
-        <v>64593</v>
+        <v>98468</v>
       </c>
       <c r="BA77" s="17">
-        <v>98468</v>
+        <v>229693</v>
       </c>
       <c r="BB77" s="17">
-        <v>229693</v>
+        <v>247263</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10543,8 +10543,8 @@
       <c r="X79" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="17" t="s">
-        <v>58</v>
+      <c r="Y79" s="17">
+        <v>0</v>
       </c>
       <c r="Z79" s="17">
         <v>0</v>
@@ -10759,74 +10759,74 @@
       <c r="X81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>58</v>
+      <c r="Y81" s="11">
+        <v>-106</v>
       </c>
       <c r="Z81" s="11">
-        <v>-106</v>
+        <v>-2472</v>
       </c>
       <c r="AA81" s="11">
-        <v>-2472</v>
+        <v>-60</v>
       </c>
       <c r="AB81" s="11">
-        <v>-60</v>
+        <v>-137</v>
       </c>
       <c r="AC81" s="11">
-        <v>-137</v>
+        <v>-3833</v>
       </c>
       <c r="AD81" s="11">
-        <v>-3833</v>
+        <v>-812</v>
       </c>
       <c r="AE81" s="11">
-        <v>-812</v>
+        <v>-53</v>
       </c>
       <c r="AF81" s="11">
-        <v>-53</v>
+        <v>-129</v>
       </c>
       <c r="AG81" s="11">
-        <v>-129</v>
+        <v>-1322</v>
       </c>
       <c r="AH81" s="11">
-        <v>-1322</v>
+        <v>-768</v>
       </c>
       <c r="AI81" s="11">
-        <v>-768</v>
+        <v>-532</v>
       </c>
       <c r="AJ81" s="11">
-        <v>-532</v>
+        <v>-8083</v>
       </c>
       <c r="AK81" s="11">
-        <v>-8083</v>
+        <v>-229</v>
       </c>
       <c r="AL81" s="11">
-        <v>-229</v>
+        <v>-1726</v>
       </c>
       <c r="AM81" s="11">
-        <v>-1726</v>
+        <v>-523</v>
       </c>
       <c r="AN81" s="11">
-        <v>-523</v>
+        <v>-4920</v>
       </c>
       <c r="AO81" s="11">
-        <v>-4920</v>
+        <v>-9761</v>
       </c>
       <c r="AP81" s="11">
-        <v>-9761</v>
+        <v>-3755</v>
       </c>
       <c r="AQ81" s="11">
-        <v>-3755</v>
-      </c>
-      <c r="AR81" s="11">
         <v>-4874</v>
       </c>
+      <c r="AR81" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU81" s="11">
+      <c r="AT81" s="11">
         <v>-13564</v>
+      </c>
+      <c r="AU81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV81" s="11" t="s">
         <v>58</v>
@@ -10918,95 +10918,95 @@
       <c r="X82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>58</v>
+      <c r="Y82" s="13">
+        <v>-85</v>
       </c>
       <c r="Z82" s="13">
-        <v>-85</v>
+        <v>-5756</v>
       </c>
       <c r="AA82" s="13">
-        <v>-5756</v>
+        <v>-6318</v>
       </c>
       <c r="AB82" s="13">
-        <v>-6318</v>
+        <v>-2640</v>
       </c>
       <c r="AC82" s="13">
-        <v>-2640</v>
+        <v>-6145</v>
       </c>
       <c r="AD82" s="13">
-        <v>-6145</v>
+        <v>-3048</v>
       </c>
       <c r="AE82" s="13">
-        <v>-3048</v>
+        <v>-2505</v>
       </c>
       <c r="AF82" s="13">
-        <v>-2505</v>
+        <v>-1566</v>
       </c>
       <c r="AG82" s="13">
-        <v>-1566</v>
+        <v>-3535</v>
       </c>
       <c r="AH82" s="13">
-        <v>-3535</v>
+        <v>-305</v>
       </c>
       <c r="AI82" s="13">
-        <v>-305</v>
+        <v>-291</v>
       </c>
       <c r="AJ82" s="13">
-        <v>-291</v>
+        <v>-1972</v>
       </c>
       <c r="AK82" s="13">
-        <v>-1972</v>
+        <v>-3272</v>
       </c>
       <c r="AL82" s="13">
-        <v>-3272</v>
+        <v>-341</v>
       </c>
       <c r="AM82" s="13">
-        <v>-341</v>
+        <v>-2253</v>
       </c>
       <c r="AN82" s="13">
-        <v>-2253</v>
+        <v>0</v>
       </c>
       <c r="AO82" s="13">
-        <v>0</v>
+        <v>-3407</v>
       </c>
       <c r="AP82" s="13">
-        <v>-3407</v>
+        <v>-9764</v>
       </c>
       <c r="AQ82" s="13">
-        <v>-9764</v>
+        <v>-8583</v>
       </c>
       <c r="AR82" s="13">
-        <v>-8583</v>
+        <v>-14593</v>
       </c>
       <c r="AS82" s="13">
-        <v>-14593</v>
+        <v>-5521</v>
       </c>
       <c r="AT82" s="13">
-        <v>-5521</v>
+        <v>-3671</v>
       </c>
       <c r="AU82" s="13">
-        <v>-3671</v>
+        <v>-2060</v>
       </c>
       <c r="AV82" s="13">
-        <v>-2060</v>
+        <v>-5387</v>
       </c>
       <c r="AW82" s="13">
-        <v>-5387</v>
+        <v>-7822</v>
       </c>
       <c r="AX82" s="13">
-        <v>-7822</v>
+        <v>-9344</v>
       </c>
       <c r="AY82" s="13">
-        <v>-9344</v>
+        <v>-9351</v>
       </c>
       <c r="AZ82" s="13">
-        <v>-9351</v>
+        <v>-4197</v>
       </c>
       <c r="BA82" s="13">
-        <v>-4197</v>
+        <v>-9317</v>
       </c>
       <c r="BB82" s="13">
-        <v>-9317</v>
+        <v>-8603</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11077,95 +11077,95 @@
       <c r="X83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>58</v>
+      <c r="Y83" s="11">
+        <v>0</v>
       </c>
       <c r="Z83" s="11">
         <v>0</v>
       </c>
       <c r="AA83" s="11">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="AB83" s="11">
-        <v>-161</v>
+        <v>-2322</v>
       </c>
       <c r="AC83" s="11">
-        <v>-2322</v>
+        <v>-343</v>
       </c>
       <c r="AD83" s="11">
-        <v>-343</v>
+        <v>-5950</v>
       </c>
       <c r="AE83" s="11">
-        <v>-5950</v>
+        <v>-5</v>
       </c>
       <c r="AF83" s="11">
-        <v>-5</v>
+        <v>-21821</v>
       </c>
       <c r="AG83" s="11">
-        <v>-21821</v>
+        <v>-860</v>
       </c>
       <c r="AH83" s="11">
-        <v>-860</v>
+        <v>-797</v>
       </c>
       <c r="AI83" s="11">
-        <v>-797</v>
+        <v>-1485</v>
       </c>
       <c r="AJ83" s="11">
-        <v>-1485</v>
+        <v>-1533</v>
       </c>
       <c r="AK83" s="11">
-        <v>-1533</v>
+        <v>-2667</v>
       </c>
       <c r="AL83" s="11">
-        <v>-2667</v>
+        <v>-4119</v>
       </c>
       <c r="AM83" s="11">
-        <v>-4119</v>
+        <v>-5120</v>
       </c>
       <c r="AN83" s="11">
-        <v>-5120</v>
+        <v>-3819</v>
       </c>
       <c r="AO83" s="11">
-        <v>-3819</v>
+        <v>-8680</v>
       </c>
       <c r="AP83" s="11">
-        <v>-8680</v>
+        <v>-850</v>
       </c>
       <c r="AQ83" s="11">
-        <v>-850</v>
+        <v>-790</v>
       </c>
       <c r="AR83" s="11">
-        <v>-790</v>
+        <v>-12083</v>
       </c>
       <c r="AS83" s="11">
-        <v>-12083</v>
+        <v>-19728</v>
       </c>
       <c r="AT83" s="11">
-        <v>-19728</v>
+        <v>-94</v>
       </c>
       <c r="AU83" s="11">
-        <v>-94</v>
+        <v>-11808</v>
       </c>
       <c r="AV83" s="11">
-        <v>-11808</v>
+        <v>-32717</v>
       </c>
       <c r="AW83" s="11">
-        <v>-32717</v>
+        <v>-18544</v>
       </c>
       <c r="AX83" s="11">
-        <v>-18544</v>
+        <v>-70834</v>
       </c>
       <c r="AY83" s="11">
-        <v>-70834</v>
+        <v>-31331</v>
       </c>
       <c r="AZ83" s="11">
-        <v>-31331</v>
+        <v>-75393</v>
       </c>
       <c r="BA83" s="11">
-        <v>-75393</v>
+        <v>-49444</v>
       </c>
       <c r="BB83" s="11">
-        <v>-49444</v>
+        <v>-35245</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11251,11 +11251,11 @@
       <c r="AC84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD84" s="13" t="s">
-        <v>58</v>
+      <c r="AD84" s="13">
+        <v>-26000</v>
       </c>
       <c r="AE84" s="13">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="AF84" s="13">
         <v>0</v>
@@ -11263,8 +11263,8 @@
       <c r="AG84" s="13">
         <v>0</v>
       </c>
-      <c r="AH84" s="13">
-        <v>0</v>
+      <c r="AH84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI84" s="13" t="s">
         <v>58</v>
@@ -11287,8 +11287,8 @@
       <c r="AO84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP84" s="13" t="s">
-        <v>58</v>
+      <c r="AP84" s="13">
+        <v>0</v>
       </c>
       <c r="AQ84" s="13">
         <v>0</v>
@@ -11299,8 +11299,8 @@
       <c r="AS84" s="13">
         <v>0</v>
       </c>
-      <c r="AT84" s="13">
-        <v>0</v>
+      <c r="AT84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU84" s="13" t="s">
         <v>58</v>
@@ -11452,38 +11452,38 @@
       <c r="AQ85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR85" s="11" t="s">
-        <v>58</v>
+      <c r="AR85" s="11">
+        <v>0</v>
       </c>
       <c r="AS85" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT85" s="11">
         <v>-17776</v>
       </c>
-      <c r="AU85" s="11" t="s">
-        <v>58</v>
+      <c r="AT85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU85" s="11">
+        <v>0</v>
       </c>
       <c r="AV85" s="11">
-        <v>0</v>
+        <v>-9915</v>
       </c>
       <c r="AW85" s="11">
-        <v>-9915</v>
+        <v>-25387</v>
       </c>
       <c r="AX85" s="11">
-        <v>-25387</v>
+        <v>-20478</v>
       </c>
       <c r="AY85" s="11">
-        <v>-20478</v>
+        <v>-393</v>
       </c>
       <c r="AZ85" s="11">
-        <v>-393</v>
+        <v>-5781</v>
       </c>
       <c r="BA85" s="11">
-        <v>-5781</v>
+        <v>-12182</v>
       </c>
       <c r="BB85" s="11">
-        <v>-12182</v>
+        <v>-28935</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11554,95 +11554,95 @@
       <c r="X86" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="15" t="s">
-        <v>58</v>
+      <c r="Y86" s="15">
+        <v>-191</v>
       </c>
       <c r="Z86" s="15">
-        <v>-191</v>
+        <v>-8228</v>
       </c>
       <c r="AA86" s="15">
-        <v>-8228</v>
+        <v>-6539</v>
       </c>
       <c r="AB86" s="15">
-        <v>-6539</v>
+        <v>-5099</v>
       </c>
       <c r="AC86" s="15">
-        <v>-5099</v>
+        <v>-10321</v>
       </c>
       <c r="AD86" s="15">
-        <v>-10321</v>
+        <v>-35810</v>
       </c>
       <c r="AE86" s="15">
-        <v>-35810</v>
+        <v>-2563</v>
       </c>
       <c r="AF86" s="15">
-        <v>-2563</v>
+        <v>-23516</v>
       </c>
       <c r="AG86" s="15">
-        <v>-23516</v>
+        <v>-5717</v>
       </c>
       <c r="AH86" s="15">
-        <v>-5717</v>
+        <v>-1870</v>
       </c>
       <c r="AI86" s="15">
-        <v>-1870</v>
+        <v>-2308</v>
       </c>
       <c r="AJ86" s="15">
-        <v>-2308</v>
+        <v>-11588</v>
       </c>
       <c r="AK86" s="15">
-        <v>-11588</v>
+        <v>-6168</v>
       </c>
       <c r="AL86" s="15">
-        <v>-6168</v>
+        <v>-6186</v>
       </c>
       <c r="AM86" s="15">
-        <v>-6186</v>
+        <v>-7896</v>
       </c>
       <c r="AN86" s="15">
-        <v>-7896</v>
+        <v>-8739</v>
       </c>
       <c r="AO86" s="15">
-        <v>-8739</v>
+        <v>-21848</v>
       </c>
       <c r="AP86" s="15">
-        <v>-21848</v>
+        <v>-14369</v>
       </c>
       <c r="AQ86" s="15">
-        <v>-14369</v>
+        <v>-14247</v>
       </c>
       <c r="AR86" s="15">
-        <v>-14247</v>
+        <v>-38670</v>
       </c>
       <c r="AS86" s="15">
-        <v>-38670</v>
+        <v>-43025</v>
       </c>
       <c r="AT86" s="15">
-        <v>-43025</v>
+        <v>-17329</v>
       </c>
       <c r="AU86" s="15">
-        <v>-17329</v>
+        <v>-30095</v>
       </c>
       <c r="AV86" s="15">
-        <v>-30095</v>
+        <v>-48019</v>
       </c>
       <c r="AW86" s="15">
-        <v>-48019</v>
+        <v>-51753</v>
       </c>
       <c r="AX86" s="15">
-        <v>-51753</v>
+        <v>-100656</v>
       </c>
       <c r="AY86" s="15">
-        <v>-100656</v>
+        <v>-41075</v>
       </c>
       <c r="AZ86" s="15">
-        <v>-41075</v>
+        <v>-85371</v>
       </c>
       <c r="BA86" s="15">
-        <v>-85371</v>
+        <v>-70943</v>
       </c>
       <c r="BB86" s="15">
-        <v>-70943</v>
+        <v>-72783</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11770,86 +11770,86 @@
       <c r="X88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>58</v>
+      <c r="Y88" s="11">
+        <v>-9160</v>
       </c>
       <c r="Z88" s="11">
-        <v>-9160</v>
+        <v>-5836</v>
       </c>
       <c r="AA88" s="11">
-        <v>-5836</v>
+        <v>-3438</v>
       </c>
       <c r="AB88" s="11">
-        <v>-3438</v>
+        <v>-4747</v>
       </c>
       <c r="AC88" s="11">
-        <v>-4747</v>
+        <v>-7266</v>
       </c>
       <c r="AD88" s="11">
-        <v>-7266</v>
+        <v>-12062</v>
       </c>
       <c r="AE88" s="11">
-        <v>-12062</v>
+        <v>-18287</v>
       </c>
       <c r="AF88" s="11">
-        <v>-18287</v>
+        <v>-21548</v>
       </c>
       <c r="AG88" s="11">
-        <v>-21548</v>
+        <v>-10130</v>
       </c>
       <c r="AH88" s="11">
-        <v>-10130</v>
+        <v>-10758</v>
       </c>
       <c r="AI88" s="11">
-        <v>-10758</v>
+        <v>-40983</v>
       </c>
       <c r="AJ88" s="11">
-        <v>-40983</v>
+        <v>-75350</v>
       </c>
       <c r="AK88" s="11">
-        <v>-75350</v>
+        <v>-77417</v>
       </c>
       <c r="AL88" s="11">
-        <v>-77417</v>
+        <v>-67116</v>
       </c>
       <c r="AM88" s="11">
-        <v>-67116</v>
+        <v>-48926</v>
       </c>
       <c r="AN88" s="11">
-        <v>-48926</v>
+        <v>-37210</v>
       </c>
       <c r="AO88" s="11">
-        <v>-37210</v>
+        <v>-37940</v>
       </c>
       <c r="AP88" s="11">
-        <v>-37940</v>
+        <v>-43879</v>
       </c>
       <c r="AQ88" s="11">
-        <v>-43879</v>
+        <v>-29439</v>
       </c>
       <c r="AR88" s="11">
-        <v>-29439</v>
+        <v>-420</v>
       </c>
       <c r="AS88" s="11">
-        <v>-420</v>
+        <v>1151</v>
       </c>
       <c r="AT88" s="11">
-        <v>1151</v>
+        <v>-493</v>
       </c>
       <c r="AU88" s="11">
-        <v>-493</v>
+        <v>-2327</v>
       </c>
       <c r="AV88" s="11">
-        <v>-2327</v>
+        <v>1</v>
       </c>
       <c r="AW88" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX88" s="11">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AY88" s="11">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AZ88" s="11">
         <v>0</v>
@@ -11928,94 +11928,94 @@
         <v>0</v>
       </c>
       <c r="Y89" s="15">
-        <v>0</v>
+        <v>182721</v>
       </c>
       <c r="Z89" s="15">
-        <v>182721</v>
+        <v>182232</v>
       </c>
       <c r="AA89" s="15">
-        <v>182232</v>
+        <v>200089</v>
       </c>
       <c r="AB89" s="15">
-        <v>200089</v>
+        <v>203733</v>
       </c>
       <c r="AC89" s="15">
-        <v>203733</v>
+        <v>254074</v>
       </c>
       <c r="AD89" s="15">
-        <v>254074</v>
+        <v>293404</v>
       </c>
       <c r="AE89" s="15">
-        <v>293404</v>
+        <v>282332</v>
       </c>
       <c r="AF89" s="15">
-        <v>282332</v>
+        <v>216480</v>
       </c>
       <c r="AG89" s="15">
-        <v>216480</v>
+        <v>259739</v>
       </c>
       <c r="AH89" s="15">
-        <v>259739</v>
+        <v>185796</v>
       </c>
       <c r="AI89" s="15">
-        <v>185796</v>
+        <v>285923</v>
       </c>
       <c r="AJ89" s="15">
-        <v>285923</v>
+        <v>340766</v>
       </c>
       <c r="AK89" s="15">
-        <v>340766</v>
+        <v>345283</v>
       </c>
       <c r="AL89" s="15">
-        <v>345283</v>
+        <v>381023</v>
       </c>
       <c r="AM89" s="15">
-        <v>381023</v>
+        <v>384103</v>
       </c>
       <c r="AN89" s="15">
-        <v>384103</v>
+        <v>381845</v>
       </c>
       <c r="AO89" s="15">
-        <v>381845</v>
+        <v>347973</v>
       </c>
       <c r="AP89" s="15">
-        <v>347973</v>
+        <v>378076</v>
       </c>
       <c r="AQ89" s="15">
-        <v>378076</v>
+        <v>400775</v>
       </c>
       <c r="AR89" s="15">
-        <v>400775</v>
+        <v>363025</v>
       </c>
       <c r="AS89" s="15">
-        <v>363025</v>
+        <v>585208</v>
       </c>
       <c r="AT89" s="15">
-        <v>585208</v>
+        <v>326714</v>
       </c>
       <c r="AU89" s="15">
-        <v>326714</v>
+        <v>515695</v>
       </c>
       <c r="AV89" s="15">
-        <v>515695</v>
+        <v>945354</v>
       </c>
       <c r="AW89" s="15">
-        <v>945354</v>
+        <v>1008546</v>
       </c>
       <c r="AX89" s="15">
-        <v>1008546</v>
+        <v>1054419</v>
       </c>
       <c r="AY89" s="15">
-        <v>1054419</v>
+        <v>1051240</v>
       </c>
       <c r="AZ89" s="15">
-        <v>1051240</v>
+        <v>1057056</v>
       </c>
       <c r="BA89" s="15">
-        <v>1057056</v>
+        <v>1018188</v>
       </c>
       <c r="BB89" s="15">
-        <v>1018188</v>
+        <v>1113750</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -12562,11 +12562,11 @@
       <c r="AL96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN96" s="11">
+      <c r="AM96" s="11">
         <v>182850</v>
+      </c>
+      <c r="AN96" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO96" s="11" t="s">
         <v>58</v>
@@ -12679,74 +12679,74 @@
       <c r="X97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="13" t="s">
-        <v>58</v>
+      <c r="Y97" s="13">
+        <v>345005</v>
       </c>
       <c r="Z97" s="13">
-        <v>345005</v>
+        <v>355173</v>
       </c>
       <c r="AA97" s="13">
-        <v>355173</v>
+        <v>460698</v>
       </c>
       <c r="AB97" s="13">
-        <v>460698</v>
+        <v>397778</v>
       </c>
       <c r="AC97" s="13">
-        <v>397778</v>
+        <v>303396</v>
       </c>
       <c r="AD97" s="13">
-        <v>303396</v>
+        <v>661831</v>
       </c>
       <c r="AE97" s="13">
-        <v>661831</v>
+        <v>564885</v>
       </c>
       <c r="AF97" s="13">
-        <v>564885</v>
+        <v>815868</v>
       </c>
       <c r="AG97" s="13">
-        <v>815868</v>
+        <v>547344</v>
       </c>
       <c r="AH97" s="13">
-        <v>547344</v>
+        <v>566913</v>
       </c>
       <c r="AI97" s="13">
-        <v>566913</v>
+        <v>786113</v>
       </c>
       <c r="AJ97" s="13">
-        <v>786113</v>
+        <v>791325</v>
       </c>
       <c r="AK97" s="13">
-        <v>791325</v>
+        <v>722203</v>
       </c>
       <c r="AL97" s="13">
-        <v>722203</v>
+        <v>798683</v>
       </c>
       <c r="AM97" s="13">
-        <v>798683</v>
+        <v>858714</v>
       </c>
       <c r="AN97" s="13">
-        <v>858714</v>
+        <v>986100</v>
       </c>
       <c r="AO97" s="13">
-        <v>986100</v>
+        <v>852788</v>
       </c>
       <c r="AP97" s="13">
-        <v>852788</v>
+        <v>893718</v>
       </c>
       <c r="AQ97" s="13">
-        <v>893718</v>
-      </c>
-      <c r="AR97" s="13">
         <v>916726</v>
       </c>
+      <c r="AR97" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU97" s="13">
+      <c r="AT97" s="13">
         <v>876560</v>
+      </c>
+      <c r="AU97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV97" s="13" t="s">
         <v>58</v>
@@ -12838,95 +12838,95 @@
       <c r="X98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="11" t="s">
-        <v>58</v>
+      <c r="Y98" s="11">
+        <v>343500</v>
       </c>
       <c r="Z98" s="11">
-        <v>343500</v>
+        <v>304012</v>
       </c>
       <c r="AA98" s="11">
-        <v>304012</v>
+        <v>356025</v>
       </c>
       <c r="AB98" s="11">
-        <v>356025</v>
+        <v>261947</v>
       </c>
       <c r="AC98" s="11">
-        <v>261947</v>
+        <v>441131</v>
       </c>
       <c r="AD98" s="11">
-        <v>441131</v>
+        <v>300213</v>
       </c>
       <c r="AE98" s="11">
-        <v>300213</v>
+        <v>381869</v>
       </c>
       <c r="AF98" s="11">
-        <v>381869</v>
+        <v>217607</v>
       </c>
       <c r="AG98" s="11">
-        <v>217607</v>
+        <v>334301</v>
       </c>
       <c r="AH98" s="11">
-        <v>334301</v>
+        <v>583770</v>
       </c>
       <c r="AI98" s="11">
-        <v>583770</v>
+        <v>699461</v>
       </c>
       <c r="AJ98" s="11">
-        <v>699461</v>
+        <v>842987</v>
       </c>
       <c r="AK98" s="11">
-        <v>842987</v>
+        <v>894141</v>
       </c>
       <c r="AL98" s="11">
-        <v>894141</v>
+        <v>385001</v>
       </c>
       <c r="AM98" s="11">
-        <v>385001</v>
+        <v>1021438</v>
       </c>
       <c r="AN98" s="11">
-        <v>1021438</v>
+        <v>655534</v>
       </c>
       <c r="AO98" s="11">
-        <v>655534</v>
+        <v>734842</v>
       </c>
       <c r="AP98" s="11">
-        <v>734842</v>
+        <v>810402</v>
       </c>
       <c r="AQ98" s="11">
-        <v>810402</v>
+        <v>793370</v>
       </c>
       <c r="AR98" s="11">
-        <v>793370</v>
+        <v>571962</v>
       </c>
       <c r="AS98" s="11">
-        <v>571962</v>
+        <v>463996</v>
       </c>
       <c r="AT98" s="11">
-        <v>463996</v>
+        <v>987731</v>
       </c>
       <c r="AU98" s="11">
-        <v>987731</v>
+        <v>668472</v>
       </c>
       <c r="AV98" s="11">
-        <v>668472</v>
+        <v>970291</v>
       </c>
       <c r="AW98" s="11">
-        <v>970291</v>
+        <v>803241</v>
       </c>
       <c r="AX98" s="11">
-        <v>803241</v>
+        <v>763450</v>
       </c>
       <c r="AY98" s="11">
-        <v>763450</v>
+        <v>639901</v>
       </c>
       <c r="AZ98" s="11">
-        <v>639901</v>
+        <v>716518</v>
       </c>
       <c r="BA98" s="11">
-        <v>716518</v>
+        <v>919912</v>
       </c>
       <c r="BB98" s="11">
-        <v>919912</v>
+        <v>718618</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -12997,95 +12997,95 @@
       <c r="X99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="13" t="s">
-        <v>58</v>
+      <c r="Y99" s="13">
+        <v>771463</v>
       </c>
       <c r="Z99" s="13">
-        <v>771463</v>
+        <v>803728</v>
       </c>
       <c r="AA99" s="13">
-        <v>803728</v>
+        <v>701957</v>
       </c>
       <c r="AB99" s="13">
-        <v>701957</v>
+        <v>856489</v>
       </c>
       <c r="AC99" s="13">
-        <v>856489</v>
+        <v>1092309</v>
       </c>
       <c r="AD99" s="13">
-        <v>1092309</v>
+        <v>1164616</v>
       </c>
       <c r="AE99" s="13">
-        <v>1164616</v>
+        <v>1369212</v>
       </c>
       <c r="AF99" s="13">
-        <v>1369212</v>
+        <v>1121876</v>
       </c>
       <c r="AG99" s="13">
-        <v>1121876</v>
+        <v>850939</v>
       </c>
       <c r="AH99" s="13">
-        <v>850939</v>
+        <v>1047802</v>
       </c>
       <c r="AI99" s="13">
-        <v>1047802</v>
+        <v>1419731</v>
       </c>
       <c r="AJ99" s="13">
-        <v>1419731</v>
+        <v>1659760</v>
       </c>
       <c r="AK99" s="13">
-        <v>1659760</v>
+        <v>1912497</v>
       </c>
       <c r="AL99" s="13">
-        <v>1912497</v>
+        <v>1986259</v>
       </c>
       <c r="AM99" s="13">
-        <v>1986259</v>
+        <v>1795723</v>
       </c>
       <c r="AN99" s="13">
-        <v>1795723</v>
+        <v>1688300</v>
       </c>
       <c r="AO99" s="13">
-        <v>1688300</v>
+        <v>1695187</v>
       </c>
       <c r="AP99" s="13">
-        <v>1695187</v>
+        <v>2034363</v>
       </c>
       <c r="AQ99" s="13">
-        <v>2034363</v>
+        <v>1678324</v>
       </c>
       <c r="AR99" s="13">
-        <v>1678324</v>
+        <v>1592005</v>
       </c>
       <c r="AS99" s="13">
-        <v>1592005</v>
+        <v>1814742</v>
       </c>
       <c r="AT99" s="13">
-        <v>1814742</v>
+        <v>1829919</v>
       </c>
       <c r="AU99" s="13">
-        <v>1829919</v>
+        <v>2041808</v>
       </c>
       <c r="AV99" s="13">
-        <v>2041808</v>
+        <v>2087713</v>
       </c>
       <c r="AW99" s="13">
-        <v>2087713</v>
+        <v>2110695</v>
       </c>
       <c r="AX99" s="13">
-        <v>2110695</v>
+        <v>2416690</v>
       </c>
       <c r="AY99" s="13">
-        <v>2416690</v>
+        <v>2718745</v>
       </c>
       <c r="AZ99" s="13">
-        <v>2718745</v>
+        <v>2720573</v>
       </c>
       <c r="BA99" s="13">
-        <v>2720573</v>
+        <v>2402937</v>
       </c>
       <c r="BB99" s="13">
-        <v>2402937</v>
+        <v>2292801</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -13165,17 +13165,17 @@
       <c r="AA100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB100" s="11" t="s">
-        <v>58</v>
+      <c r="AB100" s="11">
+        <v>515380</v>
       </c>
       <c r="AC100" s="11">
-        <v>515380</v>
+        <v>643785</v>
       </c>
       <c r="AD100" s="11">
-        <v>643785</v>
-      </c>
-      <c r="AE100" s="11">
         <v>445033</v>
+      </c>
+      <c r="AE100" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AF100" s="11" t="s">
         <v>58</v>
@@ -13372,38 +13372,38 @@
       <c r="AQ101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR101" s="13" t="s">
-        <v>58</v>
+      <c r="AR101" s="13">
+        <v>0</v>
       </c>
       <c r="AS101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT101" s="13">
         <v>875475</v>
       </c>
-      <c r="AU101" s="13" t="s">
-        <v>58</v>
+      <c r="AT101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU101" s="13">
+        <v>0</v>
       </c>
       <c r="AV101" s="13">
-        <v>0</v>
+        <v>971971</v>
       </c>
       <c r="AW101" s="13">
-        <v>971971</v>
+        <v>1187019</v>
       </c>
       <c r="AX101" s="13">
-        <v>1187019</v>
+        <v>1049408</v>
       </c>
       <c r="AY101" s="13">
-        <v>1049408</v>
+        <v>616337</v>
       </c>
       <c r="AZ101" s="13">
-        <v>616337</v>
+        <v>820974</v>
       </c>
       <c r="BA101" s="13">
-        <v>820974</v>
+        <v>806434</v>
       </c>
       <c r="BB101" s="13">
-        <v>806434</v>
+        <v>802589</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -13531,74 +13531,74 @@
       <c r="X103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="11" t="s">
-        <v>58</v>
+      <c r="Y103" s="11">
+        <v>318110</v>
       </c>
       <c r="Z103" s="11">
-        <v>318110</v>
+        <v>353000</v>
       </c>
       <c r="AA103" s="11">
-        <v>353000</v>
+        <v>338871</v>
       </c>
       <c r="AB103" s="11">
-        <v>338871</v>
+        <v>432309</v>
       </c>
       <c r="AC103" s="11">
-        <v>432309</v>
+        <v>543062</v>
       </c>
       <c r="AD103" s="11">
-        <v>543062</v>
+        <v>539820</v>
       </c>
       <c r="AE103" s="11">
-        <v>539820</v>
+        <v>491491</v>
       </c>
       <c r="AF103" s="11">
-        <v>491491</v>
+        <v>487712</v>
       </c>
       <c r="AG103" s="11">
-        <v>487712</v>
+        <v>587810</v>
       </c>
       <c r="AH103" s="11">
-        <v>587810</v>
+        <v>528214</v>
       </c>
       <c r="AI103" s="11">
-        <v>528214</v>
+        <v>604625</v>
       </c>
       <c r="AJ103" s="11">
-        <v>604625</v>
+        <v>666939</v>
       </c>
       <c r="AK103" s="11">
-        <v>666939</v>
+        <v>582169</v>
       </c>
       <c r="AL103" s="11">
-        <v>582169</v>
+        <v>582431</v>
       </c>
       <c r="AM103" s="11">
-        <v>582431</v>
+        <v>669963</v>
       </c>
       <c r="AN103" s="11">
-        <v>669963</v>
+        <v>723114</v>
       </c>
       <c r="AO103" s="11">
-        <v>723114</v>
+        <v>718398</v>
       </c>
       <c r="AP103" s="11">
-        <v>718398</v>
+        <v>691104</v>
       </c>
       <c r="AQ103" s="11">
-        <v>691104</v>
-      </c>
-      <c r="AR103" s="11">
         <v>660230</v>
       </c>
+      <c r="AR103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU103" s="11">
+      <c r="AT103" s="11">
         <v>701564</v>
+      </c>
+      <c r="AU103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV103" s="11" t="s">
         <v>58</v>
@@ -13690,95 +13690,95 @@
       <c r="X104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="13" t="s">
-        <v>58</v>
+      <c r="Y104" s="13">
+        <v>241114</v>
       </c>
       <c r="Z104" s="13">
-        <v>241114</v>
+        <v>285588</v>
       </c>
       <c r="AA104" s="13">
-        <v>285588</v>
+        <v>317132</v>
       </c>
       <c r="AB104" s="13">
-        <v>317132</v>
+        <v>326488</v>
       </c>
       <c r="AC104" s="13">
-        <v>326488</v>
+        <v>427688</v>
       </c>
       <c r="AD104" s="13">
-        <v>427688</v>
+        <v>410359</v>
       </c>
       <c r="AE104" s="13">
-        <v>410359</v>
+        <v>459861</v>
       </c>
       <c r="AF104" s="13">
-        <v>459861</v>
+        <v>455026</v>
       </c>
       <c r="AG104" s="13">
-        <v>455026</v>
+        <v>463490</v>
       </c>
       <c r="AH104" s="13">
-        <v>463490</v>
+        <v>482755</v>
       </c>
       <c r="AI104" s="13">
-        <v>482755</v>
+        <v>486186</v>
       </c>
       <c r="AJ104" s="13">
-        <v>486186</v>
+        <v>513159</v>
       </c>
       <c r="AK104" s="13">
-        <v>513159</v>
+        <v>831747</v>
       </c>
       <c r="AL104" s="13">
-        <v>831747</v>
+        <v>531944</v>
       </c>
       <c r="AM104" s="13">
-        <v>531944</v>
+        <v>534508</v>
       </c>
       <c r="AN104" s="13">
-        <v>534508</v>
+        <v>834028</v>
       </c>
       <c r="AO104" s="13">
-        <v>834028</v>
+        <v>773416</v>
       </c>
       <c r="AP104" s="13">
-        <v>773416</v>
+        <v>847190</v>
       </c>
       <c r="AQ104" s="13">
-        <v>847190</v>
+        <v>625177</v>
       </c>
       <c r="AR104" s="13">
-        <v>625177</v>
+        <v>648729</v>
       </c>
       <c r="AS104" s="13">
-        <v>648729</v>
+        <v>614072</v>
       </c>
       <c r="AT104" s="13">
-        <v>614072</v>
+        <v>523820</v>
       </c>
       <c r="AU104" s="13">
-        <v>523820</v>
+        <v>639396</v>
       </c>
       <c r="AV104" s="13">
-        <v>639396</v>
+        <v>555226</v>
       </c>
       <c r="AW104" s="13">
-        <v>555226</v>
+        <v>568572</v>
       </c>
       <c r="AX104" s="13">
-        <v>568572</v>
+        <v>582621</v>
       </c>
       <c r="AY104" s="13">
-        <v>582621</v>
+        <v>672378</v>
       </c>
       <c r="AZ104" s="13">
-        <v>672378</v>
+        <v>657821</v>
       </c>
       <c r="BA104" s="13">
-        <v>657821</v>
+        <v>706212</v>
       </c>
       <c r="BB104" s="13">
-        <v>706212</v>
+        <v>967065</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
@@ -13849,95 +13849,95 @@
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z105" s="11">
+      <c r="Y105" s="11">
         <v>1079832</v>
       </c>
-      <c r="AA105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB105" s="11">
+      <c r="Z105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA105" s="11">
         <v>810000</v>
       </c>
-      <c r="AC105" s="11" t="s">
-        <v>58</v>
+      <c r="AB105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC105" s="11">
+        <v>1176471</v>
       </c>
       <c r="AD105" s="11">
-        <v>1176471</v>
+        <v>1424333</v>
       </c>
       <c r="AE105" s="11">
-        <v>1424333</v>
+        <v>1040000</v>
       </c>
       <c r="AF105" s="11">
-        <v>1040000</v>
+        <v>1170093</v>
       </c>
       <c r="AG105" s="11">
-        <v>1170093</v>
+        <v>1164179</v>
       </c>
       <c r="AH105" s="11">
-        <v>1164179</v>
-      </c>
-      <c r="AI105" s="11">
         <v>1045511</v>
       </c>
-      <c r="AJ105" s="11" t="s">
-        <v>58</v>
+      <c r="AI105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ105" s="11">
+        <v>1040863</v>
       </c>
       <c r="AK105" s="11">
-        <v>1040863</v>
-      </c>
-      <c r="AL105" s="11">
         <v>1383348</v>
       </c>
-      <c r="AM105" s="11" t="s">
-        <v>58</v>
+      <c r="AL105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM105" s="11">
+        <v>1855212</v>
       </c>
       <c r="AN105" s="11">
-        <v>1855212</v>
+        <v>2088358</v>
       </c>
       <c r="AO105" s="11">
-        <v>2088358</v>
+        <v>1818582</v>
       </c>
       <c r="AP105" s="11">
-        <v>1818582</v>
+        <v>1043887</v>
       </c>
       <c r="AQ105" s="11">
-        <v>1043887</v>
+        <v>1936782</v>
       </c>
       <c r="AR105" s="11">
-        <v>1936782</v>
+        <v>1838585</v>
       </c>
       <c r="AS105" s="11">
-        <v>1838585</v>
-      </c>
-      <c r="AT105" s="11">
         <v>1781399</v>
       </c>
+      <c r="AT105" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV105" s="11" t="s">
-        <v>58</v>
+      <c r="AV105" s="11">
+        <v>2061695</v>
       </c>
       <c r="AW105" s="11">
-        <v>2061695</v>
+        <v>2180475</v>
       </c>
       <c r="AX105" s="11">
-        <v>2180475</v>
+        <v>2012522</v>
       </c>
       <c r="AY105" s="11">
-        <v>2012522</v>
+        <v>1935194</v>
       </c>
       <c r="AZ105" s="11">
-        <v>1935194</v>
+        <v>1948145</v>
       </c>
       <c r="BA105" s="11">
-        <v>1948145</v>
+        <v>1799390</v>
       </c>
       <c r="BB105" s="11">
-        <v>1799390</v>
+        <v>2215990</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14065,38 +14065,38 @@
       <c r="AQ106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="13" t="s">
-        <v>58</v>
+      <c r="AR106" s="13">
+        <v>0</v>
       </c>
       <c r="AS106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT106" s="13">
         <v>832613</v>
       </c>
-      <c r="AU106" s="13" t="s">
-        <v>58</v>
+      <c r="AT106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU106" s="13">
+        <v>0</v>
       </c>
       <c r="AV106" s="13">
-        <v>0</v>
+        <v>728724</v>
       </c>
       <c r="AW106" s="13">
-        <v>728724</v>
+        <v>881480</v>
       </c>
       <c r="AX106" s="13">
-        <v>881480</v>
+        <v>876338</v>
       </c>
       <c r="AY106" s="13">
-        <v>876338</v>
+        <v>746478</v>
       </c>
       <c r="AZ106" s="13">
-        <v>746478</v>
+        <v>798444</v>
       </c>
       <c r="BA106" s="13">
-        <v>798444</v>
+        <v>717837</v>
       </c>
       <c r="BB106" s="13">
-        <v>717837</v>
+        <v>860246</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/kashi/kehafez/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kehafez/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C0129-FBEE-4D7A-BCDA-62B1573D72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F977A3B2-DD72-4FA0-85E9-00F85E24DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -772,12 +772,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -832,7 +832,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1543,32 +1543,32 @@
       <c r="AJ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK11" s="11" t="s">
-        <v>58</v>
+      <c r="AK11" s="11">
+        <v>8548</v>
       </c>
       <c r="AL11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM11" s="11">
-        <v>8548</v>
+      <c r="AM11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
+      <c r="AO11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1660,77 +1660,77 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>180311</v>
+      </c>
+      <c r="X12" s="13">
+        <v>163756</v>
       </c>
       <c r="Y12" s="13">
-        <v>180311</v>
+        <v>140756</v>
       </c>
       <c r="Z12" s="13">
-        <v>163756</v>
+        <v>114154</v>
       </c>
       <c r="AA12" s="13">
-        <v>140756</v>
+        <v>115458</v>
       </c>
       <c r="AB12" s="13">
-        <v>114154</v>
+        <v>129004</v>
       </c>
       <c r="AC12" s="13">
-        <v>115458</v>
+        <v>112421</v>
       </c>
       <c r="AD12" s="13">
-        <v>129004</v>
+        <v>105827</v>
       </c>
       <c r="AE12" s="13">
-        <v>112421</v>
+        <v>109669</v>
       </c>
       <c r="AF12" s="13">
-        <v>105827</v>
+        <v>144720</v>
       </c>
       <c r="AG12" s="13">
-        <v>109669</v>
+        <v>170723</v>
       </c>
       <c r="AH12" s="13">
-        <v>144720</v>
+        <v>156453</v>
       </c>
       <c r="AI12" s="13">
-        <v>170723</v>
+        <v>164970</v>
       </c>
       <c r="AJ12" s="13">
-        <v>156453</v>
+        <v>146620</v>
       </c>
       <c r="AK12" s="13">
-        <v>164970</v>
+        <v>99498</v>
       </c>
       <c r="AL12" s="13">
-        <v>146620</v>
+        <v>83400</v>
       </c>
       <c r="AM12" s="13">
-        <v>99498</v>
+        <v>64878</v>
       </c>
       <c r="AN12" s="13">
-        <v>83400</v>
+        <v>79326</v>
       </c>
       <c r="AO12" s="13">
-        <v>64878</v>
+        <v>76512</v>
       </c>
       <c r="AP12" s="13">
-        <v>79326</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>76512</v>
-      </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>17991</v>
+        <v>148777</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>122694</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>56821</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>58</v>
@@ -1757,7 +1757,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1819,104 +1819,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>149915</v>
+      </c>
+      <c r="X13" s="11">
+        <v>140115</v>
       </c>
       <c r="Y13" s="11">
-        <v>149915</v>
+        <v>125268</v>
       </c>
       <c r="Z13" s="11">
-        <v>140115</v>
+        <v>123117</v>
       </c>
       <c r="AA13" s="11">
-        <v>125268</v>
+        <v>125608</v>
       </c>
       <c r="AB13" s="11">
-        <v>123117</v>
+        <v>128398</v>
       </c>
       <c r="AC13" s="11">
-        <v>125608</v>
+        <v>133925</v>
       </c>
       <c r="AD13" s="11">
-        <v>128398</v>
+        <v>134039</v>
       </c>
       <c r="AE13" s="11">
-        <v>133925</v>
+        <v>109353</v>
       </c>
       <c r="AF13" s="11">
-        <v>134039</v>
+        <v>70283</v>
       </c>
       <c r="AG13" s="11">
-        <v>109353</v>
+        <v>134856</v>
       </c>
       <c r="AH13" s="11">
-        <v>70283</v>
+        <v>94567</v>
       </c>
       <c r="AI13" s="11">
-        <v>134856</v>
+        <v>88076</v>
       </c>
       <c r="AJ13" s="11">
-        <v>94567</v>
+        <v>133008</v>
       </c>
       <c r="AK13" s="11">
-        <v>88076</v>
+        <v>15963</v>
       </c>
       <c r="AL13" s="11">
-        <v>133008</v>
+        <v>69600</v>
       </c>
       <c r="AM13" s="11">
-        <v>15963</v>
+        <v>77034</v>
       </c>
       <c r="AN13" s="11">
-        <v>69600</v>
+        <v>59495</v>
       </c>
       <c r="AO13" s="11">
-        <v>77034</v>
+        <v>13481</v>
       </c>
       <c r="AP13" s="11">
-        <v>59495</v>
+        <v>46806</v>
       </c>
       <c r="AQ13" s="11">
-        <v>13481</v>
+        <v>80136</v>
       </c>
       <c r="AR13" s="11">
-        <v>46806</v>
+        <v>64086</v>
       </c>
       <c r="AS13" s="11">
-        <v>80136</v>
+        <v>75510</v>
       </c>
       <c r="AT13" s="11">
-        <v>64086</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="11">
-        <v>75510</v>
+        <v>26807</v>
       </c>
       <c r="AV13" s="11">
-        <v>0</v>
+        <v>80104</v>
       </c>
       <c r="AW13" s="11">
-        <v>26807</v>
+        <v>119924</v>
       </c>
       <c r="AX13" s="11">
-        <v>80104</v>
+        <v>60720</v>
       </c>
       <c r="AY13" s="11">
-        <v>119924</v>
+        <v>45565</v>
       </c>
       <c r="AZ13" s="11">
-        <v>60720</v>
+        <v>61234</v>
       </c>
       <c r="BA13" s="11">
-        <v>45565</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>61234</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1978,104 +1978,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>108530</v>
+      </c>
+      <c r="X14" s="13">
+        <v>108612</v>
       </c>
       <c r="Y14" s="13">
-        <v>108530</v>
+        <v>122932</v>
       </c>
       <c r="Z14" s="13">
-        <v>108612</v>
+        <v>121312</v>
       </c>
       <c r="AA14" s="13">
-        <v>122932</v>
+        <v>127250</v>
       </c>
       <c r="AB14" s="13">
-        <v>121312</v>
+        <v>133942</v>
       </c>
       <c r="AC14" s="13">
-        <v>127250</v>
+        <v>130366</v>
       </c>
       <c r="AD14" s="13">
-        <v>133942</v>
+        <v>99533</v>
       </c>
       <c r="AE14" s="13">
-        <v>130366</v>
+        <v>113656</v>
       </c>
       <c r="AF14" s="13">
-        <v>99533</v>
+        <v>106404</v>
       </c>
       <c r="AG14" s="13">
-        <v>113656</v>
+        <v>109835</v>
       </c>
       <c r="AH14" s="13">
-        <v>106404</v>
+        <v>121797</v>
       </c>
       <c r="AI14" s="13">
-        <v>109835</v>
+        <v>129462</v>
       </c>
       <c r="AJ14" s="13">
-        <v>121797</v>
+        <v>137344</v>
       </c>
       <c r="AK14" s="13">
-        <v>129462</v>
+        <v>125051</v>
       </c>
       <c r="AL14" s="13">
-        <v>137344</v>
+        <v>120000</v>
       </c>
       <c r="AM14" s="13">
-        <v>125051</v>
+        <v>101103</v>
       </c>
       <c r="AN14" s="13">
-        <v>120000</v>
+        <v>112631</v>
       </c>
       <c r="AO14" s="13">
-        <v>101103</v>
+        <v>224792</v>
       </c>
       <c r="AP14" s="13">
-        <v>112631</v>
+        <v>159526</v>
       </c>
       <c r="AQ14" s="13">
-        <v>224792</v>
+        <v>196472</v>
       </c>
       <c r="AR14" s="13">
-        <v>159526</v>
+        <v>171881</v>
       </c>
       <c r="AS14" s="13">
-        <v>196472</v>
+        <v>195845</v>
       </c>
       <c r="AT14" s="13">
-        <v>171881</v>
+        <v>263086</v>
       </c>
       <c r="AU14" s="13">
-        <v>195845</v>
+        <v>333481</v>
       </c>
       <c r="AV14" s="13">
-        <v>263086</v>
+        <v>354473</v>
       </c>
       <c r="AW14" s="13">
-        <v>333481</v>
+        <v>385820</v>
       </c>
       <c r="AX14" s="13">
-        <v>354473</v>
+        <v>384926</v>
       </c>
       <c r="AY14" s="13">
-        <v>385820</v>
+        <v>327586</v>
       </c>
       <c r="AZ14" s="13">
-        <v>384926</v>
+        <v>439332</v>
       </c>
       <c r="BA14" s="13">
-        <v>327586</v>
+        <v>340532</v>
       </c>
       <c r="BB14" s="13">
-        <v>439332</v>
+        <v>309166</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2146,17 +2146,17 @@
       <c r="Y15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>58</v>
+      <c r="Z15" s="11">
+        <v>38913</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>21560</v>
       </c>
       <c r="AB15" s="11">
-        <v>38913</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="11">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="11">
         <v>0</v>
@@ -2164,11 +2164,11 @@
       <c r="AE15" s="11">
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
+      <c r="AF15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
@@ -2191,20 +2191,20 @@
       <c r="AN15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
+      <c r="AO15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>0</v>
       </c>
       <c r="AT15" s="11">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2296,11 +2296,11 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
       </c>
       <c r="Y16" s="13">
         <v>0</v>
@@ -2323,11 +2323,11 @@
       <c r="AE16" s="13">
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>0</v>
+      <c r="AF16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH16" s="13" t="s">
         <v>58</v>
@@ -2393,7 +2393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2515,44 +2515,44 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="11">
+      <c r="AQ17" s="11">
         <v>76511</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>94526</v>
       </c>
       <c r="AU17" s="11">
-        <v>0</v>
+        <v>102055</v>
       </c>
       <c r="AV17" s="11">
-        <v>94526</v>
+        <v>66174</v>
       </c>
       <c r="AW17" s="11">
-        <v>102055</v>
+        <v>104170</v>
       </c>
       <c r="AX17" s="11">
-        <v>66174</v>
+        <v>150245</v>
       </c>
       <c r="AY17" s="11">
-        <v>104170</v>
+        <v>58111</v>
       </c>
       <c r="AZ17" s="11">
-        <v>150245</v>
+        <v>22559</v>
       </c>
       <c r="BA17" s="11">
-        <v>58111</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
-        <v>22559</v>
+        <v>18689</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
@@ -2613,103 +2613,103 @@
         <v>0</v>
       </c>
       <c r="W18" s="15">
-        <v>0</v>
+        <v>438756</v>
       </c>
       <c r="X18" s="15">
-        <v>0</v>
+        <v>412483</v>
       </c>
       <c r="Y18" s="15">
-        <v>438756</v>
+        <v>388956</v>
       </c>
       <c r="Z18" s="15">
-        <v>412483</v>
+        <v>397496</v>
       </c>
       <c r="AA18" s="15">
-        <v>388956</v>
+        <v>389876</v>
       </c>
       <c r="AB18" s="15">
-        <v>397496</v>
+        <v>391344</v>
       </c>
       <c r="AC18" s="15">
-        <v>389876</v>
+        <v>376712</v>
       </c>
       <c r="AD18" s="15">
-        <v>391344</v>
+        <v>339399</v>
       </c>
       <c r="AE18" s="15">
-        <v>376712</v>
+        <v>332678</v>
       </c>
       <c r="AF18" s="15">
-        <v>339399</v>
+        <v>321407</v>
       </c>
       <c r="AG18" s="15">
-        <v>332678</v>
+        <v>415414</v>
       </c>
       <c r="AH18" s="15">
-        <v>321407</v>
+        <v>372817</v>
       </c>
       <c r="AI18" s="15">
-        <v>415414</v>
+        <v>382508</v>
       </c>
       <c r="AJ18" s="15">
-        <v>372817</v>
+        <v>416972</v>
       </c>
       <c r="AK18" s="15">
-        <v>382508</v>
+        <v>249060</v>
       </c>
       <c r="AL18" s="15">
-        <v>416972</v>
+        <v>273000</v>
       </c>
       <c r="AM18" s="15">
-        <v>249060</v>
+        <v>243015</v>
       </c>
       <c r="AN18" s="15">
-        <v>273000</v>
+        <v>251452</v>
       </c>
       <c r="AO18" s="15">
-        <v>243015</v>
+        <v>314785</v>
       </c>
       <c r="AP18" s="15">
-        <v>251452</v>
+        <v>355109</v>
       </c>
       <c r="AQ18" s="15">
-        <v>314785</v>
+        <v>353119</v>
       </c>
       <c r="AR18" s="15">
-        <v>206332</v>
+        <v>358661</v>
       </c>
       <c r="AS18" s="15">
-        <v>353119</v>
+        <v>328176</v>
       </c>
       <c r="AT18" s="15">
-        <v>253958</v>
+        <v>357612</v>
       </c>
       <c r="AU18" s="15">
-        <v>271355</v>
+        <v>462343</v>
       </c>
       <c r="AV18" s="15">
-        <v>357612</v>
+        <v>500751</v>
       </c>
       <c r="AW18" s="15">
-        <v>462343</v>
+        <v>609914</v>
       </c>
       <c r="AX18" s="15">
-        <v>500751</v>
+        <v>595891</v>
       </c>
       <c r="AY18" s="15">
-        <v>609914</v>
+        <v>431262</v>
       </c>
       <c r="AZ18" s="15">
-        <v>595891</v>
+        <v>523125</v>
       </c>
       <c r="BA18" s="15">
-        <v>431262</v>
+        <v>340532</v>
       </c>
       <c r="BB18" s="15">
-        <v>523125</v>
+        <v>327855</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>66</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>59</v>
       </c>
@@ -2828,11 +2828,11 @@
       <c r="V20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>58</v>
+      <c r="W20" s="11">
+        <v>0</v>
+      </c>
+      <c r="X20" s="11">
+        <v>0</v>
       </c>
       <c r="Y20" s="11">
         <v>0</v>
@@ -2861,44 +2861,44 @@
       <c r="AG20" s="11">
         <v>0</v>
       </c>
-      <c r="AH20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="11">
-        <v>0</v>
+      <c r="AH20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL20" s="11" t="s">
-        <v>58</v>
+      <c r="AK20" s="11">
+        <v>53400</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>64579</v>
       </c>
       <c r="AM20" s="11">
-        <v>53400</v>
+        <v>93959</v>
       </c>
       <c r="AN20" s="11">
-        <v>64579</v>
+        <v>73973</v>
       </c>
       <c r="AO20" s="11">
-        <v>93959</v>
+        <v>43967</v>
       </c>
       <c r="AP20" s="11">
-        <v>73973</v>
-      </c>
-      <c r="AQ20" s="11">
-        <v>43967</v>
-      </c>
-      <c r="AR20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT20" s="11">
-        <v>115080</v>
+        <v>13665</v>
+      </c>
+      <c r="AQ20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR20" s="11">
+        <v>103771</v>
+      </c>
+      <c r="AS20" s="11">
+        <v>129216</v>
+      </c>
+      <c r="AT20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU20" s="11" t="s">
         <v>58</v>
@@ -2925,7 +2925,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>60</v>
       </c>
@@ -2987,11 +2987,11 @@
       <c r="V21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>58</v>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+      <c r="X21" s="13">
+        <v>0</v>
       </c>
       <c r="Y21" s="13">
         <v>0</v>
@@ -3020,71 +3020,71 @@
       <c r="AG21" s="13">
         <v>0</v>
       </c>
-      <c r="AH21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="13">
-        <v>0</v>
+      <c r="AH21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL21" s="13" t="s">
-        <v>58</v>
+      <c r="AK21" s="13">
+        <v>119828</v>
+      </c>
+      <c r="AL21" s="13">
+        <v>18467</v>
       </c>
       <c r="AM21" s="13">
-        <v>119828</v>
+        <v>4025</v>
       </c>
       <c r="AN21" s="13">
-        <v>18467</v>
+        <v>21975</v>
       </c>
       <c r="AO21" s="13">
-        <v>4025</v>
+        <v>108113</v>
       </c>
       <c r="AP21" s="13">
-        <v>21975</v>
+        <v>79381</v>
       </c>
       <c r="AQ21" s="13">
-        <v>108113</v>
+        <v>37919</v>
       </c>
       <c r="AR21" s="13">
-        <v>79381</v>
+        <v>8942</v>
       </c>
       <c r="AS21" s="13">
-        <v>37919</v>
+        <v>10960</v>
       </c>
       <c r="AT21" s="13">
-        <v>8942</v>
+        <v>104245</v>
       </c>
       <c r="AU21" s="13">
-        <v>10960</v>
+        <v>104363</v>
       </c>
       <c r="AV21" s="13">
-        <v>104245</v>
+        <v>45721</v>
       </c>
       <c r="AW21" s="13">
-        <v>104363</v>
+        <v>15524</v>
       </c>
       <c r="AX21" s="13">
-        <v>45721</v>
+        <v>40283</v>
       </c>
       <c r="AY21" s="13">
-        <v>15524</v>
+        <v>39457</v>
       </c>
       <c r="AZ21" s="13">
-        <v>40283</v>
+        <v>27691</v>
       </c>
       <c r="BA21" s="13">
-        <v>39457</v>
+        <v>32878</v>
       </c>
       <c r="BB21" s="13">
-        <v>27691</v>
+        <v>103790</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
@@ -3146,11 +3146,11 @@
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>58</v>
+      <c r="W22" s="11">
+        <v>0</v>
+      </c>
+      <c r="X22" s="11">
+        <v>0</v>
       </c>
       <c r="Y22" s="11">
         <v>0</v>
@@ -3179,71 +3179,71 @@
       <c r="AG22" s="11">
         <v>0</v>
       </c>
-      <c r="AH22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="11">
-        <v>0</v>
+      <c r="AH22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL22" s="11" t="s">
-        <v>58</v>
+      <c r="AK22" s="11">
+        <v>1036</v>
+      </c>
+      <c r="AL22" s="11">
+        <v>1924</v>
       </c>
       <c r="AM22" s="11">
-        <v>1036</v>
+        <v>2045</v>
       </c>
       <c r="AN22" s="11">
-        <v>1924</v>
+        <v>319</v>
       </c>
       <c r="AO22" s="11">
-        <v>2045</v>
+        <v>8700</v>
       </c>
       <c r="AP22" s="11">
-        <v>319</v>
+        <v>10270</v>
       </c>
       <c r="AQ22" s="11">
-        <v>8700</v>
+        <v>7763</v>
       </c>
       <c r="AR22" s="11">
-        <v>10270</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="11">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="11">
-        <v>0</v>
+        <v>3647</v>
       </c>
       <c r="AU22" s="11">
-        <v>0</v>
+        <v>6228</v>
       </c>
       <c r="AV22" s="11">
-        <v>3647</v>
+        <v>6868</v>
       </c>
       <c r="AW22" s="11">
-        <v>6228</v>
+        <v>7669</v>
       </c>
       <c r="AX22" s="11">
-        <v>6868</v>
+        <v>17761</v>
       </c>
       <c r="AY22" s="11">
-        <v>7669</v>
+        <v>61019</v>
       </c>
       <c r="AZ22" s="11">
-        <v>17761</v>
+        <v>50345</v>
       </c>
       <c r="BA22" s="11">
-        <v>61019</v>
+        <v>52038</v>
       </c>
       <c r="BB22" s="11">
-        <v>50345</v>
+        <v>66827</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>64</v>
       </c>
@@ -3365,44 +3365,44 @@
       <c r="AP23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="13">
+      <c r="AQ23" s="13">
         <v>71064</v>
       </c>
-      <c r="AT23" s="13" t="s">
-        <v>58</v>
+      <c r="AR23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT23" s="13">
+        <v>71697</v>
       </c>
       <c r="AU23" s="13">
-        <v>0</v>
+        <v>31885</v>
       </c>
       <c r="AV23" s="13">
-        <v>71697</v>
+        <v>65865</v>
       </c>
       <c r="AW23" s="13">
-        <v>31885</v>
+        <v>52666</v>
       </c>
       <c r="AX23" s="13">
-        <v>65865</v>
+        <v>46801</v>
       </c>
       <c r="AY23" s="13">
-        <v>52666</v>
+        <v>128206</v>
       </c>
       <c r="AZ23" s="13">
-        <v>46801</v>
+        <v>126615</v>
       </c>
       <c r="BA23" s="13">
-        <v>128206</v>
+        <v>78384</v>
       </c>
       <c r="BB23" s="13">
-        <v>126615</v>
+        <v>67496</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>67</v>
       </c>
@@ -3505,61 +3505,61 @@
         <v>0</v>
       </c>
       <c r="AK24" s="17">
-        <v>0</v>
+        <v>174264</v>
       </c>
       <c r="AL24" s="17">
-        <v>0</v>
+        <v>84970</v>
       </c>
       <c r="AM24" s="17">
-        <v>174264</v>
+        <v>100029</v>
       </c>
       <c r="AN24" s="17">
-        <v>84970</v>
+        <v>96267</v>
       </c>
       <c r="AO24" s="17">
-        <v>100029</v>
+        <v>160780</v>
       </c>
       <c r="AP24" s="17">
-        <v>96267</v>
+        <v>103316</v>
       </c>
       <c r="AQ24" s="17">
-        <v>160780</v>
+        <v>116746</v>
       </c>
       <c r="AR24" s="17">
-        <v>89651</v>
+        <v>112713</v>
       </c>
       <c r="AS24" s="17">
-        <v>116746</v>
+        <v>140176</v>
       </c>
       <c r="AT24" s="17">
-        <v>124022</v>
+        <v>179589</v>
       </c>
       <c r="AU24" s="17">
-        <v>10960</v>
+        <v>142476</v>
       </c>
       <c r="AV24" s="17">
-        <v>179589</v>
+        <v>118454</v>
       </c>
       <c r="AW24" s="17">
-        <v>142476</v>
+        <v>75859</v>
       </c>
       <c r="AX24" s="17">
-        <v>118454</v>
+        <v>104845</v>
       </c>
       <c r="AY24" s="17">
-        <v>75859</v>
+        <v>228682</v>
       </c>
       <c r="AZ24" s="17">
-        <v>104845</v>
+        <v>204651</v>
       </c>
       <c r="BA24" s="17">
-        <v>228682</v>
+        <v>163300</v>
       </c>
       <c r="BB24" s="17">
-        <v>204651</v>
+        <v>238113</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
         <v>68</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="BA25" s="19"/>
       <c r="BB25" s="19"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>69</v>
       </c>
@@ -3676,11 +3676,11 @@
       <c r="V26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>58</v>
+      <c r="W26" s="17">
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <v>0</v>
       </c>
       <c r="Y26" s="17">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>70</v>
       </c>
@@ -3834,103 +3834,103 @@
         <v>0</v>
       </c>
       <c r="W27" s="15">
-        <v>0</v>
+        <v>438756</v>
       </c>
       <c r="X27" s="15">
-        <v>0</v>
+        <v>412483</v>
       </c>
       <c r="Y27" s="15">
-        <v>438756</v>
+        <v>388956</v>
       </c>
       <c r="Z27" s="15">
-        <v>412483</v>
+        <v>397496</v>
       </c>
       <c r="AA27" s="15">
-        <v>388956</v>
+        <v>389876</v>
       </c>
       <c r="AB27" s="15">
-        <v>397496</v>
+        <v>391344</v>
       </c>
       <c r="AC27" s="15">
-        <v>389876</v>
+        <v>376712</v>
       </c>
       <c r="AD27" s="15">
-        <v>391344</v>
+        <v>339399</v>
       </c>
       <c r="AE27" s="15">
-        <v>376712</v>
+        <v>332678</v>
       </c>
       <c r="AF27" s="15">
-        <v>339399</v>
+        <v>321407</v>
       </c>
       <c r="AG27" s="15">
-        <v>332678</v>
+        <v>415414</v>
       </c>
       <c r="AH27" s="15">
-        <v>321407</v>
+        <v>372817</v>
       </c>
       <c r="AI27" s="15">
-        <v>415414</v>
+        <v>382508</v>
       </c>
       <c r="AJ27" s="15">
-        <v>372817</v>
+        <v>416972</v>
       </c>
       <c r="AK27" s="15">
-        <v>382508</v>
+        <v>423324</v>
       </c>
       <c r="AL27" s="15">
-        <v>416972</v>
+        <v>357970</v>
       </c>
       <c r="AM27" s="15">
-        <v>423324</v>
+        <v>343044</v>
       </c>
       <c r="AN27" s="15">
-        <v>357970</v>
+        <v>347719</v>
       </c>
       <c r="AO27" s="15">
-        <v>343044</v>
+        <v>475565</v>
       </c>
       <c r="AP27" s="15">
-        <v>347719</v>
+        <v>458425</v>
       </c>
       <c r="AQ27" s="15">
-        <v>475565</v>
+        <v>469865</v>
       </c>
       <c r="AR27" s="15">
-        <v>295983</v>
+        <v>471374</v>
       </c>
       <c r="AS27" s="15">
-        <v>469865</v>
+        <v>468352</v>
       </c>
       <c r="AT27" s="15">
-        <v>377980</v>
+        <v>537201</v>
       </c>
       <c r="AU27" s="15">
-        <v>282315</v>
+        <v>604819</v>
       </c>
       <c r="AV27" s="15">
-        <v>537201</v>
+        <v>619205</v>
       </c>
       <c r="AW27" s="15">
-        <v>604819</v>
+        <v>685773</v>
       </c>
       <c r="AX27" s="15">
-        <v>619205</v>
+        <v>700736</v>
       </c>
       <c r="AY27" s="15">
-        <v>685773</v>
+        <v>659944</v>
       </c>
       <c r="AZ27" s="15">
-        <v>700736</v>
+        <v>727776</v>
       </c>
       <c r="BA27" s="15">
-        <v>659944</v>
+        <v>503832</v>
       </c>
       <c r="BB27" s="15">
-        <v>727776</v>
+        <v>565968</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3985,7 +3985,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4040,7 +4040,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4095,7 +4095,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4307,7 +4307,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
@@ -4364,7 +4364,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
@@ -4468,32 +4468,32 @@
       <c r="AJ34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK34" s="11" t="s">
-        <v>58</v>
+      <c r="AK34" s="11">
+        <v>8548</v>
       </c>
       <c r="AL34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM34" s="11">
-        <v>8548</v>
+      <c r="AM34" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="11" t="s">
-        <v>58</v>
+      <c r="AO34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>0</v>
       </c>
       <c r="AT34" s="11">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4585,78 +4585,78 @@
       <c r="V35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="W35" s="13">
+        <v>100868</v>
+      </c>
+      <c r="X35" s="13">
+        <v>114637</v>
       </c>
       <c r="Y35" s="13">
-        <v>100868</v>
+        <v>138288</v>
       </c>
       <c r="Z35" s="13">
-        <v>114637</v>
+        <v>12062</v>
       </c>
       <c r="AA35" s="13">
-        <v>138288</v>
+        <v>8629</v>
       </c>
       <c r="AB35" s="13">
-        <v>12062</v>
+        <v>63900</v>
       </c>
       <c r="AC35" s="13">
-        <v>8629</v>
+        <v>46960</v>
       </c>
       <c r="AD35" s="13">
-        <v>63900</v>
+        <v>85873</v>
       </c>
       <c r="AE35" s="13">
-        <v>46960</v>
+        <v>63039</v>
       </c>
       <c r="AF35" s="13">
-        <v>85873</v>
+        <v>24487</v>
       </c>
       <c r="AG35" s="13">
-        <v>63039</v>
+        <v>78013</v>
       </c>
       <c r="AH35" s="13">
-        <v>24487</v>
+        <v>127073</v>
       </c>
       <c r="AI35" s="13">
-        <v>78013</v>
+        <v>134350</v>
       </c>
       <c r="AJ35" s="13">
-        <v>127073</v>
+        <v>120139</v>
       </c>
       <c r="AK35" s="13">
-        <v>134350</v>
+        <v>94284</v>
       </c>
       <c r="AL35" s="13">
-        <v>120139</v>
+        <v>86477</v>
       </c>
       <c r="AM35" s="13">
-        <v>94284</v>
+        <v>105399</v>
       </c>
       <c r="AN35" s="13">
-        <v>86477</v>
+        <v>79148</v>
       </c>
       <c r="AO35" s="13">
-        <v>105399</v>
+        <v>82595</v>
       </c>
       <c r="AP35" s="13">
-        <v>79148</v>
-      </c>
-      <c r="AQ35" s="13">
-        <v>82595</v>
-      </c>
-      <c r="AR35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT35" s="13">
+        <v>160919</v>
+      </c>
+      <c r="AQ35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR35" s="13">
         <v>17466</v>
       </c>
+      <c r="AS35" s="13">
+        <v>90668</v>
+      </c>
+      <c r="AT35" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU35" s="13" t="s">
         <v>58</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
@@ -4744,104 +4744,104 @@
       <c r="V36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>58</v>
+      <c r="W36" s="11">
+        <v>44591</v>
+      </c>
+      <c r="X36" s="11">
+        <v>44268</v>
       </c>
       <c r="Y36" s="11">
-        <v>44591</v>
+        <v>23577</v>
       </c>
       <c r="Z36" s="11">
-        <v>44268</v>
+        <v>565</v>
       </c>
       <c r="AA36" s="11">
-        <v>23577</v>
+        <v>28037</v>
       </c>
       <c r="AB36" s="11">
-        <v>565</v>
+        <v>46034</v>
       </c>
       <c r="AC36" s="11">
-        <v>28037</v>
+        <v>24202</v>
       </c>
       <c r="AD36" s="11">
-        <v>46034</v>
+        <v>9485</v>
       </c>
       <c r="AE36" s="11">
-        <v>24202</v>
+        <v>37541</v>
       </c>
       <c r="AF36" s="11">
-        <v>9485</v>
+        <v>19470</v>
       </c>
       <c r="AG36" s="11">
-        <v>37541</v>
+        <v>13539</v>
       </c>
       <c r="AH36" s="11">
-        <v>19470</v>
+        <v>88254</v>
       </c>
       <c r="AI36" s="11">
-        <v>13539</v>
+        <v>87144</v>
       </c>
       <c r="AJ36" s="11">
-        <v>88254</v>
+        <v>5587</v>
       </c>
       <c r="AK36" s="11">
-        <v>87144</v>
+        <v>793</v>
       </c>
       <c r="AL36" s="11">
-        <v>5587</v>
+        <v>79050</v>
       </c>
       <c r="AM36" s="11">
-        <v>793</v>
+        <v>86718</v>
       </c>
       <c r="AN36" s="11">
-        <v>79050</v>
+        <v>78429</v>
       </c>
       <c r="AO36" s="11">
-        <v>86718</v>
+        <v>17466</v>
       </c>
       <c r="AP36" s="11">
-        <v>78429</v>
+        <v>8574</v>
       </c>
       <c r="AQ36" s="11">
-        <v>17466</v>
+        <v>10360</v>
       </c>
       <c r="AR36" s="11">
-        <v>8574</v>
+        <v>9699</v>
       </c>
       <c r="AS36" s="11">
-        <v>10360</v>
+        <v>117711</v>
       </c>
       <c r="AT36" s="11">
-        <v>9699</v>
+        <v>32658</v>
       </c>
       <c r="AU36" s="11">
-        <v>118081</v>
+        <v>169136</v>
       </c>
       <c r="AV36" s="11">
-        <v>35492</v>
+        <v>70949</v>
       </c>
       <c r="AW36" s="11">
-        <v>169136</v>
+        <v>24646</v>
       </c>
       <c r="AX36" s="11">
-        <v>70949</v>
+        <v>47354</v>
       </c>
       <c r="AY36" s="11">
-        <v>24646</v>
+        <v>42004</v>
       </c>
       <c r="AZ36" s="11">
-        <v>47354</v>
+        <v>25389</v>
       </c>
       <c r="BA36" s="11">
-        <v>42004</v>
+        <v>15107</v>
       </c>
       <c r="BB36" s="11">
-        <v>25389</v>
+        <v>61979</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>61</v>
       </c>
@@ -4903,104 +4903,104 @@
       <c r="V37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>58</v>
+      <c r="W37" s="13">
+        <v>106836</v>
+      </c>
+      <c r="X37" s="13">
+        <v>107249</v>
       </c>
       <c r="Y37" s="13">
-        <v>106836</v>
+        <v>107622</v>
       </c>
       <c r="Z37" s="13">
-        <v>107249</v>
+        <v>123238</v>
       </c>
       <c r="AA37" s="13">
-        <v>107622</v>
+        <v>126997</v>
       </c>
       <c r="AB37" s="13">
-        <v>123238</v>
+        <v>161175</v>
       </c>
       <c r="AC37" s="13">
-        <v>126997</v>
+        <v>125210</v>
       </c>
       <c r="AD37" s="13">
-        <v>161175</v>
+        <v>100766</v>
       </c>
       <c r="AE37" s="13">
-        <v>125210</v>
+        <v>160646</v>
       </c>
       <c r="AF37" s="13">
-        <v>100766</v>
+        <v>95101</v>
       </c>
       <c r="AG37" s="13">
-        <v>160646</v>
+        <v>99895</v>
       </c>
       <c r="AH37" s="13">
-        <v>95101</v>
+        <v>124900</v>
       </c>
       <c r="AI37" s="13">
-        <v>99895</v>
+        <v>128384</v>
       </c>
       <c r="AJ37" s="13">
-        <v>124900</v>
+        <v>137472</v>
       </c>
       <c r="AK37" s="13">
-        <v>128384</v>
+        <v>142473</v>
       </c>
       <c r="AL37" s="13">
-        <v>137472</v>
+        <v>133022</v>
       </c>
       <c r="AM37" s="13">
-        <v>142473</v>
+        <v>106078</v>
       </c>
       <c r="AN37" s="13">
-        <v>133022</v>
+        <v>114019</v>
       </c>
       <c r="AO37" s="13">
-        <v>106078</v>
+        <v>137856</v>
       </c>
       <c r="AP37" s="13">
-        <v>114019</v>
+        <v>198455</v>
       </c>
       <c r="AQ37" s="13">
-        <v>137856</v>
+        <v>241615</v>
       </c>
       <c r="AR37" s="13">
-        <v>197310</v>
+        <v>127998</v>
       </c>
       <c r="AS37" s="13">
-        <v>241615</v>
+        <v>163468</v>
       </c>
       <c r="AT37" s="13">
-        <v>127998</v>
+        <v>343116</v>
       </c>
       <c r="AU37" s="13">
-        <v>218992</v>
+        <v>346212</v>
       </c>
       <c r="AV37" s="13">
-        <v>343806</v>
+        <v>387960</v>
       </c>
       <c r="AW37" s="13">
-        <v>332345</v>
+        <v>367414</v>
       </c>
       <c r="AX37" s="13">
-        <v>387960</v>
+        <v>329123</v>
       </c>
       <c r="AY37" s="13">
-        <v>367414</v>
+        <v>303077</v>
       </c>
       <c r="AZ37" s="13">
-        <v>329123</v>
+        <v>386723</v>
       </c>
       <c r="BA37" s="13">
-        <v>303077</v>
+        <v>352773</v>
       </c>
       <c r="BB37" s="13">
-        <v>386723</v>
+        <v>428146</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
@@ -5071,29 +5071,29 @@
       <c r="Y38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA38" s="11" t="s">
-        <v>58</v>
+      <c r="Z38" s="11">
+        <v>38913</v>
+      </c>
+      <c r="AA38" s="11">
+        <v>21560</v>
       </c>
       <c r="AB38" s="11">
-        <v>38913</v>
+        <v>755</v>
       </c>
       <c r="AC38" s="11">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="11">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="11">
         <v>0</v>
       </c>
-      <c r="AF38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>0</v>
+      <c r="AF38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH38" s="11" t="s">
         <v>58</v>
@@ -5116,20 +5116,20 @@
       <c r="AN38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS38" s="11" t="s">
-        <v>58</v>
+      <c r="AO38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="11">
+        <v>0</v>
       </c>
       <c r="AT38" s="11">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>63</v>
       </c>
@@ -5221,11 +5221,11 @@
       <c r="V39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="13" t="s">
-        <v>58</v>
+      <c r="W39" s="13">
+        <v>0</v>
+      </c>
+      <c r="X39" s="13">
+        <v>0</v>
       </c>
       <c r="Y39" s="13">
         <v>0</v>
@@ -5248,11 +5248,11 @@
       <c r="AE39" s="13">
         <v>0</v>
       </c>
-      <c r="AF39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="13">
-        <v>0</v>
+      <c r="AF39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH39" s="13" t="s">
         <v>58</v>
@@ -5318,7 +5318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
@@ -5440,44 +5440,44 @@
       <c r="AP40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="11">
+      <c r="AQ40" s="11">
         <v>91235</v>
       </c>
-      <c r="AT40" s="11" t="s">
-        <v>58</v>
+      <c r="AR40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT40" s="11">
+        <v>126359</v>
       </c>
       <c r="AU40" s="11">
-        <v>0</v>
+        <v>102648</v>
       </c>
       <c r="AV40" s="11">
-        <v>127682</v>
+        <v>62116</v>
       </c>
       <c r="AW40" s="11">
-        <v>101698</v>
+        <v>21167</v>
       </c>
       <c r="AX40" s="11">
-        <v>62116</v>
+        <v>139622</v>
       </c>
       <c r="AY40" s="11">
-        <v>21167</v>
+        <v>114731</v>
       </c>
       <c r="AZ40" s="11">
-        <v>139622</v>
+        <v>42794</v>
       </c>
       <c r="BA40" s="11">
-        <v>114731</v>
+        <v>49164</v>
       </c>
       <c r="BB40" s="11">
-        <v>42794</v>
+        <v>7793</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>73</v>
       </c>
@@ -5538,103 +5538,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <v>0</v>
+        <v>252295</v>
       </c>
       <c r="X41" s="15">
-        <v>0</v>
+        <v>266154</v>
       </c>
       <c r="Y41" s="15">
-        <v>252295</v>
+        <v>269487</v>
       </c>
       <c r="Z41" s="15">
-        <v>266154</v>
+        <v>174778</v>
       </c>
       <c r="AA41" s="15">
-        <v>269487</v>
+        <v>185223</v>
       </c>
       <c r="AB41" s="15">
-        <v>174778</v>
+        <v>271864</v>
       </c>
       <c r="AC41" s="15">
-        <v>185223</v>
+        <v>196372</v>
       </c>
       <c r="AD41" s="15">
-        <v>271864</v>
+        <v>196124</v>
       </c>
       <c r="AE41" s="15">
-        <v>196372</v>
+        <v>261226</v>
       </c>
       <c r="AF41" s="15">
-        <v>196124</v>
+        <v>139058</v>
       </c>
       <c r="AG41" s="15">
-        <v>261226</v>
+        <v>191447</v>
       </c>
       <c r="AH41" s="15">
-        <v>139058</v>
+        <v>340227</v>
       </c>
       <c r="AI41" s="15">
-        <v>191447</v>
+        <v>349878</v>
       </c>
       <c r="AJ41" s="15">
-        <v>340227</v>
+        <v>263198</v>
       </c>
       <c r="AK41" s="15">
-        <v>349878</v>
+        <v>246098</v>
       </c>
       <c r="AL41" s="15">
-        <v>263198</v>
+        <v>298549</v>
       </c>
       <c r="AM41" s="15">
-        <v>246098</v>
+        <v>298195</v>
       </c>
       <c r="AN41" s="15">
-        <v>298549</v>
+        <v>271596</v>
       </c>
       <c r="AO41" s="15">
-        <v>298195</v>
+        <v>237917</v>
       </c>
       <c r="AP41" s="15">
-        <v>271596</v>
+        <v>367948</v>
       </c>
       <c r="AQ41" s="15">
-        <v>237917</v>
+        <v>343210</v>
       </c>
       <c r="AR41" s="15">
-        <v>205884</v>
+        <v>155163</v>
       </c>
       <c r="AS41" s="15">
-        <v>343210</v>
+        <v>371847</v>
       </c>
       <c r="AT41" s="15">
-        <v>155163</v>
+        <v>502133</v>
       </c>
       <c r="AU41" s="15">
-        <v>337073</v>
+        <v>617996</v>
       </c>
       <c r="AV41" s="15">
-        <v>506980</v>
+        <v>521025</v>
       </c>
       <c r="AW41" s="15">
-        <v>603179</v>
+        <v>413227</v>
       </c>
       <c r="AX41" s="15">
-        <v>521025</v>
+        <v>516099</v>
       </c>
       <c r="AY41" s="15">
-        <v>413227</v>
+        <v>459812</v>
       </c>
       <c r="AZ41" s="15">
-        <v>516099</v>
+        <v>454906</v>
       </c>
       <c r="BA41" s="15">
-        <v>459812</v>
+        <v>417044</v>
       </c>
       <c r="BB41" s="15">
-        <v>454906</v>
+        <v>497918</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>74</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>59</v>
       </c>
@@ -5753,77 +5753,77 @@
       <c r="V43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>58</v>
+      <c r="W43" s="11">
+        <v>82000</v>
+      </c>
+      <c r="X43" s="11">
+        <v>66745</v>
       </c>
       <c r="Y43" s="11">
-        <v>82000</v>
+        <v>53811</v>
       </c>
       <c r="Z43" s="11">
-        <v>66745</v>
+        <v>89598</v>
       </c>
       <c r="AA43" s="11">
-        <v>53811</v>
+        <v>113383</v>
       </c>
       <c r="AB43" s="11">
-        <v>89598</v>
+        <v>76770</v>
       </c>
       <c r="AC43" s="11">
-        <v>113383</v>
+        <v>64286</v>
       </c>
       <c r="AD43" s="11">
-        <v>76770</v>
+        <v>13590</v>
       </c>
       <c r="AE43" s="11">
-        <v>64286</v>
+        <v>77935</v>
       </c>
       <c r="AF43" s="11">
-        <v>13590</v>
+        <v>73156</v>
       </c>
       <c r="AG43" s="11">
-        <v>77935</v>
+        <v>96526</v>
       </c>
       <c r="AH43" s="11">
-        <v>73156</v>
+        <v>58845</v>
       </c>
       <c r="AI43" s="11">
-        <v>96526</v>
+        <v>2434</v>
       </c>
       <c r="AJ43" s="11">
-        <v>58845</v>
+        <v>30656</v>
       </c>
       <c r="AK43" s="11">
-        <v>2434</v>
+        <v>53400</v>
       </c>
       <c r="AL43" s="11">
-        <v>30656</v>
+        <v>64579</v>
       </c>
       <c r="AM43" s="11">
-        <v>53400</v>
+        <v>93959</v>
       </c>
       <c r="AN43" s="11">
-        <v>64579</v>
+        <v>73973</v>
       </c>
       <c r="AO43" s="11">
-        <v>93959</v>
+        <v>48630</v>
       </c>
       <c r="AP43" s="11">
-        <v>73973</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>48630</v>
-      </c>
-      <c r="AR43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT43" s="11">
-        <v>115080</v>
+        <v>13665</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR43" s="11">
+        <v>103771</v>
+      </c>
+      <c r="AS43" s="11">
+        <v>129216</v>
+      </c>
+      <c r="AT43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU43" s="11" t="s">
         <v>58</v>
@@ -5850,7 +5850,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5912,104 +5912,104 @@
       <c r="V44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>58</v>
+      <c r="W44" s="13">
+        <v>128072</v>
+      </c>
+      <c r="X44" s="13">
+        <v>113317</v>
       </c>
       <c r="Y44" s="13">
-        <v>128072</v>
+        <v>124248</v>
       </c>
       <c r="Z44" s="13">
-        <v>113317</v>
+        <v>135662</v>
       </c>
       <c r="AA44" s="13">
-        <v>124248</v>
+        <v>99327</v>
       </c>
       <c r="AB44" s="13">
-        <v>135662</v>
+        <v>118255</v>
       </c>
       <c r="AC44" s="13">
-        <v>99327</v>
+        <v>139203</v>
       </c>
       <c r="AD44" s="13">
-        <v>118255</v>
+        <v>140893</v>
       </c>
       <c r="AE44" s="13">
-        <v>139203</v>
+        <v>99124</v>
       </c>
       <c r="AF44" s="13">
-        <v>140893</v>
+        <v>51233</v>
       </c>
       <c r="AG44" s="13">
-        <v>99124</v>
+        <v>119771</v>
       </c>
       <c r="AH44" s="13">
-        <v>51233</v>
+        <v>10297</v>
       </c>
       <c r="AI44" s="13">
-        <v>119771</v>
+        <v>2627</v>
       </c>
       <c r="AJ44" s="13">
-        <v>10297</v>
+        <v>122778</v>
       </c>
       <c r="AK44" s="13">
-        <v>2627</v>
+        <v>119828</v>
       </c>
       <c r="AL44" s="13">
-        <v>122778</v>
+        <v>18467</v>
       </c>
       <c r="AM44" s="13">
-        <v>119828</v>
+        <v>4025</v>
       </c>
       <c r="AN44" s="13">
-        <v>18467</v>
+        <v>21975</v>
       </c>
       <c r="AO44" s="13">
-        <v>4025</v>
+        <v>119267</v>
       </c>
       <c r="AP44" s="13">
-        <v>21975</v>
+        <v>79381</v>
       </c>
       <c r="AQ44" s="13">
-        <v>119267</v>
+        <v>37919</v>
       </c>
       <c r="AR44" s="13">
-        <v>79381</v>
+        <v>8942</v>
       </c>
       <c r="AS44" s="13">
-        <v>37919</v>
+        <v>10960</v>
       </c>
       <c r="AT44" s="13">
-        <v>8942</v>
+        <v>110274</v>
       </c>
       <c r="AU44" s="13">
-        <v>17962</v>
+        <v>104363</v>
       </c>
       <c r="AV44" s="13">
-        <v>110274</v>
+        <v>45721</v>
       </c>
       <c r="AW44" s="13">
-        <v>104363</v>
+        <v>15524</v>
       </c>
       <c r="AX44" s="13">
-        <v>45721</v>
+        <v>40283</v>
       </c>
       <c r="AY44" s="13">
-        <v>15524</v>
+        <v>39457</v>
       </c>
       <c r="AZ44" s="13">
-        <v>40283</v>
+        <v>27691</v>
       </c>
       <c r="BA44" s="13">
-        <v>39457</v>
+        <v>48257</v>
       </c>
       <c r="BB44" s="13">
-        <v>27691</v>
+        <v>124011</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>61</v>
       </c>
@@ -6071,104 +6071,104 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>2380</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
       </c>
       <c r="Y45" s="11">
-        <v>2380</v>
+        <v>5900</v>
       </c>
       <c r="Z45" s="11">
         <v>0</v>
       </c>
       <c r="AA45" s="11">
-        <v>5900</v>
+        <v>17</v>
       </c>
       <c r="AB45" s="11">
-        <v>0</v>
+        <v>5022</v>
       </c>
       <c r="AC45" s="11">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="AD45" s="11">
-        <v>5022</v>
+        <v>4815</v>
       </c>
       <c r="AE45" s="11">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="AF45" s="11">
-        <v>4815</v>
+        <v>9712</v>
       </c>
       <c r="AG45" s="11">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="11">
-        <v>9712</v>
+        <v>881</v>
       </c>
       <c r="AI45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="11">
-        <v>881</v>
+        <v>3459</v>
+      </c>
+      <c r="AJ45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK45" s="11">
-        <v>3459</v>
-      </c>
-      <c r="AL45" s="11" t="s">
-        <v>58</v>
+        <v>1036</v>
+      </c>
+      <c r="AL45" s="11">
+        <v>1924</v>
       </c>
       <c r="AM45" s="11">
-        <v>1036</v>
+        <v>2045</v>
       </c>
       <c r="AN45" s="11">
-        <v>1924</v>
+        <v>319</v>
       </c>
       <c r="AO45" s="11">
-        <v>2045</v>
+        <v>8700</v>
       </c>
       <c r="AP45" s="11">
-        <v>319</v>
+        <v>10270</v>
       </c>
       <c r="AQ45" s="11">
-        <v>8700</v>
+        <v>7763</v>
       </c>
       <c r="AR45" s="11">
-        <v>10270</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="11">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="11">
-        <v>0</v>
+        <v>3647</v>
       </c>
       <c r="AU45" s="11">
-        <v>0</v>
+        <v>6228</v>
       </c>
       <c r="AV45" s="11">
-        <v>3647</v>
+        <v>6868</v>
       </c>
       <c r="AW45" s="11">
-        <v>6228</v>
+        <v>7669</v>
       </c>
       <c r="AX45" s="11">
-        <v>6868</v>
+        <v>17761</v>
       </c>
       <c r="AY45" s="11">
-        <v>7669</v>
+        <v>61019</v>
       </c>
       <c r="AZ45" s="11">
-        <v>17761</v>
+        <v>50345</v>
       </c>
       <c r="BA45" s="11">
-        <v>61019</v>
+        <v>52038</v>
       </c>
       <c r="BB45" s="11">
-        <v>50345</v>
+        <v>66827</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>64</v>
       </c>
@@ -6290,44 +6290,44 @@
       <c r="AP46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="13">
+      <c r="AQ46" s="13">
         <v>80251</v>
       </c>
-      <c r="AT46" s="13" t="s">
-        <v>58</v>
+      <c r="AR46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT46" s="13">
+        <v>71697</v>
       </c>
       <c r="AU46" s="13">
-        <v>0</v>
+        <v>31885</v>
       </c>
       <c r="AV46" s="13">
-        <v>71697</v>
+        <v>65865</v>
       </c>
       <c r="AW46" s="13">
-        <v>31885</v>
+        <v>52666</v>
       </c>
       <c r="AX46" s="13">
-        <v>65865</v>
+        <v>46801</v>
       </c>
       <c r="AY46" s="13">
-        <v>52666</v>
+        <v>128206</v>
       </c>
       <c r="AZ46" s="13">
-        <v>46801</v>
+        <v>126615</v>
       </c>
       <c r="BA46" s="13">
-        <v>128206</v>
+        <v>87562</v>
       </c>
       <c r="BB46" s="13">
-        <v>126615</v>
+        <v>67496</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>75</v>
       </c>
@@ -6388,103 +6388,103 @@
         <v>0</v>
       </c>
       <c r="W47" s="17">
-        <v>0</v>
+        <v>212452</v>
       </c>
       <c r="X47" s="17">
-        <v>0</v>
+        <v>180062</v>
       </c>
       <c r="Y47" s="17">
-        <v>212452</v>
+        <v>183959</v>
       </c>
       <c r="Z47" s="17">
-        <v>180062</v>
+        <v>225260</v>
       </c>
       <c r="AA47" s="17">
-        <v>183959</v>
+        <v>212727</v>
       </c>
       <c r="AB47" s="17">
-        <v>225260</v>
+        <v>200047</v>
       </c>
       <c r="AC47" s="17">
-        <v>212727</v>
+        <v>203839</v>
       </c>
       <c r="AD47" s="17">
-        <v>200047</v>
+        <v>159298</v>
       </c>
       <c r="AE47" s="17">
-        <v>203839</v>
+        <v>177126</v>
       </c>
       <c r="AF47" s="17">
-        <v>159298</v>
+        <v>134101</v>
       </c>
       <c r="AG47" s="17">
-        <v>177126</v>
+        <v>216297</v>
       </c>
       <c r="AH47" s="17">
-        <v>134101</v>
+        <v>70023</v>
       </c>
       <c r="AI47" s="17">
-        <v>216297</v>
+        <v>8520</v>
       </c>
       <c r="AJ47" s="17">
-        <v>70023</v>
+        <v>153434</v>
       </c>
       <c r="AK47" s="17">
-        <v>8520</v>
+        <v>174264</v>
       </c>
       <c r="AL47" s="17">
-        <v>153434</v>
+        <v>84970</v>
       </c>
       <c r="AM47" s="17">
-        <v>174264</v>
+        <v>100029</v>
       </c>
       <c r="AN47" s="17">
-        <v>84970</v>
+        <v>96267</v>
       </c>
       <c r="AO47" s="17">
-        <v>100029</v>
+        <v>176597</v>
       </c>
       <c r="AP47" s="17">
-        <v>96267</v>
+        <v>103316</v>
       </c>
       <c r="AQ47" s="17">
-        <v>176597</v>
+        <v>125933</v>
       </c>
       <c r="AR47" s="17">
-        <v>89651</v>
+        <v>112713</v>
       </c>
       <c r="AS47" s="17">
-        <v>125933</v>
+        <v>140176</v>
       </c>
       <c r="AT47" s="17">
-        <v>124022</v>
+        <v>185618</v>
       </c>
       <c r="AU47" s="17">
-        <v>17962</v>
+        <v>142476</v>
       </c>
       <c r="AV47" s="17">
-        <v>185618</v>
+        <v>118454</v>
       </c>
       <c r="AW47" s="17">
-        <v>142476</v>
+        <v>75859</v>
       </c>
       <c r="AX47" s="17">
-        <v>118454</v>
+        <v>104845</v>
       </c>
       <c r="AY47" s="17">
-        <v>75859</v>
+        <v>228682</v>
       </c>
       <c r="AZ47" s="17">
-        <v>104845</v>
+        <v>204651</v>
       </c>
       <c r="BA47" s="17">
-        <v>228682</v>
+        <v>187857</v>
       </c>
       <c r="BB47" s="17">
-        <v>204651</v>
+        <v>258334</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>68</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="BA48" s="19"/>
       <c r="BB48" s="19"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>69</v>
       </c>
@@ -6601,11 +6601,11 @@
       <c r="V49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="17" t="s">
-        <v>58</v>
+      <c r="W49" s="17">
+        <v>0</v>
+      </c>
+      <c r="X49" s="17">
+        <v>0</v>
       </c>
       <c r="Y49" s="17">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>76</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>59</v>
       </c>
@@ -6817,77 +6817,77 @@
       <c r="V51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>58</v>
+      <c r="W51" s="11">
+        <v>-464</v>
+      </c>
+      <c r="X51" s="11">
+        <v>-7607</v>
       </c>
       <c r="Y51" s="11">
-        <v>-464</v>
+        <v>-176</v>
       </c>
       <c r="Z51" s="11">
-        <v>-7607</v>
+        <v>-431</v>
       </c>
       <c r="AA51" s="11">
-        <v>-176</v>
+        <v>-10776</v>
       </c>
       <c r="AB51" s="11">
-        <v>-431</v>
+        <v>-2346</v>
       </c>
       <c r="AC51" s="11">
-        <v>-10776</v>
+        <v>-123</v>
       </c>
       <c r="AD51" s="11">
-        <v>-2346</v>
+        <v>-290</v>
       </c>
       <c r="AE51" s="11">
-        <v>-123</v>
+        <v>-4843</v>
       </c>
       <c r="AF51" s="11">
-        <v>-290</v>
+        <v>-2116</v>
       </c>
       <c r="AG51" s="11">
-        <v>-4843</v>
+        <v>-1102</v>
       </c>
       <c r="AH51" s="11">
-        <v>-2116</v>
+        <v>-11641</v>
       </c>
       <c r="AI51" s="11">
-        <v>-1102</v>
+        <v>-429</v>
       </c>
       <c r="AJ51" s="11">
-        <v>-11641</v>
+        <v>-2438</v>
       </c>
       <c r="AK51" s="11">
-        <v>-429</v>
+        <v>-651</v>
       </c>
       <c r="AL51" s="11">
-        <v>-2438</v>
+        <v>-5960</v>
       </c>
       <c r="AM51" s="11">
-        <v>-651</v>
+        <v>-11146</v>
       </c>
       <c r="AN51" s="11">
-        <v>-5960</v>
+        <v>-4086</v>
       </c>
       <c r="AO51" s="11">
-        <v>-11146</v>
+        <v>-4663</v>
       </c>
       <c r="AP51" s="11">
-        <v>-4086</v>
-      </c>
-      <c r="AQ51" s="11">
-        <v>-4663</v>
-      </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT51" s="11">
-        <v>-12014</v>
+        <v>-12653</v>
+      </c>
+      <c r="AQ51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="11">
+        <v>-208</v>
+      </c>
+      <c r="AT51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU51" s="11" t="s">
         <v>58</v>
@@ -6914,7 +6914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>60</v>
       </c>
@@ -6976,104 +6976,104 @@
       <c r="V52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>58</v>
+      <c r="W52" s="13">
+        <v>-421</v>
+      </c>
+      <c r="X52" s="13">
+        <v>-24337</v>
       </c>
       <c r="Y52" s="13">
-        <v>-421</v>
+        <v>-21841</v>
       </c>
       <c r="Z52" s="13">
-        <v>-24337</v>
+        <v>-14762</v>
       </c>
       <c r="AA52" s="13">
-        <v>-21841</v>
+        <v>-19973</v>
       </c>
       <c r="AB52" s="13">
-        <v>-14762</v>
+        <v>-9722</v>
       </c>
       <c r="AC52" s="13">
-        <v>-19973</v>
+        <v>-6098</v>
       </c>
       <c r="AD52" s="13">
-        <v>-9722</v>
+        <v>-3575</v>
       </c>
       <c r="AE52" s="13">
-        <v>-6098</v>
+        <v>-13970</v>
       </c>
       <c r="AF52" s="13">
-        <v>-3575</v>
+        <v>-1251</v>
       </c>
       <c r="AG52" s="13">
-        <v>-13970</v>
+        <v>-1953</v>
       </c>
       <c r="AH52" s="13">
-        <v>-1251</v>
+        <v>-5202</v>
       </c>
       <c r="AI52" s="13">
-        <v>-1953</v>
+        <v>-5333</v>
       </c>
       <c r="AJ52" s="13">
-        <v>-5202</v>
+        <v>-385</v>
       </c>
       <c r="AK52" s="13">
-        <v>-5333</v>
-      </c>
-      <c r="AL52" s="13">
-        <v>-385</v>
+        <v>-2869</v>
+      </c>
+      <c r="AL52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM52" s="13">
-        <v>-2869</v>
-      </c>
-      <c r="AN52" s="13" t="s">
-        <v>58</v>
+        <v>-3265</v>
+      </c>
+      <c r="AN52" s="13">
+        <v>-12598</v>
       </c>
       <c r="AO52" s="13">
-        <v>-3265</v>
+        <v>-11154</v>
       </c>
       <c r="AP52" s="13">
-        <v>-12598</v>
+        <v>-19180</v>
       </c>
       <c r="AQ52" s="13">
-        <v>-11154</v>
+        <v>-7045</v>
       </c>
       <c r="AR52" s="13">
-        <v>-19180</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="13">
-        <v>-7045</v>
+        <v>-3116</v>
       </c>
       <c r="AT52" s="13">
-        <v>-4917</v>
+        <v>-7140</v>
       </c>
       <c r="AU52" s="13">
-        <v>-2847</v>
+        <v>-11844</v>
       </c>
       <c r="AV52" s="13">
-        <v>-7140</v>
+        <v>-12150</v>
       </c>
       <c r="AW52" s="13">
-        <v>-9978</v>
+        <v>-13879</v>
       </c>
       <c r="AX52" s="13">
-        <v>-12150</v>
+        <v>-5581</v>
       </c>
       <c r="AY52" s="13">
-        <v>-13879</v>
+        <v>-11947</v>
       </c>
       <c r="AZ52" s="13">
-        <v>-5581</v>
+        <v>-10506</v>
       </c>
       <c r="BA52" s="13">
-        <v>-11947</v>
+        <v>-8955</v>
       </c>
       <c r="BB52" s="13">
-        <v>-10506</v>
+        <v>-4582</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>61</v>
       </c>
@@ -7135,104 +7135,104 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="Z53" s="11">
-        <v>0</v>
+        <v>-5034</v>
       </c>
       <c r="AA53" s="11">
-        <v>-376</v>
+        <v>-356</v>
       </c>
       <c r="AB53" s="11">
-        <v>-5034</v>
+        <v>-5137</v>
       </c>
       <c r="AC53" s="11">
-        <v>-356</v>
+        <v>-4</v>
       </c>
       <c r="AD53" s="11">
-        <v>-5137</v>
+        <v>-18858</v>
       </c>
       <c r="AE53" s="11">
-        <v>-4</v>
+        <v>-679</v>
       </c>
       <c r="AF53" s="11">
-        <v>-18858</v>
+        <v>-980</v>
       </c>
       <c r="AG53" s="11">
-        <v>-679</v>
+        <v>-1472</v>
       </c>
       <c r="AH53" s="11">
-        <v>-980</v>
+        <v>-1570</v>
       </c>
       <c r="AI53" s="11">
-        <v>-1472</v>
+        <v>-2199</v>
       </c>
       <c r="AJ53" s="11">
-        <v>-1570</v>
+        <v>-5918</v>
       </c>
       <c r="AK53" s="11">
-        <v>-2199</v>
+        <v>-5967</v>
       </c>
       <c r="AL53" s="11">
-        <v>-5918</v>
+        <v>-2748</v>
       </c>
       <c r="AM53" s="11">
-        <v>-5967</v>
+        <v>-11144</v>
       </c>
       <c r="AN53" s="11">
-        <v>-2748</v>
+        <v>-506</v>
       </c>
       <c r="AO53" s="11">
-        <v>-11144</v>
+        <v>-453</v>
       </c>
       <c r="AP53" s="11">
-        <v>-506</v>
+        <v>-7790</v>
       </c>
       <c r="AQ53" s="11">
-        <v>-453</v>
+        <v>-17454</v>
       </c>
       <c r="AR53" s="11">
-        <v>-7790</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="11">
-        <v>-17454</v>
+        <v>-1204</v>
       </c>
       <c r="AT53" s="11">
-        <v>-370</v>
+        <v>-17703</v>
       </c>
       <c r="AU53" s="11">
-        <v>-7802</v>
+        <v>-11935</v>
       </c>
       <c r="AV53" s="11">
-        <v>-18371</v>
+        <v>-33858</v>
       </c>
       <c r="AW53" s="11">
-        <v>-9789</v>
+        <v>-13076</v>
       </c>
       <c r="AX53" s="11">
-        <v>-33858</v>
+        <v>-28613</v>
       </c>
       <c r="AY53" s="11">
-        <v>-13076</v>
+        <v>-19851</v>
       </c>
       <c r="AZ53" s="11">
-        <v>-28613</v>
+        <v>-13109</v>
       </c>
       <c r="BA53" s="11">
-        <v>-19851</v>
+        <v>-35820</v>
       </c>
       <c r="BB53" s="11">
-        <v>-13109</v>
+        <v>-94677</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>62</v>
       </c>
@@ -7309,23 +7309,23 @@
       <c r="AA54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC54" s="13" t="s">
-        <v>58</v>
+      <c r="AB54" s="13">
+        <v>-40000</v>
+      </c>
+      <c r="AC54" s="13">
+        <v>0</v>
       </c>
       <c r="AD54" s="13">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="13">
         <v>0</v>
       </c>
-      <c r="AF54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="13">
-        <v>0</v>
+      <c r="AF54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH54" s="13" t="s">
         <v>58</v>
@@ -7348,17 +7348,17 @@
       <c r="AN54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="13">
-        <v>0</v>
+      <c r="AO54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS54" s="13" t="s">
         <v>58</v>
@@ -7391,7 +7391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>64</v>
       </c>
@@ -7513,44 +7513,44 @@
       <c r="AP55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS55" s="11">
+      <c r="AQ55" s="11">
         <v>-17028</v>
       </c>
-      <c r="AT55" s="11" t="s">
-        <v>58</v>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT55" s="11">
+        <v>-11605</v>
       </c>
       <c r="AU55" s="11">
-        <v>0</v>
+        <v>-11824</v>
       </c>
       <c r="AV55" s="11">
-        <v>-11594</v>
+        <v>-14299</v>
       </c>
       <c r="AW55" s="11">
-        <v>-19520</v>
+        <v>-352</v>
       </c>
       <c r="AX55" s="11">
-        <v>-14299</v>
+        <v>-4591</v>
       </c>
       <c r="AY55" s="11">
-        <v>-352</v>
+        <v>-11989</v>
       </c>
       <c r="AZ55" s="11">
-        <v>-4591</v>
+        <v>-34019</v>
       </c>
       <c r="BA55" s="11">
-        <v>-11989</v>
+        <v>-612</v>
       </c>
       <c r="BB55" s="11">
-        <v>-34019</v>
+        <v>-3266</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>77</v>
       </c>
@@ -7610,104 +7610,104 @@
       <c r="V56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="15" t="s">
-        <v>58</v>
+      <c r="W56" s="15">
+        <v>-885</v>
+      </c>
+      <c r="X56" s="15">
+        <v>-31944</v>
       </c>
       <c r="Y56" s="15">
-        <v>-885</v>
+        <v>-22393</v>
       </c>
       <c r="Z56" s="15">
-        <v>-31944</v>
+        <v>-20227</v>
       </c>
       <c r="AA56" s="15">
-        <v>-22393</v>
+        <v>-31105</v>
       </c>
       <c r="AB56" s="15">
-        <v>-20227</v>
+        <v>-57205</v>
       </c>
       <c r="AC56" s="15">
-        <v>-31105</v>
+        <v>-6225</v>
       </c>
       <c r="AD56" s="15">
-        <v>-57205</v>
+        <v>-22723</v>
       </c>
       <c r="AE56" s="15">
-        <v>-6225</v>
+        <v>-19492</v>
       </c>
       <c r="AF56" s="15">
-        <v>-22723</v>
+        <v>-4347</v>
       </c>
       <c r="AG56" s="15">
-        <v>-19492</v>
+        <v>-4527</v>
       </c>
       <c r="AH56" s="15">
-        <v>-4347</v>
+        <v>-18413</v>
       </c>
       <c r="AI56" s="15">
-        <v>-4527</v>
+        <v>-7961</v>
       </c>
       <c r="AJ56" s="15">
-        <v>-18413</v>
+        <v>-8741</v>
       </c>
       <c r="AK56" s="15">
-        <v>-7961</v>
+        <v>-9487</v>
       </c>
       <c r="AL56" s="15">
-        <v>-8741</v>
+        <v>-8708</v>
       </c>
       <c r="AM56" s="15">
-        <v>-9487</v>
+        <v>-25555</v>
       </c>
       <c r="AN56" s="15">
-        <v>-8708</v>
+        <v>-17190</v>
       </c>
       <c r="AO56" s="15">
-        <v>-25555</v>
+        <v>-16270</v>
       </c>
       <c r="AP56" s="15">
-        <v>-17190</v>
+        <v>-39623</v>
       </c>
       <c r="AQ56" s="15">
-        <v>-16270</v>
+        <v>-41527</v>
       </c>
       <c r="AR56" s="15">
-        <v>-39623</v>
+        <v>0</v>
       </c>
       <c r="AS56" s="15">
-        <v>-41527</v>
+        <v>-4528</v>
       </c>
       <c r="AT56" s="15">
-        <v>-17301</v>
+        <v>-36448</v>
       </c>
       <c r="AU56" s="15">
-        <v>-25744</v>
+        <v>-35603</v>
       </c>
       <c r="AV56" s="15">
-        <v>-37105</v>
+        <v>-60307</v>
       </c>
       <c r="AW56" s="15">
-        <v>-39287</v>
+        <v>-27307</v>
       </c>
       <c r="AX56" s="15">
-        <v>-60307</v>
+        <v>-38785</v>
       </c>
       <c r="AY56" s="15">
-        <v>-27307</v>
+        <v>-43787</v>
       </c>
       <c r="AZ56" s="15">
-        <v>-38785</v>
+        <v>-57634</v>
       </c>
       <c r="BA56" s="15">
-        <v>-43787</v>
+        <v>-45387</v>
       </c>
       <c r="BB56" s="15">
-        <v>-57634</v>
+        <v>-102525</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>70</v>
       </c>
@@ -7768,103 +7768,103 @@
         <v>0</v>
       </c>
       <c r="W57" s="17">
-        <v>0</v>
+        <v>463862</v>
       </c>
       <c r="X57" s="17">
-        <v>0</v>
+        <v>414272</v>
       </c>
       <c r="Y57" s="17">
-        <v>463862</v>
+        <v>431053</v>
       </c>
       <c r="Z57" s="17">
-        <v>414272</v>
+        <v>379811</v>
       </c>
       <c r="AA57" s="17">
-        <v>431053</v>
+        <v>366845</v>
       </c>
       <c r="AB57" s="17">
-        <v>379811</v>
+        <v>414706</v>
       </c>
       <c r="AC57" s="17">
-        <v>366845</v>
+        <v>393986</v>
       </c>
       <c r="AD57" s="17">
-        <v>414706</v>
+        <v>332699</v>
       </c>
       <c r="AE57" s="17">
-        <v>393986</v>
+        <v>418860</v>
       </c>
       <c r="AF57" s="17">
-        <v>332699</v>
+        <v>268812</v>
       </c>
       <c r="AG57" s="17">
-        <v>418860</v>
+        <v>403217</v>
       </c>
       <c r="AH57" s="17">
-        <v>268812</v>
+        <v>391837</v>
       </c>
       <c r="AI57" s="17">
-        <v>403217</v>
+        <v>350437</v>
       </c>
       <c r="AJ57" s="17">
-        <v>391837</v>
+        <v>407891</v>
       </c>
       <c r="AK57" s="17">
-        <v>350437</v>
+        <v>410875</v>
       </c>
       <c r="AL57" s="17">
-        <v>407891</v>
+        <v>374811</v>
       </c>
       <c r="AM57" s="17">
-        <v>410875</v>
+        <v>372669</v>
       </c>
       <c r="AN57" s="17">
-        <v>374811</v>
+        <v>350673</v>
       </c>
       <c r="AO57" s="17">
-        <v>372669</v>
+        <v>398244</v>
       </c>
       <c r="AP57" s="17">
-        <v>350673</v>
+        <v>431641</v>
       </c>
       <c r="AQ57" s="17">
-        <v>398244</v>
+        <v>427616</v>
       </c>
       <c r="AR57" s="17">
-        <v>268565</v>
+        <v>267876</v>
       </c>
       <c r="AS57" s="17">
-        <v>427616</v>
+        <v>507495</v>
       </c>
       <c r="AT57" s="17">
-        <v>261884</v>
+        <v>651303</v>
       </c>
       <c r="AU57" s="17">
-        <v>344386</v>
+        <v>724869</v>
       </c>
       <c r="AV57" s="17">
-        <v>655493</v>
+        <v>579172</v>
       </c>
       <c r="AW57" s="17">
-        <v>706368</v>
+        <v>461779</v>
       </c>
       <c r="AX57" s="17">
-        <v>579172</v>
+        <v>582159</v>
       </c>
       <c r="AY57" s="17">
-        <v>461779</v>
+        <v>644707</v>
       </c>
       <c r="AZ57" s="17">
-        <v>582159</v>
+        <v>601923</v>
       </c>
       <c r="BA57" s="17">
-        <v>644707</v>
+        <v>559514</v>
       </c>
       <c r="BB57" s="17">
-        <v>601923</v>
+        <v>653727</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -7919,7 +7919,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7974,7 +7974,7 @@
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8029,7 +8029,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>78</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8241,7 +8241,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>79</v>
       </c>
@@ -8298,7 +8298,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
@@ -8402,14 +8402,14 @@
       <c r="AJ64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL64" s="11" t="s">
-        <v>58</v>
+      <c r="AK64" s="11">
+        <v>1563</v>
+      </c>
+      <c r="AL64" s="11">
+        <v>0</v>
       </c>
       <c r="AM64" s="11">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="11">
         <v>0</v>
@@ -8420,14 +8420,14 @@
       <c r="AP64" s="11">
         <v>0</v>
       </c>
-      <c r="AQ64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS64" s="11" t="s">
-        <v>58</v>
+      <c r="AQ64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="11">
+        <v>0</v>
       </c>
       <c r="AT64" s="11">
         <v>0</v>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>59</v>
       </c>
@@ -8519,78 +8519,78 @@
       <c r="V65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="13" t="s">
-        <v>58</v>
+      <c r="W65" s="13">
+        <v>34800</v>
+      </c>
+      <c r="X65" s="13">
+        <v>40716</v>
       </c>
       <c r="Y65" s="13">
-        <v>34800</v>
+        <v>63709</v>
       </c>
       <c r="Z65" s="13">
-        <v>40716</v>
+        <v>4798</v>
       </c>
       <c r="AA65" s="13">
-        <v>63709</v>
+        <v>2618</v>
       </c>
       <c r="AB65" s="13">
-        <v>4798</v>
+        <v>42291</v>
       </c>
       <c r="AC65" s="13">
-        <v>2618</v>
+        <v>26527</v>
       </c>
       <c r="AD65" s="13">
-        <v>42291</v>
+        <v>70061</v>
       </c>
       <c r="AE65" s="13">
-        <v>26527</v>
+        <v>34504</v>
       </c>
       <c r="AF65" s="13">
-        <v>70061</v>
+        <v>13882</v>
       </c>
       <c r="AG65" s="13">
-        <v>34504</v>
+        <v>61327</v>
       </c>
       <c r="AH65" s="13">
-        <v>13882</v>
+        <v>100556</v>
       </c>
       <c r="AI65" s="13">
-        <v>61327</v>
+        <v>97028</v>
       </c>
       <c r="AJ65" s="13">
-        <v>100556</v>
+        <v>95953</v>
       </c>
       <c r="AK65" s="13">
-        <v>97028</v>
+        <v>80963</v>
       </c>
       <c r="AL65" s="13">
-        <v>95953</v>
+        <v>85275</v>
       </c>
       <c r="AM65" s="13">
-        <v>80963</v>
+        <v>89883</v>
       </c>
       <c r="AN65" s="13">
-        <v>85275</v>
+        <v>70736</v>
       </c>
       <c r="AO65" s="13">
-        <v>89883</v>
+        <v>75717</v>
       </c>
       <c r="AP65" s="13">
-        <v>70736</v>
-      </c>
-      <c r="AQ65" s="13">
-        <v>75717</v>
-      </c>
-      <c r="AR65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT65" s="13">
+        <v>136920</v>
+      </c>
+      <c r="AQ65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR65" s="13">
         <v>15310</v>
       </c>
+      <c r="AS65" s="13">
+        <v>127850</v>
+      </c>
+      <c r="AT65" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU65" s="13" t="s">
         <v>58</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>60</v>
       </c>
@@ -8678,104 +8678,104 @@
       <c r="V66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>58</v>
+      <c r="W66" s="11">
+        <v>15317</v>
+      </c>
+      <c r="X66" s="11">
+        <v>13458</v>
       </c>
       <c r="Y66" s="11">
-        <v>15317</v>
+        <v>8394</v>
       </c>
       <c r="Z66" s="11">
-        <v>13458</v>
+        <v>148</v>
       </c>
       <c r="AA66" s="11">
-        <v>8394</v>
+        <v>12368</v>
       </c>
       <c r="AB66" s="11">
-        <v>148</v>
+        <v>13820</v>
       </c>
       <c r="AC66" s="11">
-        <v>12368</v>
+        <v>9242</v>
       </c>
       <c r="AD66" s="11">
-        <v>13820</v>
+        <v>2064</v>
       </c>
       <c r="AE66" s="11">
-        <v>9242</v>
+        <v>12550</v>
       </c>
       <c r="AF66" s="11">
-        <v>2064</v>
+        <v>11366</v>
       </c>
       <c r="AG66" s="11">
-        <v>12550</v>
+        <v>9470</v>
       </c>
       <c r="AH66" s="11">
-        <v>11366</v>
+        <v>74397</v>
       </c>
       <c r="AI66" s="11">
-        <v>9470</v>
+        <v>77919</v>
       </c>
       <c r="AJ66" s="11">
-        <v>74397</v>
+        <v>2151</v>
       </c>
       <c r="AK66" s="11">
-        <v>77919</v>
+        <v>810</v>
       </c>
       <c r="AL66" s="11">
-        <v>2151</v>
+        <v>51820</v>
       </c>
       <c r="AM66" s="11">
-        <v>810</v>
+        <v>63724</v>
       </c>
       <c r="AN66" s="11">
-        <v>51820</v>
+        <v>63559</v>
       </c>
       <c r="AO66" s="11">
-        <v>63724</v>
+        <v>13857</v>
       </c>
       <c r="AP66" s="11">
-        <v>63559</v>
+        <v>4904</v>
       </c>
       <c r="AQ66" s="11">
-        <v>13857</v>
+        <v>4807</v>
       </c>
       <c r="AR66" s="11">
-        <v>4904</v>
+        <v>9580</v>
       </c>
       <c r="AS66" s="11">
-        <v>4807</v>
+        <v>78745</v>
       </c>
       <c r="AT66" s="11">
-        <v>9580</v>
+        <v>32012</v>
       </c>
       <c r="AU66" s="11">
-        <v>78938</v>
+        <v>135857</v>
       </c>
       <c r="AV66" s="11">
-        <v>32520</v>
+        <v>54166</v>
       </c>
       <c r="AW66" s="11">
-        <v>135857</v>
+        <v>15771</v>
       </c>
       <c r="AX66" s="11">
-        <v>54166</v>
+        <v>33930</v>
       </c>
       <c r="AY66" s="11">
-        <v>15771</v>
+        <v>38640</v>
       </c>
       <c r="AZ66" s="11">
-        <v>33930</v>
+        <v>18245</v>
       </c>
       <c r="BA66" s="11">
-        <v>38640</v>
+        <v>11755</v>
       </c>
       <c r="BB66" s="11">
-        <v>18245</v>
+        <v>50134</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>61</v>
       </c>
@@ -8837,104 +8837,104 @@
       <c r="V67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="13" t="s">
-        <v>58</v>
+      <c r="W67" s="13">
+        <v>82420</v>
+      </c>
+      <c r="X67" s="13">
+        <v>86199</v>
       </c>
       <c r="Y67" s="13">
-        <v>82420</v>
+        <v>75546</v>
       </c>
       <c r="Z67" s="13">
-        <v>86199</v>
+        <v>105552</v>
       </c>
       <c r="AA67" s="13">
-        <v>75546</v>
+        <v>138720</v>
       </c>
       <c r="AB67" s="13">
-        <v>105552</v>
+        <v>187707</v>
       </c>
       <c r="AC67" s="13">
-        <v>138720</v>
+        <v>171439</v>
       </c>
       <c r="AD67" s="13">
-        <v>187707</v>
+        <v>113047</v>
       </c>
       <c r="AE67" s="13">
-        <v>171439</v>
+        <v>136700</v>
       </c>
       <c r="AF67" s="13">
-        <v>113047</v>
+        <v>99647</v>
       </c>
       <c r="AG67" s="13">
-        <v>136700</v>
+        <v>141824</v>
       </c>
       <c r="AH67" s="13">
-        <v>99647</v>
+        <v>207304</v>
       </c>
       <c r="AI67" s="13">
-        <v>141824</v>
+        <v>245534</v>
       </c>
       <c r="AJ67" s="13">
-        <v>207304</v>
+        <v>273055</v>
       </c>
       <c r="AK67" s="13">
-        <v>245534</v>
+        <v>255842</v>
       </c>
       <c r="AL67" s="13">
-        <v>273055</v>
+        <v>224581</v>
       </c>
       <c r="AM67" s="13">
-        <v>255842</v>
+        <v>179822</v>
       </c>
       <c r="AN67" s="13">
-        <v>224581</v>
+        <v>231956</v>
       </c>
       <c r="AO67" s="13">
-        <v>179822</v>
+        <v>231367</v>
       </c>
       <c r="AP67" s="13">
-        <v>231956</v>
+        <v>315755</v>
       </c>
       <c r="AQ67" s="13">
-        <v>231367</v>
+        <v>438469</v>
       </c>
       <c r="AR67" s="13">
-        <v>315145</v>
+        <v>262524</v>
       </c>
       <c r="AS67" s="13">
-        <v>438469</v>
+        <v>334900</v>
       </c>
       <c r="AT67" s="13">
-        <v>234226</v>
+        <v>717207</v>
       </c>
       <c r="AU67" s="13">
-        <v>440920</v>
+        <v>730490</v>
       </c>
       <c r="AV67" s="13">
-        <v>716829</v>
+        <v>937396</v>
       </c>
       <c r="AW67" s="13">
-        <v>702870</v>
+        <v>998905</v>
       </c>
       <c r="AX67" s="13">
-        <v>937579</v>
+        <v>895403</v>
       </c>
       <c r="AY67" s="13">
-        <v>998905</v>
+        <v>728275</v>
       </c>
       <c r="AZ67" s="13">
-        <v>895403</v>
+        <v>885772</v>
       </c>
       <c r="BA67" s="13">
-        <v>728275</v>
+        <v>893930</v>
       </c>
       <c r="BB67" s="13">
-        <v>886679</v>
+        <v>1009374</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>62</v>
       </c>
@@ -9005,29 +9005,29 @@
       <c r="Y68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA68" s="11" t="s">
-        <v>58</v>
+      <c r="Z68" s="11">
+        <v>20055</v>
+      </c>
+      <c r="AA68" s="11">
+        <v>13880</v>
       </c>
       <c r="AB68" s="11">
-        <v>20055</v>
+        <v>336</v>
       </c>
       <c r="AC68" s="11">
-        <v>13880</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="11">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="11">
         <v>0</v>
       </c>
-      <c r="AF68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="11">
-        <v>0</v>
+      <c r="AF68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH68" s="11" t="s">
         <v>58</v>
@@ -9038,11 +9038,11 @@
       <c r="AJ68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL68" s="11" t="s">
-        <v>58</v>
+      <c r="AK68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="11">
+        <v>0</v>
       </c>
       <c r="AM68" s="11">
         <v>0</v>
@@ -9056,14 +9056,14 @@
       <c r="AP68" s="11">
         <v>0</v>
       </c>
-      <c r="AQ68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS68" s="11" t="s">
-        <v>58</v>
+      <c r="AQ68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="11">
+        <v>0</v>
       </c>
       <c r="AT68" s="11">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>63</v>
       </c>
@@ -9155,11 +9155,11 @@
       <c r="V69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="13" t="s">
-        <v>58</v>
+      <c r="W69" s="13">
+        <v>0</v>
+      </c>
+      <c r="X69" s="13">
+        <v>0</v>
       </c>
       <c r="Y69" s="13">
         <v>0</v>
@@ -9182,11 +9182,11 @@
       <c r="AE69" s="13">
         <v>0</v>
       </c>
-      <c r="AF69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="13">
-        <v>0</v>
+      <c r="AF69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH69" s="13" t="s">
         <v>58</v>
@@ -9252,7 +9252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>64</v>
       </c>
@@ -9374,44 +9374,44 @@
       <c r="AP70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR70" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="11">
+      <c r="AQ70" s="11">
         <v>79874</v>
       </c>
-      <c r="AT70" s="11" t="s">
-        <v>58</v>
+      <c r="AR70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT70" s="11">
+        <v>123458</v>
       </c>
       <c r="AU70" s="11">
-        <v>0</v>
+        <v>122035</v>
       </c>
       <c r="AV70" s="11">
-        <v>123648</v>
+        <v>65185</v>
       </c>
       <c r="AW70" s="11">
-        <v>120547</v>
+        <v>13046</v>
       </c>
       <c r="AX70" s="11">
-        <v>65185</v>
+        <v>114626</v>
       </c>
       <c r="AY70" s="11">
-        <v>13046</v>
+        <v>92523</v>
       </c>
       <c r="AZ70" s="11">
-        <v>114626</v>
+        <v>34346</v>
       </c>
       <c r="BA70" s="11">
-        <v>92523</v>
+        <v>35775</v>
       </c>
       <c r="BB70" s="11">
-        <v>34346</v>
+        <v>6100</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
         <v>73</v>
       </c>
@@ -9472,103 +9472,103 @@
         <v>0</v>
       </c>
       <c r="W71" s="15">
-        <v>0</v>
+        <v>132537</v>
       </c>
       <c r="X71" s="15">
-        <v>0</v>
+        <v>140373</v>
       </c>
       <c r="Y71" s="15">
-        <v>132537</v>
+        <v>147649</v>
       </c>
       <c r="Z71" s="15">
-        <v>140373</v>
+        <v>130553</v>
       </c>
       <c r="AA71" s="15">
-        <v>147649</v>
+        <v>167586</v>
       </c>
       <c r="AB71" s="15">
-        <v>130553</v>
+        <v>244154</v>
       </c>
       <c r="AC71" s="15">
-        <v>167586</v>
+        <v>207208</v>
       </c>
       <c r="AD71" s="15">
-        <v>244154</v>
+        <v>185172</v>
       </c>
       <c r="AE71" s="15">
-        <v>207208</v>
+        <v>183754</v>
       </c>
       <c r="AF71" s="15">
-        <v>185172</v>
+        <v>124895</v>
       </c>
       <c r="AG71" s="15">
-        <v>183754</v>
+        <v>212621</v>
       </c>
       <c r="AH71" s="15">
-        <v>124895</v>
+        <v>382257</v>
       </c>
       <c r="AI71" s="15">
-        <v>212621</v>
+        <v>420481</v>
       </c>
       <c r="AJ71" s="15">
-        <v>382257</v>
+        <v>371159</v>
       </c>
       <c r="AK71" s="15">
-        <v>420481</v>
+        <v>339178</v>
       </c>
       <c r="AL71" s="15">
-        <v>371159</v>
+        <v>361676</v>
       </c>
       <c r="AM71" s="15">
-        <v>339178</v>
+        <v>333429</v>
       </c>
       <c r="AN71" s="15">
-        <v>361676</v>
+        <v>366251</v>
       </c>
       <c r="AO71" s="15">
-        <v>333429</v>
+        <v>320941</v>
       </c>
       <c r="AP71" s="15">
-        <v>366251</v>
+        <v>457579</v>
       </c>
       <c r="AQ71" s="15">
-        <v>320941</v>
+        <v>523150</v>
       </c>
       <c r="AR71" s="15">
-        <v>320049</v>
+        <v>287414</v>
       </c>
       <c r="AS71" s="15">
-        <v>523150</v>
+        <v>541495</v>
       </c>
       <c r="AT71" s="15">
-        <v>259116</v>
+        <v>872677</v>
       </c>
       <c r="AU71" s="15">
-        <v>519858</v>
+        <v>988382</v>
       </c>
       <c r="AV71" s="15">
-        <v>872997</v>
+        <v>1056747</v>
       </c>
       <c r="AW71" s="15">
-        <v>959274</v>
+        <v>1027722</v>
       </c>
       <c r="AX71" s="15">
-        <v>1056930</v>
+        <v>1043959</v>
       </c>
       <c r="AY71" s="15">
-        <v>1027722</v>
+        <v>859438</v>
       </c>
       <c r="AZ71" s="15">
-        <v>1043959</v>
+        <v>938363</v>
       </c>
       <c r="BA71" s="15">
-        <v>859438</v>
+        <v>941460</v>
       </c>
       <c r="BB71" s="15">
-        <v>939270</v>
+        <v>1065608</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>81</v>
       </c>
@@ -9625,7 +9625,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>59</v>
       </c>
@@ -9687,77 +9687,77 @@
       <c r="V73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X73" s="11" t="s">
-        <v>58</v>
+      <c r="W73" s="11">
+        <v>26085</v>
+      </c>
+      <c r="X73" s="11">
+        <v>23561</v>
       </c>
       <c r="Y73" s="11">
-        <v>26085</v>
+        <v>18235</v>
       </c>
       <c r="Z73" s="11">
-        <v>23561</v>
+        <v>38734</v>
       </c>
       <c r="AA73" s="11">
-        <v>18235</v>
+        <v>61574</v>
       </c>
       <c r="AB73" s="11">
-        <v>38734</v>
+        <v>41442</v>
       </c>
       <c r="AC73" s="11">
-        <v>61574</v>
+        <v>31596</v>
       </c>
       <c r="AD73" s="11">
-        <v>41442</v>
+        <v>6628</v>
       </c>
       <c r="AE73" s="11">
-        <v>31596</v>
+        <v>45811</v>
       </c>
       <c r="AF73" s="11">
-        <v>6628</v>
+        <v>38642</v>
       </c>
       <c r="AG73" s="11">
-        <v>45811</v>
+        <v>58362</v>
       </c>
       <c r="AH73" s="11">
-        <v>38642</v>
+        <v>39246</v>
       </c>
       <c r="AI73" s="11">
-        <v>58362</v>
+        <v>1417</v>
       </c>
       <c r="AJ73" s="11">
-        <v>39246</v>
+        <v>17855</v>
       </c>
       <c r="AK73" s="11">
-        <v>1417</v>
+        <v>35776</v>
       </c>
       <c r="AL73" s="11">
-        <v>17855</v>
+        <v>46698</v>
       </c>
       <c r="AM73" s="11">
-        <v>35776</v>
+        <v>67500</v>
       </c>
       <c r="AN73" s="11">
-        <v>46698</v>
+        <v>51123</v>
       </c>
       <c r="AO73" s="11">
-        <v>67500</v>
+        <v>32107</v>
       </c>
       <c r="AP73" s="11">
-        <v>51123</v>
-      </c>
-      <c r="AQ73" s="11">
-        <v>32107</v>
-      </c>
-      <c r="AR73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT73" s="11">
-        <v>80736</v>
+        <v>12819</v>
+      </c>
+      <c r="AQ73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR73" s="11">
+        <v>70041</v>
+      </c>
+      <c r="AS73" s="11">
+        <v>86161</v>
+      </c>
+      <c r="AT73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU73" s="11" t="s">
         <v>58</v>
@@ -9784,7 +9784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>60</v>
       </c>
@@ -9846,104 +9846,104 @@
       <c r="V74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="13" t="s">
-        <v>58</v>
+      <c r="W74" s="13">
+        <v>30880</v>
+      </c>
+      <c r="X74" s="13">
+        <v>32362</v>
       </c>
       <c r="Y74" s="13">
-        <v>30880</v>
+        <v>39403</v>
       </c>
       <c r="Z74" s="13">
-        <v>32362</v>
+        <v>44292</v>
       </c>
       <c r="AA74" s="13">
-        <v>39403</v>
+        <v>42481</v>
       </c>
       <c r="AB74" s="13">
-        <v>44292</v>
+        <v>48527</v>
       </c>
       <c r="AC74" s="13">
-        <v>42481</v>
+        <v>64014</v>
       </c>
       <c r="AD74" s="13">
-        <v>48527</v>
+        <v>64110</v>
       </c>
       <c r="AE74" s="13">
-        <v>64014</v>
+        <v>45943</v>
       </c>
       <c r="AF74" s="13">
-        <v>64110</v>
+        <v>24733</v>
       </c>
       <c r="AG74" s="13">
-        <v>45943</v>
+        <v>58231</v>
       </c>
       <c r="AH74" s="13">
-        <v>24733</v>
+        <v>5284</v>
       </c>
       <c r="AI74" s="13">
-        <v>58231</v>
+        <v>2185</v>
       </c>
       <c r="AJ74" s="13">
-        <v>5284</v>
+        <v>65311</v>
       </c>
       <c r="AK74" s="13">
-        <v>2185</v>
+        <v>64049</v>
       </c>
       <c r="AL74" s="13">
-        <v>65311</v>
+        <v>15402</v>
       </c>
       <c r="AM74" s="13">
-        <v>64049</v>
+        <v>3113</v>
       </c>
       <c r="AN74" s="13">
-        <v>15402</v>
+        <v>18617</v>
       </c>
       <c r="AO74" s="13">
-        <v>3113</v>
+        <v>74563</v>
       </c>
       <c r="AP74" s="13">
-        <v>18617</v>
+        <v>51539</v>
       </c>
       <c r="AQ74" s="13">
-        <v>74563</v>
+        <v>23285</v>
       </c>
       <c r="AR74" s="13">
-        <v>51189</v>
+        <v>4684</v>
       </c>
       <c r="AS74" s="13">
-        <v>23285</v>
+        <v>6182</v>
       </c>
       <c r="AT74" s="13">
-        <v>4684</v>
+        <v>61227</v>
       </c>
       <c r="AU74" s="13">
-        <v>12032</v>
+        <v>59337</v>
       </c>
       <c r="AV74" s="13">
-        <v>61227</v>
+        <v>26640</v>
       </c>
       <c r="AW74" s="13">
-        <v>59339</v>
+        <v>10438</v>
       </c>
       <c r="AX74" s="13">
-        <v>26638</v>
+        <v>26499</v>
       </c>
       <c r="AY74" s="13">
-        <v>10438</v>
+        <v>27865</v>
       </c>
       <c r="AZ74" s="13">
-        <v>26499</v>
+        <v>26778</v>
       </c>
       <c r="BA74" s="13">
-        <v>27865</v>
+        <v>40239</v>
       </c>
       <c r="BB74" s="13">
-        <v>26779</v>
+        <v>96815</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>61</v>
       </c>
@@ -10005,104 +10005,104 @@
       <c r="V75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>58</v>
+      <c r="W75" s="11">
+        <v>2570</v>
+      </c>
+      <c r="X75" s="11">
+        <v>0</v>
       </c>
       <c r="Y75" s="11">
-        <v>2570</v>
+        <v>4779</v>
       </c>
       <c r="Z75" s="11">
         <v>0</v>
       </c>
       <c r="AA75" s="11">
-        <v>4779</v>
+        <v>20</v>
       </c>
       <c r="AB75" s="11">
-        <v>0</v>
+        <v>7153</v>
       </c>
       <c r="AC75" s="11">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="AD75" s="11">
-        <v>7153</v>
+        <v>5634</v>
       </c>
       <c r="AE75" s="11">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AF75" s="11">
-        <v>5634</v>
+        <v>10154</v>
       </c>
       <c r="AG75" s="11">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AH75" s="11">
-        <v>10154</v>
+        <v>917</v>
       </c>
       <c r="AI75" s="11">
-        <v>0</v>
+        <v>4785</v>
       </c>
       <c r="AJ75" s="11">
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="AK75" s="11">
-        <v>4785</v>
+        <v>1922</v>
       </c>
       <c r="AL75" s="11">
-        <v>0</v>
+        <v>4018</v>
       </c>
       <c r="AM75" s="11">
-        <v>1922</v>
+        <v>3719</v>
       </c>
       <c r="AN75" s="11">
-        <v>4018</v>
+        <v>333</v>
       </c>
       <c r="AO75" s="11">
-        <v>3719</v>
+        <v>16850</v>
       </c>
       <c r="AP75" s="11">
-        <v>333</v>
+        <v>18882</v>
       </c>
       <c r="AQ75" s="11">
-        <v>16850</v>
+        <v>13829</v>
       </c>
       <c r="AR75" s="11">
-        <v>18883</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="11">
-        <v>13829</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="11">
-        <v>0</v>
+        <v>7519</v>
       </c>
       <c r="AU75" s="11">
-        <v>0</v>
+        <v>13580</v>
       </c>
       <c r="AV75" s="11">
-        <v>7519</v>
+        <v>13822</v>
       </c>
       <c r="AW75" s="11">
-        <v>13580</v>
+        <v>14841</v>
       </c>
       <c r="AX75" s="11">
-        <v>13822</v>
+        <v>34601</v>
       </c>
       <c r="AY75" s="11">
-        <v>14841</v>
+        <v>109797</v>
       </c>
       <c r="AZ75" s="11">
-        <v>34601</v>
+        <v>111556</v>
       </c>
       <c r="BA75" s="11">
-        <v>109797</v>
+        <v>113920</v>
       </c>
       <c r="BB75" s="11">
-        <v>111564</v>
+        <v>146359</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>64</v>
       </c>
@@ -10224,44 +10224,44 @@
       <c r="AP76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR76" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS76" s="13">
+      <c r="AQ76" s="13">
         <v>66818</v>
       </c>
-      <c r="AT76" s="13" t="s">
-        <v>58</v>
+      <c r="AR76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT76" s="13">
+        <v>52421</v>
       </c>
       <c r="AU76" s="13">
-        <v>0</v>
+        <v>28106</v>
       </c>
       <c r="AV76" s="13">
-        <v>51629</v>
+        <v>57720</v>
       </c>
       <c r="AW76" s="13">
-        <v>28106</v>
+        <v>39314</v>
       </c>
       <c r="AX76" s="13">
-        <v>57720</v>
+        <v>37368</v>
       </c>
       <c r="AY76" s="13">
-        <v>39314</v>
+        <v>92031</v>
       </c>
       <c r="AZ76" s="13">
-        <v>37368</v>
+        <v>108920</v>
       </c>
       <c r="BA76" s="13">
-        <v>92031</v>
+        <v>71705</v>
       </c>
       <c r="BB76" s="13">
-        <v>108920</v>
+        <v>64524</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="16" t="s">
         <v>75</v>
       </c>
@@ -10322,103 +10322,103 @@
         <v>0</v>
       </c>
       <c r="W77" s="17">
-        <v>0</v>
+        <v>59535</v>
       </c>
       <c r="X77" s="17">
-        <v>0</v>
+        <v>55923</v>
       </c>
       <c r="Y77" s="17">
-        <v>59535</v>
+        <v>62417</v>
       </c>
       <c r="Z77" s="17">
-        <v>55923</v>
+        <v>83026</v>
       </c>
       <c r="AA77" s="17">
-        <v>62417</v>
+        <v>104075</v>
       </c>
       <c r="AB77" s="17">
-        <v>83026</v>
+        <v>97122</v>
       </c>
       <c r="AC77" s="17">
-        <v>104075</v>
+        <v>95974</v>
       </c>
       <c r="AD77" s="17">
-        <v>97122</v>
+        <v>76372</v>
       </c>
       <c r="AE77" s="17">
-        <v>95974</v>
+        <v>91832</v>
       </c>
       <c r="AF77" s="17">
-        <v>76372</v>
+        <v>73529</v>
       </c>
       <c r="AG77" s="17">
-        <v>91832</v>
+        <v>116593</v>
       </c>
       <c r="AH77" s="17">
-        <v>73529</v>
+        <v>45447</v>
       </c>
       <c r="AI77" s="17">
-        <v>116593</v>
+        <v>8387</v>
       </c>
       <c r="AJ77" s="17">
-        <v>45447</v>
+        <v>83166</v>
       </c>
       <c r="AK77" s="17">
-        <v>8387</v>
+        <v>101747</v>
       </c>
       <c r="AL77" s="17">
-        <v>83166</v>
+        <v>66118</v>
       </c>
       <c r="AM77" s="17">
-        <v>101747</v>
+        <v>74332</v>
       </c>
       <c r="AN77" s="17">
-        <v>66118</v>
+        <v>70073</v>
       </c>
       <c r="AO77" s="17">
-        <v>74332</v>
+        <v>123520</v>
       </c>
       <c r="AP77" s="17">
-        <v>70073</v>
+        <v>83240</v>
       </c>
       <c r="AQ77" s="17">
-        <v>123520</v>
+        <v>103932</v>
       </c>
       <c r="AR77" s="17">
-        <v>70072</v>
+        <v>74725</v>
       </c>
       <c r="AS77" s="17">
-        <v>103932</v>
+        <v>92343</v>
       </c>
       <c r="AT77" s="17">
-        <v>85420</v>
+        <v>121167</v>
       </c>
       <c r="AU77" s="17">
-        <v>12032</v>
+        <v>101023</v>
       </c>
       <c r="AV77" s="17">
-        <v>120375</v>
+        <v>98182</v>
       </c>
       <c r="AW77" s="17">
-        <v>101025</v>
+        <v>64593</v>
       </c>
       <c r="AX77" s="17">
-        <v>98180</v>
+        <v>98468</v>
       </c>
       <c r="AY77" s="17">
-        <v>64593</v>
+        <v>229693</v>
       </c>
       <c r="AZ77" s="17">
-        <v>98468</v>
+        <v>247254</v>
       </c>
       <c r="BA77" s="17">
-        <v>229693</v>
+        <v>225864</v>
       </c>
       <c r="BB77" s="17">
-        <v>247263</v>
+        <v>307698</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>82</v>
       </c>
@@ -10475,7 +10475,7 @@
       <c r="BA78" s="19"/>
       <c r="BB78" s="19"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
         <v>69</v>
       </c>
@@ -10537,11 +10537,11 @@
       <c r="V79" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="17" t="s">
-        <v>58</v>
+      <c r="W79" s="17">
+        <v>0</v>
+      </c>
+      <c r="X79" s="17">
+        <v>0</v>
       </c>
       <c r="Y79" s="17">
         <v>0</v>
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>83</v>
       </c>
@@ -10691,7 +10691,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>59</v>
       </c>
@@ -10753,77 +10753,77 @@
       <c r="V81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>58</v>
+      <c r="W81" s="11">
+        <v>-106</v>
+      </c>
+      <c r="X81" s="11">
+        <v>-2472</v>
       </c>
       <c r="Y81" s="11">
-        <v>-106</v>
+        <v>-60</v>
       </c>
       <c r="Z81" s="11">
-        <v>-2472</v>
+        <v>-137</v>
       </c>
       <c r="AA81" s="11">
-        <v>-60</v>
+        <v>-3833</v>
       </c>
       <c r="AB81" s="11">
-        <v>-137</v>
+        <v>-812</v>
       </c>
       <c r="AC81" s="11">
-        <v>-3833</v>
+        <v>-53</v>
       </c>
       <c r="AD81" s="11">
-        <v>-812</v>
+        <v>-129</v>
       </c>
       <c r="AE81" s="11">
-        <v>-53</v>
+        <v>-1322</v>
       </c>
       <c r="AF81" s="11">
-        <v>-129</v>
+        <v>-768</v>
       </c>
       <c r="AG81" s="11">
-        <v>-1322</v>
+        <v>-532</v>
       </c>
       <c r="AH81" s="11">
-        <v>-768</v>
+        <v>-8083</v>
       </c>
       <c r="AI81" s="11">
-        <v>-532</v>
+        <v>-229</v>
       </c>
       <c r="AJ81" s="11">
-        <v>-8083</v>
+        <v>-1726</v>
       </c>
       <c r="AK81" s="11">
-        <v>-229</v>
+        <v>-523</v>
       </c>
       <c r="AL81" s="11">
-        <v>-1726</v>
+        <v>-4920</v>
       </c>
       <c r="AM81" s="11">
-        <v>-523</v>
+        <v>-9761</v>
       </c>
       <c r="AN81" s="11">
-        <v>-4920</v>
+        <v>-3755</v>
       </c>
       <c r="AO81" s="11">
-        <v>-9761</v>
+        <v>-4874</v>
       </c>
       <c r="AP81" s="11">
-        <v>-3755</v>
-      </c>
-      <c r="AQ81" s="11">
-        <v>-4874</v>
-      </c>
-      <c r="AR81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT81" s="11">
-        <v>-13564</v>
+        <v>-11994</v>
+      </c>
+      <c r="AQ81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR81" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="11">
+        <v>-171</v>
+      </c>
+      <c r="AT81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU81" s="11" t="s">
         <v>58</v>
@@ -10850,7 +10850,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>60</v>
       </c>
@@ -10912,104 +10912,104 @@
       <c r="V82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>58</v>
+      <c r="W82" s="13">
+        <v>-85</v>
+      </c>
+      <c r="X82" s="13">
+        <v>-5756</v>
       </c>
       <c r="Y82" s="13">
-        <v>-85</v>
+        <v>-6318</v>
       </c>
       <c r="Z82" s="13">
-        <v>-5756</v>
+        <v>-2640</v>
       </c>
       <c r="AA82" s="13">
-        <v>-6318</v>
+        <v>-6145</v>
       </c>
       <c r="AB82" s="13">
-        <v>-2640</v>
+        <v>-3048</v>
       </c>
       <c r="AC82" s="13">
-        <v>-6145</v>
+        <v>-2505</v>
       </c>
       <c r="AD82" s="13">
-        <v>-3048</v>
+        <v>-1566</v>
       </c>
       <c r="AE82" s="13">
-        <v>-2505</v>
+        <v>-3535</v>
       </c>
       <c r="AF82" s="13">
-        <v>-1566</v>
+        <v>-305</v>
       </c>
       <c r="AG82" s="13">
-        <v>-3535</v>
+        <v>-291</v>
       </c>
       <c r="AH82" s="13">
-        <v>-305</v>
+        <v>-1972</v>
       </c>
       <c r="AI82" s="13">
-        <v>-291</v>
+        <v>-3272</v>
       </c>
       <c r="AJ82" s="13">
-        <v>-1972</v>
+        <v>-341</v>
       </c>
       <c r="AK82" s="13">
-        <v>-3272</v>
+        <v>-2253</v>
       </c>
       <c r="AL82" s="13">
-        <v>-341</v>
+        <v>0</v>
       </c>
       <c r="AM82" s="13">
-        <v>-2253</v>
+        <v>-3407</v>
       </c>
       <c r="AN82" s="13">
-        <v>0</v>
+        <v>-9764</v>
       </c>
       <c r="AO82" s="13">
-        <v>-3407</v>
+        <v>-8583</v>
       </c>
       <c r="AP82" s="13">
-        <v>-9764</v>
+        <v>-14577</v>
       </c>
       <c r="AQ82" s="13">
-        <v>-8583</v>
+        <v>-5521</v>
       </c>
       <c r="AR82" s="13">
-        <v>-14593</v>
+        <v>0</v>
       </c>
       <c r="AS82" s="13">
-        <v>-5521</v>
+        <v>-2260</v>
       </c>
       <c r="AT82" s="13">
-        <v>-3671</v>
+        <v>-5376</v>
       </c>
       <c r="AU82" s="13">
-        <v>-2060</v>
+        <v>-9343</v>
       </c>
       <c r="AV82" s="13">
-        <v>-5387</v>
+        <v>-8468</v>
       </c>
       <c r="AW82" s="13">
-        <v>-7822</v>
+        <v>-9351</v>
       </c>
       <c r="AX82" s="13">
-        <v>-9344</v>
+        <v>-4197</v>
       </c>
       <c r="AY82" s="13">
-        <v>-9351</v>
+        <v>-9317</v>
       </c>
       <c r="AZ82" s="13">
-        <v>-4197</v>
+        <v>-8603</v>
       </c>
       <c r="BA82" s="13">
-        <v>-9317</v>
+        <v>-7835</v>
       </c>
       <c r="BB82" s="13">
-        <v>-8603</v>
+        <v>-3903</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>61</v>
       </c>
@@ -11071,104 +11071,104 @@
       <c r="V83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>58</v>
+      <c r="W83" s="11">
+        <v>0</v>
+      </c>
+      <c r="X83" s="11">
+        <v>0</v>
       </c>
       <c r="Y83" s="11">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="Z83" s="11">
-        <v>0</v>
+        <v>-2322</v>
       </c>
       <c r="AA83" s="11">
-        <v>-161</v>
+        <v>-343</v>
       </c>
       <c r="AB83" s="11">
-        <v>-2322</v>
+        <v>-5950</v>
       </c>
       <c r="AC83" s="11">
-        <v>-343</v>
+        <v>-5</v>
       </c>
       <c r="AD83" s="11">
-        <v>-5950</v>
+        <v>-21821</v>
       </c>
       <c r="AE83" s="11">
-        <v>-5</v>
+        <v>-860</v>
       </c>
       <c r="AF83" s="11">
-        <v>-21821</v>
+        <v>-797</v>
       </c>
       <c r="AG83" s="11">
-        <v>-860</v>
+        <v>-1485</v>
       </c>
       <c r="AH83" s="11">
-        <v>-797</v>
+        <v>-1533</v>
       </c>
       <c r="AI83" s="11">
-        <v>-1485</v>
+        <v>-2667</v>
       </c>
       <c r="AJ83" s="11">
-        <v>-1533</v>
+        <v>-4119</v>
       </c>
       <c r="AK83" s="11">
-        <v>-2667</v>
+        <v>-5120</v>
       </c>
       <c r="AL83" s="11">
-        <v>-4119</v>
+        <v>-3819</v>
       </c>
       <c r="AM83" s="11">
-        <v>-5120</v>
+        <v>-8680</v>
       </c>
       <c r="AN83" s="11">
-        <v>-3819</v>
+        <v>-850</v>
       </c>
       <c r="AO83" s="11">
-        <v>-8680</v>
+        <v>-790</v>
       </c>
       <c r="AP83" s="11">
-        <v>-850</v>
+        <v>-12081</v>
       </c>
       <c r="AQ83" s="11">
-        <v>-790</v>
+        <v>-19728</v>
       </c>
       <c r="AR83" s="11">
-        <v>-12083</v>
+        <v>0</v>
       </c>
       <c r="AS83" s="11">
-        <v>-19728</v>
+        <v>-3561</v>
       </c>
       <c r="AT83" s="11">
-        <v>-94</v>
+        <v>-31350</v>
       </c>
       <c r="AU83" s="11">
-        <v>-11808</v>
+        <v>-23236</v>
       </c>
       <c r="AV83" s="11">
-        <v>-32717</v>
+        <v>-65685</v>
       </c>
       <c r="AW83" s="11">
-        <v>-18544</v>
+        <v>-31331</v>
       </c>
       <c r="AX83" s="11">
-        <v>-70834</v>
+        <v>-75393</v>
       </c>
       <c r="AY83" s="11">
-        <v>-31331</v>
+        <v>-49444</v>
       </c>
       <c r="AZ83" s="11">
-        <v>-75393</v>
+        <v>-35245</v>
       </c>
       <c r="BA83" s="11">
-        <v>-49444</v>
+        <v>-104351</v>
       </c>
       <c r="BB83" s="11">
-        <v>-35245</v>
+        <v>-302372</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>62</v>
       </c>
@@ -11245,23 +11245,23 @@
       <c r="AA84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC84" s="13" t="s">
-        <v>58</v>
+      <c r="AB84" s="13">
+        <v>-26000</v>
+      </c>
+      <c r="AC84" s="13">
+        <v>0</v>
       </c>
       <c r="AD84" s="13">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="13">
         <v>0</v>
       </c>
-      <c r="AF84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="13">
-        <v>0</v>
+      <c r="AF84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH84" s="13" t="s">
         <v>58</v>
@@ -11281,11 +11281,11 @@
       <c r="AM84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO84" s="13" t="s">
-        <v>58</v>
+      <c r="AN84" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO84" s="13">
+        <v>0</v>
       </c>
       <c r="AP84" s="13">
         <v>0</v>
@@ -11293,11 +11293,11 @@
       <c r="AQ84" s="13">
         <v>0</v>
       </c>
-      <c r="AR84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="13">
-        <v>0</v>
+      <c r="AR84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT84" s="13" t="s">
         <v>58</v>
@@ -11327,7 +11327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>64</v>
       </c>
@@ -11449,44 +11449,44 @@
       <c r="AP85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR85" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS85" s="11">
+      <c r="AQ85" s="11">
         <v>-17776</v>
       </c>
-      <c r="AT85" s="11" t="s">
-        <v>58</v>
+      <c r="AR85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT85" s="11">
+        <v>-9926</v>
       </c>
       <c r="AU85" s="11">
-        <v>0</v>
+        <v>-15485</v>
       </c>
       <c r="AV85" s="11">
-        <v>-9915</v>
+        <v>-18435</v>
       </c>
       <c r="AW85" s="11">
-        <v>-25387</v>
+        <v>-393</v>
       </c>
       <c r="AX85" s="11">
-        <v>-20478</v>
+        <v>-5781</v>
       </c>
       <c r="AY85" s="11">
-        <v>-393</v>
+        <v>-12182</v>
       </c>
       <c r="AZ85" s="11">
-        <v>-5781</v>
+        <v>-28935</v>
       </c>
       <c r="BA85" s="11">
-        <v>-12182</v>
+        <v>-488</v>
       </c>
       <c r="BB85" s="11">
-        <v>-28935</v>
+        <v>-2606</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="14" t="s">
         <v>77</v>
       </c>
@@ -11548,104 +11548,104 @@
       <c r="V86" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="15" t="s">
-        <v>58</v>
+      <c r="W86" s="15">
+        <v>-191</v>
+      </c>
+      <c r="X86" s="15">
+        <v>-8228</v>
       </c>
       <c r="Y86" s="15">
-        <v>-191</v>
+        <v>-6539</v>
       </c>
       <c r="Z86" s="15">
-        <v>-8228</v>
+        <v>-5099</v>
       </c>
       <c r="AA86" s="15">
-        <v>-6539</v>
+        <v>-10321</v>
       </c>
       <c r="AB86" s="15">
-        <v>-5099</v>
+        <v>-35810</v>
       </c>
       <c r="AC86" s="15">
-        <v>-10321</v>
+        <v>-2563</v>
       </c>
       <c r="AD86" s="15">
-        <v>-35810</v>
+        <v>-23516</v>
       </c>
       <c r="AE86" s="15">
-        <v>-2563</v>
+        <v>-5717</v>
       </c>
       <c r="AF86" s="15">
-        <v>-23516</v>
+        <v>-1870</v>
       </c>
       <c r="AG86" s="15">
-        <v>-5717</v>
+        <v>-2308</v>
       </c>
       <c r="AH86" s="15">
-        <v>-1870</v>
+        <v>-11588</v>
       </c>
       <c r="AI86" s="15">
-        <v>-2308</v>
+        <v>-6168</v>
       </c>
       <c r="AJ86" s="15">
-        <v>-11588</v>
+        <v>-6186</v>
       </c>
       <c r="AK86" s="15">
-        <v>-6168</v>
+        <v>-7896</v>
       </c>
       <c r="AL86" s="15">
-        <v>-6186</v>
+        <v>-8739</v>
       </c>
       <c r="AM86" s="15">
-        <v>-7896</v>
+        <v>-21848</v>
       </c>
       <c r="AN86" s="15">
-        <v>-8739</v>
+        <v>-14369</v>
       </c>
       <c r="AO86" s="15">
-        <v>-21848</v>
+        <v>-14247</v>
       </c>
       <c r="AP86" s="15">
-        <v>-14369</v>
+        <v>-38652</v>
       </c>
       <c r="AQ86" s="15">
-        <v>-14247</v>
+        <v>-43025</v>
       </c>
       <c r="AR86" s="15">
-        <v>-38670</v>
+        <v>0</v>
       </c>
       <c r="AS86" s="15">
-        <v>-43025</v>
+        <v>-5992</v>
       </c>
       <c r="AT86" s="15">
-        <v>-17329</v>
+        <v>-46652</v>
       </c>
       <c r="AU86" s="15">
-        <v>-30095</v>
+        <v>-48064</v>
       </c>
       <c r="AV86" s="15">
-        <v>-48019</v>
+        <v>-92588</v>
       </c>
       <c r="AW86" s="15">
-        <v>-51753</v>
+        <v>-41075</v>
       </c>
       <c r="AX86" s="15">
-        <v>-100656</v>
+        <v>-85371</v>
       </c>
       <c r="AY86" s="15">
-        <v>-41075</v>
+        <v>-70943</v>
       </c>
       <c r="AZ86" s="15">
-        <v>-85371</v>
+        <v>-72783</v>
       </c>
       <c r="BA86" s="15">
-        <v>-70943</v>
+        <v>-112674</v>
       </c>
       <c r="BB86" s="15">
-        <v>-72783</v>
+        <v>-308881</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>84</v>
       </c>
@@ -11702,7 +11702,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>85</v>
       </c>
@@ -11764,89 +11764,89 @@
       <c r="V88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="11" t="s">
-        <v>58</v>
+      <c r="W88" s="11">
+        <v>-9160</v>
+      </c>
+      <c r="X88" s="11">
+        <v>-5836</v>
       </c>
       <c r="Y88" s="11">
-        <v>-9160</v>
+        <v>-3438</v>
       </c>
       <c r="Z88" s="11">
-        <v>-5836</v>
+        <v>-4747</v>
       </c>
       <c r="AA88" s="11">
-        <v>-3438</v>
+        <v>-7266</v>
       </c>
       <c r="AB88" s="11">
-        <v>-4747</v>
+        <v>-12062</v>
       </c>
       <c r="AC88" s="11">
-        <v>-7266</v>
+        <v>-18287</v>
       </c>
       <c r="AD88" s="11">
-        <v>-12062</v>
+        <v>-21548</v>
       </c>
       <c r="AE88" s="11">
-        <v>-18287</v>
+        <v>-10130</v>
       </c>
       <c r="AF88" s="11">
-        <v>-21548</v>
+        <v>-10758</v>
       </c>
       <c r="AG88" s="11">
-        <v>-10130</v>
+        <v>-40983</v>
       </c>
       <c r="AH88" s="11">
-        <v>-10758</v>
+        <v>-75350</v>
       </c>
       <c r="AI88" s="11">
-        <v>-40983</v>
+        <v>-77417</v>
       </c>
       <c r="AJ88" s="11">
-        <v>-75350</v>
+        <v>-67116</v>
       </c>
       <c r="AK88" s="11">
-        <v>-77417</v>
+        <v>-48926</v>
       </c>
       <c r="AL88" s="11">
-        <v>-67116</v>
+        <v>-37210</v>
       </c>
       <c r="AM88" s="11">
-        <v>-48926</v>
+        <v>-37940</v>
       </c>
       <c r="AN88" s="11">
-        <v>-37210</v>
+        <v>-43879</v>
       </c>
       <c r="AO88" s="11">
-        <v>-37940</v>
+        <v>-29439</v>
       </c>
       <c r="AP88" s="11">
-        <v>-43879</v>
+        <v>-453</v>
       </c>
       <c r="AQ88" s="11">
-        <v>-29439</v>
+        <v>1151</v>
       </c>
       <c r="AR88" s="11">
-        <v>-420</v>
+        <v>-493</v>
       </c>
       <c r="AS88" s="11">
-        <v>1151</v>
+        <v>-1804</v>
       </c>
       <c r="AT88" s="11">
-        <v>-493</v>
+        <v>0</v>
       </c>
       <c r="AU88" s="11">
-        <v>-2327</v>
+        <v>0</v>
       </c>
       <c r="AV88" s="11">
-        <v>1</v>
+        <v>-34</v>
       </c>
       <c r="AW88" s="11">
         <v>0</v>
       </c>
       <c r="AX88" s="11">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AY88" s="11">
         <v>0</v>
@@ -11855,13 +11855,13 @@
         <v>0</v>
       </c>
       <c r="BA88" s="11">
-        <v>0</v>
+        <v>-14597</v>
       </c>
       <c r="BB88" s="11">
-        <v>0</v>
+        <v>-61326</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
         <v>70</v>
       </c>
@@ -11922,103 +11922,103 @@
         <v>0</v>
       </c>
       <c r="W89" s="15">
-        <v>0</v>
+        <v>182721</v>
       </c>
       <c r="X89" s="15">
-        <v>0</v>
+        <v>182232</v>
       </c>
       <c r="Y89" s="15">
-        <v>182721</v>
+        <v>200089</v>
       </c>
       <c r="Z89" s="15">
-        <v>182232</v>
+        <v>203733</v>
       </c>
       <c r="AA89" s="15">
-        <v>200089</v>
+        <v>254074</v>
       </c>
       <c r="AB89" s="15">
-        <v>203733</v>
+        <v>293404</v>
       </c>
       <c r="AC89" s="15">
-        <v>254074</v>
+        <v>282332</v>
       </c>
       <c r="AD89" s="15">
-        <v>293404</v>
+        <v>216480</v>
       </c>
       <c r="AE89" s="15">
-        <v>282332</v>
+        <v>259739</v>
       </c>
       <c r="AF89" s="15">
-        <v>216480</v>
+        <v>185796</v>
       </c>
       <c r="AG89" s="15">
-        <v>259739</v>
+        <v>285923</v>
       </c>
       <c r="AH89" s="15">
-        <v>185796</v>
+        <v>340766</v>
       </c>
       <c r="AI89" s="15">
-        <v>285923</v>
+        <v>345283</v>
       </c>
       <c r="AJ89" s="15">
-        <v>340766</v>
+        <v>381023</v>
       </c>
       <c r="AK89" s="15">
-        <v>345283</v>
+        <v>384103</v>
       </c>
       <c r="AL89" s="15">
-        <v>381023</v>
+        <v>381845</v>
       </c>
       <c r="AM89" s="15">
-        <v>384103</v>
+        <v>347973</v>
       </c>
       <c r="AN89" s="15">
-        <v>381845</v>
+        <v>378076</v>
       </c>
       <c r="AO89" s="15">
-        <v>347973</v>
+        <v>400775</v>
       </c>
       <c r="AP89" s="15">
-        <v>378076</v>
+        <v>501714</v>
       </c>
       <c r="AQ89" s="15">
-        <v>400775</v>
+        <v>585208</v>
       </c>
       <c r="AR89" s="15">
-        <v>363025</v>
+        <v>361646</v>
       </c>
       <c r="AS89" s="15">
-        <v>585208</v>
+        <v>626042</v>
       </c>
       <c r="AT89" s="15">
-        <v>326714</v>
+        <v>947192</v>
       </c>
       <c r="AU89" s="15">
-        <v>515695</v>
+        <v>1041341</v>
       </c>
       <c r="AV89" s="15">
-        <v>945354</v>
+        <v>1062307</v>
       </c>
       <c r="AW89" s="15">
-        <v>1008546</v>
+        <v>1051240</v>
       </c>
       <c r="AX89" s="15">
-        <v>1054419</v>
+        <v>1057056</v>
       </c>
       <c r="AY89" s="15">
-        <v>1051240</v>
+        <v>1018188</v>
       </c>
       <c r="AZ89" s="15">
-        <v>1057056</v>
+        <v>1112834</v>
       </c>
       <c r="BA89" s="15">
-        <v>1018188</v>
+        <v>1040053</v>
       </c>
       <c r="BB89" s="15">
-        <v>1113750</v>
+        <v>1003099</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -12073,7 +12073,7 @@
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -12128,7 +12128,7 @@
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -12183,7 +12183,7 @@
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
     </row>
-    <row r="93" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>86</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -12395,7 +12395,7 @@
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>87</v>
       </c>
@@ -12452,7 +12452,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>56</v>
       </c>
@@ -12556,14 +12556,14 @@
       <c r="AJ96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK96" s="11" t="s">
-        <v>58</v>
+      <c r="AK96" s="11">
+        <v>182850</v>
       </c>
       <c r="AL96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM96" s="11">
-        <v>182850</v>
+      <c r="AM96" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN96" s="11" t="s">
         <v>58</v>
@@ -12611,7 +12611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>59</v>
       </c>
@@ -12673,78 +12673,78 @@
       <c r="V97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="13" t="s">
-        <v>58</v>
+      <c r="W97" s="13">
+        <v>345005</v>
+      </c>
+      <c r="X97" s="13">
+        <v>355173</v>
       </c>
       <c r="Y97" s="13">
-        <v>345005</v>
+        <v>460698</v>
       </c>
       <c r="Z97" s="13">
-        <v>355173</v>
+        <v>397778</v>
       </c>
       <c r="AA97" s="13">
-        <v>460698</v>
+        <v>303396</v>
       </c>
       <c r="AB97" s="13">
-        <v>397778</v>
+        <v>661831</v>
       </c>
       <c r="AC97" s="13">
-        <v>303396</v>
+        <v>564885</v>
       </c>
       <c r="AD97" s="13">
-        <v>661831</v>
+        <v>815868</v>
       </c>
       <c r="AE97" s="13">
-        <v>564885</v>
+        <v>547344</v>
       </c>
       <c r="AF97" s="13">
-        <v>815868</v>
+        <v>566913</v>
       </c>
       <c r="AG97" s="13">
-        <v>547344</v>
+        <v>786113</v>
       </c>
       <c r="AH97" s="13">
-        <v>566913</v>
+        <v>791325</v>
       </c>
       <c r="AI97" s="13">
-        <v>786113</v>
+        <v>722203</v>
       </c>
       <c r="AJ97" s="13">
-        <v>791325</v>
+        <v>798683</v>
       </c>
       <c r="AK97" s="13">
-        <v>722203</v>
+        <v>858714</v>
       </c>
       <c r="AL97" s="13">
-        <v>798683</v>
+        <v>986100</v>
       </c>
       <c r="AM97" s="13">
-        <v>858714</v>
+        <v>852788</v>
       </c>
       <c r="AN97" s="13">
-        <v>986100</v>
+        <v>893718</v>
       </c>
       <c r="AO97" s="13">
-        <v>852788</v>
+        <v>916726</v>
       </c>
       <c r="AP97" s="13">
-        <v>893718</v>
-      </c>
-      <c r="AQ97" s="13">
-        <v>916726</v>
-      </c>
-      <c r="AR97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT97" s="13">
+        <v>850863</v>
+      </c>
+      <c r="AQ97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR97" s="13">
         <v>876560</v>
       </c>
+      <c r="AS97" s="13">
+        <v>1410090</v>
+      </c>
+      <c r="AT97" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU97" s="13" t="s">
         <v>58</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>60</v>
       </c>
@@ -12832,104 +12832,104 @@
       <c r="V98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X98" s="11" t="s">
-        <v>58</v>
+      <c r="W98" s="11">
+        <v>343500</v>
+      </c>
+      <c r="X98" s="11">
+        <v>304012</v>
       </c>
       <c r="Y98" s="11">
-        <v>343500</v>
+        <v>356025</v>
       </c>
       <c r="Z98" s="11">
-        <v>304012</v>
+        <v>261947</v>
       </c>
       <c r="AA98" s="11">
-        <v>356025</v>
+        <v>441131</v>
       </c>
       <c r="AB98" s="11">
-        <v>261947</v>
+        <v>300213</v>
       </c>
       <c r="AC98" s="11">
-        <v>441131</v>
+        <v>381869</v>
       </c>
       <c r="AD98" s="11">
-        <v>300213</v>
+        <v>217607</v>
       </c>
       <c r="AE98" s="11">
-        <v>381869</v>
+        <v>334301</v>
       </c>
       <c r="AF98" s="11">
-        <v>217607</v>
+        <v>583770</v>
       </c>
       <c r="AG98" s="11">
-        <v>334301</v>
+        <v>699461</v>
       </c>
       <c r="AH98" s="11">
-        <v>583770</v>
+        <v>842987</v>
       </c>
       <c r="AI98" s="11">
-        <v>699461</v>
+        <v>894141</v>
       </c>
       <c r="AJ98" s="11">
-        <v>842987</v>
+        <v>385001</v>
       </c>
       <c r="AK98" s="11">
-        <v>894141</v>
+        <v>1021438</v>
       </c>
       <c r="AL98" s="11">
-        <v>385001</v>
+        <v>655534</v>
       </c>
       <c r="AM98" s="11">
-        <v>1021438</v>
+        <v>734842</v>
       </c>
       <c r="AN98" s="11">
-        <v>655534</v>
+        <v>810402</v>
       </c>
       <c r="AO98" s="11">
-        <v>734842</v>
+        <v>793370</v>
       </c>
       <c r="AP98" s="11">
-        <v>810402</v>
+        <v>571962</v>
       </c>
       <c r="AQ98" s="11">
-        <v>793370</v>
+        <v>463996</v>
       </c>
       <c r="AR98" s="11">
-        <v>571962</v>
+        <v>987731</v>
       </c>
       <c r="AS98" s="11">
-        <v>463996</v>
+        <v>668969</v>
       </c>
       <c r="AT98" s="11">
-        <v>987731</v>
+        <v>980219</v>
       </c>
       <c r="AU98" s="11">
-        <v>668472</v>
+        <v>803241</v>
       </c>
       <c r="AV98" s="11">
-        <v>970291</v>
+        <v>763450</v>
       </c>
       <c r="AW98" s="11">
-        <v>803241</v>
+        <v>639901</v>
       </c>
       <c r="AX98" s="11">
-        <v>763450</v>
+        <v>716518</v>
       </c>
       <c r="AY98" s="11">
-        <v>639901</v>
+        <v>919912</v>
       </c>
       <c r="AZ98" s="11">
-        <v>716518</v>
+        <v>718618</v>
       </c>
       <c r="BA98" s="11">
-        <v>919912</v>
+        <v>778116</v>
       </c>
       <c r="BB98" s="11">
-        <v>718618</v>
+        <v>808887</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>61</v>
       </c>
@@ -12991,104 +12991,104 @@
       <c r="V99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="13" t="s">
-        <v>58</v>
+      <c r="W99" s="13">
+        <v>771463</v>
+      </c>
+      <c r="X99" s="13">
+        <v>803728</v>
       </c>
       <c r="Y99" s="13">
-        <v>771463</v>
+        <v>701957</v>
       </c>
       <c r="Z99" s="13">
-        <v>803728</v>
+        <v>856489</v>
       </c>
       <c r="AA99" s="13">
-        <v>701957</v>
+        <v>1092309</v>
       </c>
       <c r="AB99" s="13">
-        <v>856489</v>
+        <v>1164616</v>
       </c>
       <c r="AC99" s="13">
-        <v>1092309</v>
+        <v>1369212</v>
       </c>
       <c r="AD99" s="13">
-        <v>1164616</v>
+        <v>1121876</v>
       </c>
       <c r="AE99" s="13">
-        <v>1369212</v>
+        <v>850939</v>
       </c>
       <c r="AF99" s="13">
-        <v>1121876</v>
+        <v>1047802</v>
       </c>
       <c r="AG99" s="13">
-        <v>850939</v>
+        <v>1419731</v>
       </c>
       <c r="AH99" s="13">
-        <v>1047802</v>
+        <v>1659760</v>
       </c>
       <c r="AI99" s="13">
-        <v>1419731</v>
+        <v>1912497</v>
       </c>
       <c r="AJ99" s="13">
-        <v>1659760</v>
+        <v>1986259</v>
       </c>
       <c r="AK99" s="13">
-        <v>1912497</v>
+        <v>1795723</v>
       </c>
       <c r="AL99" s="13">
-        <v>1986259</v>
+        <v>1688300</v>
       </c>
       <c r="AM99" s="13">
-        <v>1795723</v>
+        <v>1695187</v>
       </c>
       <c r="AN99" s="13">
-        <v>1688300</v>
+        <v>2034363</v>
       </c>
       <c r="AO99" s="13">
-        <v>1695187</v>
+        <v>1678324</v>
       </c>
       <c r="AP99" s="13">
-        <v>2034363</v>
+        <v>1591066</v>
       </c>
       <c r="AQ99" s="13">
-        <v>1678324</v>
+        <v>1814742</v>
       </c>
       <c r="AR99" s="13">
-        <v>1592005</v>
+        <v>2051001</v>
       </c>
       <c r="AS99" s="13">
-        <v>1814742</v>
+        <v>2048719</v>
       </c>
       <c r="AT99" s="13">
-        <v>1829919</v>
+        <v>2090276</v>
       </c>
       <c r="AU99" s="13">
-        <v>2041808</v>
+        <v>2109950</v>
       </c>
       <c r="AV99" s="13">
-        <v>2087713</v>
+        <v>2416218</v>
       </c>
       <c r="AW99" s="13">
-        <v>2110695</v>
+        <v>2718745</v>
       </c>
       <c r="AX99" s="13">
-        <v>2416690</v>
+        <v>2720573</v>
       </c>
       <c r="AY99" s="13">
-        <v>2718745</v>
+        <v>2402937</v>
       </c>
       <c r="AZ99" s="13">
-        <v>2720573</v>
+        <v>2290456</v>
       </c>
       <c r="BA99" s="13">
-        <v>2402937</v>
+        <v>2534009</v>
       </c>
       <c r="BB99" s="13">
-        <v>2292801</v>
+        <v>2357546</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>62</v>
       </c>
@@ -13159,21 +13159,21 @@
       <c r="Y100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA100" s="11" t="s">
-        <v>58</v>
+      <c r="Z100" s="11">
+        <v>515380</v>
+      </c>
+      <c r="AA100" s="11">
+        <v>643785</v>
       </c>
       <c r="AB100" s="11">
-        <v>515380</v>
-      </c>
-      <c r="AC100" s="11">
-        <v>643785</v>
-      </c>
-      <c r="AD100" s="11">
         <v>445033</v>
       </c>
+      <c r="AC100" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD100" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE100" s="11" t="s">
         <v>58</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>64</v>
       </c>
@@ -13369,44 +13369,44 @@
       <c r="AP101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS101" s="13">
+      <c r="AQ101" s="13">
         <v>875475</v>
       </c>
-      <c r="AT101" s="13" t="s">
-        <v>58</v>
+      <c r="AR101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT101" s="13">
+        <v>977042</v>
       </c>
       <c r="AU101" s="13">
-        <v>0</v>
+        <v>1188869</v>
       </c>
       <c r="AV101" s="13">
-        <v>971971</v>
+        <v>1049408</v>
       </c>
       <c r="AW101" s="13">
-        <v>1187019</v>
+        <v>616337</v>
       </c>
       <c r="AX101" s="13">
-        <v>1049408</v>
+        <v>820974</v>
       </c>
       <c r="AY101" s="13">
-        <v>616337</v>
+        <v>806434</v>
       </c>
       <c r="AZ101" s="13">
-        <v>820974</v>
+        <v>802589</v>
       </c>
       <c r="BA101" s="13">
-        <v>806434</v>
+        <v>727667</v>
       </c>
       <c r="BB101" s="13">
-        <v>802589</v>
+        <v>782754</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>89</v>
       </c>
@@ -13463,7 +13463,7 @@
       <c r="BA102" s="9"/>
       <c r="BB102" s="9"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>59</v>
       </c>
@@ -13525,77 +13525,77 @@
       <c r="V103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X103" s="11" t="s">
-        <v>58</v>
+      <c r="W103" s="11">
+        <v>318110</v>
+      </c>
+      <c r="X103" s="11">
+        <v>353000</v>
       </c>
       <c r="Y103" s="11">
-        <v>318110</v>
+        <v>338871</v>
       </c>
       <c r="Z103" s="11">
-        <v>353000</v>
+        <v>432309</v>
       </c>
       <c r="AA103" s="11">
-        <v>338871</v>
+        <v>543062</v>
       </c>
       <c r="AB103" s="11">
-        <v>432309</v>
+        <v>539820</v>
       </c>
       <c r="AC103" s="11">
-        <v>543062</v>
+        <v>491491</v>
       </c>
       <c r="AD103" s="11">
-        <v>539820</v>
+        <v>487712</v>
       </c>
       <c r="AE103" s="11">
-        <v>491491</v>
+        <v>587810</v>
       </c>
       <c r="AF103" s="11">
-        <v>487712</v>
+        <v>528214</v>
       </c>
       <c r="AG103" s="11">
-        <v>587810</v>
+        <v>604625</v>
       </c>
       <c r="AH103" s="11">
-        <v>528214</v>
+        <v>666939</v>
       </c>
       <c r="AI103" s="11">
-        <v>604625</v>
+        <v>582169</v>
       </c>
       <c r="AJ103" s="11">
-        <v>666939</v>
+        <v>582431</v>
       </c>
       <c r="AK103" s="11">
-        <v>582169</v>
+        <v>669963</v>
       </c>
       <c r="AL103" s="11">
-        <v>582431</v>
+        <v>723114</v>
       </c>
       <c r="AM103" s="11">
-        <v>669963</v>
+        <v>718398</v>
       </c>
       <c r="AN103" s="11">
-        <v>723114</v>
+        <v>691104</v>
       </c>
       <c r="AO103" s="11">
-        <v>718398</v>
+        <v>660230</v>
       </c>
       <c r="AP103" s="11">
-        <v>691104</v>
-      </c>
-      <c r="AQ103" s="11">
-        <v>660230</v>
-      </c>
-      <c r="AR103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT103" s="11">
-        <v>701564</v>
+        <v>938090</v>
+      </c>
+      <c r="AQ103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR103" s="11">
+        <v>674957</v>
+      </c>
+      <c r="AS103" s="11">
+        <v>666798</v>
+      </c>
+      <c r="AT103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU103" s="11" t="s">
         <v>58</v>
@@ -13622,7 +13622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>60</v>
       </c>
@@ -13684,104 +13684,104 @@
       <c r="V104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="13" t="s">
-        <v>58</v>
+      <c r="W104" s="13">
+        <v>241114</v>
+      </c>
+      <c r="X104" s="13">
+        <v>285588</v>
       </c>
       <c r="Y104" s="13">
-        <v>241114</v>
+        <v>317132</v>
       </c>
       <c r="Z104" s="13">
-        <v>285588</v>
+        <v>326488</v>
       </c>
       <c r="AA104" s="13">
-        <v>317132</v>
+        <v>427688</v>
       </c>
       <c r="AB104" s="13">
-        <v>326488</v>
+        <v>410359</v>
       </c>
       <c r="AC104" s="13">
-        <v>427688</v>
+        <v>459861</v>
       </c>
       <c r="AD104" s="13">
-        <v>410359</v>
+        <v>455026</v>
       </c>
       <c r="AE104" s="13">
-        <v>459861</v>
+        <v>463490</v>
       </c>
       <c r="AF104" s="13">
-        <v>455026</v>
+        <v>482755</v>
       </c>
       <c r="AG104" s="13">
-        <v>463490</v>
+        <v>486186</v>
       </c>
       <c r="AH104" s="13">
-        <v>482755</v>
+        <v>513159</v>
       </c>
       <c r="AI104" s="13">
-        <v>486186</v>
+        <v>831747</v>
       </c>
       <c r="AJ104" s="13">
-        <v>513159</v>
+        <v>531944</v>
       </c>
       <c r="AK104" s="13">
-        <v>831747</v>
+        <v>534508</v>
       </c>
       <c r="AL104" s="13">
-        <v>531944</v>
+        <v>834028</v>
       </c>
       <c r="AM104" s="13">
-        <v>534508</v>
+        <v>773416</v>
       </c>
       <c r="AN104" s="13">
-        <v>834028</v>
+        <v>847190</v>
       </c>
       <c r="AO104" s="13">
-        <v>773416</v>
+        <v>625177</v>
       </c>
       <c r="AP104" s="13">
-        <v>847190</v>
+        <v>649261</v>
       </c>
       <c r="AQ104" s="13">
-        <v>625177</v>
+        <v>614072</v>
       </c>
       <c r="AR104" s="13">
-        <v>648729</v>
+        <v>523820</v>
       </c>
       <c r="AS104" s="13">
-        <v>614072</v>
+        <v>564051</v>
       </c>
       <c r="AT104" s="13">
-        <v>523820</v>
+        <v>555226</v>
       </c>
       <c r="AU104" s="13">
-        <v>639396</v>
+        <v>568564</v>
       </c>
       <c r="AV104" s="13">
-        <v>555226</v>
+        <v>582664</v>
       </c>
       <c r="AW104" s="13">
-        <v>568572</v>
+        <v>672378</v>
       </c>
       <c r="AX104" s="13">
-        <v>582621</v>
+        <v>657821</v>
       </c>
       <c r="AY104" s="13">
-        <v>672378</v>
+        <v>706212</v>
       </c>
       <c r="AZ104" s="13">
-        <v>657821</v>
+        <v>967029</v>
       </c>
       <c r="BA104" s="13">
-        <v>706212</v>
+        <v>833848</v>
       </c>
       <c r="BB104" s="13">
-        <v>967065</v>
+        <v>780697</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>61</v>
       </c>
@@ -13843,104 +13843,104 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>1079832</v>
       </c>
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
       <c r="Y105" s="11">
-        <v>1079832</v>
+        <v>810000</v>
       </c>
       <c r="Z105" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AA105" s="11">
-        <v>810000</v>
-      </c>
-      <c r="AB105" s="11" t="s">
-        <v>58</v>
+        <v>1176471</v>
+      </c>
+      <c r="AB105" s="11">
+        <v>1424333</v>
       </c>
       <c r="AC105" s="11">
-        <v>1176471</v>
+        <v>1040000</v>
       </c>
       <c r="AD105" s="11">
-        <v>1424333</v>
+        <v>1170093</v>
       </c>
       <c r="AE105" s="11">
-        <v>1040000</v>
+        <v>1164179</v>
       </c>
       <c r="AF105" s="11">
-        <v>1170093</v>
-      </c>
-      <c r="AG105" s="11">
-        <v>1164179</v>
+        <v>1045511</v>
+      </c>
+      <c r="AG105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH105" s="11">
-        <v>1045511</v>
-      </c>
-      <c r="AI105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ105" s="11">
         <v>1040863</v>
       </c>
+      <c r="AI105" s="11">
+        <v>1383348</v>
+      </c>
+      <c r="AJ105" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK105" s="11">
-        <v>1383348</v>
-      </c>
-      <c r="AL105" s="11" t="s">
-        <v>58</v>
+        <v>1855212</v>
+      </c>
+      <c r="AL105" s="11">
+        <v>2088358</v>
       </c>
       <c r="AM105" s="11">
-        <v>1855212</v>
+        <v>1818582</v>
       </c>
       <c r="AN105" s="11">
-        <v>2088358</v>
+        <v>1043887</v>
       </c>
       <c r="AO105" s="11">
-        <v>1818582</v>
+        <v>1936782</v>
       </c>
       <c r="AP105" s="11">
-        <v>1043887</v>
+        <v>1838559</v>
       </c>
       <c r="AQ105" s="11">
-        <v>1936782</v>
-      </c>
-      <c r="AR105" s="11">
-        <v>1838585</v>
-      </c>
-      <c r="AS105" s="11">
         <v>1781399</v>
       </c>
-      <c r="AT105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU105" s="11" t="s">
-        <v>58</v>
+      <c r="AR105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT105" s="11">
+        <v>2061695</v>
+      </c>
+      <c r="AU105" s="11">
+        <v>2180475</v>
       </c>
       <c r="AV105" s="11">
-        <v>2061695</v>
+        <v>2012522</v>
       </c>
       <c r="AW105" s="11">
-        <v>2180475</v>
+        <v>1935194</v>
       </c>
       <c r="AX105" s="11">
-        <v>2012522</v>
+        <v>1948145</v>
       </c>
       <c r="AY105" s="11">
-        <v>1935194</v>
+        <v>1799390</v>
       </c>
       <c r="AZ105" s="11">
-        <v>1948145</v>
+        <v>2215831</v>
       </c>
       <c r="BA105" s="11">
-        <v>1799390</v>
+        <v>2189169</v>
       </c>
       <c r="BB105" s="11">
-        <v>2215990</v>
+        <v>2190118</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>64</v>
       </c>
@@ -14062,41 +14062,41 @@
       <c r="AP106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS106" s="13">
+      <c r="AQ106" s="13">
         <v>832613</v>
       </c>
-      <c r="AT106" s="13" t="s">
-        <v>58</v>
+      <c r="AR106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT106" s="13">
+        <v>731146</v>
       </c>
       <c r="AU106" s="13">
-        <v>0</v>
+        <v>881480</v>
       </c>
       <c r="AV106" s="13">
-        <v>728724</v>
+        <v>876338</v>
       </c>
       <c r="AW106" s="13">
-        <v>881480</v>
+        <v>746478</v>
       </c>
       <c r="AX106" s="13">
-        <v>876338</v>
+        <v>798444</v>
       </c>
       <c r="AY106" s="13">
-        <v>746478</v>
+        <v>717837</v>
       </c>
       <c r="AZ106" s="13">
-        <v>798444</v>
+        <v>860246</v>
       </c>
       <c r="BA106" s="13">
-        <v>717837</v>
+        <v>818905</v>
       </c>
       <c r="BB106" s="13">
-        <v>860246</v>
+        <v>955968</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/kashi/kehafez/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kehafez/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="90">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3366,29 +3366,29 @@
       <c r="AH11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ11" s="13" t="n">
+      <c r="AI11" s="13" t="n">
         <v>8548</v>
       </c>
+      <c r="AJ11" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AL11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM11" s="13" t="s">
-        <v>58</v>
+      <c r="AM11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="13" t="s">
-        <v>58</v>
+      <c r="AO11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ11" s="13" t="n">
         <v>0</v>
@@ -3483,77 +3483,77 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>180311</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>180311</v>
+        <v>163756</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>163756</v>
+        <v>140756</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>140756</v>
+        <v>114154</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>114154</v>
+        <v>115458</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>115458</v>
+        <v>129004</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>129004</v>
+        <v>112421</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>112421</v>
+        <v>105827</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>105827</v>
+        <v>109669</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>109669</v>
+        <v>144720</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>144720</v>
+        <v>170723</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>170723</v>
+        <v>156453</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>156453</v>
+        <v>164970</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>164970</v>
+        <v>146620</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>146620</v>
+        <v>99498</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>99498</v>
+        <v>83400</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>83400</v>
+        <v>64878</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>64878</v>
+        <v>79326</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>79326</v>
+        <v>76512</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>76512</v>
-      </c>
-      <c r="AO12" s="16" t="n">
         <v>148777</v>
       </c>
-      <c r="AP12" s="16" t="s">
-        <v>58</v>
+      <c r="AO12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP12" s="16" t="n">
+        <v>122694</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>122694</v>
-      </c>
-      <c r="AR12" s="16" t="n">
         <v>56821</v>
+      </c>
+      <c r="AR12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS12" s="16" t="s">
         <v>58</v>
@@ -3642,98 +3642,98 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>149915</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>149915</v>
+        <v>140115</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>140115</v>
+        <v>125268</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>125268</v>
+        <v>123117</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>123117</v>
+        <v>125608</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>125608</v>
+        <v>128398</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>128398</v>
+        <v>133925</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>133925</v>
+        <v>134039</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>134039</v>
+        <v>109353</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>109353</v>
+        <v>70283</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>70283</v>
+        <v>134856</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>134856</v>
+        <v>94567</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>94567</v>
+        <v>88076</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>88076</v>
+        <v>133008</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>133008</v>
+        <v>15963</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>15963</v>
+        <v>69600</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>69600</v>
+        <v>77034</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>77034</v>
+        <v>59495</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>59495</v>
+        <v>13481</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>13481</v>
+        <v>46806</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>46806</v>
+        <v>80136</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>80136</v>
+        <v>64086</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>64086</v>
+        <v>75510</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>75510</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>0</v>
+        <v>26807</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>26807</v>
+        <v>80104</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>80104</v>
+        <v>119924</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>119924</v>
+        <v>60720</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>60720</v>
+        <v>45565</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>45565</v>
+        <v>61234</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>61234</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>0</v>
+        <v>13364</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,107 +3801,107 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>108530</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>108530</v>
+        <v>108612</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>108612</v>
+        <v>122932</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>122932</v>
+        <v>121312</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>121312</v>
+        <v>127250</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>127250</v>
+        <v>133942</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>133942</v>
+        <v>130366</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>130366</v>
+        <v>99533</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>99533</v>
+        <v>113656</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>113656</v>
+        <v>106404</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>106404</v>
+        <v>109835</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>109835</v>
+        <v>121797</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>121797</v>
+        <v>129462</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>129462</v>
+        <v>137344</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>137344</v>
+        <v>125051</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>125051</v>
+        <v>120000</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>120000</v>
+        <v>101103</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>101103</v>
+        <v>112631</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>112631</v>
+        <v>224792</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>224792</v>
+        <v>159526</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>159526</v>
+        <v>196472</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>196472</v>
+        <v>171881</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>171881</v>
+        <v>195845</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>195845</v>
+        <v>263086</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>263086</v>
+        <v>333481</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>333481</v>
+        <v>354473</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>354473</v>
+        <v>385820</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>385820</v>
+        <v>384926</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>384926</v>
+        <v>327586</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>327586</v>
+        <v>439332</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>439332</v>
+        <v>340532</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>340532</v>
+        <v>309166</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>309166</v>
+        <v>314766</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>314766</v>
+        <v>269908</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,14 +3969,14 @@
       <c r="W15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="13" t="s">
-        <v>58</v>
+      <c r="X15" s="13" t="n">
+        <v>38913</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="13" t="n">
         <v>0</v>
@@ -3987,8 +3987,8 @@
       <c r="AC15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD15" s="13" t="n">
-        <v>0</v>
+      <c r="AD15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE15" s="13" t="s">
         <v>58</v>
@@ -4014,17 +4014,17 @@
       <c r="AL15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM15" s="13" t="s">
-        <v>58</v>
+      <c r="AM15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="13" t="s">
-        <v>58</v>
+      <c r="AO15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ15" s="13" t="n">
         <v>0</v>
@@ -4119,8 +4119,8 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="16" t="n">
         <v>0</v>
@@ -4146,8 +4146,8 @@
       <c r="AC16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD16" s="16" t="n">
-        <v>0</v>
+      <c r="AD16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE16" s="16" t="s">
         <v>58</v>
@@ -4338,47 +4338,47 @@
       <c r="AN17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="13" t="n">
+      <c r="AO17" s="13" t="n">
         <v>76511</v>
       </c>
+      <c r="AP17" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="13" t="s">
-        <v>58</v>
+      <c r="AR17" s="13" t="n">
+        <v>94526</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>94526</v>
+        <v>102055</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>102055</v>
+        <v>66174</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>66174</v>
+        <v>104170</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>104170</v>
+        <v>150245</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>150245</v>
+        <v>58111</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>58111</v>
+        <v>22559</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>22559</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>0</v>
+        <v>18689</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>18689</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>0</v>
+        <v>25822</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,106 +4436,106 @@
         <v>0</v>
       </c>
       <c r="U18" s="18" t="n">
-        <v>0</v>
+        <v>438756</v>
       </c>
       <c r="V18" s="18" t="n">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="W18" s="18" t="n">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="X18" s="18" t="n">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="Y18" s="18" t="n">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="Z18" s="18" t="n">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AA18" s="18" t="n">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AB18" s="18" t="n">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AC18" s="18" t="n">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AD18" s="18" t="n">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AE18" s="18" t="n">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AF18" s="18" t="n">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AG18" s="18" t="n">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AH18" s="18" t="n">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AI18" s="18" t="n">
-        <v>416972</v>
+        <v>249060</v>
       </c>
       <c r="AJ18" s="18" t="n">
-        <v>249060</v>
+        <v>273000</v>
       </c>
       <c r="AK18" s="18" t="n">
-        <v>273000</v>
+        <v>243015</v>
       </c>
       <c r="AL18" s="18" t="n">
-        <v>243015</v>
+        <v>251452</v>
       </c>
       <c r="AM18" s="18" t="n">
-        <v>251452</v>
+        <v>314785</v>
       </c>
       <c r="AN18" s="18" t="n">
-        <v>314785</v>
+        <v>355109</v>
       </c>
       <c r="AO18" s="18" t="n">
-        <v>355109</v>
+        <v>353119</v>
       </c>
       <c r="AP18" s="18" t="n">
-        <v>353119</v>
+        <v>358661</v>
       </c>
       <c r="AQ18" s="18" t="n">
-        <v>358661</v>
+        <v>328176</v>
       </c>
       <c r="AR18" s="18" t="n">
-        <v>328176</v>
+        <v>357612</v>
       </c>
       <c r="AS18" s="18" t="n">
-        <v>357612</v>
+        <v>462343</v>
       </c>
       <c r="AT18" s="18" t="n">
-        <v>462343</v>
+        <v>500751</v>
       </c>
       <c r="AU18" s="18" t="n">
-        <v>500751</v>
+        <v>609914</v>
       </c>
       <c r="AV18" s="18" t="n">
-        <v>609914</v>
+        <v>595891</v>
       </c>
       <c r="AW18" s="18" t="n">
-        <v>595891</v>
+        <v>431262</v>
       </c>
       <c r="AX18" s="18" t="n">
-        <v>431262</v>
+        <v>523125</v>
       </c>
       <c r="AY18" s="18" t="n">
-        <v>523125</v>
+        <v>340532</v>
       </c>
       <c r="AZ18" s="18" t="n">
-        <v>340532</v>
+        <v>327855</v>
       </c>
       <c r="BA18" s="18" t="n">
-        <v>327855</v>
+        <v>314766</v>
       </c>
       <c r="BB18" s="18" t="n">
-        <v>314766</v>
+        <v>309094</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4651,8 +4651,8 @@
       <c r="T20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="13" t="s">
-        <v>58</v>
+      <c r="U20" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="13" t="n">
         <v>0</v>
@@ -4684,8 +4684,8 @@
       <c r="AE20" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="13" t="n">
-        <v>0</v>
+      <c r="AF20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG20" s="13" t="s">
         <v>58</v>
@@ -4693,35 +4693,35 @@
       <c r="AH20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI20" s="13" t="s">
-        <v>58</v>
+      <c r="AI20" s="13" t="n">
+        <v>53400</v>
       </c>
       <c r="AJ20" s="13" t="n">
-        <v>53400</v>
+        <v>64579</v>
       </c>
       <c r="AK20" s="13" t="n">
-        <v>64579</v>
+        <v>93959</v>
       </c>
       <c r="AL20" s="13" t="n">
-        <v>93959</v>
+        <v>73973</v>
       </c>
       <c r="AM20" s="13" t="n">
-        <v>73973</v>
+        <v>43967</v>
       </c>
       <c r="AN20" s="13" t="n">
-        <v>43967</v>
-      </c>
-      <c r="AO20" s="13" t="n">
         <v>13665</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>58</v>
+      <c r="AO20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP20" s="13" t="n">
+        <v>103771</v>
       </c>
       <c r="AQ20" s="13" t="n">
-        <v>103771</v>
-      </c>
-      <c r="AR20" s="13" t="n">
         <v>129216</v>
+      </c>
+      <c r="AR20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS20" s="13" t="s">
         <v>58</v>
@@ -4810,8 +4810,8 @@
       <c r="T21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="16" t="s">
-        <v>58</v>
+      <c r="U21" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="16" t="n">
         <v>0</v>
@@ -4843,8 +4843,8 @@
       <c r="AE21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AF21" s="16" t="n">
-        <v>0</v>
+      <c r="AF21" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AG21" s="16" t="s">
         <v>58</v>
@@ -4852,65 +4852,65 @@
       <c r="AH21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI21" s="16" t="s">
-        <v>58</v>
+      <c r="AI21" s="16" t="n">
+        <v>119828</v>
       </c>
       <c r="AJ21" s="16" t="n">
-        <v>119828</v>
+        <v>18467</v>
       </c>
       <c r="AK21" s="16" t="n">
-        <v>18467</v>
+        <v>4025</v>
       </c>
       <c r="AL21" s="16" t="n">
-        <v>4025</v>
+        <v>21975</v>
       </c>
       <c r="AM21" s="16" t="n">
-        <v>21975</v>
+        <v>108113</v>
       </c>
       <c r="AN21" s="16" t="n">
-        <v>108113</v>
+        <v>79381</v>
       </c>
       <c r="AO21" s="16" t="n">
-        <v>79381</v>
+        <v>37919</v>
       </c>
       <c r="AP21" s="16" t="n">
-        <v>37919</v>
+        <v>8942</v>
       </c>
       <c r="AQ21" s="16" t="n">
-        <v>8942</v>
+        <v>10960</v>
       </c>
       <c r="AR21" s="16" t="n">
-        <v>10960</v>
+        <v>104245</v>
       </c>
       <c r="AS21" s="16" t="n">
-        <v>104245</v>
+        <v>104363</v>
       </c>
       <c r="AT21" s="16" t="n">
-        <v>104363</v>
+        <v>45721</v>
       </c>
       <c r="AU21" s="16" t="n">
-        <v>45721</v>
+        <v>15524</v>
       </c>
       <c r="AV21" s="16" t="n">
-        <v>15524</v>
+        <v>40283</v>
       </c>
       <c r="AW21" s="16" t="n">
-        <v>40283</v>
+        <v>39457</v>
       </c>
       <c r="AX21" s="16" t="n">
-        <v>39457</v>
+        <v>27691</v>
       </c>
       <c r="AY21" s="16" t="n">
-        <v>27691</v>
+        <v>32878</v>
       </c>
       <c r="AZ21" s="16" t="n">
-        <v>32878</v>
+        <v>103790</v>
       </c>
       <c r="BA21" s="16" t="n">
-        <v>103790</v>
+        <v>115663</v>
       </c>
       <c r="BB21" s="16" t="n">
-        <v>115663</v>
+        <v>98820</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,8 +4969,8 @@
       <c r="T22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>58</v>
+      <c r="U22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="13" t="n">
         <v>0</v>
@@ -5002,8 +5002,8 @@
       <c r="AE22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AF22" s="13" t="n">
-        <v>0</v>
+      <c r="AF22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG22" s="13" t="s">
         <v>58</v>
@@ -5011,65 +5011,65 @@
       <c r="AH22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI22" s="13" t="s">
-        <v>58</v>
+      <c r="AI22" s="13" t="n">
+        <v>1036</v>
       </c>
       <c r="AJ22" s="13" t="n">
-        <v>1036</v>
+        <v>1924</v>
       </c>
       <c r="AK22" s="13" t="n">
-        <v>1924</v>
+        <v>2045</v>
       </c>
       <c r="AL22" s="13" t="n">
-        <v>2045</v>
+        <v>319</v>
       </c>
       <c r="AM22" s="13" t="n">
-        <v>319</v>
+        <v>8700</v>
       </c>
       <c r="AN22" s="13" t="n">
-        <v>8700</v>
+        <v>10270</v>
       </c>
       <c r="AO22" s="13" t="n">
-        <v>10270</v>
+        <v>7763</v>
       </c>
       <c r="AP22" s="13" t="n">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR22" s="13" t="n">
-        <v>0</v>
+        <v>3647</v>
       </c>
       <c r="AS22" s="13" t="n">
-        <v>3647</v>
+        <v>6228</v>
       </c>
       <c r="AT22" s="13" t="n">
-        <v>6228</v>
+        <v>6868</v>
       </c>
       <c r="AU22" s="13" t="n">
-        <v>6868</v>
+        <v>7669</v>
       </c>
       <c r="AV22" s="13" t="n">
-        <v>7669</v>
+        <v>17761</v>
       </c>
       <c r="AW22" s="13" t="n">
-        <v>17761</v>
+        <v>61019</v>
       </c>
       <c r="AX22" s="13" t="n">
-        <v>61019</v>
+        <v>50345</v>
       </c>
       <c r="AY22" s="13" t="n">
-        <v>50345</v>
+        <v>52038</v>
       </c>
       <c r="AZ22" s="13" t="n">
-        <v>52038</v>
+        <v>66827</v>
       </c>
       <c r="BA22" s="13" t="n">
-        <v>66827</v>
+        <v>65489</v>
       </c>
       <c r="BB22" s="13" t="n">
-        <v>65489</v>
+        <v>36883</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5188,47 +5188,47 @@
       <c r="AN23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP23" s="16" t="n">
+      <c r="AO23" s="16" t="n">
         <v>71064</v>
       </c>
+      <c r="AP23" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="16" t="s">
-        <v>58</v>
+      <c r="AR23" s="16" t="n">
+        <v>71697</v>
       </c>
       <c r="AS23" s="16" t="n">
-        <v>71697</v>
+        <v>31885</v>
       </c>
       <c r="AT23" s="16" t="n">
-        <v>31885</v>
+        <v>65865</v>
       </c>
       <c r="AU23" s="16" t="n">
-        <v>65865</v>
+        <v>52666</v>
       </c>
       <c r="AV23" s="16" t="n">
-        <v>52666</v>
+        <v>46801</v>
       </c>
       <c r="AW23" s="16" t="n">
-        <v>46801</v>
+        <v>128206</v>
       </c>
       <c r="AX23" s="16" t="n">
-        <v>128206</v>
+        <v>126615</v>
       </c>
       <c r="AY23" s="16" t="n">
-        <v>126615</v>
+        <v>78384</v>
       </c>
       <c r="AZ23" s="16" t="n">
-        <v>78384</v>
+        <v>67496</v>
       </c>
       <c r="BA23" s="16" t="n">
-        <v>67496</v>
+        <v>122114</v>
       </c>
       <c r="BB23" s="16" t="n">
-        <v>122114</v>
+        <v>128630</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,64 +5328,64 @@
         <v>0</v>
       </c>
       <c r="AI24" s="20" t="n">
-        <v>0</v>
+        <v>174264</v>
       </c>
       <c r="AJ24" s="20" t="n">
-        <v>174264</v>
+        <v>84970</v>
       </c>
       <c r="AK24" s="20" t="n">
-        <v>84970</v>
+        <v>100029</v>
       </c>
       <c r="AL24" s="20" t="n">
-        <v>100029</v>
+        <v>96267</v>
       </c>
       <c r="AM24" s="20" t="n">
-        <v>96267</v>
+        <v>160780</v>
       </c>
       <c r="AN24" s="20" t="n">
-        <v>160780</v>
+        <v>103316</v>
       </c>
       <c r="AO24" s="20" t="n">
-        <v>103316</v>
+        <v>116746</v>
       </c>
       <c r="AP24" s="20" t="n">
-        <v>116746</v>
+        <v>112713</v>
       </c>
       <c r="AQ24" s="20" t="n">
-        <v>112713</v>
+        <v>140176</v>
       </c>
       <c r="AR24" s="20" t="n">
-        <v>140176</v>
+        <v>179589</v>
       </c>
       <c r="AS24" s="20" t="n">
-        <v>179589</v>
+        <v>142476</v>
       </c>
       <c r="AT24" s="20" t="n">
-        <v>142476</v>
+        <v>118454</v>
       </c>
       <c r="AU24" s="20" t="n">
-        <v>118454</v>
+        <v>75859</v>
       </c>
       <c r="AV24" s="20" t="n">
-        <v>75859</v>
+        <v>104845</v>
       </c>
       <c r="AW24" s="20" t="n">
-        <v>104845</v>
+        <v>228682</v>
       </c>
       <c r="AX24" s="20" t="n">
-        <v>228682</v>
+        <v>204651</v>
       </c>
       <c r="AY24" s="20" t="n">
-        <v>204651</v>
+        <v>163300</v>
       </c>
       <c r="AZ24" s="20" t="n">
-        <v>163300</v>
+        <v>238113</v>
       </c>
       <c r="BA24" s="20" t="n">
-        <v>238113</v>
+        <v>303266</v>
       </c>
       <c r="BB24" s="20" t="n">
-        <v>303266</v>
+        <v>264333</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,8 +5499,8 @@
       <c r="T26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="20" t="s">
-        <v>58</v>
+      <c r="U26" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V26" s="20" t="n">
         <v>0</v>
@@ -5657,106 +5657,106 @@
         <v>0</v>
       </c>
       <c r="U27" s="18" t="n">
-        <v>0</v>
+        <v>438756</v>
       </c>
       <c r="V27" s="18" t="n">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="W27" s="18" t="n">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="X27" s="18" t="n">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="Y27" s="18" t="n">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="Z27" s="18" t="n">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AA27" s="18" t="n">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AB27" s="18" t="n">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AC27" s="18" t="n">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AD27" s="18" t="n">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AE27" s="18" t="n">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AF27" s="18" t="n">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AG27" s="18" t="n">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AH27" s="18" t="n">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AI27" s="18" t="n">
-        <v>416972</v>
+        <v>423324</v>
       </c>
       <c r="AJ27" s="18" t="n">
-        <v>423324</v>
+        <v>357970</v>
       </c>
       <c r="AK27" s="18" t="n">
-        <v>357970</v>
+        <v>343044</v>
       </c>
       <c r="AL27" s="18" t="n">
-        <v>343044</v>
+        <v>347719</v>
       </c>
       <c r="AM27" s="18" t="n">
-        <v>347719</v>
+        <v>475565</v>
       </c>
       <c r="AN27" s="18" t="n">
-        <v>475565</v>
+        <v>458425</v>
       </c>
       <c r="AO27" s="18" t="n">
-        <v>458425</v>
+        <v>469865</v>
       </c>
       <c r="AP27" s="18" t="n">
-        <v>469865</v>
+        <v>471374</v>
       </c>
       <c r="AQ27" s="18" t="n">
-        <v>471374</v>
+        <v>468352</v>
       </c>
       <c r="AR27" s="18" t="n">
-        <v>468352</v>
+        <v>537201</v>
       </c>
       <c r="AS27" s="18" t="n">
-        <v>537201</v>
+        <v>604819</v>
       </c>
       <c r="AT27" s="18" t="n">
-        <v>604819</v>
+        <v>619205</v>
       </c>
       <c r="AU27" s="18" t="n">
-        <v>619205</v>
+        <v>685773</v>
       </c>
       <c r="AV27" s="18" t="n">
-        <v>685773</v>
+        <v>700736</v>
       </c>
       <c r="AW27" s="18" t="n">
-        <v>700736</v>
+        <v>659944</v>
       </c>
       <c r="AX27" s="18" t="n">
-        <v>659944</v>
+        <v>727776</v>
       </c>
       <c r="AY27" s="18" t="n">
-        <v>727776</v>
+        <v>503832</v>
       </c>
       <c r="AZ27" s="18" t="n">
-        <v>503832</v>
+        <v>565968</v>
       </c>
       <c r="BA27" s="18" t="n">
-        <v>565968</v>
+        <v>618032</v>
       </c>
       <c r="BB27" s="18" t="n">
-        <v>618032</v>
+        <v>573427</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6291,29 +6291,29 @@
       <c r="AH34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ34" s="13" t="n">
+      <c r="AI34" s="13" t="n">
         <v>8548</v>
       </c>
+      <c r="AJ34" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK34" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AL34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM34" s="13" t="s">
-        <v>58</v>
+      <c r="AM34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="13" t="s">
-        <v>58</v>
+      <c r="AO34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ34" s="13" t="n">
         <v>0</v>
@@ -6408,77 +6408,77 @@
       <c r="T35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="16" t="s">
-        <v>58</v>
+      <c r="U35" s="16" t="n">
+        <v>100868</v>
       </c>
       <c r="V35" s="16" t="n">
-        <v>100868</v>
+        <v>114637</v>
       </c>
       <c r="W35" s="16" t="n">
-        <v>114637</v>
+        <v>138288</v>
       </c>
       <c r="X35" s="16" t="n">
-        <v>138288</v>
+        <v>12062</v>
       </c>
       <c r="Y35" s="16" t="n">
-        <v>12062</v>
+        <v>8629</v>
       </c>
       <c r="Z35" s="16" t="n">
-        <v>8629</v>
+        <v>63900</v>
       </c>
       <c r="AA35" s="16" t="n">
-        <v>63900</v>
+        <v>46960</v>
       </c>
       <c r="AB35" s="16" t="n">
-        <v>46960</v>
+        <v>85873</v>
       </c>
       <c r="AC35" s="16" t="n">
-        <v>85873</v>
+        <v>63039</v>
       </c>
       <c r="AD35" s="16" t="n">
-        <v>63039</v>
+        <v>24487</v>
       </c>
       <c r="AE35" s="16" t="n">
-        <v>24487</v>
+        <v>78013</v>
       </c>
       <c r="AF35" s="16" t="n">
-        <v>78013</v>
+        <v>127073</v>
       </c>
       <c r="AG35" s="16" t="n">
-        <v>127073</v>
+        <v>134350</v>
       </c>
       <c r="AH35" s="16" t="n">
-        <v>134350</v>
+        <v>120139</v>
       </c>
       <c r="AI35" s="16" t="n">
-        <v>120139</v>
+        <v>94284</v>
       </c>
       <c r="AJ35" s="16" t="n">
-        <v>94284</v>
+        <v>86477</v>
       </c>
       <c r="AK35" s="16" t="n">
-        <v>86477</v>
+        <v>105399</v>
       </c>
       <c r="AL35" s="16" t="n">
-        <v>105399</v>
+        <v>79148</v>
       </c>
       <c r="AM35" s="16" t="n">
-        <v>79148</v>
+        <v>82595</v>
       </c>
       <c r="AN35" s="16" t="n">
-        <v>82595</v>
-      </c>
-      <c r="AO35" s="16" t="n">
         <v>160919</v>
       </c>
-      <c r="AP35" s="16" t="s">
-        <v>58</v>
+      <c r="AO35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP35" s="16" t="n">
+        <v>17466</v>
       </c>
       <c r="AQ35" s="16" t="n">
-        <v>17466</v>
-      </c>
-      <c r="AR35" s="16" t="n">
         <v>90668</v>
+      </c>
+      <c r="AR35" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS35" s="16" t="s">
         <v>58</v>
@@ -6567,107 +6567,107 @@
       <c r="T36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="13" t="s">
-        <v>58</v>
+      <c r="U36" s="13" t="n">
+        <v>44591</v>
       </c>
       <c r="V36" s="13" t="n">
-        <v>44591</v>
+        <v>44268</v>
       </c>
       <c r="W36" s="13" t="n">
-        <v>44268</v>
+        <v>23577</v>
       </c>
       <c r="X36" s="13" t="n">
-        <v>23577</v>
+        <v>565</v>
       </c>
       <c r="Y36" s="13" t="n">
-        <v>565</v>
+        <v>28037</v>
       </c>
       <c r="Z36" s="13" t="n">
-        <v>28037</v>
+        <v>46034</v>
       </c>
       <c r="AA36" s="13" t="n">
-        <v>46034</v>
+        <v>24202</v>
       </c>
       <c r="AB36" s="13" t="n">
-        <v>24202</v>
+        <v>9485</v>
       </c>
       <c r="AC36" s="13" t="n">
-        <v>9485</v>
+        <v>37541</v>
       </c>
       <c r="AD36" s="13" t="n">
-        <v>37541</v>
+        <v>19470</v>
       </c>
       <c r="AE36" s="13" t="n">
-        <v>19470</v>
+        <v>13539</v>
       </c>
       <c r="AF36" s="13" t="n">
-        <v>13539</v>
+        <v>88254</v>
       </c>
       <c r="AG36" s="13" t="n">
-        <v>88254</v>
+        <v>87144</v>
       </c>
       <c r="AH36" s="13" t="n">
-        <v>87144</v>
+        <v>5587</v>
       </c>
       <c r="AI36" s="13" t="n">
-        <v>5587</v>
+        <v>793</v>
       </c>
       <c r="AJ36" s="13" t="n">
-        <v>793</v>
+        <v>79050</v>
       </c>
       <c r="AK36" s="13" t="n">
-        <v>79050</v>
+        <v>86718</v>
       </c>
       <c r="AL36" s="13" t="n">
-        <v>86718</v>
+        <v>78429</v>
       </c>
       <c r="AM36" s="13" t="n">
-        <v>78429</v>
+        <v>17466</v>
       </c>
       <c r="AN36" s="13" t="n">
-        <v>17466</v>
+        <v>8574</v>
       </c>
       <c r="AO36" s="13" t="n">
-        <v>8574</v>
+        <v>10360</v>
       </c>
       <c r="AP36" s="13" t="n">
-        <v>10360</v>
+        <v>9699</v>
       </c>
       <c r="AQ36" s="13" t="n">
-        <v>9699</v>
+        <v>117711</v>
       </c>
       <c r="AR36" s="13" t="n">
-        <v>117711</v>
+        <v>32658</v>
       </c>
       <c r="AS36" s="13" t="n">
-        <v>32658</v>
+        <v>169136</v>
       </c>
       <c r="AT36" s="13" t="n">
-        <v>169136</v>
+        <v>70949</v>
       </c>
       <c r="AU36" s="13" t="n">
-        <v>70949</v>
+        <v>24646</v>
       </c>
       <c r="AV36" s="13" t="n">
-        <v>24646</v>
+        <v>47354</v>
       </c>
       <c r="AW36" s="13" t="n">
-        <v>47354</v>
+        <v>42004</v>
       </c>
       <c r="AX36" s="13" t="n">
-        <v>42004</v>
+        <v>25389</v>
       </c>
       <c r="AY36" s="13" t="n">
-        <v>25389</v>
+        <v>15107</v>
       </c>
       <c r="AZ36" s="13" t="n">
-        <v>15107</v>
+        <v>61979</v>
       </c>
       <c r="BA36" s="13" t="n">
-        <v>61979</v>
+        <v>35710</v>
       </c>
       <c r="BB36" s="13" t="n">
-        <v>35710</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6726,107 +6726,107 @@
       <c r="T37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="16" t="s">
-        <v>58</v>
+      <c r="U37" s="16" t="n">
+        <v>106836</v>
       </c>
       <c r="V37" s="16" t="n">
-        <v>106836</v>
+        <v>107249</v>
       </c>
       <c r="W37" s="16" t="n">
-        <v>107249</v>
+        <v>107622</v>
       </c>
       <c r="X37" s="16" t="n">
-        <v>107622</v>
+        <v>123238</v>
       </c>
       <c r="Y37" s="16" t="n">
-        <v>123238</v>
+        <v>126997</v>
       </c>
       <c r="Z37" s="16" t="n">
-        <v>126997</v>
+        <v>161175</v>
       </c>
       <c r="AA37" s="16" t="n">
-        <v>161175</v>
+        <v>125210</v>
       </c>
       <c r="AB37" s="16" t="n">
-        <v>125210</v>
+        <v>100766</v>
       </c>
       <c r="AC37" s="16" t="n">
-        <v>100766</v>
+        <v>160646</v>
       </c>
       <c r="AD37" s="16" t="n">
-        <v>160646</v>
+        <v>95101</v>
       </c>
       <c r="AE37" s="16" t="n">
-        <v>95101</v>
+        <v>99895</v>
       </c>
       <c r="AF37" s="16" t="n">
-        <v>99895</v>
+        <v>124900</v>
       </c>
       <c r="AG37" s="16" t="n">
-        <v>124900</v>
+        <v>128384</v>
       </c>
       <c r="AH37" s="16" t="n">
-        <v>128384</v>
+        <v>137472</v>
       </c>
       <c r="AI37" s="16" t="n">
-        <v>137472</v>
+        <v>142473</v>
       </c>
       <c r="AJ37" s="16" t="n">
-        <v>142473</v>
+        <v>133022</v>
       </c>
       <c r="AK37" s="16" t="n">
-        <v>133022</v>
+        <v>106078</v>
       </c>
       <c r="AL37" s="16" t="n">
-        <v>106078</v>
+        <v>114019</v>
       </c>
       <c r="AM37" s="16" t="n">
-        <v>114019</v>
+        <v>137856</v>
       </c>
       <c r="AN37" s="16" t="n">
-        <v>137856</v>
+        <v>198455</v>
       </c>
       <c r="AO37" s="16" t="n">
-        <v>198455</v>
+        <v>241615</v>
       </c>
       <c r="AP37" s="16" t="n">
-        <v>241615</v>
+        <v>127998</v>
       </c>
       <c r="AQ37" s="16" t="n">
-        <v>127998</v>
+        <v>163468</v>
       </c>
       <c r="AR37" s="16" t="n">
-        <v>163468</v>
+        <v>343116</v>
       </c>
       <c r="AS37" s="16" t="n">
-        <v>343116</v>
+        <v>346212</v>
       </c>
       <c r="AT37" s="16" t="n">
-        <v>346212</v>
+        <v>387960</v>
       </c>
       <c r="AU37" s="16" t="n">
-        <v>387960</v>
+        <v>367414</v>
       </c>
       <c r="AV37" s="16" t="n">
-        <v>367414</v>
+        <v>329123</v>
       </c>
       <c r="AW37" s="16" t="n">
-        <v>329123</v>
+        <v>303077</v>
       </c>
       <c r="AX37" s="16" t="n">
-        <v>303077</v>
+        <v>386723</v>
       </c>
       <c r="AY37" s="16" t="n">
-        <v>386723</v>
+        <v>352773</v>
       </c>
       <c r="AZ37" s="16" t="n">
-        <v>352773</v>
+        <v>428146</v>
       </c>
       <c r="BA37" s="16" t="n">
-        <v>428146</v>
+        <v>413205</v>
       </c>
       <c r="BB37" s="16" t="n">
-        <v>413205</v>
+        <v>300118</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,17 +6894,17 @@
       <c r="W38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="X38" s="13" t="n">
+        <v>38913</v>
       </c>
       <c r="Y38" s="13" t="n">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="Z38" s="13" t="n">
-        <v>21560</v>
+        <v>755</v>
       </c>
       <c r="AA38" s="13" t="n">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="13" t="n">
         <v>0</v>
@@ -6912,8 +6912,8 @@
       <c r="AC38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD38" s="13" t="n">
-        <v>0</v>
+      <c r="AD38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE38" s="13" t="s">
         <v>58</v>
@@ -6939,17 +6939,17 @@
       <c r="AL38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM38" s="13" t="s">
-        <v>58</v>
+      <c r="AM38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="13" t="s">
-        <v>58</v>
+      <c r="AO38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ38" s="13" t="n">
         <v>0</v>
@@ -7044,8 +7044,8 @@
       <c r="T39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="16" t="s">
-        <v>58</v>
+      <c r="U39" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="16" t="n">
         <v>0</v>
@@ -7071,8 +7071,8 @@
       <c r="AC39" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD39" s="16" t="n">
-        <v>0</v>
+      <c r="AD39" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE39" s="16" t="s">
         <v>58</v>
@@ -7263,47 +7263,47 @@
       <c r="AN40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP40" s="13" t="n">
+      <c r="AO40" s="13" t="n">
         <v>91235</v>
       </c>
+      <c r="AP40" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
+      <c r="AR40" s="13" t="n">
+        <v>126359</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>126359</v>
+        <v>102648</v>
       </c>
       <c r="AT40" s="13" t="n">
-        <v>102648</v>
+        <v>62116</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>62116</v>
+        <v>21167</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>21167</v>
+        <v>139622</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>139622</v>
+        <v>114731</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>114731</v>
+        <v>42794</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>42794</v>
+        <v>49164</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>49164</v>
+        <v>7793</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>7793</v>
+        <v>24259</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>24259</v>
+        <v>27922</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7361,106 +7361,106 @@
         <v>0</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>0</v>
+        <v>252295</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>252295</v>
+        <v>266154</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>266154</v>
+        <v>269487</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>269487</v>
+        <v>174778</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>174778</v>
+        <v>185223</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>185223</v>
+        <v>271864</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>271864</v>
+        <v>196372</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>196372</v>
+        <v>196124</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>196124</v>
+        <v>261226</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>261226</v>
+        <v>139058</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>139058</v>
+        <v>191447</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>191447</v>
+        <v>340227</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>340227</v>
+        <v>349878</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>349878</v>
+        <v>263198</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>263198</v>
+        <v>246098</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>246098</v>
+        <v>298549</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>298549</v>
+        <v>298195</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>298195</v>
+        <v>271596</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>271596</v>
+        <v>237917</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>237917</v>
+        <v>367948</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>367948</v>
+        <v>343210</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>343210</v>
+        <v>155163</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>155163</v>
+        <v>371847</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>371847</v>
+        <v>502133</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>502133</v>
+        <v>617996</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>617996</v>
+        <v>521025</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>521025</v>
+        <v>413227</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>413227</v>
+        <v>516099</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>516099</v>
+        <v>459812</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>459812</v>
+        <v>454906</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>454906</v>
+        <v>417044</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>417044</v>
+        <v>497918</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>497918</v>
+        <v>473174</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>473174</v>
+        <v>331313</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7576,77 +7576,77 @@
       <c r="T43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="13" t="s">
-        <v>58</v>
+      <c r="U43" s="13" t="n">
+        <v>82000</v>
       </c>
       <c r="V43" s="13" t="n">
-        <v>82000</v>
+        <v>66745</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>66745</v>
+        <v>53811</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>53811</v>
+        <v>89598</v>
       </c>
       <c r="Y43" s="13" t="n">
-        <v>89598</v>
+        <v>113383</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>113383</v>
+        <v>76770</v>
       </c>
       <c r="AA43" s="13" t="n">
-        <v>76770</v>
+        <v>64286</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>64286</v>
+        <v>13590</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>13590</v>
+        <v>77935</v>
       </c>
       <c r="AD43" s="13" t="n">
-        <v>77935</v>
+        <v>73156</v>
       </c>
       <c r="AE43" s="13" t="n">
-        <v>73156</v>
+        <v>96526</v>
       </c>
       <c r="AF43" s="13" t="n">
-        <v>96526</v>
+        <v>58845</v>
       </c>
       <c r="AG43" s="13" t="n">
-        <v>58845</v>
+        <v>2434</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>2434</v>
+        <v>30656</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>30656</v>
+        <v>53400</v>
       </c>
       <c r="AJ43" s="13" t="n">
-        <v>53400</v>
+        <v>64579</v>
       </c>
       <c r="AK43" s="13" t="n">
-        <v>64579</v>
+        <v>93959</v>
       </c>
       <c r="AL43" s="13" t="n">
-        <v>93959</v>
+        <v>73973</v>
       </c>
       <c r="AM43" s="13" t="n">
-        <v>73973</v>
+        <v>48630</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>48630</v>
-      </c>
-      <c r="AO43" s="13" t="n">
         <v>13665</v>
       </c>
-      <c r="AP43" s="13" t="s">
-        <v>58</v>
+      <c r="AO43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP43" s="13" t="n">
+        <v>103771</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>103771</v>
-      </c>
-      <c r="AR43" s="13" t="n">
         <v>129216</v>
+      </c>
+      <c r="AR43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS43" s="13" t="s">
         <v>58</v>
@@ -7735,107 +7735,107 @@
       <c r="T44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="16" t="s">
-        <v>58</v>
+      <c r="U44" s="16" t="n">
+        <v>128072</v>
       </c>
       <c r="V44" s="16" t="n">
-        <v>128072</v>
+        <v>113317</v>
       </c>
       <c r="W44" s="16" t="n">
-        <v>113317</v>
+        <v>124248</v>
       </c>
       <c r="X44" s="16" t="n">
-        <v>124248</v>
+        <v>135662</v>
       </c>
       <c r="Y44" s="16" t="n">
-        <v>135662</v>
+        <v>99327</v>
       </c>
       <c r="Z44" s="16" t="n">
-        <v>99327</v>
+        <v>118255</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>118255</v>
+        <v>139203</v>
       </c>
       <c r="AB44" s="16" t="n">
-        <v>139203</v>
+        <v>140893</v>
       </c>
       <c r="AC44" s="16" t="n">
-        <v>140893</v>
+        <v>99124</v>
       </c>
       <c r="AD44" s="16" t="n">
-        <v>99124</v>
+        <v>51233</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>51233</v>
+        <v>119771</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>119771</v>
+        <v>10297</v>
       </c>
       <c r="AG44" s="16" t="n">
-        <v>10297</v>
+        <v>2627</v>
       </c>
       <c r="AH44" s="16" t="n">
-        <v>2627</v>
+        <v>122778</v>
       </c>
       <c r="AI44" s="16" t="n">
-        <v>122778</v>
+        <v>119828</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>119828</v>
+        <v>18467</v>
       </c>
       <c r="AK44" s="16" t="n">
-        <v>18467</v>
+        <v>4025</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>4025</v>
+        <v>21975</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>21975</v>
+        <v>119267</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>119267</v>
+        <v>79381</v>
       </c>
       <c r="AO44" s="16" t="n">
-        <v>79381</v>
+        <v>37919</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>37919</v>
+        <v>8942</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>8942</v>
+        <v>10960</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>10960</v>
+        <v>110274</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>110274</v>
+        <v>104363</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>104363</v>
+        <v>45721</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>45721</v>
+        <v>15524</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>15524</v>
+        <v>40283</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>40283</v>
+        <v>39457</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>39457</v>
+        <v>27691</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>27691</v>
+        <v>48257</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>48257</v>
+        <v>124011</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>124011</v>
+        <v>120234</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>120234</v>
+        <v>98820</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7894,107 +7894,107 @@
       <c r="T45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>58</v>
+      <c r="U45" s="13" t="n">
+        <v>2380</v>
       </c>
       <c r="V45" s="13" t="n">
-        <v>2380</v>
+        <v>0</v>
       </c>
       <c r="W45" s="13" t="n">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="X45" s="13" t="n">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>17</v>
+        <v>5022</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>5022</v>
+        <v>350</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>350</v>
+        <v>4815</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>4815</v>
+        <v>67</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>67</v>
+        <v>9712</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>9712</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>881</v>
-      </c>
-      <c r="AH45" s="13" t="n">
         <v>3459</v>
       </c>
-      <c r="AI45" s="13" t="s">
-        <v>58</v>
+      <c r="AH45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI45" s="13" t="n">
+        <v>1036</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>1036</v>
+        <v>1924</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>1924</v>
+        <v>2045</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>2045</v>
+        <v>319</v>
       </c>
       <c r="AM45" s="13" t="n">
-        <v>319</v>
+        <v>8700</v>
       </c>
       <c r="AN45" s="13" t="n">
-        <v>8700</v>
+        <v>10270</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>10270</v>
+        <v>7763</v>
       </c>
       <c r="AP45" s="13" t="n">
-        <v>7763</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR45" s="13" t="n">
-        <v>0</v>
+        <v>3647</v>
       </c>
       <c r="AS45" s="13" t="n">
-        <v>3647</v>
+        <v>6228</v>
       </c>
       <c r="AT45" s="13" t="n">
-        <v>6228</v>
+        <v>6868</v>
       </c>
       <c r="AU45" s="13" t="n">
-        <v>6868</v>
+        <v>7669</v>
       </c>
       <c r="AV45" s="13" t="n">
-        <v>7669</v>
+        <v>17761</v>
       </c>
       <c r="AW45" s="13" t="n">
-        <v>17761</v>
+        <v>61019</v>
       </c>
       <c r="AX45" s="13" t="n">
-        <v>61019</v>
+        <v>50345</v>
       </c>
       <c r="AY45" s="13" t="n">
-        <v>50345</v>
+        <v>52038</v>
       </c>
       <c r="AZ45" s="13" t="n">
-        <v>52038</v>
+        <v>66827</v>
       </c>
       <c r="BA45" s="13" t="n">
-        <v>66827</v>
+        <v>65489</v>
       </c>
       <c r="BB45" s="13" t="n">
-        <v>65489</v>
+        <v>36883</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8113,47 +8113,47 @@
       <c r="AN46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO46" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP46" s="16" t="n">
+      <c r="AO46" s="16" t="n">
         <v>80251</v>
       </c>
+      <c r="AP46" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="16" t="s">
-        <v>58</v>
+      <c r="AR46" s="16" t="n">
+        <v>71697</v>
       </c>
       <c r="AS46" s="16" t="n">
-        <v>71697</v>
+        <v>31885</v>
       </c>
       <c r="AT46" s="16" t="n">
-        <v>31885</v>
+        <v>65865</v>
       </c>
       <c r="AU46" s="16" t="n">
-        <v>65865</v>
+        <v>52666</v>
       </c>
       <c r="AV46" s="16" t="n">
-        <v>52666</v>
+        <v>46801</v>
       </c>
       <c r="AW46" s="16" t="n">
-        <v>46801</v>
+        <v>128206</v>
       </c>
       <c r="AX46" s="16" t="n">
-        <v>128206</v>
+        <v>126615</v>
       </c>
       <c r="AY46" s="16" t="n">
-        <v>126615</v>
+        <v>87562</v>
       </c>
       <c r="AZ46" s="16" t="n">
-        <v>87562</v>
+        <v>67496</v>
       </c>
       <c r="BA46" s="16" t="n">
-        <v>67496</v>
+        <v>130948</v>
       </c>
       <c r="BB46" s="16" t="n">
-        <v>130948</v>
+        <v>128630</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8211,106 +8211,106 @@
         <v>0</v>
       </c>
       <c r="U47" s="20" t="n">
-        <v>0</v>
+        <v>212452</v>
       </c>
       <c r="V47" s="20" t="n">
-        <v>212452</v>
+        <v>180062</v>
       </c>
       <c r="W47" s="20" t="n">
-        <v>180062</v>
+        <v>183959</v>
       </c>
       <c r="X47" s="20" t="n">
-        <v>183959</v>
+        <v>225260</v>
       </c>
       <c r="Y47" s="20" t="n">
-        <v>225260</v>
+        <v>212727</v>
       </c>
       <c r="Z47" s="20" t="n">
-        <v>212727</v>
+        <v>200047</v>
       </c>
       <c r="AA47" s="20" t="n">
-        <v>200047</v>
+        <v>203839</v>
       </c>
       <c r="AB47" s="20" t="n">
-        <v>203839</v>
+        <v>159298</v>
       </c>
       <c r="AC47" s="20" t="n">
-        <v>159298</v>
+        <v>177126</v>
       </c>
       <c r="AD47" s="20" t="n">
-        <v>177126</v>
+        <v>134101</v>
       </c>
       <c r="AE47" s="20" t="n">
-        <v>134101</v>
+        <v>216297</v>
       </c>
       <c r="AF47" s="20" t="n">
-        <v>216297</v>
+        <v>70023</v>
       </c>
       <c r="AG47" s="20" t="n">
-        <v>70023</v>
+        <v>8520</v>
       </c>
       <c r="AH47" s="20" t="n">
-        <v>8520</v>
+        <v>153434</v>
       </c>
       <c r="AI47" s="20" t="n">
-        <v>153434</v>
+        <v>174264</v>
       </c>
       <c r="AJ47" s="20" t="n">
-        <v>174264</v>
+        <v>84970</v>
       </c>
       <c r="AK47" s="20" t="n">
-        <v>84970</v>
+        <v>100029</v>
       </c>
       <c r="AL47" s="20" t="n">
-        <v>100029</v>
+        <v>96267</v>
       </c>
       <c r="AM47" s="20" t="n">
-        <v>96267</v>
+        <v>176597</v>
       </c>
       <c r="AN47" s="20" t="n">
-        <v>176597</v>
+        <v>103316</v>
       </c>
       <c r="AO47" s="20" t="n">
-        <v>103316</v>
+        <v>125933</v>
       </c>
       <c r="AP47" s="20" t="n">
-        <v>125933</v>
+        <v>112713</v>
       </c>
       <c r="AQ47" s="20" t="n">
-        <v>112713</v>
+        <v>140176</v>
       </c>
       <c r="AR47" s="20" t="n">
-        <v>140176</v>
+        <v>185618</v>
       </c>
       <c r="AS47" s="20" t="n">
-        <v>185618</v>
+        <v>142476</v>
       </c>
       <c r="AT47" s="20" t="n">
-        <v>142476</v>
+        <v>118454</v>
       </c>
       <c r="AU47" s="20" t="n">
-        <v>118454</v>
+        <v>75859</v>
       </c>
       <c r="AV47" s="20" t="n">
-        <v>75859</v>
+        <v>104845</v>
       </c>
       <c r="AW47" s="20" t="n">
-        <v>104845</v>
+        <v>228682</v>
       </c>
       <c r="AX47" s="20" t="n">
-        <v>228682</v>
+        <v>204651</v>
       </c>
       <c r="AY47" s="20" t="n">
-        <v>204651</v>
+        <v>187857</v>
       </c>
       <c r="AZ47" s="20" t="n">
-        <v>187857</v>
+        <v>258334</v>
       </c>
       <c r="BA47" s="20" t="n">
-        <v>258334</v>
+        <v>316671</v>
       </c>
       <c r="BB47" s="20" t="n">
-        <v>316671</v>
+        <v>264333</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8424,8 +8424,8 @@
       <c r="T49" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="20" t="s">
-        <v>58</v>
+      <c r="U49" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="20" t="n">
         <v>0</v>
@@ -8640,77 +8640,77 @@
       <c r="T51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="13" t="s">
-        <v>58</v>
+      <c r="U51" s="13" t="n">
+        <v>-464</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>-464</v>
+        <v>-7607</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>-7607</v>
+        <v>-176</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>-176</v>
+        <v>-431</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>-431</v>
+        <v>-10776</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>-10776</v>
+        <v>-2346</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>-2346</v>
+        <v>-123</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>-123</v>
+        <v>-290</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>-290</v>
+        <v>-4843</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>-4843</v>
+        <v>-2116</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>-2116</v>
+        <v>-1102</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>-1102</v>
+        <v>-11641</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>-11641</v>
+        <v>-429</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>-429</v>
+        <v>-2438</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>-2438</v>
+        <v>-651</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>-651</v>
+        <v>-5960</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>-5960</v>
+        <v>-11146</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>-11146</v>
+        <v>-4086</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>-4086</v>
+        <v>-4663</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>-4663</v>
-      </c>
-      <c r="AO51" s="13" t="n">
         <v>-12653</v>
       </c>
-      <c r="AP51" s="13" t="s">
-        <v>58</v>
+      <c r="AO51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP51" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="13" t="n">
         <v>-208</v>
+      </c>
+      <c r="AR51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS51" s="13" t="s">
         <v>58</v>
@@ -8799,107 +8799,107 @@
       <c r="T52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>58</v>
+      <c r="U52" s="16" t="n">
+        <v>-421</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>-421</v>
+        <v>-24337</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>-24337</v>
+        <v>-21841</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>-21841</v>
+        <v>-14762</v>
       </c>
       <c r="Y52" s="16" t="n">
-        <v>-14762</v>
+        <v>-19973</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>-19973</v>
+        <v>-9722</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>-9722</v>
+        <v>-6098</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>-6098</v>
+        <v>-3575</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>-3575</v>
+        <v>-13970</v>
       </c>
       <c r="AD52" s="16" t="n">
-        <v>-13970</v>
+        <v>-1251</v>
       </c>
       <c r="AE52" s="16" t="n">
-        <v>-1251</v>
+        <v>-1953</v>
       </c>
       <c r="AF52" s="16" t="n">
-        <v>-1953</v>
+        <v>-5202</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>-5202</v>
+        <v>-5333</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>-5333</v>
+        <v>-385</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>-385</v>
-      </c>
-      <c r="AJ52" s="16" t="n">
         <v>-2869</v>
       </c>
-      <c r="AK52" s="16" t="s">
-        <v>58</v>
+      <c r="AJ52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK52" s="16" t="n">
+        <v>-3265</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>-3265</v>
+        <v>-12598</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>-12598</v>
+        <v>-11154</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>-11154</v>
+        <v>-19180</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>-19180</v>
+        <v>-7045</v>
       </c>
       <c r="AP52" s="16" t="n">
-        <v>-7045</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>0</v>
+        <v>-3116</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>-3116</v>
+        <v>-7140</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>-7140</v>
+        <v>-11844</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>-11844</v>
+        <v>-12150</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>-12150</v>
+        <v>-13879</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>-13879</v>
+        <v>-5581</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>-5581</v>
+        <v>-11947</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>-11947</v>
+        <v>-10506</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>-10506</v>
+        <v>-8955</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>-8955</v>
+        <v>-4582</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>-4582</v>
+        <v>-13681</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>-13681</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8958,107 +8958,107 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>-376</v>
+        <v>-5034</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>-5034</v>
+        <v>-356</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>-356</v>
+        <v>-5137</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>-5137</v>
+        <v>-4</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>-4</v>
+        <v>-18858</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>-18858</v>
+        <v>-679</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>-679</v>
+        <v>-980</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>-980</v>
+        <v>-1472</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>-1472</v>
+        <v>-1570</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>-1570</v>
+        <v>-2199</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>-2199</v>
+        <v>-5918</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>-5918</v>
+        <v>-5967</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>-5967</v>
+        <v>-2748</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>-2748</v>
+        <v>-11144</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>-11144</v>
+        <v>-506</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>-506</v>
+        <v>-453</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>-453</v>
+        <v>-7790</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>-7790</v>
+        <v>-17454</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>-17454</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>0</v>
+        <v>-1204</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>-1204</v>
+        <v>-17703</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>-17703</v>
+        <v>-11935</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>-11935</v>
+        <v>-33858</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>-33858</v>
+        <v>-13076</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>-13076</v>
+        <v>-28613</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>-28613</v>
+        <v>-19851</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>-19851</v>
+        <v>-13109</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>-13109</v>
+        <v>-35820</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>-35820</v>
+        <v>-94677</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>-94677</v>
+        <v>-75955</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>-75955</v>
+        <v>-17802</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9132,11 +9132,11 @@
       <c r="Y54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z54" s="16" t="s">
-        <v>58</v>
+      <c r="Z54" s="16" t="n">
+        <v>-40000</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="16" t="n">
         <v>0</v>
@@ -9144,8 +9144,8 @@
       <c r="AC54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD54" s="16" t="n">
-        <v>0</v>
+      <c r="AD54" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE54" s="16" t="s">
         <v>58</v>
@@ -9171,14 +9171,14 @@
       <c r="AL54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM54" s="16" t="s">
-        <v>58</v>
+      <c r="AM54" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" s="16" t="n">
-        <v>0</v>
+      <c r="AO54" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP54" s="16" t="s">
         <v>58</v>
@@ -9336,47 +9336,47 @@
       <c r="AN55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP55" s="13" t="n">
+      <c r="AO55" s="13" t="n">
         <v>-17028</v>
       </c>
+      <c r="AP55" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="13" t="s">
-        <v>58</v>
+      <c r="AR55" s="13" t="n">
+        <v>-11605</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>-11605</v>
+        <v>-11824</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>-11824</v>
+        <v>-14299</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>-14299</v>
+        <v>-352</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>-352</v>
+        <v>-4591</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>-4591</v>
+        <v>-11989</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>-11989</v>
+        <v>-34019</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>-34019</v>
+        <v>-612</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>-612</v>
+        <v>-3266</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>-3266</v>
+        <v>-6110</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>-6110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9433,107 +9433,107 @@
       <c r="T56" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="18" t="s">
-        <v>58</v>
+      <c r="U56" s="18" t="n">
+        <v>-885</v>
       </c>
       <c r="V56" s="18" t="n">
-        <v>-885</v>
+        <v>-31944</v>
       </c>
       <c r="W56" s="18" t="n">
-        <v>-31944</v>
+        <v>-22393</v>
       </c>
       <c r="X56" s="18" t="n">
-        <v>-22393</v>
+        <v>-20227</v>
       </c>
       <c r="Y56" s="18" t="n">
-        <v>-20227</v>
+        <v>-31105</v>
       </c>
       <c r="Z56" s="18" t="n">
-        <v>-31105</v>
+        <v>-57205</v>
       </c>
       <c r="AA56" s="18" t="n">
-        <v>-57205</v>
+        <v>-6225</v>
       </c>
       <c r="AB56" s="18" t="n">
-        <v>-6225</v>
+        <v>-22723</v>
       </c>
       <c r="AC56" s="18" t="n">
-        <v>-22723</v>
+        <v>-19492</v>
       </c>
       <c r="AD56" s="18" t="n">
-        <v>-19492</v>
+        <v>-4347</v>
       </c>
       <c r="AE56" s="18" t="n">
-        <v>-4347</v>
+        <v>-4527</v>
       </c>
       <c r="AF56" s="18" t="n">
-        <v>-4527</v>
+        <v>-18413</v>
       </c>
       <c r="AG56" s="18" t="n">
-        <v>-18413</v>
+        <v>-7961</v>
       </c>
       <c r="AH56" s="18" t="n">
-        <v>-7961</v>
+        <v>-8741</v>
       </c>
       <c r="AI56" s="18" t="n">
-        <v>-8741</v>
+        <v>-9487</v>
       </c>
       <c r="AJ56" s="18" t="n">
-        <v>-9487</v>
+        <v>-8708</v>
       </c>
       <c r="AK56" s="18" t="n">
-        <v>-8708</v>
+        <v>-25555</v>
       </c>
       <c r="AL56" s="18" t="n">
-        <v>-25555</v>
+        <v>-17190</v>
       </c>
       <c r="AM56" s="18" t="n">
-        <v>-17190</v>
+        <v>-16270</v>
       </c>
       <c r="AN56" s="18" t="n">
-        <v>-16270</v>
+        <v>-39623</v>
       </c>
       <c r="AO56" s="18" t="n">
-        <v>-39623</v>
+        <v>-41527</v>
       </c>
       <c r="AP56" s="18" t="n">
-        <v>-41527</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="18" t="n">
-        <v>0</v>
+        <v>-4528</v>
       </c>
       <c r="AR56" s="18" t="n">
-        <v>-4528</v>
+        <v>-36448</v>
       </c>
       <c r="AS56" s="18" t="n">
-        <v>-36448</v>
+        <v>-35603</v>
       </c>
       <c r="AT56" s="18" t="n">
-        <v>-35603</v>
+        <v>-60307</v>
       </c>
       <c r="AU56" s="18" t="n">
-        <v>-60307</v>
+        <v>-27307</v>
       </c>
       <c r="AV56" s="18" t="n">
-        <v>-27307</v>
+        <v>-38785</v>
       </c>
       <c r="AW56" s="18" t="n">
-        <v>-38785</v>
+        <v>-43787</v>
       </c>
       <c r="AX56" s="18" t="n">
-        <v>-43787</v>
+        <v>-57634</v>
       </c>
       <c r="AY56" s="18" t="n">
-        <v>-57634</v>
+        <v>-45387</v>
       </c>
       <c r="AZ56" s="18" t="n">
-        <v>-45387</v>
+        <v>-102525</v>
       </c>
       <c r="BA56" s="18" t="n">
-        <v>-102525</v>
+        <v>-95746</v>
       </c>
       <c r="BB56" s="18" t="n">
-        <v>-95746</v>
+        <v>-17998</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9591,106 +9591,106 @@
         <v>0</v>
       </c>
       <c r="U57" s="20" t="n">
-        <v>0</v>
+        <v>463862</v>
       </c>
       <c r="V57" s="20" t="n">
-        <v>463862</v>
+        <v>414272</v>
       </c>
       <c r="W57" s="20" t="n">
-        <v>414272</v>
+        <v>431053</v>
       </c>
       <c r="X57" s="20" t="n">
-        <v>431053</v>
+        <v>379811</v>
       </c>
       <c r="Y57" s="20" t="n">
-        <v>379811</v>
+        <v>366845</v>
       </c>
       <c r="Z57" s="20" t="n">
-        <v>366845</v>
+        <v>414706</v>
       </c>
       <c r="AA57" s="20" t="n">
-        <v>414706</v>
+        <v>393986</v>
       </c>
       <c r="AB57" s="20" t="n">
-        <v>393986</v>
+        <v>332699</v>
       </c>
       <c r="AC57" s="20" t="n">
-        <v>332699</v>
+        <v>418860</v>
       </c>
       <c r="AD57" s="20" t="n">
-        <v>418860</v>
+        <v>268812</v>
       </c>
       <c r="AE57" s="20" t="n">
-        <v>268812</v>
+        <v>403217</v>
       </c>
       <c r="AF57" s="20" t="n">
-        <v>403217</v>
+        <v>391837</v>
       </c>
       <c r="AG57" s="20" t="n">
-        <v>391837</v>
+        <v>350437</v>
       </c>
       <c r="AH57" s="20" t="n">
-        <v>350437</v>
+        <v>407891</v>
       </c>
       <c r="AI57" s="20" t="n">
-        <v>407891</v>
+        <v>410875</v>
       </c>
       <c r="AJ57" s="20" t="n">
-        <v>410875</v>
+        <v>374811</v>
       </c>
       <c r="AK57" s="20" t="n">
-        <v>374811</v>
+        <v>372669</v>
       </c>
       <c r="AL57" s="20" t="n">
-        <v>372669</v>
+        <v>350673</v>
       </c>
       <c r="AM57" s="20" t="n">
-        <v>350673</v>
+        <v>398244</v>
       </c>
       <c r="AN57" s="20" t="n">
-        <v>398244</v>
+        <v>431641</v>
       </c>
       <c r="AO57" s="20" t="n">
-        <v>431641</v>
+        <v>427616</v>
       </c>
       <c r="AP57" s="20" t="n">
-        <v>427616</v>
+        <v>267876</v>
       </c>
       <c r="AQ57" s="20" t="n">
-        <v>267876</v>
+        <v>507495</v>
       </c>
       <c r="AR57" s="20" t="n">
-        <v>507495</v>
+        <v>651303</v>
       </c>
       <c r="AS57" s="20" t="n">
-        <v>651303</v>
+        <v>724869</v>
       </c>
       <c r="AT57" s="20" t="n">
-        <v>724869</v>
+        <v>579172</v>
       </c>
       <c r="AU57" s="20" t="n">
-        <v>579172</v>
+        <v>461779</v>
       </c>
       <c r="AV57" s="20" t="n">
-        <v>461779</v>
+        <v>582159</v>
       </c>
       <c r="AW57" s="20" t="n">
-        <v>582159</v>
+        <v>644707</v>
       </c>
       <c r="AX57" s="20" t="n">
-        <v>644707</v>
+        <v>601923</v>
       </c>
       <c r="AY57" s="20" t="n">
-        <v>601923</v>
+        <v>559514</v>
       </c>
       <c r="AZ57" s="20" t="n">
-        <v>559514</v>
+        <v>653727</v>
       </c>
       <c r="BA57" s="20" t="n">
-        <v>653727</v>
+        <v>694099</v>
       </c>
       <c r="BB57" s="20" t="n">
-        <v>694099</v>
+        <v>577648</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10225,11 +10225,11 @@
       <c r="AH64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI64" s="13" t="s">
-        <v>58</v>
+      <c r="AI64" s="13" t="n">
+        <v>1563</v>
       </c>
       <c r="AJ64" s="13" t="n">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AK64" s="13" t="n">
         <v>0</v>
@@ -10243,11 +10243,11 @@
       <c r="AN64" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" s="13" t="s">
-        <v>58</v>
+      <c r="AO64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ64" s="13" t="n">
         <v>0</v>
@@ -10342,77 +10342,77 @@
       <c r="T65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="16" t="s">
-        <v>58</v>
+      <c r="U65" s="16" t="n">
+        <v>34800</v>
       </c>
       <c r="V65" s="16" t="n">
-        <v>34800</v>
+        <v>40716</v>
       </c>
       <c r="W65" s="16" t="n">
-        <v>40716</v>
+        <v>63709</v>
       </c>
       <c r="X65" s="16" t="n">
-        <v>63709</v>
+        <v>4798</v>
       </c>
       <c r="Y65" s="16" t="n">
-        <v>4798</v>
+        <v>2618</v>
       </c>
       <c r="Z65" s="16" t="n">
-        <v>2618</v>
+        <v>42291</v>
       </c>
       <c r="AA65" s="16" t="n">
-        <v>42291</v>
+        <v>26527</v>
       </c>
       <c r="AB65" s="16" t="n">
-        <v>26527</v>
+        <v>70061</v>
       </c>
       <c r="AC65" s="16" t="n">
-        <v>70061</v>
+        <v>34504</v>
       </c>
       <c r="AD65" s="16" t="n">
-        <v>34504</v>
+        <v>13882</v>
       </c>
       <c r="AE65" s="16" t="n">
-        <v>13882</v>
+        <v>61327</v>
       </c>
       <c r="AF65" s="16" t="n">
-        <v>61327</v>
+        <v>100556</v>
       </c>
       <c r="AG65" s="16" t="n">
-        <v>100556</v>
+        <v>97028</v>
       </c>
       <c r="AH65" s="16" t="n">
-        <v>97028</v>
+        <v>95953</v>
       </c>
       <c r="AI65" s="16" t="n">
-        <v>95953</v>
+        <v>80963</v>
       </c>
       <c r="AJ65" s="16" t="n">
-        <v>80963</v>
+        <v>85275</v>
       </c>
       <c r="AK65" s="16" t="n">
-        <v>85275</v>
+        <v>89883</v>
       </c>
       <c r="AL65" s="16" t="n">
-        <v>89883</v>
+        <v>70736</v>
       </c>
       <c r="AM65" s="16" t="n">
-        <v>70736</v>
+        <v>75717</v>
       </c>
       <c r="AN65" s="16" t="n">
-        <v>75717</v>
-      </c>
-      <c r="AO65" s="16" t="n">
         <v>136920</v>
       </c>
-      <c r="AP65" s="16" t="s">
-        <v>58</v>
+      <c r="AO65" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP65" s="16" t="n">
+        <v>15310</v>
       </c>
       <c r="AQ65" s="16" t="n">
-        <v>15310</v>
-      </c>
-      <c r="AR65" s="16" t="n">
         <v>127850</v>
+      </c>
+      <c r="AR65" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS65" s="16" t="s">
         <v>58</v>
@@ -10501,107 +10501,107 @@
       <c r="T66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="13" t="s">
-        <v>58</v>
+      <c r="U66" s="13" t="n">
+        <v>15317</v>
       </c>
       <c r="V66" s="13" t="n">
-        <v>15317</v>
+        <v>13458</v>
       </c>
       <c r="W66" s="13" t="n">
-        <v>13458</v>
+        <v>8394</v>
       </c>
       <c r="X66" s="13" t="n">
-        <v>8394</v>
+        <v>148</v>
       </c>
       <c r="Y66" s="13" t="n">
-        <v>148</v>
+        <v>12368</v>
       </c>
       <c r="Z66" s="13" t="n">
-        <v>12368</v>
+        <v>13820</v>
       </c>
       <c r="AA66" s="13" t="n">
-        <v>13820</v>
+        <v>9242</v>
       </c>
       <c r="AB66" s="13" t="n">
-        <v>9242</v>
+        <v>2064</v>
       </c>
       <c r="AC66" s="13" t="n">
-        <v>2064</v>
+        <v>12550</v>
       </c>
       <c r="AD66" s="13" t="n">
-        <v>12550</v>
+        <v>11366</v>
       </c>
       <c r="AE66" s="13" t="n">
-        <v>11366</v>
+        <v>9470</v>
       </c>
       <c r="AF66" s="13" t="n">
-        <v>9470</v>
+        <v>74397</v>
       </c>
       <c r="AG66" s="13" t="n">
-        <v>74397</v>
+        <v>77919</v>
       </c>
       <c r="AH66" s="13" t="n">
-        <v>77919</v>
+        <v>2151</v>
       </c>
       <c r="AI66" s="13" t="n">
-        <v>2151</v>
+        <v>810</v>
       </c>
       <c r="AJ66" s="13" t="n">
-        <v>810</v>
+        <v>51820</v>
       </c>
       <c r="AK66" s="13" t="n">
-        <v>51820</v>
+        <v>63724</v>
       </c>
       <c r="AL66" s="13" t="n">
-        <v>63724</v>
+        <v>63559</v>
       </c>
       <c r="AM66" s="13" t="n">
-        <v>63559</v>
+        <v>13857</v>
       </c>
       <c r="AN66" s="13" t="n">
-        <v>13857</v>
+        <v>4904</v>
       </c>
       <c r="AO66" s="13" t="n">
-        <v>4904</v>
+        <v>4807</v>
       </c>
       <c r="AP66" s="13" t="n">
-        <v>4807</v>
+        <v>9580</v>
       </c>
       <c r="AQ66" s="13" t="n">
-        <v>9580</v>
+        <v>78745</v>
       </c>
       <c r="AR66" s="13" t="n">
-        <v>78745</v>
+        <v>32012</v>
       </c>
       <c r="AS66" s="13" t="n">
-        <v>32012</v>
+        <v>135857</v>
       </c>
       <c r="AT66" s="13" t="n">
-        <v>135857</v>
+        <v>54166</v>
       </c>
       <c r="AU66" s="13" t="n">
-        <v>54166</v>
+        <v>15771</v>
       </c>
       <c r="AV66" s="13" t="n">
-        <v>15771</v>
+        <v>33930</v>
       </c>
       <c r="AW66" s="13" t="n">
-        <v>33930</v>
+        <v>38640</v>
       </c>
       <c r="AX66" s="13" t="n">
-        <v>38640</v>
+        <v>18245</v>
       </c>
       <c r="AY66" s="13" t="n">
-        <v>18245</v>
+        <v>11755</v>
       </c>
       <c r="AZ66" s="13" t="n">
-        <v>11755</v>
+        <v>50134</v>
       </c>
       <c r="BA66" s="13" t="n">
-        <v>50134</v>
+        <v>26489</v>
       </c>
       <c r="BB66" s="13" t="n">
-        <v>26489</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10660,107 +10660,107 @@
       <c r="T67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U67" s="16" t="s">
-        <v>58</v>
+      <c r="U67" s="16" t="n">
+        <v>82420</v>
       </c>
       <c r="V67" s="16" t="n">
-        <v>82420</v>
+        <v>86199</v>
       </c>
       <c r="W67" s="16" t="n">
-        <v>86199</v>
+        <v>75546</v>
       </c>
       <c r="X67" s="16" t="n">
-        <v>75546</v>
+        <v>105552</v>
       </c>
       <c r="Y67" s="16" t="n">
-        <v>105552</v>
+        <v>138720</v>
       </c>
       <c r="Z67" s="16" t="n">
-        <v>138720</v>
+        <v>187707</v>
       </c>
       <c r="AA67" s="16" t="n">
-        <v>187707</v>
+        <v>171439</v>
       </c>
       <c r="AB67" s="16" t="n">
-        <v>171439</v>
+        <v>113047</v>
       </c>
       <c r="AC67" s="16" t="n">
-        <v>113047</v>
+        <v>136700</v>
       </c>
       <c r="AD67" s="16" t="n">
-        <v>136700</v>
+        <v>99647</v>
       </c>
       <c r="AE67" s="16" t="n">
-        <v>99647</v>
+        <v>141824</v>
       </c>
       <c r="AF67" s="16" t="n">
-        <v>141824</v>
+        <v>207304</v>
       </c>
       <c r="AG67" s="16" t="n">
-        <v>207304</v>
+        <v>245534</v>
       </c>
       <c r="AH67" s="16" t="n">
-        <v>245534</v>
+        <v>273055</v>
       </c>
       <c r="AI67" s="16" t="n">
-        <v>273055</v>
+        <v>255842</v>
       </c>
       <c r="AJ67" s="16" t="n">
-        <v>255842</v>
+        <v>224581</v>
       </c>
       <c r="AK67" s="16" t="n">
-        <v>224581</v>
+        <v>179822</v>
       </c>
       <c r="AL67" s="16" t="n">
-        <v>179822</v>
+        <v>231956</v>
       </c>
       <c r="AM67" s="16" t="n">
-        <v>231956</v>
+        <v>231367</v>
       </c>
       <c r="AN67" s="16" t="n">
-        <v>231367</v>
+        <v>315755</v>
       </c>
       <c r="AO67" s="16" t="n">
-        <v>315755</v>
+        <v>438469</v>
       </c>
       <c r="AP67" s="16" t="n">
-        <v>438469</v>
+        <v>262524</v>
       </c>
       <c r="AQ67" s="16" t="n">
-        <v>262524</v>
+        <v>334900</v>
       </c>
       <c r="AR67" s="16" t="n">
-        <v>334900</v>
+        <v>717207</v>
       </c>
       <c r="AS67" s="16" t="n">
-        <v>717207</v>
+        <v>730490</v>
       </c>
       <c r="AT67" s="16" t="n">
-        <v>730490</v>
+        <v>937396</v>
       </c>
       <c r="AU67" s="16" t="n">
-        <v>937396</v>
+        <v>998905</v>
       </c>
       <c r="AV67" s="16" t="n">
-        <v>998905</v>
+        <v>895403</v>
       </c>
       <c r="AW67" s="16" t="n">
-        <v>895403</v>
+        <v>728275</v>
       </c>
       <c r="AX67" s="16" t="n">
-        <v>728275</v>
+        <v>885772</v>
       </c>
       <c r="AY67" s="16" t="n">
-        <v>885772</v>
+        <v>893930</v>
       </c>
       <c r="AZ67" s="16" t="n">
-        <v>893930</v>
+        <v>1009374</v>
       </c>
       <c r="BA67" s="16" t="n">
-        <v>1009374</v>
+        <v>914365</v>
       </c>
       <c r="BB67" s="16" t="n">
-        <v>914365</v>
+        <v>670979</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10828,17 +10828,17 @@
       <c r="W68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X68" s="13" t="s">
-        <v>58</v>
+      <c r="X68" s="13" t="n">
+        <v>20055</v>
       </c>
       <c r="Y68" s="13" t="n">
-        <v>20055</v>
+        <v>13880</v>
       </c>
       <c r="Z68" s="13" t="n">
-        <v>13880</v>
+        <v>336</v>
       </c>
       <c r="AA68" s="13" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AB68" s="13" t="n">
         <v>0</v>
@@ -10846,8 +10846,8 @@
       <c r="AC68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD68" s="13" t="n">
-        <v>0</v>
+      <c r="AD68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE68" s="13" t="s">
         <v>58</v>
@@ -10861,8 +10861,8 @@
       <c r="AH68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI68" s="13" t="s">
-        <v>58</v>
+      <c r="AI68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ68" s="13" t="n">
         <v>0</v>
@@ -10879,11 +10879,11 @@
       <c r="AN68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO68" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP68" s="13" t="s">
-        <v>58</v>
+      <c r="AO68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ68" s="13" t="n">
         <v>0</v>
@@ -10978,8 +10978,8 @@
       <c r="T69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="16" t="s">
-        <v>58</v>
+      <c r="U69" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="16" t="n">
         <v>0</v>
@@ -11005,8 +11005,8 @@
       <c r="AC69" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD69" s="16" t="n">
-        <v>0</v>
+      <c r="AD69" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE69" s="16" t="s">
         <v>58</v>
@@ -11197,47 +11197,47 @@
       <c r="AN70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP70" s="13" t="n">
+      <c r="AO70" s="13" t="n">
         <v>79874</v>
       </c>
+      <c r="AP70" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR70" s="13" t="s">
-        <v>58</v>
+      <c r="AR70" s="13" t="n">
+        <v>123458</v>
       </c>
       <c r="AS70" s="13" t="n">
-        <v>123458</v>
+        <v>122035</v>
       </c>
       <c r="AT70" s="13" t="n">
-        <v>122035</v>
+        <v>65185</v>
       </c>
       <c r="AU70" s="13" t="n">
-        <v>65185</v>
+        <v>13046</v>
       </c>
       <c r="AV70" s="13" t="n">
-        <v>13046</v>
+        <v>114626</v>
       </c>
       <c r="AW70" s="13" t="n">
-        <v>114626</v>
+        <v>92523</v>
       </c>
       <c r="AX70" s="13" t="n">
-        <v>92523</v>
+        <v>34346</v>
       </c>
       <c r="AY70" s="13" t="n">
-        <v>34346</v>
+        <v>35775</v>
       </c>
       <c r="AZ70" s="13" t="n">
-        <v>35775</v>
+        <v>6100</v>
       </c>
       <c r="BA70" s="13" t="n">
-        <v>6100</v>
+        <v>16727</v>
       </c>
       <c r="BB70" s="13" t="n">
-        <v>16727</v>
+        <v>24745</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11295,106 +11295,106 @@
         <v>0</v>
       </c>
       <c r="U71" s="18" t="n">
-        <v>0</v>
+        <v>132537</v>
       </c>
       <c r="V71" s="18" t="n">
-        <v>132537</v>
+        <v>140373</v>
       </c>
       <c r="W71" s="18" t="n">
-        <v>140373</v>
+        <v>147649</v>
       </c>
       <c r="X71" s="18" t="n">
-        <v>147649</v>
+        <v>130553</v>
       </c>
       <c r="Y71" s="18" t="n">
-        <v>130553</v>
+        <v>167586</v>
       </c>
       <c r="Z71" s="18" t="n">
-        <v>167586</v>
+        <v>244154</v>
       </c>
       <c r="AA71" s="18" t="n">
-        <v>244154</v>
+        <v>207208</v>
       </c>
       <c r="AB71" s="18" t="n">
-        <v>207208</v>
+        <v>185172</v>
       </c>
       <c r="AC71" s="18" t="n">
-        <v>185172</v>
+        <v>183754</v>
       </c>
       <c r="AD71" s="18" t="n">
-        <v>183754</v>
+        <v>124895</v>
       </c>
       <c r="AE71" s="18" t="n">
-        <v>124895</v>
+        <v>212621</v>
       </c>
       <c r="AF71" s="18" t="n">
-        <v>212621</v>
+        <v>382257</v>
       </c>
       <c r="AG71" s="18" t="n">
-        <v>382257</v>
+        <v>420481</v>
       </c>
       <c r="AH71" s="18" t="n">
-        <v>420481</v>
+        <v>371159</v>
       </c>
       <c r="AI71" s="18" t="n">
-        <v>371159</v>
+        <v>339178</v>
       </c>
       <c r="AJ71" s="18" t="n">
-        <v>339178</v>
+        <v>361676</v>
       </c>
       <c r="AK71" s="18" t="n">
-        <v>361676</v>
+        <v>333429</v>
       </c>
       <c r="AL71" s="18" t="n">
-        <v>333429</v>
+        <v>366251</v>
       </c>
       <c r="AM71" s="18" t="n">
-        <v>366251</v>
+        <v>320941</v>
       </c>
       <c r="AN71" s="18" t="n">
-        <v>320941</v>
+        <v>457579</v>
       </c>
       <c r="AO71" s="18" t="n">
-        <v>457579</v>
+        <v>523150</v>
       </c>
       <c r="AP71" s="18" t="n">
-        <v>523150</v>
+        <v>287414</v>
       </c>
       <c r="AQ71" s="18" t="n">
-        <v>287414</v>
+        <v>541495</v>
       </c>
       <c r="AR71" s="18" t="n">
-        <v>541495</v>
+        <v>872677</v>
       </c>
       <c r="AS71" s="18" t="n">
-        <v>872677</v>
+        <v>988382</v>
       </c>
       <c r="AT71" s="18" t="n">
-        <v>988382</v>
+        <v>1056747</v>
       </c>
       <c r="AU71" s="18" t="n">
-        <v>1056747</v>
+        <v>1027722</v>
       </c>
       <c r="AV71" s="18" t="n">
-        <v>1027722</v>
+        <v>1043959</v>
       </c>
       <c r="AW71" s="18" t="n">
-        <v>1043959</v>
+        <v>859438</v>
       </c>
       <c r="AX71" s="18" t="n">
-        <v>859438</v>
+        <v>938363</v>
       </c>
       <c r="AY71" s="18" t="n">
-        <v>938363</v>
+        <v>941460</v>
       </c>
       <c r="AZ71" s="18" t="n">
-        <v>941460</v>
+        <v>1065608</v>
       </c>
       <c r="BA71" s="18" t="n">
-        <v>1065608</v>
+        <v>957581</v>
       </c>
       <c r="BB71" s="18" t="n">
-        <v>957581</v>
+        <v>698732</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11510,77 +11510,77 @@
       <c r="T73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U73" s="13" t="s">
-        <v>58</v>
+      <c r="U73" s="13" t="n">
+        <v>26085</v>
       </c>
       <c r="V73" s="13" t="n">
-        <v>26085</v>
+        <v>23561</v>
       </c>
       <c r="W73" s="13" t="n">
-        <v>23561</v>
+        <v>18235</v>
       </c>
       <c r="X73" s="13" t="n">
-        <v>18235</v>
+        <v>38734</v>
       </c>
       <c r="Y73" s="13" t="n">
-        <v>38734</v>
+        <v>61574</v>
       </c>
       <c r="Z73" s="13" t="n">
-        <v>61574</v>
+        <v>41442</v>
       </c>
       <c r="AA73" s="13" t="n">
-        <v>41442</v>
+        <v>31596</v>
       </c>
       <c r="AB73" s="13" t="n">
-        <v>31596</v>
+        <v>6628</v>
       </c>
       <c r="AC73" s="13" t="n">
-        <v>6628</v>
+        <v>45811</v>
       </c>
       <c r="AD73" s="13" t="n">
-        <v>45811</v>
+        <v>38642</v>
       </c>
       <c r="AE73" s="13" t="n">
-        <v>38642</v>
+        <v>58362</v>
       </c>
       <c r="AF73" s="13" t="n">
-        <v>58362</v>
+        <v>39246</v>
       </c>
       <c r="AG73" s="13" t="n">
-        <v>39246</v>
+        <v>1417</v>
       </c>
       <c r="AH73" s="13" t="n">
-        <v>1417</v>
+        <v>17855</v>
       </c>
       <c r="AI73" s="13" t="n">
-        <v>17855</v>
+        <v>35776</v>
       </c>
       <c r="AJ73" s="13" t="n">
-        <v>35776</v>
+        <v>46698</v>
       </c>
       <c r="AK73" s="13" t="n">
-        <v>46698</v>
+        <v>67500</v>
       </c>
       <c r="AL73" s="13" t="n">
-        <v>67500</v>
+        <v>51123</v>
       </c>
       <c r="AM73" s="13" t="n">
-        <v>51123</v>
+        <v>32107</v>
       </c>
       <c r="AN73" s="13" t="n">
-        <v>32107</v>
-      </c>
-      <c r="AO73" s="13" t="n">
         <v>12819</v>
       </c>
-      <c r="AP73" s="13" t="s">
-        <v>58</v>
+      <c r="AO73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP73" s="13" t="n">
+        <v>70041</v>
       </c>
       <c r="AQ73" s="13" t="n">
-        <v>70041</v>
-      </c>
-      <c r="AR73" s="13" t="n">
         <v>86161</v>
+      </c>
+      <c r="AR73" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS73" s="13" t="s">
         <v>58</v>
@@ -11669,107 +11669,107 @@
       <c r="T74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U74" s="16" t="s">
-        <v>58</v>
+      <c r="U74" s="16" t="n">
+        <v>30880</v>
       </c>
       <c r="V74" s="16" t="n">
-        <v>30880</v>
+        <v>32362</v>
       </c>
       <c r="W74" s="16" t="n">
-        <v>32362</v>
+        <v>39403</v>
       </c>
       <c r="X74" s="16" t="n">
-        <v>39403</v>
+        <v>44292</v>
       </c>
       <c r="Y74" s="16" t="n">
-        <v>44292</v>
+        <v>42481</v>
       </c>
       <c r="Z74" s="16" t="n">
-        <v>42481</v>
+        <v>48527</v>
       </c>
       <c r="AA74" s="16" t="n">
-        <v>48527</v>
+        <v>64014</v>
       </c>
       <c r="AB74" s="16" t="n">
-        <v>64014</v>
+        <v>64110</v>
       </c>
       <c r="AC74" s="16" t="n">
-        <v>64110</v>
+        <v>45943</v>
       </c>
       <c r="AD74" s="16" t="n">
-        <v>45943</v>
+        <v>24733</v>
       </c>
       <c r="AE74" s="16" t="n">
-        <v>24733</v>
+        <v>58231</v>
       </c>
       <c r="AF74" s="16" t="n">
-        <v>58231</v>
+        <v>5284</v>
       </c>
       <c r="AG74" s="16" t="n">
-        <v>5284</v>
+        <v>2185</v>
       </c>
       <c r="AH74" s="16" t="n">
-        <v>2185</v>
+        <v>65311</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>65311</v>
+        <v>64049</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>64049</v>
+        <v>15402</v>
       </c>
       <c r="AK74" s="16" t="n">
-        <v>15402</v>
+        <v>3113</v>
       </c>
       <c r="AL74" s="16" t="n">
-        <v>3113</v>
+        <v>18617</v>
       </c>
       <c r="AM74" s="16" t="n">
-        <v>18617</v>
+        <v>74563</v>
       </c>
       <c r="AN74" s="16" t="n">
-        <v>74563</v>
+        <v>51539</v>
       </c>
       <c r="AO74" s="16" t="n">
-        <v>51539</v>
+        <v>23285</v>
       </c>
       <c r="AP74" s="16" t="n">
-        <v>23285</v>
+        <v>4684</v>
       </c>
       <c r="AQ74" s="16" t="n">
-        <v>4684</v>
+        <v>6182</v>
       </c>
       <c r="AR74" s="16" t="n">
-        <v>6182</v>
+        <v>61227</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>61227</v>
+        <v>59337</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>59337</v>
+        <v>26640</v>
       </c>
       <c r="AU74" s="16" t="n">
-        <v>26640</v>
+        <v>10438</v>
       </c>
       <c r="AV74" s="16" t="n">
-        <v>10438</v>
+        <v>26499</v>
       </c>
       <c r="AW74" s="16" t="n">
-        <v>26499</v>
+        <v>27865</v>
       </c>
       <c r="AX74" s="16" t="n">
-        <v>27865</v>
+        <v>26778</v>
       </c>
       <c r="AY74" s="16" t="n">
-        <v>26778</v>
+        <v>40239</v>
       </c>
       <c r="AZ74" s="16" t="n">
-        <v>40239</v>
+        <v>96815</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>96815</v>
+        <v>83839</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>83839</v>
+        <v>67614</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11828,107 +11828,107 @@
       <c r="T75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U75" s="13" t="s">
-        <v>58</v>
+      <c r="U75" s="13" t="n">
+        <v>2570</v>
       </c>
       <c r="V75" s="13" t="n">
-        <v>2570</v>
+        <v>0</v>
       </c>
       <c r="W75" s="13" t="n">
-        <v>0</v>
+        <v>4779</v>
       </c>
       <c r="X75" s="13" t="n">
-        <v>4779</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z75" s="13" t="n">
-        <v>20</v>
+        <v>7153</v>
       </c>
       <c r="AA75" s="13" t="n">
-        <v>7153</v>
+        <v>364</v>
       </c>
       <c r="AB75" s="13" t="n">
-        <v>364</v>
+        <v>5634</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>5634</v>
+        <v>78</v>
       </c>
       <c r="AD75" s="13" t="n">
-        <v>78</v>
+        <v>10154</v>
       </c>
       <c r="AE75" s="13" t="n">
-        <v>10154</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="13" t="n">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="AG75" s="13" t="n">
-        <v>917</v>
+        <v>4785</v>
       </c>
       <c r="AH75" s="13" t="n">
-        <v>4785</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="13" t="n">
-        <v>0</v>
+        <v>1922</v>
       </c>
       <c r="AJ75" s="13" t="n">
-        <v>1922</v>
+        <v>4018</v>
       </c>
       <c r="AK75" s="13" t="n">
-        <v>4018</v>
+        <v>3719</v>
       </c>
       <c r="AL75" s="13" t="n">
-        <v>3719</v>
+        <v>333</v>
       </c>
       <c r="AM75" s="13" t="n">
-        <v>333</v>
+        <v>16850</v>
       </c>
       <c r="AN75" s="13" t="n">
-        <v>16850</v>
+        <v>18882</v>
       </c>
       <c r="AO75" s="13" t="n">
-        <v>18882</v>
+        <v>13829</v>
       </c>
       <c r="AP75" s="13" t="n">
-        <v>13829</v>
+        <v>0</v>
       </c>
       <c r="AQ75" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR75" s="13" t="n">
-        <v>0</v>
+        <v>7519</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>7519</v>
+        <v>13580</v>
       </c>
       <c r="AT75" s="13" t="n">
-        <v>13580</v>
+        <v>13822</v>
       </c>
       <c r="AU75" s="13" t="n">
-        <v>13822</v>
+        <v>14841</v>
       </c>
       <c r="AV75" s="13" t="n">
-        <v>14841</v>
+        <v>34601</v>
       </c>
       <c r="AW75" s="13" t="n">
-        <v>34601</v>
+        <v>109797</v>
       </c>
       <c r="AX75" s="13" t="n">
-        <v>109797</v>
+        <v>111556</v>
       </c>
       <c r="AY75" s="13" t="n">
-        <v>111556</v>
+        <v>113920</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>113920</v>
+        <v>146359</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>146359</v>
+        <v>139532</v>
       </c>
       <c r="BB75" s="13" t="n">
-        <v>137766</v>
+        <v>70512</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12047,47 +12047,47 @@
       <c r="AN76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO76" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP76" s="16" t="n">
+      <c r="AO76" s="16" t="n">
         <v>66818</v>
       </c>
+      <c r="AP76" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR76" s="16" t="s">
-        <v>58</v>
+      <c r="AR76" s="16" t="n">
+        <v>52421</v>
       </c>
       <c r="AS76" s="16" t="n">
-        <v>52421</v>
+        <v>28106</v>
       </c>
       <c r="AT76" s="16" t="n">
-        <v>28106</v>
+        <v>57720</v>
       </c>
       <c r="AU76" s="16" t="n">
-        <v>57720</v>
+        <v>39314</v>
       </c>
       <c r="AV76" s="16" t="n">
-        <v>39314</v>
+        <v>37368</v>
       </c>
       <c r="AW76" s="16" t="n">
-        <v>37368</v>
+        <v>92031</v>
       </c>
       <c r="AX76" s="16" t="n">
-        <v>92031</v>
+        <v>108920</v>
       </c>
       <c r="AY76" s="16" t="n">
-        <v>108920</v>
+        <v>71705</v>
       </c>
       <c r="AZ76" s="16" t="n">
-        <v>71705</v>
+        <v>64524</v>
       </c>
       <c r="BA76" s="16" t="n">
-        <v>64524</v>
+        <v>123093</v>
       </c>
       <c r="BB76" s="16" t="n">
-        <v>123093</v>
+        <v>112526</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12145,106 +12145,106 @@
         <v>0</v>
       </c>
       <c r="U77" s="20" t="n">
-        <v>0</v>
+        <v>59535</v>
       </c>
       <c r="V77" s="20" t="n">
-        <v>59535</v>
+        <v>55923</v>
       </c>
       <c r="W77" s="20" t="n">
-        <v>55923</v>
+        <v>62417</v>
       </c>
       <c r="X77" s="20" t="n">
-        <v>62417</v>
+        <v>83026</v>
       </c>
       <c r="Y77" s="20" t="n">
-        <v>83026</v>
+        <v>104075</v>
       </c>
       <c r="Z77" s="20" t="n">
-        <v>104075</v>
+        <v>97122</v>
       </c>
       <c r="AA77" s="20" t="n">
-        <v>97122</v>
+        <v>95974</v>
       </c>
       <c r="AB77" s="20" t="n">
-        <v>95974</v>
+        <v>76372</v>
       </c>
       <c r="AC77" s="20" t="n">
-        <v>76372</v>
+        <v>91832</v>
       </c>
       <c r="AD77" s="20" t="n">
-        <v>91832</v>
+        <v>73529</v>
       </c>
       <c r="AE77" s="20" t="n">
-        <v>73529</v>
+        <v>116593</v>
       </c>
       <c r="AF77" s="20" t="n">
-        <v>116593</v>
+        <v>45447</v>
       </c>
       <c r="AG77" s="20" t="n">
-        <v>45447</v>
+        <v>8387</v>
       </c>
       <c r="AH77" s="20" t="n">
-        <v>8387</v>
+        <v>83166</v>
       </c>
       <c r="AI77" s="20" t="n">
-        <v>83166</v>
+        <v>101747</v>
       </c>
       <c r="AJ77" s="20" t="n">
-        <v>101747</v>
+        <v>66118</v>
       </c>
       <c r="AK77" s="20" t="n">
-        <v>66118</v>
+        <v>74332</v>
       </c>
       <c r="AL77" s="20" t="n">
-        <v>74332</v>
+        <v>70073</v>
       </c>
       <c r="AM77" s="20" t="n">
-        <v>70073</v>
+        <v>123520</v>
       </c>
       <c r="AN77" s="20" t="n">
-        <v>123520</v>
+        <v>83240</v>
       </c>
       <c r="AO77" s="20" t="n">
-        <v>83240</v>
+        <v>103932</v>
       </c>
       <c r="AP77" s="20" t="n">
-        <v>103932</v>
+        <v>74725</v>
       </c>
       <c r="AQ77" s="20" t="n">
-        <v>74725</v>
+        <v>92343</v>
       </c>
       <c r="AR77" s="20" t="n">
-        <v>92343</v>
+        <v>121167</v>
       </c>
       <c r="AS77" s="20" t="n">
-        <v>121167</v>
+        <v>101023</v>
       </c>
       <c r="AT77" s="20" t="n">
-        <v>101023</v>
+        <v>98182</v>
       </c>
       <c r="AU77" s="20" t="n">
-        <v>98182</v>
+        <v>64593</v>
       </c>
       <c r="AV77" s="20" t="n">
-        <v>64593</v>
+        <v>98468</v>
       </c>
       <c r="AW77" s="20" t="n">
-        <v>98468</v>
+        <v>229693</v>
       </c>
       <c r="AX77" s="20" t="n">
-        <v>229693</v>
+        <v>247254</v>
       </c>
       <c r="AY77" s="20" t="n">
-        <v>247254</v>
+        <v>225864</v>
       </c>
       <c r="AZ77" s="20" t="n">
-        <v>225864</v>
+        <v>307698</v>
       </c>
       <c r="BA77" s="20" t="n">
-        <v>307698</v>
+        <v>346464</v>
       </c>
       <c r="BB77" s="20" t="n">
-        <v>344698</v>
+        <v>250652</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12360,8 +12360,8 @@
       <c r="T79" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="20" t="s">
-        <v>58</v>
+      <c r="U79" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V79" s="23" t="n">
         <v>0</v>
@@ -12576,77 +12576,77 @@
       <c r="T81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>58</v>
+      <c r="U81" s="13" t="n">
+        <v>-106</v>
       </c>
       <c r="V81" s="13" t="n">
-        <v>-106</v>
+        <v>-2472</v>
       </c>
       <c r="W81" s="13" t="n">
-        <v>-2472</v>
+        <v>-60</v>
       </c>
       <c r="X81" s="13" t="n">
-        <v>-60</v>
+        <v>-137</v>
       </c>
       <c r="Y81" s="13" t="n">
-        <v>-137</v>
+        <v>-3833</v>
       </c>
       <c r="Z81" s="13" t="n">
-        <v>-3833</v>
+        <v>-812</v>
       </c>
       <c r="AA81" s="13" t="n">
-        <v>-812</v>
+        <v>-53</v>
       </c>
       <c r="AB81" s="13" t="n">
-        <v>-53</v>
+        <v>-129</v>
       </c>
       <c r="AC81" s="13" t="n">
-        <v>-129</v>
+        <v>-1322</v>
       </c>
       <c r="AD81" s="13" t="n">
-        <v>-1322</v>
+        <v>-768</v>
       </c>
       <c r="AE81" s="13" t="n">
-        <v>-768</v>
+        <v>-532</v>
       </c>
       <c r="AF81" s="13" t="n">
-        <v>-532</v>
+        <v>-8083</v>
       </c>
       <c r="AG81" s="13" t="n">
-        <v>-8083</v>
+        <v>-229</v>
       </c>
       <c r="AH81" s="13" t="n">
-        <v>-229</v>
+        <v>-1726</v>
       </c>
       <c r="AI81" s="13" t="n">
-        <v>-1726</v>
+        <v>-523</v>
       </c>
       <c r="AJ81" s="13" t="n">
-        <v>-523</v>
+        <v>-4920</v>
       </c>
       <c r="AK81" s="13" t="n">
-        <v>-4920</v>
+        <v>-9761</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>-9761</v>
+        <v>-3755</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>-3755</v>
+        <v>-4874</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>-4874</v>
-      </c>
-      <c r="AO81" s="13" t="n">
         <v>-11994</v>
       </c>
-      <c r="AP81" s="13" t="s">
-        <v>58</v>
+      <c r="AO81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ81" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR81" s="13" t="n">
         <v>-171</v>
+      </c>
+      <c r="AR81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS81" s="13" t="s">
         <v>58</v>
@@ -12735,107 +12735,107 @@
       <c r="T82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>58</v>
+      <c r="U82" s="16" t="n">
+        <v>-85</v>
       </c>
       <c r="V82" s="16" t="n">
-        <v>-85</v>
+        <v>-5756</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>-5756</v>
+        <v>-6318</v>
       </c>
       <c r="X82" s="16" t="n">
-        <v>-6318</v>
+        <v>-2640</v>
       </c>
       <c r="Y82" s="16" t="n">
-        <v>-2640</v>
+        <v>-6145</v>
       </c>
       <c r="Z82" s="16" t="n">
-        <v>-6145</v>
+        <v>-3048</v>
       </c>
       <c r="AA82" s="16" t="n">
-        <v>-3048</v>
+        <v>-2505</v>
       </c>
       <c r="AB82" s="16" t="n">
-        <v>-2505</v>
+        <v>-1566</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>-1566</v>
+        <v>-3535</v>
       </c>
       <c r="AD82" s="16" t="n">
-        <v>-3535</v>
+        <v>-305</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>-305</v>
+        <v>-291</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>-291</v>
+        <v>-1972</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>-1972</v>
+        <v>-3272</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>-3272</v>
+        <v>-341</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>-341</v>
+        <v>-2253</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>-2253</v>
+        <v>0</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>0</v>
+        <v>-3407</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>-3407</v>
+        <v>-9764</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>-9764</v>
+        <v>-8583</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>-8583</v>
+        <v>-14577</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>-14577</v>
+        <v>-5521</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>-5521</v>
+        <v>0</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>0</v>
+        <v>-2260</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>-2260</v>
+        <v>-5376</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>-5376</v>
+        <v>-9343</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>-9343</v>
+        <v>-8468</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>-8468</v>
+        <v>-9351</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>-9351</v>
+        <v>-4197</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>-4197</v>
+        <v>-9317</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>-9317</v>
+        <v>-8603</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>-8603</v>
+        <v>-7835</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>-7835</v>
+        <v>-3903</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>-3903</v>
+        <v>-10528</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>-10528</v>
+        <v>-192</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12894,107 +12894,107 @@
       <c r="T83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="13" t="s">
-        <v>58</v>
+      <c r="U83" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V83" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>-161</v>
+        <v>-2322</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>-2322</v>
+        <v>-343</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>-343</v>
+        <v>-5950</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>-5950</v>
+        <v>-5</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>-5</v>
+        <v>-21821</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>-21821</v>
+        <v>-860</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>-860</v>
+        <v>-797</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>-797</v>
+        <v>-1485</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>-1485</v>
+        <v>-1533</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>-1533</v>
+        <v>-2667</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>-2667</v>
+        <v>-4119</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>-4119</v>
+        <v>-5120</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>-5120</v>
+        <v>-3819</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>-3819</v>
+        <v>-8680</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>-8680</v>
+        <v>-850</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>-850</v>
+        <v>-790</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>-790</v>
+        <v>-12081</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>-12081</v>
+        <v>-19728</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>-19728</v>
+        <v>0</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>0</v>
+        <v>-3561</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>-3561</v>
+        <v>-31350</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>-31350</v>
+        <v>-23236</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>-23236</v>
+        <v>-65685</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>-65685</v>
+        <v>-31331</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>-31331</v>
+        <v>-75393</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>-75393</v>
+        <v>-49444</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>-49444</v>
+        <v>-35245</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>-35245</v>
+        <v>-104351</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>-104351</v>
+        <v>-302372</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>-302372</v>
+        <v>-210002</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>-210002</v>
+        <v>-43036</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13068,11 +13068,11 @@
       <c r="Y84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z84" s="16" t="s">
-        <v>58</v>
+      <c r="Z84" s="16" t="n">
+        <v>-26000</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="AB84" s="16" t="n">
         <v>0</v>
@@ -13080,8 +13080,8 @@
       <c r="AC84" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD84" s="16" t="n">
-        <v>0</v>
+      <c r="AD84" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE84" s="16" t="s">
         <v>58</v>
@@ -13104,8 +13104,8 @@
       <c r="AK84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL84" s="16" t="s">
-        <v>58</v>
+      <c r="AL84" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AM84" s="16" t="n">
         <v>0</v>
@@ -13116,8 +13116,8 @@
       <c r="AO84" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP84" s="16" t="n">
-        <v>0</v>
+      <c r="AP84" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ84" s="16" t="s">
         <v>58</v>
@@ -13272,47 +13272,47 @@
       <c r="AN85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP85" s="13" t="n">
+      <c r="AO85" s="13" t="n">
         <v>-17776</v>
       </c>
+      <c r="AP85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR85" s="13" t="s">
-        <v>58</v>
+      <c r="AR85" s="13" t="n">
+        <v>-9926</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>-9926</v>
+        <v>-15485</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>-15485</v>
+        <v>-18435</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>-18435</v>
+        <v>-393</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>-393</v>
+        <v>-5781</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>-5781</v>
+        <v>-12182</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>-12182</v>
+        <v>-28935</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>-28935</v>
+        <v>-488</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>-488</v>
+        <v>-2606</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>-2606</v>
+        <v>-5087</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>-5087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13371,107 +13371,107 @@
       <c r="T86" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="18" t="s">
-        <v>58</v>
+      <c r="U86" s="24" t="n">
+        <v>-191</v>
       </c>
       <c r="V86" s="24" t="n">
-        <v>-191</v>
+        <v>-8228</v>
       </c>
       <c r="W86" s="24" t="n">
-        <v>-8228</v>
+        <v>-6539</v>
       </c>
       <c r="X86" s="24" t="n">
-        <v>-6539</v>
+        <v>-5099</v>
       </c>
       <c r="Y86" s="24" t="n">
-        <v>-5099</v>
+        <v>-10321</v>
       </c>
       <c r="Z86" s="24" t="n">
-        <v>-10321</v>
+        <v>-35810</v>
       </c>
       <c r="AA86" s="24" t="n">
-        <v>-35810</v>
+        <v>-2563</v>
       </c>
       <c r="AB86" s="24" t="n">
-        <v>-2563</v>
+        <v>-23516</v>
       </c>
       <c r="AC86" s="24" t="n">
-        <v>-23516</v>
+        <v>-5717</v>
       </c>
       <c r="AD86" s="24" t="n">
-        <v>-5717</v>
+        <v>-1870</v>
       </c>
       <c r="AE86" s="24" t="n">
-        <v>-1870</v>
+        <v>-2308</v>
       </c>
       <c r="AF86" s="24" t="n">
-        <v>-2308</v>
+        <v>-11588</v>
       </c>
       <c r="AG86" s="24" t="n">
-        <v>-11588</v>
+        <v>-6168</v>
       </c>
       <c r="AH86" s="24" t="n">
-        <v>-6168</v>
+        <v>-6186</v>
       </c>
       <c r="AI86" s="24" t="n">
-        <v>-6186</v>
+        <v>-7896</v>
       </c>
       <c r="AJ86" s="24" t="n">
-        <v>-7896</v>
+        <v>-8739</v>
       </c>
       <c r="AK86" s="24" t="n">
-        <v>-8739</v>
+        <v>-21848</v>
       </c>
       <c r="AL86" s="24" t="n">
-        <v>-21848</v>
+        <v>-14369</v>
       </c>
       <c r="AM86" s="24" t="n">
-        <v>-14369</v>
+        <v>-14247</v>
       </c>
       <c r="AN86" s="24" t="n">
-        <v>-14247</v>
+        <v>-38652</v>
       </c>
       <c r="AO86" s="24" t="n">
-        <v>-38652</v>
+        <v>-43025</v>
       </c>
       <c r="AP86" s="24" t="n">
-        <v>-43025</v>
+        <v>0</v>
       </c>
       <c r="AQ86" s="24" t="n">
-        <v>0</v>
+        <v>-5992</v>
       </c>
       <c r="AR86" s="24" t="n">
-        <v>-5992</v>
+        <v>-46652</v>
       </c>
       <c r="AS86" s="24" t="n">
-        <v>-46652</v>
+        <v>-48064</v>
       </c>
       <c r="AT86" s="24" t="n">
-        <v>-48064</v>
+        <v>-92588</v>
       </c>
       <c r="AU86" s="24" t="n">
-        <v>-92588</v>
+        <v>-41075</v>
       </c>
       <c r="AV86" s="24" t="n">
-        <v>-41075</v>
+        <v>-85371</v>
       </c>
       <c r="AW86" s="24" t="n">
-        <v>-85371</v>
+        <v>-70943</v>
       </c>
       <c r="AX86" s="24" t="n">
-        <v>-70943</v>
+        <v>-72783</v>
       </c>
       <c r="AY86" s="24" t="n">
-        <v>-72783</v>
+        <v>-112674</v>
       </c>
       <c r="AZ86" s="24" t="n">
-        <v>-112674</v>
+        <v>-308881</v>
       </c>
       <c r="BA86" s="24" t="n">
-        <v>-308881</v>
+        <v>-225617</v>
       </c>
       <c r="BB86" s="24" t="n">
-        <v>-225617</v>
+        <v>-43228</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13587,86 +13587,86 @@
       <c r="T88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="13" t="s">
-        <v>58</v>
+      <c r="U88" s="13" t="n">
+        <v>-9160</v>
       </c>
       <c r="V88" s="13" t="n">
-        <v>-9160</v>
+        <v>-5836</v>
       </c>
       <c r="W88" s="13" t="n">
-        <v>-5836</v>
+        <v>-3438</v>
       </c>
       <c r="X88" s="13" t="n">
-        <v>-3438</v>
+        <v>-4747</v>
       </c>
       <c r="Y88" s="13" t="n">
-        <v>-4747</v>
+        <v>-7266</v>
       </c>
       <c r="Z88" s="13" t="n">
-        <v>-7266</v>
+        <v>-12062</v>
       </c>
       <c r="AA88" s="13" t="n">
-        <v>-12062</v>
+        <v>-18287</v>
       </c>
       <c r="AB88" s="13" t="n">
-        <v>-18287</v>
+        <v>-21548</v>
       </c>
       <c r="AC88" s="13" t="n">
-        <v>-21548</v>
+        <v>-10130</v>
       </c>
       <c r="AD88" s="13" t="n">
-        <v>-10130</v>
+        <v>-10758</v>
       </c>
       <c r="AE88" s="13" t="n">
-        <v>-10758</v>
+        <v>-40983</v>
       </c>
       <c r="AF88" s="13" t="n">
-        <v>-40983</v>
+        <v>-75350</v>
       </c>
       <c r="AG88" s="13" t="n">
-        <v>-75350</v>
+        <v>-77417</v>
       </c>
       <c r="AH88" s="13" t="n">
-        <v>-77417</v>
+        <v>-67116</v>
       </c>
       <c r="AI88" s="13" t="n">
-        <v>-67116</v>
+        <v>-48926</v>
       </c>
       <c r="AJ88" s="13" t="n">
-        <v>-48926</v>
+        <v>-37210</v>
       </c>
       <c r="AK88" s="13" t="n">
-        <v>-37210</v>
+        <v>-37940</v>
       </c>
       <c r="AL88" s="13" t="n">
-        <v>-37940</v>
+        <v>-43879</v>
       </c>
       <c r="AM88" s="13" t="n">
-        <v>-43879</v>
+        <v>-29439</v>
       </c>
       <c r="AN88" s="13" t="n">
-        <v>-29439</v>
+        <v>-453</v>
       </c>
       <c r="AO88" s="13" t="n">
-        <v>-453</v>
+        <v>1151</v>
       </c>
       <c r="AP88" s="13" t="n">
-        <v>1151</v>
+        <v>-493</v>
       </c>
       <c r="AQ88" s="13" t="n">
-        <v>-493</v>
+        <v>-1804</v>
       </c>
       <c r="AR88" s="13" t="n">
-        <v>-1804</v>
+        <v>0</v>
       </c>
       <c r="AS88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT88" s="13" t="n">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="AU88" s="13" t="n">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="AV88" s="13" t="n">
         <v>0</v>
@@ -13678,16 +13678,16 @@
         <v>0</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>0</v>
+        <v>-14597</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>-14597</v>
+        <v>-61326</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>-61326</v>
+        <v>-122</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>-122</v>
+        <v>-3449</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13745,106 +13745,106 @@
         <v>0</v>
       </c>
       <c r="U89" s="24" t="n">
-        <v>0</v>
+        <v>182721</v>
       </c>
       <c r="V89" s="24" t="n">
-        <v>182721</v>
+        <v>182232</v>
       </c>
       <c r="W89" s="24" t="n">
-        <v>182232</v>
+        <v>200089</v>
       </c>
       <c r="X89" s="24" t="n">
-        <v>200089</v>
+        <v>203733</v>
       </c>
       <c r="Y89" s="24" t="n">
-        <v>203733</v>
+        <v>254074</v>
       </c>
       <c r="Z89" s="24" t="n">
-        <v>254074</v>
+        <v>293404</v>
       </c>
       <c r="AA89" s="24" t="n">
-        <v>293404</v>
+        <v>282332</v>
       </c>
       <c r="AB89" s="24" t="n">
-        <v>282332</v>
+        <v>216480</v>
       </c>
       <c r="AC89" s="24" t="n">
-        <v>216480</v>
+        <v>259739</v>
       </c>
       <c r="AD89" s="24" t="n">
-        <v>259739</v>
+        <v>185796</v>
       </c>
       <c r="AE89" s="24" t="n">
-        <v>185796</v>
+        <v>285923</v>
       </c>
       <c r="AF89" s="24" t="n">
-        <v>285923</v>
+        <v>340766</v>
       </c>
       <c r="AG89" s="24" t="n">
-        <v>340766</v>
+        <v>345283</v>
       </c>
       <c r="AH89" s="24" t="n">
-        <v>345283</v>
+        <v>381023</v>
       </c>
       <c r="AI89" s="24" t="n">
-        <v>381023</v>
+        <v>384103</v>
       </c>
       <c r="AJ89" s="24" t="n">
-        <v>384103</v>
+        <v>381845</v>
       </c>
       <c r="AK89" s="24" t="n">
-        <v>381845</v>
+        <v>347973</v>
       </c>
       <c r="AL89" s="24" t="n">
-        <v>347973</v>
+        <v>378076</v>
       </c>
       <c r="AM89" s="24" t="n">
-        <v>378076</v>
+        <v>400775</v>
       </c>
       <c r="AN89" s="24" t="n">
-        <v>400775</v>
+        <v>501714</v>
       </c>
       <c r="AO89" s="24" t="n">
-        <v>501714</v>
+        <v>585208</v>
       </c>
       <c r="AP89" s="24" t="n">
-        <v>585208</v>
+        <v>361646</v>
       </c>
       <c r="AQ89" s="24" t="n">
-        <v>361646</v>
+        <v>626042</v>
       </c>
       <c r="AR89" s="24" t="n">
-        <v>626042</v>
+        <v>947192</v>
       </c>
       <c r="AS89" s="24" t="n">
-        <v>947192</v>
+        <v>1041341</v>
       </c>
       <c r="AT89" s="24" t="n">
-        <v>1041341</v>
+        <v>1062307</v>
       </c>
       <c r="AU89" s="24" t="n">
-        <v>1062307</v>
+        <v>1051240</v>
       </c>
       <c r="AV89" s="24" t="n">
-        <v>1051240</v>
+        <v>1057056</v>
       </c>
       <c r="AW89" s="24" t="n">
-        <v>1057056</v>
+        <v>1018188</v>
       </c>
       <c r="AX89" s="24" t="n">
-        <v>1018188</v>
+        <v>1112834</v>
       </c>
       <c r="AY89" s="24" t="n">
-        <v>1112834</v>
+        <v>1040053</v>
       </c>
       <c r="AZ89" s="24" t="n">
-        <v>1040053</v>
+        <v>1003099</v>
       </c>
       <c r="BA89" s="24" t="n">
-        <v>1003099</v>
+        <v>1078306</v>
       </c>
       <c r="BB89" s="24" t="n">
-        <v>1076540</v>
+        <v>902707</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14379,11 +14379,11 @@
       <c r="AH96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ96" s="13" t="n">
+      <c r="AI96" s="13" t="n">
         <v>182850</v>
+      </c>
+      <c r="AJ96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK96" s="13" t="s">
         <v>58</v>
@@ -14496,77 +14496,77 @@
       <c r="T97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U97" s="16" t="s">
-        <v>58</v>
+      <c r="U97" s="16" t="n">
+        <v>345005</v>
       </c>
       <c r="V97" s="16" t="n">
-        <v>345005</v>
+        <v>355173</v>
       </c>
       <c r="W97" s="16" t="n">
-        <v>355173</v>
+        <v>460698</v>
       </c>
       <c r="X97" s="16" t="n">
-        <v>460698</v>
+        <v>397778</v>
       </c>
       <c r="Y97" s="16" t="n">
-        <v>397778</v>
+        <v>303396</v>
       </c>
       <c r="Z97" s="16" t="n">
-        <v>303396</v>
+        <v>661831</v>
       </c>
       <c r="AA97" s="16" t="n">
-        <v>661831</v>
+        <v>564885</v>
       </c>
       <c r="AB97" s="16" t="n">
-        <v>564885</v>
+        <v>815868</v>
       </c>
       <c r="AC97" s="16" t="n">
-        <v>815868</v>
+        <v>547344</v>
       </c>
       <c r="AD97" s="16" t="n">
-        <v>547344</v>
+        <v>566913</v>
       </c>
       <c r="AE97" s="16" t="n">
-        <v>566913</v>
+        <v>786113</v>
       </c>
       <c r="AF97" s="16" t="n">
-        <v>786113</v>
+        <v>791325</v>
       </c>
       <c r="AG97" s="16" t="n">
-        <v>791325</v>
+        <v>722203</v>
       </c>
       <c r="AH97" s="16" t="n">
-        <v>722203</v>
+        <v>798683</v>
       </c>
       <c r="AI97" s="16" t="n">
-        <v>798683</v>
+        <v>858714</v>
       </c>
       <c r="AJ97" s="16" t="n">
-        <v>858714</v>
+        <v>986100</v>
       </c>
       <c r="AK97" s="16" t="n">
-        <v>986100</v>
+        <v>852788</v>
       </c>
       <c r="AL97" s="16" t="n">
-        <v>852788</v>
+        <v>893718</v>
       </c>
       <c r="AM97" s="16" t="n">
-        <v>893718</v>
+        <v>916726</v>
       </c>
       <c r="AN97" s="16" t="n">
-        <v>916726</v>
-      </c>
-      <c r="AO97" s="16" t="n">
         <v>850863</v>
       </c>
-      <c r="AP97" s="16" t="s">
-        <v>58</v>
+      <c r="AO97" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP97" s="16" t="n">
+        <v>876560</v>
       </c>
       <c r="AQ97" s="16" t="n">
-        <v>876560</v>
-      </c>
-      <c r="AR97" s="16" t="n">
         <v>1410090</v>
+      </c>
+      <c r="AR97" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS97" s="16" t="s">
         <v>58</v>
@@ -14655,107 +14655,107 @@
       <c r="T98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U98" s="13" t="s">
-        <v>58</v>
+      <c r="U98" s="13" t="n">
+        <v>343500</v>
       </c>
       <c r="V98" s="13" t="n">
-        <v>343500</v>
+        <v>304012</v>
       </c>
       <c r="W98" s="13" t="n">
-        <v>304012</v>
+        <v>356025</v>
       </c>
       <c r="X98" s="13" t="n">
-        <v>356025</v>
+        <v>261947</v>
       </c>
       <c r="Y98" s="13" t="n">
-        <v>261947</v>
+        <v>441131</v>
       </c>
       <c r="Z98" s="13" t="n">
-        <v>441131</v>
+        <v>300213</v>
       </c>
       <c r="AA98" s="13" t="n">
-        <v>300213</v>
+        <v>381869</v>
       </c>
       <c r="AB98" s="13" t="n">
-        <v>381869</v>
+        <v>217607</v>
       </c>
       <c r="AC98" s="13" t="n">
-        <v>217607</v>
+        <v>334301</v>
       </c>
       <c r="AD98" s="13" t="n">
-        <v>334301</v>
+        <v>583770</v>
       </c>
       <c r="AE98" s="13" t="n">
-        <v>583770</v>
+        <v>699461</v>
       </c>
       <c r="AF98" s="13" t="n">
-        <v>699461</v>
+        <v>842987</v>
       </c>
       <c r="AG98" s="13" t="n">
-        <v>842987</v>
+        <v>894141</v>
       </c>
       <c r="AH98" s="13" t="n">
-        <v>894141</v>
+        <v>385001</v>
       </c>
       <c r="AI98" s="13" t="n">
-        <v>385001</v>
+        <v>1021438</v>
       </c>
       <c r="AJ98" s="13" t="n">
-        <v>1021438</v>
+        <v>655534</v>
       </c>
       <c r="AK98" s="13" t="n">
-        <v>655534</v>
+        <v>734842</v>
       </c>
       <c r="AL98" s="13" t="n">
-        <v>734842</v>
+        <v>810402</v>
       </c>
       <c r="AM98" s="13" t="n">
-        <v>810402</v>
+        <v>793370</v>
       </c>
       <c r="AN98" s="13" t="n">
-        <v>793370</v>
+        <v>571962</v>
       </c>
       <c r="AO98" s="13" t="n">
-        <v>571962</v>
+        <v>463996</v>
       </c>
       <c r="AP98" s="13" t="n">
-        <v>463996</v>
+        <v>987731</v>
       </c>
       <c r="AQ98" s="13" t="n">
-        <v>987731</v>
+        <v>668969</v>
       </c>
       <c r="AR98" s="13" t="n">
-        <v>668969</v>
+        <v>980219</v>
       </c>
       <c r="AS98" s="13" t="n">
-        <v>980219</v>
+        <v>803241</v>
       </c>
       <c r="AT98" s="13" t="n">
-        <v>803241</v>
+        <v>763450</v>
       </c>
       <c r="AU98" s="13" t="n">
-        <v>763450</v>
+        <v>639901</v>
       </c>
       <c r="AV98" s="13" t="n">
-        <v>639901</v>
+        <v>716518</v>
       </c>
       <c r="AW98" s="13" t="n">
-        <v>716518</v>
+        <v>919912</v>
       </c>
       <c r="AX98" s="13" t="n">
-        <v>919912</v>
+        <v>718618</v>
       </c>
       <c r="AY98" s="13" t="n">
-        <v>718618</v>
+        <v>778116</v>
       </c>
       <c r="AZ98" s="13" t="n">
-        <v>778116</v>
+        <v>808887</v>
       </c>
       <c r="BA98" s="13" t="n">
-        <v>808887</v>
+        <v>741781</v>
       </c>
       <c r="BB98" s="13" t="n">
-        <v>741781</v>
+        <v>919035</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14814,107 +14814,107 @@
       <c r="T99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U99" s="16" t="s">
-        <v>58</v>
+      <c r="U99" s="16" t="n">
+        <v>771463</v>
       </c>
       <c r="V99" s="16" t="n">
-        <v>771463</v>
+        <v>803728</v>
       </c>
       <c r="W99" s="16" t="n">
-        <v>803728</v>
+        <v>701957</v>
       </c>
       <c r="X99" s="16" t="n">
-        <v>701957</v>
+        <v>856489</v>
       </c>
       <c r="Y99" s="16" t="n">
-        <v>856489</v>
+        <v>1092309</v>
       </c>
       <c r="Z99" s="16" t="n">
-        <v>1092309</v>
+        <v>1164616</v>
       </c>
       <c r="AA99" s="16" t="n">
-        <v>1164616</v>
+        <v>1369212</v>
       </c>
       <c r="AB99" s="16" t="n">
-        <v>1369212</v>
+        <v>1121876</v>
       </c>
       <c r="AC99" s="16" t="n">
-        <v>1121876</v>
+        <v>850939</v>
       </c>
       <c r="AD99" s="16" t="n">
-        <v>850939</v>
+        <v>1047802</v>
       </c>
       <c r="AE99" s="16" t="n">
-        <v>1047802</v>
+        <v>1419731</v>
       </c>
       <c r="AF99" s="16" t="n">
-        <v>1419731</v>
+        <v>1659760</v>
       </c>
       <c r="AG99" s="16" t="n">
-        <v>1659760</v>
+        <v>1912497</v>
       </c>
       <c r="AH99" s="16" t="n">
-        <v>1912497</v>
+        <v>1986259</v>
       </c>
       <c r="AI99" s="16" t="n">
-        <v>1986259</v>
+        <v>1795723</v>
       </c>
       <c r="AJ99" s="16" t="n">
-        <v>1795723</v>
+        <v>1688300</v>
       </c>
       <c r="AK99" s="16" t="n">
-        <v>1688300</v>
+        <v>1695187</v>
       </c>
       <c r="AL99" s="16" t="n">
-        <v>1695187</v>
+        <v>2034363</v>
       </c>
       <c r="AM99" s="16" t="n">
-        <v>2034363</v>
+        <v>1678324</v>
       </c>
       <c r="AN99" s="16" t="n">
-        <v>1678324</v>
+        <v>1591066</v>
       </c>
       <c r="AO99" s="16" t="n">
-        <v>1591066</v>
+        <v>1814742</v>
       </c>
       <c r="AP99" s="16" t="n">
-        <v>1814742</v>
+        <v>2051001</v>
       </c>
       <c r="AQ99" s="16" t="n">
-        <v>2051001</v>
+        <v>2048719</v>
       </c>
       <c r="AR99" s="16" t="n">
-        <v>2048719</v>
+        <v>2090276</v>
       </c>
       <c r="AS99" s="16" t="n">
-        <v>2090276</v>
+        <v>2109950</v>
       </c>
       <c r="AT99" s="16" t="n">
-        <v>2109950</v>
+        <v>2416218</v>
       </c>
       <c r="AU99" s="16" t="n">
-        <v>2416218</v>
+        <v>2718745</v>
       </c>
       <c r="AV99" s="16" t="n">
-        <v>2718745</v>
+        <v>2720573</v>
       </c>
       <c r="AW99" s="16" t="n">
-        <v>2720573</v>
+        <v>2402937</v>
       </c>
       <c r="AX99" s="16" t="n">
-        <v>2402937</v>
+        <v>2290456</v>
       </c>
       <c r="AY99" s="16" t="n">
-        <v>2290456</v>
+        <v>2534009</v>
       </c>
       <c r="AZ99" s="16" t="n">
-        <v>2534009</v>
+        <v>2357546</v>
       </c>
       <c r="BA99" s="16" t="n">
-        <v>2357546</v>
+        <v>2212860</v>
       </c>
       <c r="BB99" s="16" t="n">
-        <v>2212860</v>
+        <v>2235717</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14982,17 +14982,17 @@
       <c r="W100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X100" s="13" t="s">
-        <v>58</v>
+      <c r="X100" s="13" t="n">
+        <v>515380</v>
       </c>
       <c r="Y100" s="13" t="n">
-        <v>515380</v>
+        <v>643785</v>
       </c>
       <c r="Z100" s="13" t="n">
-        <v>643785</v>
-      </c>
-      <c r="AA100" s="13" t="n">
         <v>445033</v>
+      </c>
+      <c r="AA100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB100" s="13" t="s">
         <v>58</v>
@@ -15192,47 +15192,47 @@
       <c r="AN101" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO101" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP101" s="16" t="n">
+      <c r="AO101" s="16" t="n">
         <v>875475</v>
       </c>
+      <c r="AP101" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ101" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR101" s="16" t="s">
-        <v>58</v>
+      <c r="AR101" s="16" t="n">
+        <v>977042</v>
       </c>
       <c r="AS101" s="16" t="n">
-        <v>977042</v>
+        <v>1188869</v>
       </c>
       <c r="AT101" s="16" t="n">
-        <v>1188869</v>
+        <v>1049408</v>
       </c>
       <c r="AU101" s="16" t="n">
-        <v>1049408</v>
+        <v>616337</v>
       </c>
       <c r="AV101" s="16" t="n">
-        <v>616337</v>
+        <v>820974</v>
       </c>
       <c r="AW101" s="16" t="n">
-        <v>820974</v>
+        <v>806434</v>
       </c>
       <c r="AX101" s="16" t="n">
-        <v>806434</v>
+        <v>802589</v>
       </c>
       <c r="AY101" s="16" t="n">
-        <v>802589</v>
+        <v>727667</v>
       </c>
       <c r="AZ101" s="16" t="n">
-        <v>727667</v>
+        <v>782754</v>
       </c>
       <c r="BA101" s="16" t="n">
-        <v>782754</v>
+        <v>689517</v>
       </c>
       <c r="BB101" s="16" t="n">
-        <v>689517</v>
+        <v>886219</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15348,77 +15348,77 @@
       <c r="T103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U103" s="13" t="s">
-        <v>58</v>
+      <c r="U103" s="13" t="n">
+        <v>318110</v>
       </c>
       <c r="V103" s="13" t="n">
-        <v>318110</v>
+        <v>353000</v>
       </c>
       <c r="W103" s="13" t="n">
-        <v>353000</v>
+        <v>338871</v>
       </c>
       <c r="X103" s="13" t="n">
-        <v>338871</v>
+        <v>432309</v>
       </c>
       <c r="Y103" s="13" t="n">
-        <v>432309</v>
+        <v>543062</v>
       </c>
       <c r="Z103" s="13" t="n">
-        <v>543062</v>
+        <v>539820</v>
       </c>
       <c r="AA103" s="13" t="n">
-        <v>539820</v>
+        <v>491491</v>
       </c>
       <c r="AB103" s="13" t="n">
-        <v>491491</v>
+        <v>487712</v>
       </c>
       <c r="AC103" s="13" t="n">
-        <v>487712</v>
+        <v>587810</v>
       </c>
       <c r="AD103" s="13" t="n">
-        <v>587810</v>
+        <v>528214</v>
       </c>
       <c r="AE103" s="13" t="n">
-        <v>528214</v>
+        <v>604625</v>
       </c>
       <c r="AF103" s="13" t="n">
-        <v>604625</v>
+        <v>666939</v>
       </c>
       <c r="AG103" s="13" t="n">
-        <v>666939</v>
+        <v>582169</v>
       </c>
       <c r="AH103" s="13" t="n">
-        <v>582169</v>
+        <v>582431</v>
       </c>
       <c r="AI103" s="13" t="n">
-        <v>582431</v>
+        <v>669963</v>
       </c>
       <c r="AJ103" s="13" t="n">
-        <v>669963</v>
+        <v>723114</v>
       </c>
       <c r="AK103" s="13" t="n">
-        <v>723114</v>
+        <v>718398</v>
       </c>
       <c r="AL103" s="13" t="n">
-        <v>718398</v>
+        <v>691104</v>
       </c>
       <c r="AM103" s="13" t="n">
-        <v>691104</v>
+        <v>660230</v>
       </c>
       <c r="AN103" s="13" t="n">
-        <v>660230</v>
-      </c>
-      <c r="AO103" s="13" t="n">
         <v>938090</v>
       </c>
-      <c r="AP103" s="13" t="s">
-        <v>58</v>
+      <c r="AO103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP103" s="13" t="n">
+        <v>674957</v>
       </c>
       <c r="AQ103" s="13" t="n">
-        <v>674957</v>
-      </c>
-      <c r="AR103" s="13" t="n">
         <v>666798</v>
+      </c>
+      <c r="AR103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS103" s="13" t="s">
         <v>58</v>
@@ -15507,107 +15507,107 @@
       <c r="T104" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U104" s="16" t="s">
-        <v>58</v>
+      <c r="U104" s="16" t="n">
+        <v>241114</v>
       </c>
       <c r="V104" s="16" t="n">
-        <v>241114</v>
+        <v>285588</v>
       </c>
       <c r="W104" s="16" t="n">
-        <v>285588</v>
+        <v>317132</v>
       </c>
       <c r="X104" s="16" t="n">
-        <v>317132</v>
+        <v>326488</v>
       </c>
       <c r="Y104" s="16" t="n">
-        <v>326488</v>
+        <v>427688</v>
       </c>
       <c r="Z104" s="16" t="n">
-        <v>427688</v>
+        <v>410359</v>
       </c>
       <c r="AA104" s="16" t="n">
-        <v>410359</v>
+        <v>459861</v>
       </c>
       <c r="AB104" s="16" t="n">
-        <v>459861</v>
+        <v>455026</v>
       </c>
       <c r="AC104" s="16" t="n">
-        <v>455026</v>
+        <v>463490</v>
       </c>
       <c r="AD104" s="16" t="n">
-        <v>463490</v>
+        <v>482755</v>
       </c>
       <c r="AE104" s="16" t="n">
-        <v>482755</v>
+        <v>486186</v>
       </c>
       <c r="AF104" s="16" t="n">
-        <v>486186</v>
+        <v>513159</v>
       </c>
       <c r="AG104" s="16" t="n">
-        <v>513159</v>
+        <v>831747</v>
       </c>
       <c r="AH104" s="16" t="n">
-        <v>831747</v>
+        <v>531944</v>
       </c>
       <c r="AI104" s="16" t="n">
-        <v>531944</v>
+        <v>534508</v>
       </c>
       <c r="AJ104" s="16" t="n">
-        <v>534508</v>
+        <v>834028</v>
       </c>
       <c r="AK104" s="16" t="n">
-        <v>834028</v>
+        <v>773416</v>
       </c>
       <c r="AL104" s="16" t="n">
-        <v>773416</v>
+        <v>847190</v>
       </c>
       <c r="AM104" s="16" t="n">
-        <v>847190</v>
+        <v>625177</v>
       </c>
       <c r="AN104" s="16" t="n">
-        <v>625177</v>
+        <v>649261</v>
       </c>
       <c r="AO104" s="16" t="n">
-        <v>649261</v>
+        <v>614072</v>
       </c>
       <c r="AP104" s="16" t="n">
-        <v>614072</v>
+        <v>523820</v>
       </c>
       <c r="AQ104" s="16" t="n">
-        <v>523820</v>
+        <v>564051</v>
       </c>
       <c r="AR104" s="16" t="n">
-        <v>564051</v>
+        <v>555226</v>
       </c>
       <c r="AS104" s="16" t="n">
-        <v>555226</v>
+        <v>568564</v>
       </c>
       <c r="AT104" s="16" t="n">
-        <v>568564</v>
+        <v>582664</v>
       </c>
       <c r="AU104" s="16" t="n">
-        <v>582664</v>
+        <v>672378</v>
       </c>
       <c r="AV104" s="16" t="n">
-        <v>672378</v>
+        <v>657821</v>
       </c>
       <c r="AW104" s="16" t="n">
-        <v>657821</v>
+        <v>706212</v>
       </c>
       <c r="AX104" s="16" t="n">
-        <v>706212</v>
+        <v>967029</v>
       </c>
       <c r="AY104" s="16" t="n">
-        <v>967029</v>
+        <v>833848</v>
       </c>
       <c r="AZ104" s="16" t="n">
-        <v>833848</v>
+        <v>780697</v>
       </c>
       <c r="BA104" s="16" t="n">
-        <v>780697</v>
+        <v>697299</v>
       </c>
       <c r="BB104" s="16" t="n">
-        <v>697299</v>
+        <v>684214</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15666,107 +15666,107 @@
       <c r="T105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V105" s="13" t="n">
+      <c r="U105" s="13" t="n">
         <v>1079832</v>
       </c>
-      <c r="W105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="13" t="n">
+      <c r="V105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W105" s="13" t="n">
         <v>810000</v>
       </c>
-      <c r="Y105" s="13" t="s">
-        <v>58</v>
+      <c r="X105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y105" s="13" t="n">
+        <v>1176471</v>
       </c>
       <c r="Z105" s="13" t="n">
-        <v>1176471</v>
+        <v>1424333</v>
       </c>
       <c r="AA105" s="13" t="n">
-        <v>1424333</v>
+        <v>1040000</v>
       </c>
       <c r="AB105" s="13" t="n">
-        <v>1040000</v>
+        <v>1170093</v>
       </c>
       <c r="AC105" s="13" t="n">
-        <v>1170093</v>
+        <v>1164179</v>
       </c>
       <c r="AD105" s="13" t="n">
-        <v>1164179</v>
-      </c>
-      <c r="AE105" s="13" t="n">
         <v>1045511</v>
       </c>
-      <c r="AF105" s="13" t="s">
-        <v>58</v>
+      <c r="AE105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF105" s="13" t="n">
+        <v>1040863</v>
       </c>
       <c r="AG105" s="13" t="n">
-        <v>1040863</v>
-      </c>
-      <c r="AH105" s="13" t="n">
         <v>1383348</v>
       </c>
-      <c r="AI105" s="13" t="s">
-        <v>58</v>
+      <c r="AH105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI105" s="13" t="n">
+        <v>1855212</v>
       </c>
       <c r="AJ105" s="13" t="n">
-        <v>1855212</v>
+        <v>2088358</v>
       </c>
       <c r="AK105" s="13" t="n">
-        <v>2088358</v>
+        <v>1818582</v>
       </c>
       <c r="AL105" s="13" t="n">
-        <v>1818582</v>
+        <v>1043887</v>
       </c>
       <c r="AM105" s="13" t="n">
-        <v>1043887</v>
+        <v>1936782</v>
       </c>
       <c r="AN105" s="13" t="n">
-        <v>1936782</v>
+        <v>1838559</v>
       </c>
       <c r="AO105" s="13" t="n">
-        <v>1838559</v>
-      </c>
-      <c r="AP105" s="13" t="n">
         <v>1781399</v>
       </c>
+      <c r="AP105" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR105" s="13" t="s">
-        <v>58</v>
+      <c r="AR105" s="13" t="n">
+        <v>2061695</v>
       </c>
       <c r="AS105" s="13" t="n">
-        <v>2061695</v>
+        <v>2180475</v>
       </c>
       <c r="AT105" s="13" t="n">
-        <v>2180475</v>
+        <v>2012522</v>
       </c>
       <c r="AU105" s="13" t="n">
-        <v>2012522</v>
+        <v>1935194</v>
       </c>
       <c r="AV105" s="13" t="n">
-        <v>1935194</v>
+        <v>1948145</v>
       </c>
       <c r="AW105" s="13" t="n">
-        <v>1948145</v>
+        <v>1799390</v>
       </c>
       <c r="AX105" s="13" t="n">
-        <v>1799390</v>
+        <v>2215831</v>
       </c>
       <c r="AY105" s="13" t="n">
-        <v>2215831</v>
+        <v>2189169</v>
       </c>
       <c r="AZ105" s="13" t="n">
-        <v>2189169</v>
+        <v>2190118</v>
       </c>
       <c r="BA105" s="13" t="n">
-        <v>2190118</v>
+        <v>2130617</v>
       </c>
       <c r="BB105" s="13" t="n">
-        <v>2103651</v>
+        <v>1911775</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15885,47 +15885,47 @@
       <c r="AN106" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO106" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP106" s="16" t="n">
+      <c r="AO106" s="16" t="n">
         <v>832613</v>
       </c>
+      <c r="AP106" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ106" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="16" t="s">
-        <v>58</v>
+      <c r="AR106" s="16" t="n">
+        <v>731146</v>
       </c>
       <c r="AS106" s="16" t="n">
-        <v>731146</v>
+        <v>881480</v>
       </c>
       <c r="AT106" s="16" t="n">
-        <v>881480</v>
+        <v>876338</v>
       </c>
       <c r="AU106" s="16" t="n">
-        <v>876338</v>
+        <v>746478</v>
       </c>
       <c r="AV106" s="16" t="n">
-        <v>746478</v>
+        <v>798444</v>
       </c>
       <c r="AW106" s="16" t="n">
-        <v>798444</v>
+        <v>717837</v>
       </c>
       <c r="AX106" s="16" t="n">
-        <v>717837</v>
+        <v>860246</v>
       </c>
       <c r="AY106" s="16" t="n">
-        <v>860246</v>
+        <v>818905</v>
       </c>
       <c r="AZ106" s="16" t="n">
-        <v>818905</v>
+        <v>955968</v>
       </c>
       <c r="BA106" s="16" t="n">
-        <v>955968</v>
+        <v>940014</v>
       </c>
       <c r="BB106" s="16" t="n">
-        <v>940014</v>
+        <v>874804</v>
       </c>
     </row>
   </sheetData>
